--- a/BackTest/2019-10-30 BackTest MITH.xlsx
+++ b/BackTest/2019-10-30 BackTest MITH.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M167"/>
+  <dimension ref="A1:M168"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -445,10 +445,10 @@
         <v>15.6</v>
       </c>
       <c r="F2" t="n">
-        <v>16846.7292</v>
+        <v>17569.7791</v>
       </c>
       <c r="G2" t="n">
-        <v>15.53500000000001</v>
+        <v>15.515</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -480,10 +480,10 @@
         <v>15.6</v>
       </c>
       <c r="F3" t="n">
-        <v>1923.0769</v>
+        <v>16846.7292</v>
       </c>
       <c r="G3" t="n">
-        <v>15.54500000000001</v>
+        <v>15.51833333333334</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -515,10 +515,10 @@
         <v>15.6</v>
       </c>
       <c r="F4" t="n">
-        <v>14812.2828</v>
+        <v>1923.0769</v>
       </c>
       <c r="G4" t="n">
-        <v>15.55500000000001</v>
+        <v>15.52166666666667</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -550,10 +550,10 @@
         <v>15.6</v>
       </c>
       <c r="F5" t="n">
-        <v>121085.153</v>
+        <v>14812.2828</v>
       </c>
       <c r="G5" t="n">
-        <v>15.56500000000001</v>
+        <v>15.52500000000001</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -573,22 +573,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="C6" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="D6" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="E6" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="F6" t="n">
-        <v>142610.3224</v>
+        <v>121085.153</v>
       </c>
       <c r="G6" t="n">
-        <v>15.57000000000001</v>
+        <v>15.52500000000001</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -611,19 +611,19 @@
         <v>15.5</v>
       </c>
       <c r="C7" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="D7" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="E7" t="n">
         <v>15.5</v>
       </c>
       <c r="F7" t="n">
-        <v>30200</v>
+        <v>142610.3224</v>
       </c>
       <c r="G7" t="n">
-        <v>15.57000000000001</v>
+        <v>15.52666666666667</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -643,22 +643,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="C8" t="n">
-        <v>15.4</v>
+        <v>15.6</v>
       </c>
       <c r="D8" t="n">
-        <v>15.4</v>
+        <v>15.6</v>
       </c>
       <c r="E8" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="F8" t="n">
-        <v>50095.5629</v>
+        <v>30200</v>
       </c>
       <c r="G8" t="n">
-        <v>15.56500000000001</v>
+        <v>15.53000000000001</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -690,10 +690,10 @@
         <v>15.4</v>
       </c>
       <c r="F9" t="n">
-        <v>3787.176</v>
+        <v>50095.5629</v>
       </c>
       <c r="G9" t="n">
-        <v>15.56000000000001</v>
+        <v>15.52666666666667</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -725,10 +725,10 @@
         <v>15.4</v>
       </c>
       <c r="F10" t="n">
-        <v>2000</v>
+        <v>3787.176</v>
       </c>
       <c r="G10" t="n">
-        <v>15.55500000000001</v>
+        <v>15.52666666666667</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -760,10 +760,10 @@
         <v>15.4</v>
       </c>
       <c r="F11" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="G11" t="n">
-        <v>15.55000000000001</v>
+        <v>15.52666666666667</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -798,7 +798,7 @@
         <v>3000</v>
       </c>
       <c r="G12" t="n">
-        <v>15.54000000000001</v>
+        <v>15.52666666666667</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -830,10 +830,10 @@
         <v>15.4</v>
       </c>
       <c r="F13" t="n">
-        <v>13.3</v>
+        <v>3000</v>
       </c>
       <c r="G13" t="n">
-        <v>15.53</v>
+        <v>15.52666666666667</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -853,22 +853,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>15.5</v>
+        <v>15.4</v>
       </c>
       <c r="C14" t="n">
         <v>15.4</v>
       </c>
       <c r="D14" t="n">
-        <v>15.5</v>
+        <v>15.4</v>
       </c>
       <c r="E14" t="n">
         <v>15.4</v>
       </c>
       <c r="F14" t="n">
-        <v>64958.42</v>
+        <v>13.3</v>
       </c>
       <c r="G14" t="n">
-        <v>15.525</v>
+        <v>15.52333333333334</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>15.5</v>
       </c>
       <c r="C15" t="n">
-        <v>15.5</v>
+        <v>15.4</v>
       </c>
       <c r="D15" t="n">
         <v>15.5</v>
       </c>
       <c r="E15" t="n">
-        <v>15.5</v>
+        <v>15.4</v>
       </c>
       <c r="F15" t="n">
-        <v>129.8064</v>
+        <v>64958.42</v>
       </c>
       <c r="G15" t="n">
-        <v>15.52</v>
+        <v>15.52333333333334</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -923,22 +923,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="C16" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="D16" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="E16" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="F16" t="n">
-        <v>19900</v>
+        <v>129.8064</v>
       </c>
       <c r="G16" t="n">
-        <v>15.51</v>
+        <v>15.52500000000001</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -964,16 +964,16 @@
         <v>15.4</v>
       </c>
       <c r="D17" t="n">
-        <v>15.5</v>
+        <v>15.4</v>
       </c>
       <c r="E17" t="n">
         <v>15.4</v>
       </c>
       <c r="F17" t="n">
-        <v>17580</v>
+        <v>19900</v>
       </c>
       <c r="G17" t="n">
-        <v>15.5</v>
+        <v>15.52166666666667</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -993,22 +993,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>15.5</v>
+        <v>15.4</v>
       </c>
       <c r="C18" t="n">
-        <v>15.5</v>
+        <v>15.4</v>
       </c>
       <c r="D18" t="n">
         <v>15.5</v>
       </c>
       <c r="E18" t="n">
-        <v>15.5</v>
+        <v>15.4</v>
       </c>
       <c r="F18" t="n">
-        <v>9000</v>
+        <v>17580</v>
       </c>
       <c r="G18" t="n">
-        <v>15.495</v>
+        <v>15.51833333333334</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1028,22 +1028,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="C19" t="n">
-        <v>15.3</v>
+        <v>15.5</v>
       </c>
       <c r="D19" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="E19" t="n">
-        <v>15.3</v>
+        <v>15.5</v>
       </c>
       <c r="F19" t="n">
-        <v>50000</v>
+        <v>9000</v>
       </c>
       <c r="G19" t="n">
-        <v>15.48499999999999</v>
+        <v>15.52166666666667</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1063,22 +1063,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>15.3</v>
+        <v>15.4</v>
       </c>
       <c r="C20" t="n">
         <v>15.3</v>
       </c>
       <c r="D20" t="n">
-        <v>15.3</v>
+        <v>15.4</v>
       </c>
       <c r="E20" t="n">
         <v>15.3</v>
       </c>
       <c r="F20" t="n">
-        <v>50455.045</v>
+        <v>50000</v>
       </c>
       <c r="G20" t="n">
-        <v>15.46999999999999</v>
+        <v>15.52</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1110,10 +1110,10 @@
         <v>15.3</v>
       </c>
       <c r="F21" t="n">
-        <v>18048.6925</v>
+        <v>50455.045</v>
       </c>
       <c r="G21" t="n">
-        <v>15.45499999999999</v>
+        <v>15.51666666666667</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1133,31 +1133,35 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>15.4</v>
+        <v>15.3</v>
       </c>
       <c r="C22" t="n">
-        <v>15.6</v>
+        <v>15.3</v>
       </c>
       <c r="D22" t="n">
-        <v>15.6</v>
+        <v>15.3</v>
       </c>
       <c r="E22" t="n">
-        <v>15.4</v>
+        <v>15.3</v>
       </c>
       <c r="F22" t="n">
-        <v>103765</v>
+        <v>18048.6925</v>
       </c>
       <c r="G22" t="n">
-        <v>15.44499999999999</v>
+        <v>15.51333333333334</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="K22" t="n">
+        <v>15.3</v>
+      </c>
       <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
         <v>1</v>
@@ -1168,7 +1172,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>15.6</v>
+        <v>15.4</v>
       </c>
       <c r="C23" t="n">
         <v>15.6</v>
@@ -1177,23 +1181,31 @@
         <v>15.6</v>
       </c>
       <c r="E23" t="n">
-        <v>15.6</v>
+        <v>15.4</v>
       </c>
       <c r="F23" t="n">
-        <v>4723.5256</v>
+        <v>103765</v>
       </c>
       <c r="G23" t="n">
-        <v>15.44499999999999</v>
+        <v>15.51333333333334</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="K23" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1206,29 +1218,37 @@
         <v>15.6</v>
       </c>
       <c r="C24" t="n">
-        <v>15.7</v>
+        <v>15.6</v>
       </c>
       <c r="D24" t="n">
-        <v>15.7</v>
+        <v>15.6</v>
       </c>
       <c r="E24" t="n">
         <v>15.6</v>
       </c>
       <c r="F24" t="n">
-        <v>106213.423</v>
+        <v>4723.5256</v>
       </c>
       <c r="G24" t="n">
-        <v>15.44499999999999</v>
+        <v>15.515</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="K24" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1238,22 +1258,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>15.8</v>
+        <v>15.6</v>
       </c>
       <c r="C25" t="n">
         <v>15.7</v>
       </c>
       <c r="D25" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="E25" t="n">
-        <v>15.7</v>
+        <v>15.6</v>
       </c>
       <c r="F25" t="n">
-        <v>76460.67260000001</v>
+        <v>106213.423</v>
       </c>
       <c r="G25" t="n">
-        <v>15.45499999999999</v>
+        <v>15.51666666666667</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1276,19 +1296,19 @@
         <v>15.8</v>
       </c>
       <c r="C26" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="D26" t="n">
         <v>15.8</v>
       </c>
       <c r="E26" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="F26" t="n">
-        <v>12</v>
+        <v>76460.67260000001</v>
       </c>
       <c r="G26" t="n">
-        <v>15.46999999999999</v>
+        <v>15.52</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1311,19 +1331,19 @@
         <v>15.8</v>
       </c>
       <c r="C27" t="n">
-        <v>16</v>
+        <v>15.8</v>
       </c>
       <c r="D27" t="n">
-        <v>16</v>
+        <v>15.8</v>
       </c>
       <c r="E27" t="n">
         <v>15.8</v>
       </c>
       <c r="F27" t="n">
-        <v>674936.5318999999</v>
+        <v>12</v>
       </c>
       <c r="G27" t="n">
-        <v>15.48499999999999</v>
+        <v>15.52666666666667</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1343,7 +1363,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>16</v>
+        <v>15.8</v>
       </c>
       <c r="C28" t="n">
         <v>16</v>
@@ -1352,13 +1372,13 @@
         <v>16</v>
       </c>
       <c r="E28" t="n">
-        <v>16</v>
+        <v>15.8</v>
       </c>
       <c r="F28" t="n">
-        <v>17000</v>
+        <v>674936.5318999999</v>
       </c>
       <c r="G28" t="n">
-        <v>15.51499999999999</v>
+        <v>15.535</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1390,10 +1410,10 @@
         <v>16</v>
       </c>
       <c r="F29" t="n">
-        <v>375348.2181</v>
+        <v>17000</v>
       </c>
       <c r="G29" t="n">
-        <v>15.54499999999999</v>
+        <v>15.54166666666667</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1416,19 +1436,19 @@
         <v>16</v>
       </c>
       <c r="C30" t="n">
-        <v>16.3</v>
+        <v>16</v>
       </c>
       <c r="D30" t="n">
-        <v>16.3</v>
+        <v>16</v>
       </c>
       <c r="E30" t="n">
         <v>16</v>
       </c>
       <c r="F30" t="n">
-        <v>391432.9816</v>
+        <v>375348.2181</v>
       </c>
       <c r="G30" t="n">
-        <v>15.57499999999999</v>
+        <v>15.54833333333334</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1448,22 +1468,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>16.4</v>
+        <v>16</v>
       </c>
       <c r="C31" t="n">
-        <v>16.8</v>
+        <v>16.3</v>
       </c>
       <c r="D31" t="n">
-        <v>17</v>
+        <v>16.3</v>
       </c>
       <c r="E31" t="n">
-        <v>16.4</v>
+        <v>16</v>
       </c>
       <c r="F31" t="n">
-        <v>2028317.3298</v>
+        <v>391432.9816</v>
       </c>
       <c r="G31" t="n">
-        <v>15.62499999999999</v>
+        <v>15.55833333333334</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1483,22 +1503,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="C32" t="n">
         <v>16.8</v>
-      </c>
-      <c r="C32" t="n">
-        <v>16.2</v>
       </c>
       <c r="D32" t="n">
         <v>17</v>
       </c>
       <c r="E32" t="n">
-        <v>15.8</v>
+        <v>16.4</v>
       </c>
       <c r="F32" t="n">
-        <v>539385.0269000001</v>
+        <v>2028317.3298</v>
       </c>
       <c r="G32" t="n">
-        <v>15.695</v>
+        <v>15.57833333333333</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1518,22 +1538,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>15.9</v>
+        <v>16.8</v>
       </c>
       <c r="C33" t="n">
-        <v>16</v>
+        <v>16.2</v>
       </c>
       <c r="D33" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E33" t="n">
-        <v>15.9</v>
+        <v>15.8</v>
       </c>
       <c r="F33" t="n">
-        <v>171770.1687</v>
+        <v>539385.0269000001</v>
       </c>
       <c r="G33" t="n">
-        <v>15.72</v>
+        <v>15.58833333333333</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1553,22 +1573,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>16.1</v>
+        <v>15.9</v>
       </c>
       <c r="C34" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="D34" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="E34" t="n">
-        <v>16.1</v>
+        <v>15.9</v>
       </c>
       <c r="F34" t="n">
-        <v>3538</v>
+        <v>171770.1687</v>
       </c>
       <c r="G34" t="n">
-        <v>15.75</v>
+        <v>15.59666666666667</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1588,22 +1608,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>16.3</v>
+        <v>16.1</v>
       </c>
       <c r="C35" t="n">
-        <v>16.3</v>
+        <v>16.1</v>
       </c>
       <c r="D35" t="n">
-        <v>16.3</v>
+        <v>16.1</v>
       </c>
       <c r="E35" t="n">
-        <v>16.3</v>
+        <v>16.1</v>
       </c>
       <c r="F35" t="n">
-        <v>10</v>
+        <v>3538</v>
       </c>
       <c r="G35" t="n">
-        <v>15.79</v>
+        <v>15.605</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1623,22 +1643,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>16.1</v>
+        <v>16.3</v>
       </c>
       <c r="C36" t="n">
-        <v>16.1</v>
+        <v>16.3</v>
       </c>
       <c r="D36" t="n">
-        <v>16.1</v>
+        <v>16.3</v>
       </c>
       <c r="E36" t="n">
-        <v>16.1</v>
+        <v>16.3</v>
       </c>
       <c r="F36" t="n">
-        <v>8026.519</v>
+        <v>10</v>
       </c>
       <c r="G36" t="n">
-        <v>15.825</v>
+        <v>15.61666666666667</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1661,19 +1681,19 @@
         <v>16.1</v>
       </c>
       <c r="C37" t="n">
-        <v>16</v>
+        <v>16.1</v>
       </c>
       <c r="D37" t="n">
         <v>16.1</v>
       </c>
       <c r="E37" t="n">
-        <v>16</v>
+        <v>16.1</v>
       </c>
       <c r="F37" t="n">
-        <v>29871.9021</v>
+        <v>8026.519</v>
       </c>
       <c r="G37" t="n">
-        <v>15.86</v>
+        <v>15.62666666666667</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1693,22 +1713,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>15.9</v>
+        <v>16.1</v>
       </c>
       <c r="C38" t="n">
-        <v>15.9</v>
+        <v>16</v>
       </c>
       <c r="D38" t="n">
-        <v>15.9</v>
+        <v>16.1</v>
       </c>
       <c r="E38" t="n">
-        <v>15.9</v>
+        <v>16</v>
       </c>
       <c r="F38" t="n">
-        <v>131787.1553</v>
+        <v>29871.9021</v>
       </c>
       <c r="G38" t="n">
-        <v>15.88</v>
+        <v>15.63333333333333</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1728,22 +1748,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="C39" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="D39" t="n">
         <v>15.9</v>
       </c>
       <c r="E39" t="n">
-        <v>15.7</v>
+        <v>15.9</v>
       </c>
       <c r="F39" t="n">
-        <v>221906.5324</v>
+        <v>131787.1553</v>
       </c>
       <c r="G39" t="n">
-        <v>15.9</v>
+        <v>15.63833333333333</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1763,22 +1783,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="C40" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="D40" t="n">
-        <v>15.7</v>
+        <v>15.9</v>
       </c>
       <c r="E40" t="n">
         <v>15.7</v>
       </c>
       <c r="F40" t="n">
-        <v>106354.1743</v>
+        <v>221906.5324</v>
       </c>
       <c r="G40" t="n">
-        <v>15.92</v>
+        <v>15.64166666666666</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1810,10 +1830,10 @@
         <v>15.7</v>
       </c>
       <c r="F41" t="n">
-        <v>38000</v>
+        <v>106354.1743</v>
       </c>
       <c r="G41" t="n">
-        <v>15.94</v>
+        <v>15.64833333333333</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1833,22 +1853,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="C42" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="D42" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="E42" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="F42" t="n">
-        <v>88801.72629999999</v>
+        <v>38000</v>
       </c>
       <c r="G42" t="n">
-        <v>15.96</v>
+        <v>15.65166666666667</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1871,19 +1891,19 @@
         <v>15.8</v>
       </c>
       <c r="C43" t="n">
-        <v>15.9</v>
+        <v>15.8</v>
       </c>
       <c r="D43" t="n">
-        <v>15.9</v>
+        <v>15.8</v>
       </c>
       <c r="E43" t="n">
         <v>15.8</v>
       </c>
       <c r="F43" t="n">
-        <v>530</v>
+        <v>88801.72629999999</v>
       </c>
       <c r="G43" t="n">
-        <v>15.97</v>
+        <v>15.65666666666667</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1903,7 +1923,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>15.9</v>
+        <v>15.8</v>
       </c>
       <c r="C44" t="n">
         <v>15.9</v>
@@ -1912,13 +1932,13 @@
         <v>15.9</v>
       </c>
       <c r="E44" t="n">
-        <v>15.9</v>
+        <v>15.8</v>
       </c>
       <c r="F44" t="n">
-        <v>206225.7099</v>
+        <v>530</v>
       </c>
       <c r="G44" t="n">
-        <v>15.985</v>
+        <v>15.665</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1938,22 +1958,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>16</v>
+        <v>15.9</v>
       </c>
       <c r="C45" t="n">
-        <v>16.1</v>
+        <v>15.9</v>
       </c>
       <c r="D45" t="n">
-        <v>16.1</v>
+        <v>15.9</v>
       </c>
       <c r="E45" t="n">
-        <v>16</v>
+        <v>15.9</v>
       </c>
       <c r="F45" t="n">
-        <v>109254.9195</v>
+        <v>206225.7099</v>
       </c>
       <c r="G45" t="n">
-        <v>15.995</v>
+        <v>15.67333333333333</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1973,7 +1993,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="C46" t="n">
         <v>16.1</v>
@@ -1982,13 +2002,13 @@
         <v>16.1</v>
       </c>
       <c r="E46" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="F46" t="n">
-        <v>5110.4968</v>
+        <v>109254.9195</v>
       </c>
       <c r="G46" t="n">
-        <v>16.01</v>
+        <v>15.685</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2008,7 +2028,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>16</v>
+        <v>16.1</v>
       </c>
       <c r="C47" t="n">
         <v>16.1</v>
@@ -2017,13 +2037,13 @@
         <v>16.1</v>
       </c>
       <c r="E47" t="n">
-        <v>16</v>
+        <v>16.1</v>
       </c>
       <c r="F47" t="n">
-        <v>21322.6898</v>
+        <v>5110.4968</v>
       </c>
       <c r="G47" t="n">
-        <v>16.02</v>
+        <v>15.695</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2043,22 +2063,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>15.9</v>
+        <v>16</v>
       </c>
       <c r="C48" t="n">
-        <v>15.9</v>
+        <v>16.1</v>
       </c>
       <c r="D48" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="E48" t="n">
         <v>16</v>
       </c>
-      <c r="E48" t="n">
-        <v>15.9</v>
-      </c>
       <c r="F48" t="n">
-        <v>116772.1318</v>
+        <v>21322.6898</v>
       </c>
       <c r="G48" t="n">
-        <v>16.015</v>
+        <v>15.705</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2081,19 +2101,19 @@
         <v>15.9</v>
       </c>
       <c r="C49" t="n">
-        <v>16</v>
+        <v>15.9</v>
       </c>
       <c r="D49" t="n">
         <v>16</v>
       </c>
       <c r="E49" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="F49" t="n">
-        <v>356884.3608</v>
+        <v>116772.1318</v>
       </c>
       <c r="G49" t="n">
-        <v>16.01</v>
+        <v>15.71166666666667</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2113,22 +2133,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="C50" t="n">
         <v>16</v>
       </c>
-      <c r="C50" t="n">
-        <v>16.1</v>
-      </c>
       <c r="D50" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="E50" t="n">
-        <v>16</v>
+        <v>15.8</v>
       </c>
       <c r="F50" t="n">
-        <v>253200</v>
+        <v>356884.3608</v>
       </c>
       <c r="G50" t="n">
-        <v>16.01</v>
+        <v>15.72</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2148,7 +2168,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="C51" t="n">
         <v>16.1</v>
@@ -2157,13 +2177,13 @@
         <v>16.1</v>
       </c>
       <c r="E51" t="n">
-        <v>15.9</v>
+        <v>16</v>
       </c>
       <c r="F51" t="n">
-        <v>80223.6024</v>
+        <v>253200</v>
       </c>
       <c r="G51" t="n">
-        <v>15.995</v>
+        <v>15.73</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2192,13 +2212,13 @@
         <v>16.1</v>
       </c>
       <c r="E52" t="n">
-        <v>16.1</v>
+        <v>15.9</v>
       </c>
       <c r="F52" t="n">
-        <v>41517.2049</v>
+        <v>80223.6024</v>
       </c>
       <c r="G52" t="n">
-        <v>15.96</v>
+        <v>15.73833333333334</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2230,10 +2250,10 @@
         <v>16.1</v>
       </c>
       <c r="F53" t="n">
-        <v>648.944</v>
+        <v>41517.2049</v>
       </c>
       <c r="G53" t="n">
-        <v>15.97</v>
+        <v>15.74666666666667</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2265,10 +2285,10 @@
         <v>16.1</v>
       </c>
       <c r="F54" t="n">
-        <v>7763.9751</v>
+        <v>648.944</v>
       </c>
       <c r="G54" t="n">
-        <v>15.97</v>
+        <v>15.755</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2288,22 +2308,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>16</v>
+        <v>16.1</v>
       </c>
       <c r="C55" t="n">
-        <v>16</v>
+        <v>16.1</v>
       </c>
       <c r="D55" t="n">
-        <v>16</v>
+        <v>16.1</v>
       </c>
       <c r="E55" t="n">
-        <v>16</v>
+        <v>16.1</v>
       </c>
       <c r="F55" t="n">
-        <v>2226.5625</v>
+        <v>7763.9751</v>
       </c>
       <c r="G55" t="n">
-        <v>15.955</v>
+        <v>15.76333333333333</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2335,10 +2355,10 @@
         <v>16</v>
       </c>
       <c r="F56" t="n">
-        <v>7947.9433</v>
+        <v>2226.5625</v>
       </c>
       <c r="G56" t="n">
-        <v>15.95</v>
+        <v>15.77</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2358,22 +2378,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="C57" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="D57" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="E57" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="F57" t="n">
-        <v>6638.1987</v>
+        <v>7947.9433</v>
       </c>
       <c r="G57" t="n">
-        <v>15.95</v>
+        <v>15.77666666666667</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2396,19 +2416,19 @@
         <v>16.1</v>
       </c>
       <c r="C58" t="n">
-        <v>16.2</v>
+        <v>16.1</v>
       </c>
       <c r="D58" t="n">
-        <v>16.2</v>
+        <v>16.1</v>
       </c>
       <c r="E58" t="n">
         <v>16.1</v>
       </c>
       <c r="F58" t="n">
-        <v>40610</v>
+        <v>6638.1987</v>
       </c>
       <c r="G58" t="n">
-        <v>15.96</v>
+        <v>15.785</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2428,22 +2448,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>16</v>
+        <v>16.1</v>
       </c>
       <c r="C59" t="n">
-        <v>15.9</v>
+        <v>16.2</v>
       </c>
       <c r="D59" t="n">
-        <v>16</v>
+        <v>16.2</v>
       </c>
       <c r="E59" t="n">
-        <v>15.9</v>
+        <v>16.1</v>
       </c>
       <c r="F59" t="n">
-        <v>50088.0684</v>
+        <v>40610</v>
       </c>
       <c r="G59" t="n">
-        <v>15.97</v>
+        <v>15.795</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2463,22 +2483,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="C60" t="n">
-        <v>16.1</v>
+        <v>15.9</v>
       </c>
       <c r="D60" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="E60" t="n">
-        <v>16.1</v>
+        <v>15.9</v>
       </c>
       <c r="F60" t="n">
-        <v>10</v>
+        <v>50088.0684</v>
       </c>
       <c r="G60" t="n">
-        <v>15.99</v>
+        <v>15.8</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2510,10 +2530,10 @@
         <v>16.1</v>
       </c>
       <c r="F61" t="n">
-        <v>3838.6956</v>
+        <v>10</v>
       </c>
       <c r="G61" t="n">
-        <v>16.01000000000001</v>
+        <v>15.80833333333333</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2545,10 +2565,10 @@
         <v>16.1</v>
       </c>
       <c r="F62" t="n">
-        <v>41390.6926</v>
+        <v>3838.6956</v>
       </c>
       <c r="G62" t="n">
-        <v>16.02500000000001</v>
+        <v>15.81666666666667</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2568,22 +2588,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>16.2</v>
+        <v>16.1</v>
       </c>
       <c r="C63" t="n">
-        <v>16.2</v>
+        <v>16.1</v>
       </c>
       <c r="D63" t="n">
-        <v>16.2</v>
+        <v>16.1</v>
       </c>
       <c r="E63" t="n">
-        <v>16.2</v>
+        <v>16.1</v>
       </c>
       <c r="F63" t="n">
-        <v>30.8024</v>
+        <v>41390.6926</v>
       </c>
       <c r="G63" t="n">
-        <v>16.04500000000001</v>
+        <v>15.825</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2603,22 +2623,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>16.1</v>
+        <v>16.2</v>
       </c>
       <c r="C64" t="n">
-        <v>16</v>
+        <v>16.2</v>
       </c>
       <c r="D64" t="n">
-        <v>16.1</v>
+        <v>16.2</v>
       </c>
       <c r="E64" t="n">
-        <v>16</v>
+        <v>16.2</v>
       </c>
       <c r="F64" t="n">
-        <v>12768.348</v>
+        <v>30.8024</v>
       </c>
       <c r="G64" t="n">
-        <v>16.05500000000001</v>
+        <v>15.835</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2638,22 +2658,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>16.2</v>
+        <v>16.1</v>
       </c>
       <c r="C65" t="n">
         <v>16</v>
       </c>
       <c r="D65" t="n">
-        <v>16.2</v>
+        <v>16.1</v>
       </c>
       <c r="E65" t="n">
         <v>16</v>
       </c>
       <c r="F65" t="n">
-        <v>2740.923</v>
+        <v>12768.348</v>
       </c>
       <c r="G65" t="n">
-        <v>16.065</v>
+        <v>15.84166666666667</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2673,22 +2693,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>16.1</v>
+        <v>16.2</v>
       </c>
       <c r="C66" t="n">
         <v>16</v>
       </c>
       <c r="D66" t="n">
-        <v>16.1</v>
+        <v>16.2</v>
       </c>
       <c r="E66" t="n">
         <v>16</v>
       </c>
       <c r="F66" t="n">
-        <v>30210</v>
+        <v>2740.923</v>
       </c>
       <c r="G66" t="n">
-        <v>16.065</v>
+        <v>15.84833333333333</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2708,22 +2728,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="C67" t="n">
         <v>16</v>
       </c>
-      <c r="C67" t="n">
-        <v>16.1</v>
-      </c>
       <c r="D67" t="n">
         <v>16.1</v>
       </c>
       <c r="E67" t="n">
-        <v>15.9</v>
+        <v>16</v>
       </c>
       <c r="F67" t="n">
-        <v>40010</v>
+        <v>30210</v>
       </c>
       <c r="G67" t="n">
-        <v>16.065</v>
+        <v>15.85666666666667</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2746,19 +2766,19 @@
         <v>16</v>
       </c>
       <c r="C68" t="n">
-        <v>16</v>
+        <v>16.1</v>
       </c>
       <c r="D68" t="n">
-        <v>16</v>
+        <v>16.1</v>
       </c>
       <c r="E68" t="n">
-        <v>16</v>
+        <v>15.9</v>
       </c>
       <c r="F68" t="n">
-        <v>2251.128</v>
+        <v>40010</v>
       </c>
       <c r="G68" t="n">
-        <v>16.07000000000001</v>
+        <v>15.865</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2778,22 +2798,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="C69" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="D69" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="E69" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="F69" t="n">
-        <v>10</v>
+        <v>2251.128</v>
       </c>
       <c r="G69" t="n">
-        <v>16.08000000000001</v>
+        <v>15.875</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2813,7 +2833,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>15.9</v>
+        <v>16.1</v>
       </c>
       <c r="C70" t="n">
         <v>16.1</v>
@@ -2822,13 +2842,13 @@
         <v>16.1</v>
       </c>
       <c r="E70" t="n">
-        <v>15.9</v>
+        <v>16.1</v>
       </c>
       <c r="F70" t="n">
-        <v>77101.53810000001</v>
+        <v>10</v>
       </c>
       <c r="G70" t="n">
-        <v>16.07500000000001</v>
+        <v>15.88666666666667</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2848,7 +2868,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>16</v>
+        <v>15.9</v>
       </c>
       <c r="C71" t="n">
         <v>16.1</v>
@@ -2857,13 +2877,13 @@
         <v>16.1</v>
       </c>
       <c r="E71" t="n">
-        <v>16</v>
+        <v>15.9</v>
       </c>
       <c r="F71" t="n">
-        <v>49596.8612</v>
+        <v>77101.53810000001</v>
       </c>
       <c r="G71" t="n">
-        <v>16.07000000000001</v>
+        <v>15.89833333333334</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2886,19 +2906,19 @@
         <v>16</v>
       </c>
       <c r="C72" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="D72" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="E72" t="n">
         <v>16</v>
       </c>
-      <c r="D72" t="n">
-        <v>16</v>
-      </c>
-      <c r="E72" t="n">
-        <v>15.9</v>
-      </c>
       <c r="F72" t="n">
-        <v>80963.3368</v>
+        <v>49596.8612</v>
       </c>
       <c r="G72" t="n">
-        <v>16.065</v>
+        <v>15.91</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2918,22 +2938,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>15.9</v>
+        <v>16</v>
       </c>
       <c r="C73" t="n">
-        <v>15.9</v>
+        <v>16</v>
       </c>
       <c r="D73" t="n">
-        <v>15.9</v>
+        <v>16</v>
       </c>
       <c r="E73" t="n">
         <v>15.9</v>
       </c>
       <c r="F73" t="n">
-        <v>17.1698</v>
+        <v>80963.3368</v>
       </c>
       <c r="G73" t="n">
-        <v>16.055</v>
+        <v>15.92</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2953,22 +2973,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="C74" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="D74" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="E74" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="F74" t="n">
-        <v>45936.3924</v>
+        <v>17.1698</v>
       </c>
       <c r="G74" t="n">
-        <v>16.04</v>
+        <v>15.92833333333334</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -2991,19 +3011,19 @@
         <v>15.8</v>
       </c>
       <c r="C75" t="n">
-        <v>15.9</v>
+        <v>15.8</v>
       </c>
       <c r="D75" t="n">
-        <v>15.9</v>
+        <v>15.8</v>
       </c>
       <c r="E75" t="n">
         <v>15.8</v>
       </c>
       <c r="F75" t="n">
-        <v>8385.5065</v>
+        <v>45936.3924</v>
       </c>
       <c r="G75" t="n">
-        <v>16.03</v>
+        <v>15.935</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3023,10 +3043,10 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="C76" t="n">
         <v>15.9</v>
-      </c>
-      <c r="C76" t="n">
-        <v>15.8</v>
       </c>
       <c r="D76" t="n">
         <v>15.9</v>
@@ -3035,10 +3055,10 @@
         <v>15.8</v>
       </c>
       <c r="F76" t="n">
-        <v>19234.8023</v>
+        <v>8385.5065</v>
       </c>
       <c r="G76" t="n">
-        <v>16.025</v>
+        <v>15.94166666666667</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3058,22 +3078,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>16</v>
+        <v>15.9</v>
       </c>
       <c r="C77" t="n">
-        <v>16</v>
+        <v>15.8</v>
       </c>
       <c r="D77" t="n">
-        <v>16</v>
+        <v>15.9</v>
       </c>
       <c r="E77" t="n">
-        <v>16</v>
+        <v>15.8</v>
       </c>
       <c r="F77" t="n">
-        <v>10</v>
+        <v>19234.8023</v>
       </c>
       <c r="G77" t="n">
-        <v>16.02</v>
+        <v>15.94833333333333</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3093,22 +3113,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>15.9</v>
+        <v>16</v>
       </c>
       <c r="C78" t="n">
-        <v>15.8</v>
+        <v>16</v>
       </c>
       <c r="D78" t="n">
-        <v>15.9</v>
+        <v>16</v>
       </c>
       <c r="E78" t="n">
-        <v>15.8</v>
+        <v>16</v>
       </c>
       <c r="F78" t="n">
-        <v>360294.6675</v>
+        <v>10</v>
       </c>
       <c r="G78" t="n">
-        <v>16.01</v>
+        <v>15.95833333333334</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3128,22 +3148,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>15.7</v>
+        <v>15.9</v>
       </c>
       <c r="C79" t="n">
-        <v>15.6</v>
+        <v>15.8</v>
       </c>
       <c r="D79" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="E79" t="n">
         <v>15.8</v>
       </c>
-      <c r="E79" t="n">
-        <v>15.6</v>
-      </c>
       <c r="F79" t="n">
-        <v>259015.3429</v>
+        <v>360294.6675</v>
       </c>
       <c r="G79" t="n">
-        <v>15.995</v>
+        <v>15.96333333333333</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3163,22 +3183,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="C80" t="n">
         <v>15.6</v>
       </c>
       <c r="D80" t="n">
-        <v>15.6</v>
+        <v>15.8</v>
       </c>
       <c r="E80" t="n">
         <v>15.6</v>
       </c>
       <c r="F80" t="n">
-        <v>354314.9966</v>
+        <v>259015.3429</v>
       </c>
       <c r="G80" t="n">
-        <v>15.97</v>
+        <v>15.96833333333334</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3207,13 +3227,13 @@
         <v>15.6</v>
       </c>
       <c r="E81" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="F81" t="n">
-        <v>309945.7305</v>
+        <v>354314.9966</v>
       </c>
       <c r="G81" t="n">
-        <v>15.945</v>
+        <v>15.97333333333334</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3233,7 +3253,7 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="C82" t="n">
         <v>15.6</v>
@@ -3245,10 +3265,10 @@
         <v>15.5</v>
       </c>
       <c r="F82" t="n">
-        <v>149633.0276</v>
+        <v>309945.7305</v>
       </c>
       <c r="G82" t="n">
-        <v>15.915</v>
+        <v>15.97833333333334</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3271,7 +3291,7 @@
         <v>15.5</v>
       </c>
       <c r="C83" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="D83" t="n">
         <v>15.6</v>
@@ -3280,10 +3300,10 @@
         <v>15.5</v>
       </c>
       <c r="F83" t="n">
-        <v>62546.5506</v>
+        <v>149633.0276</v>
       </c>
       <c r="G83" t="n">
-        <v>15.88</v>
+        <v>15.97833333333334</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3303,22 +3323,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="C84" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="D84" t="n">
         <v>15.6</v>
       </c>
       <c r="E84" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="F84" t="n">
-        <v>475969.0384</v>
+        <v>62546.5506</v>
       </c>
       <c r="G84" t="n">
-        <v>15.855</v>
+        <v>15.97666666666667</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3341,19 +3361,19 @@
         <v>15.6</v>
       </c>
       <c r="C85" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="D85" t="n">
         <v>15.6</v>
       </c>
       <c r="E85" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="F85" t="n">
-        <v>364808.6676</v>
+        <v>475969.0384</v>
       </c>
       <c r="G85" t="n">
-        <v>15.825</v>
+        <v>15.975</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3385,10 +3405,10 @@
         <v>15.5</v>
       </c>
       <c r="F86" t="n">
-        <v>332705.206</v>
+        <v>364808.6676</v>
       </c>
       <c r="G86" t="n">
-        <v>15.8</v>
+        <v>15.97166666666667</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3408,22 +3428,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="C87" t="n">
         <v>15.5</v>
       </c>
       <c r="D87" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="E87" t="n">
         <v>15.5</v>
       </c>
       <c r="F87" t="n">
-        <v>9943</v>
+        <v>332705.206</v>
       </c>
       <c r="G87" t="n">
-        <v>15.775</v>
+        <v>15.96666666666667</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3443,22 +3463,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="C88" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="D88" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="E88" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="F88" t="n">
-        <v>10053.4807</v>
+        <v>9943</v>
       </c>
       <c r="G88" t="n">
-        <v>15.755</v>
+        <v>15.95833333333334</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3478,22 +3498,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="C89" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="D89" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="E89" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="F89" t="n">
-        <v>11262</v>
+        <v>10053.4807</v>
       </c>
       <c r="G89" t="n">
-        <v>15.725</v>
+        <v>15.95166666666667</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3516,19 +3536,19 @@
         <v>15.5</v>
       </c>
       <c r="C90" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="D90" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="E90" t="n">
         <v>15.5</v>
       </c>
       <c r="F90" t="n">
-        <v>124.4725</v>
+        <v>11262</v>
       </c>
       <c r="G90" t="n">
-        <v>15.705</v>
+        <v>15.94333333333334</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3548,10 +3568,10 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="C91" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="D91" t="n">
         <v>15.6</v>
@@ -3560,10 +3580,10 @@
         <v>15.5</v>
       </c>
       <c r="F91" t="n">
-        <v>17471.3145</v>
+        <v>124.4725</v>
       </c>
       <c r="G91" t="n">
-        <v>15.685</v>
+        <v>15.93166666666667</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3583,22 +3603,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="C92" t="n">
         <v>15.5</v>
       </c>
       <c r="D92" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="E92" t="n">
         <v>15.5</v>
       </c>
       <c r="F92" t="n">
-        <v>59836</v>
+        <v>17471.3145</v>
       </c>
       <c r="G92" t="n">
-        <v>15.66</v>
+        <v>15.91000000000001</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3621,19 +3641,19 @@
         <v>15.5</v>
       </c>
       <c r="C93" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="D93" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="E93" t="n">
         <v>15.5</v>
       </c>
       <c r="F93" t="n">
-        <v>11</v>
+        <v>59836</v>
       </c>
       <c r="G93" t="n">
-        <v>15.64</v>
+        <v>15.89833333333334</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3653,22 +3673,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="C94" t="n">
-        <v>15.7</v>
+        <v>15.6</v>
       </c>
       <c r="D94" t="n">
-        <v>15.7</v>
+        <v>15.6</v>
       </c>
       <c r="E94" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="F94" t="n">
-        <v>606311</v>
+        <v>11</v>
       </c>
       <c r="G94" t="n">
-        <v>15.63</v>
+        <v>15.89166666666667</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3688,7 +3708,7 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>15.7</v>
+        <v>15.6</v>
       </c>
       <c r="C95" t="n">
         <v>15.7</v>
@@ -3697,13 +3717,13 @@
         <v>15.7</v>
       </c>
       <c r="E95" t="n">
-        <v>15.7</v>
+        <v>15.6</v>
       </c>
       <c r="F95" t="n">
-        <v>23030.1592</v>
+        <v>606311</v>
       </c>
       <c r="G95" t="n">
-        <v>15.625</v>
+        <v>15.88500000000001</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3735,10 +3755,10 @@
         <v>15.7</v>
       </c>
       <c r="F96" t="n">
-        <v>23</v>
+        <v>23030.1592</v>
       </c>
       <c r="G96" t="n">
-        <v>15.615</v>
+        <v>15.87500000000001</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3770,10 +3790,10 @@
         <v>15.7</v>
       </c>
       <c r="F97" t="n">
-        <v>28600</v>
+        <v>23</v>
       </c>
       <c r="G97" t="n">
-        <v>15.6</v>
+        <v>15.86833333333334</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3805,10 +3825,10 @@
         <v>15.7</v>
       </c>
       <c r="F98" t="n">
-        <v>27</v>
+        <v>28600</v>
       </c>
       <c r="G98" t="n">
-        <v>15.59</v>
+        <v>15.86333333333334</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3828,7 +3848,7 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="C99" t="n">
         <v>15.7</v>
@@ -3837,13 +3857,13 @@
         <v>15.7</v>
       </c>
       <c r="E99" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="F99" t="n">
-        <v>6162</v>
+        <v>27</v>
       </c>
       <c r="G99" t="n">
-        <v>15.585</v>
+        <v>15.86000000000001</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3863,7 +3883,7 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>15.7</v>
+        <v>15.6</v>
       </c>
       <c r="C100" t="n">
         <v>15.7</v>
@@ -3875,10 +3895,10 @@
         <v>15.6</v>
       </c>
       <c r="F100" t="n">
-        <v>22.973</v>
+        <v>6162</v>
       </c>
       <c r="G100" t="n">
-        <v>15.59</v>
+        <v>15.85833333333334</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3898,22 +3918,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>15.5</v>
+        <v>15.7</v>
       </c>
       <c r="C101" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="D101" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="E101" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="F101" t="n">
-        <v>214.642</v>
+        <v>22.973</v>
       </c>
       <c r="G101" t="n">
-        <v>15.585</v>
+        <v>15.85833333333334</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3933,22 +3953,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>15.7</v>
+        <v>15.5</v>
       </c>
       <c r="C102" t="n">
-        <v>15.7</v>
+        <v>15.6</v>
       </c>
       <c r="D102" t="n">
-        <v>15.7</v>
+        <v>15.6</v>
       </c>
       <c r="E102" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="F102" t="n">
-        <v>32234.9468</v>
+        <v>214.642</v>
       </c>
       <c r="G102" t="n">
-        <v>15.595</v>
+        <v>15.85666666666668</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -3968,7 +3988,7 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="C103" t="n">
         <v>15.7</v>
@@ -3980,10 +4000,10 @@
         <v>15.6</v>
       </c>
       <c r="F103" t="n">
-        <v>30010</v>
+        <v>32234.9468</v>
       </c>
       <c r="G103" t="n">
-        <v>15.6</v>
+        <v>15.85500000000001</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4003,7 +4023,7 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>15.7</v>
+        <v>15.6</v>
       </c>
       <c r="C104" t="n">
         <v>15.7</v>
@@ -4012,13 +4032,13 @@
         <v>15.7</v>
       </c>
       <c r="E104" t="n">
-        <v>15.7</v>
+        <v>15.6</v>
       </c>
       <c r="F104" t="n">
-        <v>88992.6433</v>
+        <v>30010</v>
       </c>
       <c r="G104" t="n">
-        <v>15.605</v>
+        <v>15.85166666666668</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4050,10 +4070,10 @@
         <v>15.7</v>
       </c>
       <c r="F105" t="n">
-        <v>19500</v>
+        <v>88992.6433</v>
       </c>
       <c r="G105" t="n">
-        <v>15.61</v>
+        <v>15.84833333333335</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4073,7 +4093,7 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>15.5</v>
+        <v>15.7</v>
       </c>
       <c r="C106" t="n">
         <v>15.7</v>
@@ -4082,13 +4102,13 @@
         <v>15.7</v>
       </c>
       <c r="E106" t="n">
-        <v>15.5</v>
+        <v>15.7</v>
       </c>
       <c r="F106" t="n">
-        <v>330674.5283</v>
+        <v>19500</v>
       </c>
       <c r="G106" t="n">
-        <v>15.605</v>
+        <v>15.84166666666668</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4108,7 +4128,7 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>15.7</v>
+        <v>15.5</v>
       </c>
       <c r="C107" t="n">
         <v>15.7</v>
@@ -4117,13 +4137,13 @@
         <v>15.7</v>
       </c>
       <c r="E107" t="n">
-        <v>15.7</v>
+        <v>15.5</v>
       </c>
       <c r="F107" t="n">
-        <v>11</v>
+        <v>330674.5283</v>
       </c>
       <c r="G107" t="n">
-        <v>15.615</v>
+        <v>15.83500000000002</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4155,10 +4175,10 @@
         <v>15.7</v>
       </c>
       <c r="F108" t="n">
-        <v>1398.6624</v>
+        <v>11</v>
       </c>
       <c r="G108" t="n">
-        <v>15.62</v>
+        <v>15.82833333333335</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4178,22 +4198,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="C109" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="D109" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="E109" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="F109" t="n">
-        <v>19935.0022</v>
+        <v>1398.6624</v>
       </c>
       <c r="G109" t="n">
-        <v>15.625</v>
+        <v>15.82500000000002</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4225,10 +4245,10 @@
         <v>15.6</v>
       </c>
       <c r="F110" t="n">
-        <v>12876.6666</v>
+        <v>19935.0022</v>
       </c>
       <c r="G110" t="n">
-        <v>15.63</v>
+        <v>15.81833333333335</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4248,22 +4268,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="C111" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="D111" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="E111" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="F111" t="n">
-        <v>35473.0942</v>
+        <v>12876.6666</v>
       </c>
       <c r="G111" t="n">
-        <v>15.625</v>
+        <v>15.81000000000002</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4295,10 +4315,10 @@
         <v>15.5</v>
       </c>
       <c r="F112" t="n">
-        <v>17716.3775</v>
+        <v>35473.0942</v>
       </c>
       <c r="G112" t="n">
-        <v>15.625</v>
+        <v>15.80000000000002</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4318,22 +4338,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="C113" t="n">
         <v>15.5</v>
       </c>
       <c r="D113" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="E113" t="n">
         <v>15.5</v>
       </c>
       <c r="F113" t="n">
-        <v>8631.6217</v>
+        <v>17716.3775</v>
       </c>
       <c r="G113" t="n">
-        <v>15.63</v>
+        <v>15.79000000000002</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4356,19 +4376,19 @@
         <v>15.6</v>
       </c>
       <c r="C114" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="D114" t="n">
         <v>15.6</v>
       </c>
       <c r="E114" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="F114" t="n">
-        <v>24</v>
+        <v>8631.6217</v>
       </c>
       <c r="G114" t="n">
-        <v>15.63</v>
+        <v>15.78000000000002</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4400,10 +4420,10 @@
         <v>15.6</v>
       </c>
       <c r="F115" t="n">
-        <v>22342.2962</v>
+        <v>24</v>
       </c>
       <c r="G115" t="n">
-        <v>15.625</v>
+        <v>15.77166666666668</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4435,10 +4455,10 @@
         <v>15.6</v>
       </c>
       <c r="F116" t="n">
-        <v>17920.7166</v>
+        <v>22342.2962</v>
       </c>
       <c r="G116" t="n">
-        <v>15.62</v>
+        <v>15.76500000000002</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4458,22 +4478,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="C117" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="D117" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="E117" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="F117" t="n">
-        <v>8690.522199999999</v>
+        <v>17920.7166</v>
       </c>
       <c r="G117" t="n">
-        <v>15.61</v>
+        <v>15.75833333333335</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4493,22 +4513,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="C118" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="D118" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="E118" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="F118" t="n">
-        <v>22</v>
+        <v>8690.522199999999</v>
       </c>
       <c r="G118" t="n">
-        <v>15.605</v>
+        <v>15.74833333333335</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4540,10 +4560,10 @@
         <v>15.6</v>
       </c>
       <c r="F119" t="n">
-        <v>4785.746</v>
+        <v>22</v>
       </c>
       <c r="G119" t="n">
-        <v>15.605</v>
+        <v>15.73833333333335</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4563,7 +4583,7 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="C120" t="n">
         <v>15.6</v>
@@ -4572,13 +4592,13 @@
         <v>15.6</v>
       </c>
       <c r="E120" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="F120" t="n">
-        <v>11283.4725</v>
+        <v>4785.746</v>
       </c>
       <c r="G120" t="n">
-        <v>15.595</v>
+        <v>15.73333333333335</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4598,7 +4618,7 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="C121" t="n">
         <v>15.6</v>
@@ -4607,13 +4627,13 @@
         <v>15.6</v>
       </c>
       <c r="E121" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="F121" t="n">
-        <v>8613.205099999999</v>
+        <v>11283.4725</v>
       </c>
       <c r="G121" t="n">
-        <v>15.6</v>
+        <v>15.72500000000002</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4633,22 +4653,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>15.7</v>
+        <v>15.6</v>
       </c>
       <c r="C122" t="n">
-        <v>15.7</v>
+        <v>15.6</v>
       </c>
       <c r="D122" t="n">
-        <v>15.7</v>
+        <v>15.6</v>
       </c>
       <c r="E122" t="n">
-        <v>15.7</v>
+        <v>15.6</v>
       </c>
       <c r="F122" t="n">
-        <v>10</v>
+        <v>8613.205099999999</v>
       </c>
       <c r="G122" t="n">
-        <v>15.6</v>
+        <v>15.71666666666668</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4668,22 +4688,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>15.5</v>
+        <v>15.7</v>
       </c>
       <c r="C123" t="n">
-        <v>15.5</v>
+        <v>15.7</v>
       </c>
       <c r="D123" t="n">
-        <v>15.5</v>
+        <v>15.7</v>
       </c>
       <c r="E123" t="n">
-        <v>15.5</v>
+        <v>15.7</v>
       </c>
       <c r="F123" t="n">
-        <v>55700.1748</v>
+        <v>10</v>
       </c>
       <c r="G123" t="n">
-        <v>15.595</v>
+        <v>15.71000000000002</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4706,19 +4726,19 @@
         <v>15.5</v>
       </c>
       <c r="C124" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="D124" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="E124" t="n">
         <v>15.5</v>
       </c>
       <c r="F124" t="n">
-        <v>8602.6721</v>
+        <v>55700.1748</v>
       </c>
       <c r="G124" t="n">
-        <v>15.585</v>
+        <v>15.69833333333335</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4738,22 +4758,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="C125" t="n">
-        <v>15.7</v>
+        <v>15.6</v>
       </c>
       <c r="D125" t="n">
-        <v>15.7</v>
+        <v>15.6</v>
       </c>
       <c r="E125" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="F125" t="n">
-        <v>5793.9968</v>
+        <v>8602.6721</v>
       </c>
       <c r="G125" t="n">
-        <v>15.58000000000001</v>
+        <v>15.69166666666668</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4776,19 +4796,19 @@
         <v>15.6</v>
       </c>
       <c r="C126" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="D126" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="E126" t="n">
         <v>15.6</v>
       </c>
       <c r="F126" t="n">
-        <v>40000</v>
+        <v>5793.9968</v>
       </c>
       <c r="G126" t="n">
-        <v>15.58500000000001</v>
+        <v>15.68666666666669</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4808,22 +4828,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>15.7</v>
+        <v>15.6</v>
       </c>
       <c r="C127" t="n">
-        <v>15.7</v>
+        <v>15.6</v>
       </c>
       <c r="D127" t="n">
-        <v>15.7</v>
+        <v>15.6</v>
       </c>
       <c r="E127" t="n">
-        <v>15.7</v>
+        <v>15.6</v>
       </c>
       <c r="F127" t="n">
-        <v>10</v>
+        <v>40000</v>
       </c>
       <c r="G127" t="n">
-        <v>15.58500000000001</v>
+        <v>15.68000000000002</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -4843,22 +4863,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="C128" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="D128" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="E128" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="F128" t="n">
-        <v>3450.0892</v>
+        <v>10</v>
       </c>
       <c r="G128" t="n">
-        <v>15.58000000000001</v>
+        <v>15.67333333333335</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -4890,10 +4910,10 @@
         <v>15.6</v>
       </c>
       <c r="F129" t="n">
-        <v>6378.2051</v>
+        <v>3450.0892</v>
       </c>
       <c r="G129" t="n">
-        <v>15.58000000000001</v>
+        <v>15.66666666666669</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -4925,10 +4945,10 @@
         <v>15.6</v>
       </c>
       <c r="F130" t="n">
-        <v>3360.7057</v>
+        <v>6378.2051</v>
       </c>
       <c r="G130" t="n">
-        <v>15.58000000000001</v>
+        <v>15.65833333333335</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -4960,10 +4980,10 @@
         <v>15.6</v>
       </c>
       <c r="F131" t="n">
-        <v>3017.4994</v>
+        <v>3360.7057</v>
       </c>
       <c r="G131" t="n">
-        <v>15.58500000000001</v>
+        <v>15.65000000000002</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -4995,10 +5015,10 @@
         <v>15.6</v>
       </c>
       <c r="F132" t="n">
-        <v>6982.5006</v>
+        <v>3017.4994</v>
       </c>
       <c r="G132" t="n">
-        <v>15.59000000000001</v>
+        <v>15.64166666666669</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5030,10 +5050,10 @@
         <v>15.6</v>
       </c>
       <c r="F133" t="n">
-        <v>29200</v>
+        <v>6982.5006</v>
       </c>
       <c r="G133" t="n">
-        <v>15.59000000000001</v>
+        <v>15.63500000000002</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5053,22 +5073,22 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>15.7</v>
+        <v>15.6</v>
       </c>
       <c r="C134" t="n">
-        <v>15.7</v>
+        <v>15.6</v>
       </c>
       <c r="D134" t="n">
-        <v>15.7</v>
+        <v>15.6</v>
       </c>
       <c r="E134" t="n">
-        <v>15.7</v>
+        <v>15.6</v>
       </c>
       <c r="F134" t="n">
-        <v>36</v>
+        <v>29200</v>
       </c>
       <c r="G134" t="n">
-        <v>15.59500000000001</v>
+        <v>15.63000000000002</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5088,22 +5108,22 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="C135" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="D135" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="E135" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="F135" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="G135" t="n">
-        <v>15.59500000000001</v>
+        <v>15.62833333333336</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5135,10 +5155,10 @@
         <v>15.6</v>
       </c>
       <c r="F136" t="n">
-        <v>12820.5128</v>
+        <v>1000</v>
       </c>
       <c r="G136" t="n">
-        <v>15.59500000000001</v>
+        <v>15.62333333333336</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5170,10 +5190,10 @@
         <v>15.6</v>
       </c>
       <c r="F137" t="n">
-        <v>5641.1863</v>
+        <v>12820.5128</v>
       </c>
       <c r="G137" t="n">
-        <v>15.60000000000001</v>
+        <v>15.62000000000002</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5205,10 +5225,10 @@
         <v>15.6</v>
       </c>
       <c r="F138" t="n">
-        <v>21897.136</v>
+        <v>5641.1863</v>
       </c>
       <c r="G138" t="n">
-        <v>15.60000000000001</v>
+        <v>15.61333333333336</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5231,19 +5251,19 @@
         <v>15.6</v>
       </c>
       <c r="C139" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="D139" t="n">
         <v>15.6</v>
       </c>
       <c r="E139" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="F139" t="n">
-        <v>4645.587</v>
+        <v>21897.136</v>
       </c>
       <c r="G139" t="n">
-        <v>15.60000000000001</v>
+        <v>15.61000000000002</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5263,22 +5283,22 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="C140" t="n">
         <v>15.5</v>
       </c>
       <c r="D140" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="E140" t="n">
         <v>15.5</v>
       </c>
       <c r="F140" t="n">
-        <v>3071.476</v>
+        <v>4645.587</v>
       </c>
       <c r="G140" t="n">
-        <v>15.60000000000001</v>
+        <v>15.60833333333336</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5301,19 +5321,19 @@
         <v>15.5</v>
       </c>
       <c r="C141" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="D141" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="E141" t="n">
         <v>15.5</v>
       </c>
       <c r="F141" t="n">
-        <v>2264.817</v>
+        <v>3071.476</v>
       </c>
       <c r="G141" t="n">
-        <v>15.59500000000001</v>
+        <v>15.60666666666669</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5345,10 +5365,10 @@
         <v>15.5</v>
       </c>
       <c r="F142" t="n">
-        <v>738.7746</v>
+        <v>2264.817</v>
       </c>
       <c r="G142" t="n">
-        <v>15.58500000000001</v>
+        <v>15.60666666666669</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5368,10 +5388,10 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="C143" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="D143" t="n">
         <v>15.6</v>
@@ -5380,10 +5400,10 @@
         <v>15.5</v>
       </c>
       <c r="F143" t="n">
-        <v>54924.7622</v>
+        <v>738.7746</v>
       </c>
       <c r="G143" t="n">
-        <v>15.59000000000001</v>
+        <v>15.60666666666669</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5403,22 +5423,22 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="C144" t="n">
         <v>15.5</v>
       </c>
       <c r="D144" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="E144" t="n">
         <v>15.5</v>
       </c>
       <c r="F144" t="n">
-        <v>31130.739</v>
+        <v>54924.7622</v>
       </c>
       <c r="G144" t="n">
-        <v>15.59000000000001</v>
+        <v>15.60666666666669</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5450,10 +5470,10 @@
         <v>15.5</v>
       </c>
       <c r="F145" t="n">
-        <v>7274.502</v>
+        <v>31130.739</v>
       </c>
       <c r="G145" t="n">
-        <v>15.58500000000001</v>
+        <v>15.60500000000002</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5473,22 +5493,22 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="C146" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="D146" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="E146" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="F146" t="n">
-        <v>10</v>
+        <v>7274.502</v>
       </c>
       <c r="G146" t="n">
-        <v>15.58500000000001</v>
+        <v>15.60500000000002</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5520,10 +5540,10 @@
         <v>15.6</v>
       </c>
       <c r="F147" t="n">
-        <v>1623.2051</v>
+        <v>10</v>
       </c>
       <c r="G147" t="n">
-        <v>15.58000000000001</v>
+        <v>15.60666666666669</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5555,10 +5575,10 @@
         <v>15.6</v>
       </c>
       <c r="F148" t="n">
-        <v>3000</v>
+        <v>1623.2051</v>
       </c>
       <c r="G148" t="n">
-        <v>15.58000000000001</v>
+        <v>15.60833333333336</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5578,22 +5598,22 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="C149" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="D149" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="E149" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="F149" t="n">
-        <v>40263.0128</v>
+        <v>3000</v>
       </c>
       <c r="G149" t="n">
-        <v>15.57500000000001</v>
+        <v>15.60833333333336</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5625,10 +5645,10 @@
         <v>15.5</v>
       </c>
       <c r="F150" t="n">
-        <v>26600</v>
+        <v>40263.0128</v>
       </c>
       <c r="G150" t="n">
-        <v>15.57000000000001</v>
+        <v>15.60833333333336</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -5651,19 +5671,19 @@
         <v>15.5</v>
       </c>
       <c r="C151" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="D151" t="n">
         <v>15.5</v>
       </c>
       <c r="E151" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="F151" t="n">
-        <v>55433.074</v>
+        <v>26600</v>
       </c>
       <c r="G151" t="n">
-        <v>15.56500000000001</v>
+        <v>15.60666666666669</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -5683,22 +5703,22 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="C152" t="n">
         <v>15.4</v>
       </c>
       <c r="D152" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="E152" t="n">
         <v>15.4</v>
       </c>
       <c r="F152" t="n">
-        <v>73811.22870000001</v>
+        <v>55433.074</v>
       </c>
       <c r="G152" t="n">
-        <v>15.55500000000001</v>
+        <v>15.60500000000002</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -5718,22 +5738,22 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>15.3</v>
+        <v>15.4</v>
       </c>
       <c r="C153" t="n">
-        <v>15.3</v>
+        <v>15.4</v>
       </c>
       <c r="D153" t="n">
-        <v>15.3</v>
+        <v>15.4</v>
       </c>
       <c r="E153" t="n">
-        <v>15.3</v>
+        <v>15.4</v>
       </c>
       <c r="F153" t="n">
-        <v>4711.7168</v>
+        <v>73811.22870000001</v>
       </c>
       <c r="G153" t="n">
-        <v>15.54000000000001</v>
+        <v>15.60333333333336</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -5765,10 +5785,10 @@
         <v>15.3</v>
       </c>
       <c r="F154" t="n">
-        <v>65922.1489</v>
+        <v>4711.7168</v>
       </c>
       <c r="G154" t="n">
-        <v>15.52000000000001</v>
+        <v>15.59833333333336</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -5788,22 +5808,22 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>15.4</v>
+        <v>15.3</v>
       </c>
       <c r="C155" t="n">
-        <v>15.4</v>
+        <v>15.3</v>
       </c>
       <c r="D155" t="n">
-        <v>15.4</v>
+        <v>15.3</v>
       </c>
       <c r="E155" t="n">
-        <v>15.4</v>
+        <v>15.3</v>
       </c>
       <c r="F155" t="n">
-        <v>65330.3243</v>
+        <v>65922.1489</v>
       </c>
       <c r="G155" t="n">
-        <v>15.51000000000001</v>
+        <v>15.59166666666669</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -5835,10 +5855,10 @@
         <v>15.4</v>
       </c>
       <c r="F156" t="n">
-        <v>0.0003</v>
+        <v>65330.3243</v>
       </c>
       <c r="G156" t="n">
-        <v>15.5</v>
+        <v>15.58666666666669</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -5858,22 +5878,22 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>15.3</v>
+        <v>15.4</v>
       </c>
       <c r="C157" t="n">
-        <v>15.3</v>
+        <v>15.4</v>
       </c>
       <c r="D157" t="n">
-        <v>15.3</v>
+        <v>15.4</v>
       </c>
       <c r="E157" t="n">
-        <v>15.3</v>
+        <v>15.4</v>
       </c>
       <c r="F157" t="n">
-        <v>45147.0402</v>
+        <v>0.0003</v>
       </c>
       <c r="G157" t="n">
-        <v>15.485</v>
+        <v>15.58166666666668</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -5893,22 +5913,22 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>15.4</v>
+        <v>15.3</v>
       </c>
       <c r="C158" t="n">
         <v>15.3</v>
       </c>
       <c r="D158" t="n">
-        <v>15.4</v>
+        <v>15.3</v>
       </c>
       <c r="E158" t="n">
         <v>15.3</v>
       </c>
       <c r="F158" t="n">
-        <v>5002.9293</v>
+        <v>45147.0402</v>
       </c>
       <c r="G158" t="n">
-        <v>15.475</v>
+        <v>15.57500000000002</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -5928,22 +5948,22 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>15.3</v>
+        <v>15.4</v>
       </c>
       <c r="C159" t="n">
         <v>15.3</v>
       </c>
       <c r="D159" t="n">
-        <v>15.3</v>
+        <v>15.4</v>
       </c>
       <c r="E159" t="n">
         <v>15.3</v>
       </c>
       <c r="F159" t="n">
-        <v>26569.5347</v>
+        <v>5002.9293</v>
       </c>
       <c r="G159" t="n">
-        <v>15.46</v>
+        <v>15.56833333333335</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -5966,19 +5986,19 @@
         <v>15.3</v>
       </c>
       <c r="C160" t="n">
-        <v>15.2</v>
+        <v>15.3</v>
       </c>
       <c r="D160" t="n">
         <v>15.3</v>
       </c>
       <c r="E160" t="n">
-        <v>15.2</v>
+        <v>15.3</v>
       </c>
       <c r="F160" t="n">
-        <v>157592.0125</v>
+        <v>26569.5347</v>
       </c>
       <c r="G160" t="n">
-        <v>15.45</v>
+        <v>15.56166666666668</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -5998,22 +6018,22 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>15.2</v>
+        <v>15.3</v>
       </c>
       <c r="C161" t="n">
         <v>15.2</v>
       </c>
       <c r="D161" t="n">
-        <v>15.2</v>
+        <v>15.3</v>
       </c>
       <c r="E161" t="n">
         <v>15.2</v>
       </c>
       <c r="F161" t="n">
-        <v>1000</v>
+        <v>157592.0125</v>
       </c>
       <c r="G161" t="n">
-        <v>15.435</v>
+        <v>15.55333333333335</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6045,10 +6065,10 @@
         <v>15.2</v>
       </c>
       <c r="F162" t="n">
-        <v>78313.3931</v>
+        <v>1000</v>
       </c>
       <c r="G162" t="n">
-        <v>15.42</v>
+        <v>15.54666666666668</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6068,22 +6088,22 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="C163" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="D163" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="E163" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="F163" t="n">
-        <v>7430.8411</v>
+        <v>78313.3931</v>
       </c>
       <c r="G163" t="n">
-        <v>15.395</v>
+        <v>15.53833333333335</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6103,22 +6123,22 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="C164" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="D164" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="E164" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="F164" t="n">
-        <v>49900</v>
+        <v>7430.8411</v>
       </c>
       <c r="G164" t="n">
-        <v>15.38</v>
+        <v>15.52833333333335</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -6150,23 +6170,19 @@
         <v>15.2</v>
       </c>
       <c r="F165" t="n">
-        <v>30000</v>
+        <v>49900</v>
       </c>
       <c r="G165" t="n">
-        <v>15.365</v>
+        <v>15.52000000000001</v>
       </c>
       <c r="H165" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I165" t="n">
         <v>0</v>
       </c>
-      <c r="J165" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="K165" t="n">
-        <v>15.2</v>
-      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="inlineStr"/>
       <c r="M165" t="n">
         <v>1</v>
@@ -6177,7 +6193,7 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="C166" t="n">
         <v>15.2</v>
@@ -6186,13 +6202,13 @@
         <v>15.2</v>
       </c>
       <c r="E166" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="F166" t="n">
-        <v>68400</v>
+        <v>30000</v>
       </c>
       <c r="G166" t="n">
-        <v>15.34</v>
+        <v>15.51166666666668</v>
       </c>
       <c r="H166" t="n">
         <v>1</v>
@@ -6206,55 +6222,94 @@
       <c r="K166" t="n">
         <v>15.2</v>
       </c>
-      <c r="L166" t="inlineStr">
+      <c r="L166" t="inlineStr"/>
+      <c r="M166" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="C167" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="D167" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="E167" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="F167" t="n">
+        <v>68400</v>
+      </c>
+      <c r="G167" t="n">
+        <v>15.50333333333335</v>
+      </c>
+      <c r="H167" t="n">
+        <v>1</v>
+      </c>
+      <c r="I167" t="n">
+        <v>0</v>
+      </c>
+      <c r="J167" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="K167" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="L167" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="n">
-        <v>165</v>
-      </c>
-      <c r="B167" t="n">
+      <c r="M167" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
         <v>15.2</v>
       </c>
-      <c r="C167" t="n">
+      <c r="C168" t="n">
         <v>15.1</v>
       </c>
-      <c r="D167" t="n">
+      <c r="D168" t="n">
         <v>15.2</v>
       </c>
-      <c r="E167" t="n">
+      <c r="E168" t="n">
         <v>15.1</v>
       </c>
-      <c r="F167" t="n">
+      <c r="F168" t="n">
         <v>3000</v>
       </c>
-      <c r="G167" t="n">
-        <v>15.32</v>
-      </c>
-      <c r="H167" t="n">
-        <v>1</v>
-      </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
-      <c r="J167" t="n">
+      <c r="G168" t="n">
+        <v>15.49333333333335</v>
+      </c>
+      <c r="H168" t="n">
+        <v>1</v>
+      </c>
+      <c r="I168" t="n">
+        <v>0</v>
+      </c>
+      <c r="J168" t="n">
         <v>15.2</v>
       </c>
-      <c r="K167" t="n">
+      <c r="K168" t="n">
         <v>15.2</v>
       </c>
-      <c r="L167" t="inlineStr">
+      <c r="L168" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M167" t="n">
+      <c r="M168" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-30 BackTest MITH.xlsx
+++ b/BackTest/2019-10-30 BackTest MITH.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N178"/>
+  <dimension ref="A1:M207"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,40 +394,35 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>MA60</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -450,24 +445,21 @@
         <v>15.6</v>
       </c>
       <c r="F2" t="n">
-        <v>17569.7791</v>
+        <v>10</v>
       </c>
       <c r="G2" t="n">
-        <v>15.57333333333333</v>
+        <v>-361910.1943138365</v>
       </c>
       <c r="H2" t="n">
-        <v>15.515</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="n">
+      <c r="M2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -476,36 +468,33 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="C3" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="D3" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="E3" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="F3" t="n">
-        <v>16846.7292</v>
+        <v>500.7495</v>
       </c>
       <c r="G3" t="n">
-        <v>15.57999999999999</v>
+        <v>-362410.9438138365</v>
       </c>
       <c r="H3" t="n">
-        <v>15.51833333333334</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="n">
+      <c r="M3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -526,24 +515,21 @@
         <v>15.6</v>
       </c>
       <c r="F4" t="n">
-        <v>1923.0769</v>
+        <v>10000</v>
       </c>
       <c r="G4" t="n">
-        <v>15.58666666666666</v>
+        <v>-352410.9438138365</v>
       </c>
       <c r="H4" t="n">
-        <v>15.52166666666667</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="n">
+      <c r="M4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -564,24 +550,21 @@
         <v>15.6</v>
       </c>
       <c r="F5" t="n">
-        <v>14812.2828</v>
+        <v>1905.0641</v>
       </c>
       <c r="G5" t="n">
-        <v>15.59333333333332</v>
+        <v>-352410.9438138365</v>
       </c>
       <c r="H5" t="n">
-        <v>15.52500000000001</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="n">
+      <c r="M5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -590,36 +573,33 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="C6" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="D6" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="E6" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="F6" t="n">
-        <v>121085.153</v>
+        <v>13516.5508</v>
       </c>
       <c r="G6" t="n">
-        <v>15.59999999999999</v>
+        <v>-365927.4946138365</v>
       </c>
       <c r="H6" t="n">
-        <v>15.52500000000001</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="n">
+      <c r="M6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -628,36 +608,33 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="C7" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="D7" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="E7" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="F7" t="n">
-        <v>142610.3224</v>
+        <v>4346.0256</v>
       </c>
       <c r="G7" t="n">
-        <v>15.59333333333332</v>
+        <v>-361581.4690138365</v>
       </c>
       <c r="H7" t="n">
-        <v>15.52666666666667</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="n">
+      <c r="M7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -666,7 +643,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="C8" t="n">
         <v>15.6</v>
@@ -675,27 +652,24 @@
         <v>15.6</v>
       </c>
       <c r="E8" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="F8" t="n">
-        <v>30200</v>
+        <v>44871.7948</v>
       </c>
       <c r="G8" t="n">
-        <v>15.59333333333332</v>
+        <v>-361581.4690138365</v>
       </c>
       <c r="H8" t="n">
-        <v>15.53000000000001</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="n">
+      <c r="M8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -704,36 +678,33 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>15.4</v>
+        <v>15.6</v>
       </c>
       <c r="C9" t="n">
-        <v>15.4</v>
+        <v>15.6</v>
       </c>
       <c r="D9" t="n">
-        <v>15.4</v>
+        <v>15.6</v>
       </c>
       <c r="E9" t="n">
-        <v>15.4</v>
+        <v>15.6</v>
       </c>
       <c r="F9" t="n">
-        <v>50095.5629</v>
+        <v>15123.2051</v>
       </c>
       <c r="G9" t="n">
-        <v>15.57999999999999</v>
+        <v>-361581.4690138365</v>
       </c>
       <c r="H9" t="n">
-        <v>15.52666666666667</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="n">
+      <c r="M9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -742,36 +713,33 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="C10" t="n">
-        <v>15.4</v>
+        <v>15.3</v>
       </c>
       <c r="D10" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="E10" t="n">
-        <v>15.4</v>
+        <v>15.3</v>
       </c>
       <c r="F10" t="n">
-        <v>3787.176</v>
+        <v>256582.5617</v>
       </c>
       <c r="G10" t="n">
-        <v>15.56666666666666</v>
+        <v>-618164.0307138365</v>
       </c>
       <c r="H10" t="n">
-        <v>15.52666666666667</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="n">
+      <c r="M10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -780,36 +748,33 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>15.4</v>
+        <v>15.3</v>
       </c>
       <c r="C11" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="D11" t="n">
-        <v>15.4</v>
+        <v>15.6</v>
       </c>
       <c r="E11" t="n">
-        <v>15.4</v>
+        <v>15.3</v>
       </c>
       <c r="F11" t="n">
-        <v>2000</v>
+        <v>158701</v>
       </c>
       <c r="G11" t="n">
-        <v>15.55333333333333</v>
+        <v>-459463.0307138365</v>
       </c>
       <c r="H11" t="n">
-        <v>15.52666666666667</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="n">
+      <c r="M11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -818,36 +783,33 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="C12" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="D12" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="E12" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="F12" t="n">
-        <v>3000</v>
+        <v>39300</v>
       </c>
       <c r="G12" t="n">
-        <v>15.53999999999999</v>
+        <v>-459463.0307138365</v>
       </c>
       <c r="H12" t="n">
-        <v>15.52666666666667</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="n">
+      <c r="M12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -868,24 +830,21 @@
         <v>15.4</v>
       </c>
       <c r="F13" t="n">
-        <v>3000</v>
+        <v>14000</v>
       </c>
       <c r="G13" t="n">
-        <v>15.52666666666666</v>
+        <v>-473463.0307138365</v>
       </c>
       <c r="H13" t="n">
-        <v>15.52666666666667</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="n">
+      <c r="M13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -906,24 +865,21 @@
         <v>15.4</v>
       </c>
       <c r="F14" t="n">
-        <v>13.3</v>
+        <v>15000</v>
       </c>
       <c r="G14" t="n">
-        <v>15.51333333333333</v>
+        <v>-473463.0307138365</v>
       </c>
       <c r="H14" t="n">
-        <v>15.52333333333334</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="n">
+      <c r="M14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -932,36 +888,33 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>15.5</v>
+        <v>15.4</v>
       </c>
       <c r="C15" t="n">
         <v>15.4</v>
       </c>
       <c r="D15" t="n">
-        <v>15.5</v>
+        <v>15.4</v>
       </c>
       <c r="E15" t="n">
         <v>15.4</v>
       </c>
       <c r="F15" t="n">
-        <v>64958.42</v>
+        <v>1000</v>
       </c>
       <c r="G15" t="n">
-        <v>15.5</v>
+        <v>-473463.0307138365</v>
       </c>
       <c r="H15" t="n">
-        <v>15.52333333333334</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="n">
+      <c r="M15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -970,7 +923,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>15.5</v>
+        <v>15.4</v>
       </c>
       <c r="C16" t="n">
         <v>15.5</v>
@@ -979,27 +932,24 @@
         <v>15.5</v>
       </c>
       <c r="E16" t="n">
-        <v>15.5</v>
+        <v>15.4</v>
       </c>
       <c r="F16" t="n">
-        <v>129.8064</v>
+        <v>33717.303</v>
       </c>
       <c r="G16" t="n">
-        <v>15.49333333333333</v>
+        <v>-439745.7277138365</v>
       </c>
       <c r="H16" t="n">
-        <v>15.52500000000001</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="n">
+      <c r="M16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,36 +958,33 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="C17" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="D17" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="E17" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="F17" t="n">
-        <v>19900</v>
+        <v>48035.5902</v>
       </c>
       <c r="G17" t="n">
-        <v>15.48</v>
+        <v>-439745.7277138365</v>
       </c>
       <c r="H17" t="n">
-        <v>15.52166666666667</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="n">
+      <c r="M17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1046,36 +993,33 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="C18" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="D18" t="n">
         <v>15.5</v>
       </c>
       <c r="E18" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="F18" t="n">
-        <v>17580</v>
+        <v>86327.4562</v>
       </c>
       <c r="G18" t="n">
-        <v>15.46666666666667</v>
+        <v>-439745.7277138365</v>
       </c>
       <c r="H18" t="n">
-        <v>15.51833333333334</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="n">
+      <c r="M18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1096,24 +1040,21 @@
         <v>15.5</v>
       </c>
       <c r="F19" t="n">
-        <v>9000</v>
+        <v>4394.2731</v>
       </c>
       <c r="G19" t="n">
-        <v>15.46</v>
+        <v>-439745.7277138365</v>
       </c>
       <c r="H19" t="n">
-        <v>15.52166666666667</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="n">
+      <c r="M19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1122,36 +1063,33 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="C20" t="n">
-        <v>15.3</v>
+        <v>15.5</v>
       </c>
       <c r="D20" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="E20" t="n">
-        <v>15.3</v>
+        <v>15.5</v>
       </c>
       <c r="F20" t="n">
-        <v>50000</v>
+        <v>10000</v>
       </c>
       <c r="G20" t="n">
-        <v>15.44</v>
+        <v>-439745.7277138365</v>
       </c>
       <c r="H20" t="n">
-        <v>15.52</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="n">
+      <c r="M20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1160,36 +1098,33 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>15.3</v>
+        <v>15.5</v>
       </c>
       <c r="C21" t="n">
-        <v>15.3</v>
+        <v>15.6</v>
       </c>
       <c r="D21" t="n">
-        <v>15.3</v>
+        <v>15.6</v>
       </c>
       <c r="E21" t="n">
-        <v>15.3</v>
+        <v>15.5</v>
       </c>
       <c r="F21" t="n">
-        <v>50455.045</v>
+        <v>249715.2588</v>
       </c>
       <c r="G21" t="n">
-        <v>15.42</v>
+        <v>-190030.4689138365</v>
       </c>
       <c r="H21" t="n">
-        <v>15.51666666666667</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
-      <c r="N21" t="n">
+      <c r="M21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1198,36 +1133,33 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>15.3</v>
+        <v>15.6</v>
       </c>
       <c r="C22" t="n">
-        <v>15.3</v>
+        <v>15.6</v>
       </c>
       <c r="D22" t="n">
-        <v>15.3</v>
+        <v>15.6</v>
       </c>
       <c r="E22" t="n">
-        <v>15.3</v>
+        <v>15.6</v>
       </c>
       <c r="F22" t="n">
-        <v>18048.6925</v>
+        <v>4277.18</v>
       </c>
       <c r="G22" t="n">
-        <v>15.40666666666667</v>
+        <v>-190030.4689138365</v>
       </c>
       <c r="H22" t="n">
-        <v>15.51333333333334</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr"/>
-      <c r="N22" t="n">
+      <c r="M22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1236,7 +1168,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>15.4</v>
+        <v>15.6</v>
       </c>
       <c r="C23" t="n">
         <v>15.6</v>
@@ -1245,27 +1177,24 @@
         <v>15.6</v>
       </c>
       <c r="E23" t="n">
-        <v>15.4</v>
+        <v>15.6</v>
       </c>
       <c r="F23" t="n">
-        <v>103765</v>
+        <v>116171.152</v>
       </c>
       <c r="G23" t="n">
-        <v>15.40666666666667</v>
+        <v>-190030.4689138365</v>
       </c>
       <c r="H23" t="n">
-        <v>15.51333333333334</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr"/>
-      <c r="N23" t="n">
+      <c r="M23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1286,24 +1215,21 @@
         <v>15.6</v>
       </c>
       <c r="F24" t="n">
-        <v>4723.5256</v>
+        <v>13501</v>
       </c>
       <c r="G24" t="n">
-        <v>15.42</v>
+        <v>-190030.4689138365</v>
       </c>
       <c r="H24" t="n">
-        <v>15.515</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr"/>
-      <c r="N24" t="n">
+      <c r="M24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1315,33 +1241,30 @@
         <v>15.6</v>
       </c>
       <c r="C25" t="n">
-        <v>15.7</v>
+        <v>15.6</v>
       </c>
       <c r="D25" t="n">
-        <v>15.7</v>
+        <v>15.6</v>
       </c>
       <c r="E25" t="n">
         <v>15.6</v>
       </c>
       <c r="F25" t="n">
-        <v>106213.423</v>
+        <v>88160</v>
       </c>
       <c r="G25" t="n">
-        <v>15.44</v>
+        <v>-190030.4689138365</v>
       </c>
       <c r="H25" t="n">
-        <v>15.51666666666667</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr"/>
-      <c r="N25" t="n">
+      <c r="M25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1350,36 +1273,33 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>15.8</v>
+        <v>15.6</v>
       </c>
       <c r="C26" t="n">
-        <v>15.7</v>
+        <v>15.6</v>
       </c>
       <c r="D26" t="n">
-        <v>15.8</v>
+        <v>15.6</v>
       </c>
       <c r="E26" t="n">
-        <v>15.7</v>
+        <v>15.6</v>
       </c>
       <c r="F26" t="n">
-        <v>76460.67260000001</v>
+        <v>35494.667</v>
       </c>
       <c r="G26" t="n">
-        <v>15.46</v>
+        <v>-190030.4689138365</v>
       </c>
       <c r="H26" t="n">
-        <v>15.52</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr"/>
-      <c r="N26" t="n">
+      <c r="M26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1388,36 +1308,33 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>15.8</v>
+        <v>15.6</v>
       </c>
       <c r="C27" t="n">
-        <v>15.8</v>
+        <v>15.6</v>
       </c>
       <c r="D27" t="n">
-        <v>15.8</v>
+        <v>15.6</v>
       </c>
       <c r="E27" t="n">
-        <v>15.8</v>
+        <v>15.6</v>
       </c>
       <c r="F27" t="n">
-        <v>12</v>
+        <v>98569.9559</v>
       </c>
       <c r="G27" t="n">
-        <v>15.48666666666667</v>
+        <v>-190030.4689138365</v>
       </c>
       <c r="H27" t="n">
-        <v>15.52666666666667</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr"/>
-      <c r="N27" t="n">
+      <c r="M27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1426,36 +1343,33 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>15.8</v>
+        <v>15.6</v>
       </c>
       <c r="C28" t="n">
-        <v>16</v>
+        <v>15.6</v>
       </c>
       <c r="D28" t="n">
-        <v>16</v>
+        <v>15.6</v>
       </c>
       <c r="E28" t="n">
-        <v>15.8</v>
+        <v>15.6</v>
       </c>
       <c r="F28" t="n">
-        <v>674936.5318999999</v>
+        <v>6009.5512</v>
       </c>
       <c r="G28" t="n">
-        <v>15.52666666666667</v>
+        <v>-190030.4689138365</v>
       </c>
       <c r="H28" t="n">
-        <v>15.535</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr"/>
-      <c r="N28" t="n">
+      <c r="M28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1464,36 +1378,33 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>16</v>
+        <v>15.6</v>
       </c>
       <c r="C29" t="n">
-        <v>16</v>
+        <v>15.6</v>
       </c>
       <c r="D29" t="n">
-        <v>16</v>
+        <v>15.6</v>
       </c>
       <c r="E29" t="n">
-        <v>16</v>
+        <v>15.6</v>
       </c>
       <c r="F29" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="G29" t="n">
-        <v>15.56666666666666</v>
+        <v>-190030.4689138365</v>
       </c>
       <c r="H29" t="n">
-        <v>15.54166666666667</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr"/>
-      <c r="N29" t="n">
+      <c r="M29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1502,36 +1413,33 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>16</v>
+        <v>15.6</v>
       </c>
       <c r="C30" t="n">
-        <v>16</v>
+        <v>15.6</v>
       </c>
       <c r="D30" t="n">
-        <v>16</v>
+        <v>15.6</v>
       </c>
       <c r="E30" t="n">
-        <v>16</v>
+        <v>15.6</v>
       </c>
       <c r="F30" t="n">
-        <v>375348.2181</v>
+        <v>8198.858899999999</v>
       </c>
       <c r="G30" t="n">
-        <v>15.60666666666666</v>
+        <v>-190030.4689138365</v>
       </c>
       <c r="H30" t="n">
-        <v>15.54833333333334</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr"/>
-      <c r="N30" t="n">
+      <c r="M30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1540,36 +1448,33 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>16</v>
+        <v>15.6</v>
       </c>
       <c r="C31" t="n">
-        <v>16.3</v>
+        <v>15.6</v>
       </c>
       <c r="D31" t="n">
-        <v>16.3</v>
+        <v>15.6</v>
       </c>
       <c r="E31" t="n">
-        <v>16</v>
+        <v>15.6</v>
       </c>
       <c r="F31" t="n">
-        <v>391432.9816</v>
+        <v>17569.7791</v>
       </c>
       <c r="G31" t="n">
-        <v>15.66</v>
+        <v>-190030.4689138365</v>
       </c>
       <c r="H31" t="n">
-        <v>15.55833333333334</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr"/>
-      <c r="N31" t="n">
+      <c r="M31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1578,36 +1483,33 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>16.4</v>
+        <v>15.6</v>
       </c>
       <c r="C32" t="n">
-        <v>16.8</v>
+        <v>15.6</v>
       </c>
       <c r="D32" t="n">
-        <v>17</v>
+        <v>15.6</v>
       </c>
       <c r="E32" t="n">
-        <v>16.4</v>
+        <v>15.6</v>
       </c>
       <c r="F32" t="n">
-        <v>2028317.3298</v>
+        <v>16846.7292</v>
       </c>
       <c r="G32" t="n">
-        <v>15.75333333333333</v>
+        <v>-190030.4689138365</v>
       </c>
       <c r="H32" t="n">
-        <v>15.57833333333333</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr"/>
-      <c r="N32" t="n">
+      <c r="M32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1616,36 +1518,33 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>16.8</v>
+        <v>15.6</v>
       </c>
       <c r="C33" t="n">
-        <v>16.2</v>
+        <v>15.6</v>
       </c>
       <c r="D33" t="n">
-        <v>17</v>
+        <v>15.6</v>
       </c>
       <c r="E33" t="n">
-        <v>15.8</v>
+        <v>15.6</v>
       </c>
       <c r="F33" t="n">
-        <v>539385.0269000001</v>
+        <v>1923.0769</v>
       </c>
       <c r="G33" t="n">
-        <v>15.80666666666666</v>
+        <v>-190030.4689138365</v>
       </c>
       <c r="H33" t="n">
-        <v>15.58833333333333</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr"/>
-      <c r="N33" t="n">
+      <c r="M33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1654,36 +1553,33 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>15.9</v>
+        <v>15.6</v>
       </c>
       <c r="C34" t="n">
-        <v>16</v>
+        <v>15.6</v>
       </c>
       <c r="D34" t="n">
-        <v>16</v>
+        <v>15.6</v>
       </c>
       <c r="E34" t="n">
-        <v>15.9</v>
+        <v>15.6</v>
       </c>
       <c r="F34" t="n">
-        <v>171770.1687</v>
+        <v>14812.2828</v>
       </c>
       <c r="G34" t="n">
-        <v>15.84</v>
+        <v>-190030.4689138365</v>
       </c>
       <c r="H34" t="n">
-        <v>15.59666666666667</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="n">
-        <v>1</v>
-      </c>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr"/>
-      <c r="N34" t="n">
+      <c r="M34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1692,36 +1588,33 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>16.1</v>
+        <v>15.6</v>
       </c>
       <c r="C35" t="n">
-        <v>16.1</v>
+        <v>15.6</v>
       </c>
       <c r="D35" t="n">
-        <v>16.1</v>
+        <v>15.6</v>
       </c>
       <c r="E35" t="n">
-        <v>16.1</v>
+        <v>15.6</v>
       </c>
       <c r="F35" t="n">
-        <v>3538</v>
+        <v>121085.153</v>
       </c>
       <c r="G35" t="n">
-        <v>15.89333333333333</v>
+        <v>-190030.4689138365</v>
       </c>
       <c r="H35" t="n">
-        <v>15.605</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr"/>
-      <c r="N35" t="n">
+      <c r="M35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1730,36 +1623,33 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>16.3</v>
+        <v>15.5</v>
       </c>
       <c r="C36" t="n">
-        <v>16.3</v>
+        <v>15.5</v>
       </c>
       <c r="D36" t="n">
-        <v>16.3</v>
+        <v>15.5</v>
       </c>
       <c r="E36" t="n">
-        <v>16.3</v>
+        <v>15.5</v>
       </c>
       <c r="F36" t="n">
-        <v>10</v>
+        <v>142610.3224</v>
       </c>
       <c r="G36" t="n">
-        <v>15.96</v>
+        <v>-332640.7913138365</v>
       </c>
       <c r="H36" t="n">
-        <v>15.61666666666667</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="n">
-        <v>0</v>
-      </c>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr"/>
-      <c r="N36" t="n">
+      <c r="M36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1768,36 +1658,33 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>16.1</v>
+        <v>15.5</v>
       </c>
       <c r="C37" t="n">
-        <v>16.1</v>
+        <v>15.6</v>
       </c>
       <c r="D37" t="n">
-        <v>16.1</v>
+        <v>15.6</v>
       </c>
       <c r="E37" t="n">
-        <v>16.1</v>
+        <v>15.5</v>
       </c>
       <c r="F37" t="n">
-        <v>8026.519</v>
+        <v>30200</v>
       </c>
       <c r="G37" t="n">
-        <v>16.01333333333333</v>
+        <v>-302440.7913138365</v>
       </c>
       <c r="H37" t="n">
-        <v>15.62666666666667</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr"/>
-      <c r="N37" t="n">
+      <c r="M37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1806,36 +1693,33 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>16.1</v>
+        <v>15.4</v>
       </c>
       <c r="C38" t="n">
-        <v>16</v>
+        <v>15.4</v>
       </c>
       <c r="D38" t="n">
-        <v>16.1</v>
+        <v>15.4</v>
       </c>
       <c r="E38" t="n">
-        <v>16</v>
+        <v>15.4</v>
       </c>
       <c r="F38" t="n">
-        <v>29871.9021</v>
+        <v>50095.5629</v>
       </c>
       <c r="G38" t="n">
-        <v>16.04</v>
+        <v>-352536.3542138365</v>
       </c>
       <c r="H38" t="n">
-        <v>15.63333333333333</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr"/>
-      <c r="N38" t="n">
+      <c r="M38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1844,36 +1728,33 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>15.9</v>
+        <v>15.4</v>
       </c>
       <c r="C39" t="n">
-        <v>15.9</v>
+        <v>15.4</v>
       </c>
       <c r="D39" t="n">
-        <v>15.9</v>
+        <v>15.4</v>
       </c>
       <c r="E39" t="n">
-        <v>15.9</v>
+        <v>15.4</v>
       </c>
       <c r="F39" t="n">
-        <v>131787.1553</v>
+        <v>3787.176</v>
       </c>
       <c r="G39" t="n">
-        <v>16.06</v>
+        <v>-352536.3542138365</v>
       </c>
       <c r="H39" t="n">
-        <v>15.63833333333333</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="n">
-        <v>0</v>
-      </c>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr"/>
-      <c r="N39" t="n">
+      <c r="M39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1882,36 +1763,33 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>15.8</v>
+        <v>15.4</v>
       </c>
       <c r="C40" t="n">
-        <v>15.8</v>
+        <v>15.4</v>
       </c>
       <c r="D40" t="n">
-        <v>15.9</v>
+        <v>15.4</v>
       </c>
       <c r="E40" t="n">
-        <v>15.7</v>
+        <v>15.4</v>
       </c>
       <c r="F40" t="n">
-        <v>221906.5324</v>
+        <v>2000</v>
       </c>
       <c r="G40" t="n">
-        <v>16.06666666666666</v>
+        <v>-352536.3542138365</v>
       </c>
       <c r="H40" t="n">
-        <v>15.64166666666666</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr"/>
-      <c r="N40" t="n">
+      <c r="M40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1920,36 +1798,33 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>15.7</v>
+        <v>15.4</v>
       </c>
       <c r="C41" t="n">
-        <v>15.7</v>
+        <v>15.4</v>
       </c>
       <c r="D41" t="n">
-        <v>15.7</v>
+        <v>15.4</v>
       </c>
       <c r="E41" t="n">
-        <v>15.7</v>
+        <v>15.4</v>
       </c>
       <c r="F41" t="n">
-        <v>106354.1743</v>
+        <v>3000</v>
       </c>
       <c r="G41" t="n">
-        <v>16.06666666666666</v>
+        <v>-352536.3542138365</v>
       </c>
       <c r="H41" t="n">
-        <v>15.64833333333333</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr"/>
-      <c r="N41" t="n">
+      <c r="M41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1958,36 +1833,37 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>15.7</v>
+        <v>15.4</v>
       </c>
       <c r="C42" t="n">
-        <v>15.7</v>
+        <v>15.4</v>
       </c>
       <c r="D42" t="n">
-        <v>15.7</v>
+        <v>15.4</v>
       </c>
       <c r="E42" t="n">
-        <v>15.7</v>
+        <v>15.4</v>
       </c>
       <c r="F42" t="n">
-        <v>38000</v>
+        <v>3000</v>
       </c>
       <c r="G42" t="n">
-        <v>16.06</v>
+        <v>-352536.3542138365</v>
       </c>
       <c r="H42" t="n">
-        <v>15.65166666666667</v>
+        <v>1</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
-      </c>
-      <c r="K42" t="inlineStr"/>
+        <v>15.4</v>
+      </c>
+      <c r="K42" t="n">
+        <v>15.4</v>
+      </c>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="inlineStr"/>
-      <c r="N42" t="n">
+      <c r="M42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1996,36 +1872,41 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>15.8</v>
+        <v>15.4</v>
       </c>
       <c r="C43" t="n">
-        <v>15.8</v>
+        <v>15.4</v>
       </c>
       <c r="D43" t="n">
-        <v>15.8</v>
+        <v>15.4</v>
       </c>
       <c r="E43" t="n">
-        <v>15.8</v>
+        <v>15.4</v>
       </c>
       <c r="F43" t="n">
-        <v>88801.72629999999</v>
+        <v>13.3</v>
       </c>
       <c r="G43" t="n">
-        <v>16.04666666666666</v>
+        <v>-352536.3542138365</v>
       </c>
       <c r="H43" t="n">
-        <v>15.65666666666667</v>
+        <v>1</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr"/>
-      <c r="N43" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="K43" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2034,36 +1915,41 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>15.8</v>
+        <v>15.5</v>
       </c>
       <c r="C44" t="n">
-        <v>15.9</v>
+        <v>15.4</v>
       </c>
       <c r="D44" t="n">
-        <v>15.9</v>
+        <v>15.5</v>
       </c>
       <c r="E44" t="n">
-        <v>15.8</v>
+        <v>15.4</v>
       </c>
       <c r="F44" t="n">
-        <v>530</v>
+        <v>64958.42</v>
       </c>
       <c r="G44" t="n">
-        <v>16.04</v>
+        <v>-352536.3542138365</v>
       </c>
       <c r="H44" t="n">
-        <v>15.665</v>
+        <v>1</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr"/>
-      <c r="N44" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="K44" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2072,36 +1958,41 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>15.9</v>
+        <v>15.5</v>
       </c>
       <c r="C45" t="n">
-        <v>15.9</v>
+        <v>15.5</v>
       </c>
       <c r="D45" t="n">
-        <v>15.9</v>
+        <v>15.5</v>
       </c>
       <c r="E45" t="n">
-        <v>15.9</v>
+        <v>15.5</v>
       </c>
       <c r="F45" t="n">
-        <v>206225.7099</v>
+        <v>129.8064</v>
       </c>
       <c r="G45" t="n">
-        <v>16.03333333333332</v>
+        <v>-352406.5478138365</v>
       </c>
       <c r="H45" t="n">
-        <v>15.67333333333333</v>
+        <v>1</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
-      </c>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr"/>
-      <c r="N45" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="K45" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2110,36 +2001,41 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>16</v>
+        <v>15.4</v>
       </c>
       <c r="C46" t="n">
-        <v>16.1</v>
+        <v>15.4</v>
       </c>
       <c r="D46" t="n">
-        <v>16.1</v>
+        <v>15.4</v>
       </c>
       <c r="E46" t="n">
-        <v>16</v>
+        <v>15.4</v>
       </c>
       <c r="F46" t="n">
-        <v>109254.9195</v>
+        <v>19900</v>
       </c>
       <c r="G46" t="n">
-        <v>16.01999999999999</v>
+        <v>-372306.5478138365</v>
       </c>
       <c r="H46" t="n">
-        <v>15.685</v>
+        <v>1</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
-      </c>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="inlineStr"/>
-      <c r="N46" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="K46" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2148,36 +2044,39 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>16.1</v>
+        <v>15.4</v>
       </c>
       <c r="C47" t="n">
-        <v>16.1</v>
+        <v>15.4</v>
       </c>
       <c r="D47" t="n">
-        <v>16.1</v>
+        <v>15.5</v>
       </c>
       <c r="E47" t="n">
-        <v>16.1</v>
+        <v>15.4</v>
       </c>
       <c r="F47" t="n">
-        <v>5110.4968</v>
+        <v>17580</v>
       </c>
       <c r="G47" t="n">
-        <v>15.97333333333333</v>
+        <v>-372306.5478138365</v>
       </c>
       <c r="H47" t="n">
-        <v>15.695</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="n">
-        <v>0</v>
-      </c>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr"/>
-      <c r="N47" t="n">
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2186,36 +2085,39 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="C48" t="n">
-        <v>16.1</v>
+        <v>15.5</v>
       </c>
       <c r="D48" t="n">
-        <v>16.1</v>
+        <v>15.5</v>
       </c>
       <c r="E48" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="F48" t="n">
-        <v>21322.6898</v>
+        <v>9000</v>
       </c>
       <c r="G48" t="n">
-        <v>15.96666666666666</v>
+        <v>-363306.5478138365</v>
       </c>
       <c r="H48" t="n">
-        <v>15.705</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="n">
-        <v>0</v>
-      </c>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="inlineStr"/>
-      <c r="N48" t="n">
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2224,36 +2126,41 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>15.9</v>
+        <v>15.4</v>
       </c>
       <c r="C49" t="n">
-        <v>15.9</v>
+        <v>15.3</v>
       </c>
       <c r="D49" t="n">
-        <v>16</v>
+        <v>15.4</v>
       </c>
       <c r="E49" t="n">
-        <v>15.9</v>
+        <v>15.3</v>
       </c>
       <c r="F49" t="n">
-        <v>116772.1318</v>
+        <v>50000</v>
       </c>
       <c r="G49" t="n">
-        <v>15.96</v>
+        <v>-413306.5478138365</v>
       </c>
       <c r="H49" t="n">
-        <v>15.71166666666667</v>
+        <v>1</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
       <c r="J49" t="n">
-        <v>1</v>
-      </c>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="inlineStr"/>
-      <c r="N49" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="K49" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2262,36 +2169,41 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>15.9</v>
+        <v>15.3</v>
       </c>
       <c r="C50" t="n">
-        <v>16</v>
+        <v>15.3</v>
       </c>
       <c r="D50" t="n">
-        <v>16</v>
+        <v>15.3</v>
       </c>
       <c r="E50" t="n">
-        <v>15.8</v>
+        <v>15.3</v>
       </c>
       <c r="F50" t="n">
-        <v>356884.3608</v>
+        <v>50455.045</v>
       </c>
       <c r="G50" t="n">
-        <v>15.95333333333333</v>
+        <v>-413306.5478138365</v>
       </c>
       <c r="H50" t="n">
-        <v>15.72</v>
+        <v>1</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
       <c r="J50" t="n">
-        <v>1</v>
-      </c>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="inlineStr"/>
-      <c r="N50" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="K50" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2300,36 +2212,41 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>16</v>
+        <v>15.3</v>
       </c>
       <c r="C51" t="n">
-        <v>16.1</v>
+        <v>15.3</v>
       </c>
       <c r="D51" t="n">
-        <v>16.1</v>
+        <v>15.3</v>
       </c>
       <c r="E51" t="n">
-        <v>16</v>
+        <v>15.3</v>
       </c>
       <c r="F51" t="n">
-        <v>253200</v>
+        <v>18048.6925</v>
       </c>
       <c r="G51" t="n">
-        <v>15.93999999999999</v>
+        <v>-413306.5478138365</v>
       </c>
       <c r="H51" t="n">
-        <v>15.73</v>
+        <v>1</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
       <c r="J51" t="n">
-        <v>0</v>
-      </c>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="inlineStr"/>
-      <c r="N51" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="K51" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2338,36 +2255,41 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>16.1</v>
+        <v>15.4</v>
       </c>
       <c r="C52" t="n">
-        <v>16.1</v>
+        <v>15.6</v>
       </c>
       <c r="D52" t="n">
-        <v>16.1</v>
+        <v>15.6</v>
       </c>
       <c r="E52" t="n">
-        <v>15.9</v>
+        <v>15.4</v>
       </c>
       <c r="F52" t="n">
-        <v>80223.6024</v>
+        <v>103765</v>
       </c>
       <c r="G52" t="n">
-        <v>15.93999999999999</v>
+        <v>-309541.5478138365</v>
       </c>
       <c r="H52" t="n">
-        <v>15.73833333333334</v>
+        <v>1</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
       <c r="J52" t="n">
-        <v>1</v>
-      </c>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="inlineStr"/>
-      <c r="N52" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="K52" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2376,36 +2298,41 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>16.1</v>
+        <v>15.6</v>
       </c>
       <c r="C53" t="n">
-        <v>16.1</v>
+        <v>15.6</v>
       </c>
       <c r="D53" t="n">
-        <v>16.1</v>
+        <v>15.6</v>
       </c>
       <c r="E53" t="n">
-        <v>16.1</v>
+        <v>15.6</v>
       </c>
       <c r="F53" t="n">
-        <v>41517.2049</v>
+        <v>4723.5256</v>
       </c>
       <c r="G53" t="n">
-        <v>15.94666666666666</v>
+        <v>-309541.5478138365</v>
       </c>
       <c r="H53" t="n">
-        <v>15.74666666666667</v>
+        <v>1</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
       <c r="J53" t="n">
-        <v>1</v>
-      </c>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="inlineStr"/>
-      <c r="N53" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="K53" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2414,36 +2341,41 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>16.1</v>
+        <v>15.6</v>
       </c>
       <c r="C54" t="n">
-        <v>16.1</v>
+        <v>15.7</v>
       </c>
       <c r="D54" t="n">
-        <v>16.1</v>
+        <v>15.7</v>
       </c>
       <c r="E54" t="n">
-        <v>16.1</v>
+        <v>15.6</v>
       </c>
       <c r="F54" t="n">
-        <v>648.944</v>
+        <v>106213.423</v>
       </c>
       <c r="G54" t="n">
-        <v>15.95999999999999</v>
+        <v>-203328.1248138365</v>
       </c>
       <c r="H54" t="n">
-        <v>15.755</v>
+        <v>1</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
       <c r="J54" t="n">
-        <v>0</v>
-      </c>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="inlineStr"/>
-      <c r="N54" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="K54" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2452,36 +2384,41 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>16.1</v>
+        <v>15.8</v>
       </c>
       <c r="C55" t="n">
-        <v>16.1</v>
+        <v>15.7</v>
       </c>
       <c r="D55" t="n">
-        <v>16.1</v>
+        <v>15.8</v>
       </c>
       <c r="E55" t="n">
-        <v>16.1</v>
+        <v>15.7</v>
       </c>
       <c r="F55" t="n">
-        <v>7763.9751</v>
+        <v>76460.67260000001</v>
       </c>
       <c r="G55" t="n">
-        <v>15.97999999999999</v>
+        <v>-203328.1248138365</v>
       </c>
       <c r="H55" t="n">
-        <v>15.76333333333333</v>
+        <v>1</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
       <c r="J55" t="n">
-        <v>1</v>
-      </c>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="inlineStr"/>
-      <c r="N55" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="K55" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2490,36 +2427,39 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>16</v>
+        <v>15.8</v>
       </c>
       <c r="C56" t="n">
-        <v>16</v>
+        <v>15.8</v>
       </c>
       <c r="D56" t="n">
-        <v>16</v>
+        <v>15.8</v>
       </c>
       <c r="E56" t="n">
-        <v>16</v>
+        <v>15.8</v>
       </c>
       <c r="F56" t="n">
-        <v>2226.5625</v>
+        <v>12</v>
       </c>
       <c r="G56" t="n">
-        <v>15.99999999999999</v>
+        <v>-203316.1248138365</v>
       </c>
       <c r="H56" t="n">
-        <v>15.77</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="n">
-        <v>1</v>
-      </c>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="inlineStr"/>
-      <c r="N56" t="n">
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2528,7 +2468,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>16</v>
+        <v>15.8</v>
       </c>
       <c r="C57" t="n">
         <v>16</v>
@@ -2537,27 +2477,30 @@
         <v>16</v>
       </c>
       <c r="E57" t="n">
-        <v>16</v>
+        <v>15.8</v>
       </c>
       <c r="F57" t="n">
-        <v>7947.9433</v>
+        <v>674936.5318999999</v>
       </c>
       <c r="G57" t="n">
-        <v>16.01999999999999</v>
+        <v>471620.4070861634</v>
       </c>
       <c r="H57" t="n">
-        <v>15.77666666666667</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="n">
-        <v>1</v>
-      </c>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="inlineStr"/>
-      <c r="N57" t="n">
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2566,36 +2509,39 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="C58" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="D58" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="E58" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="F58" t="n">
-        <v>6638.1987</v>
+        <v>17000</v>
       </c>
       <c r="G58" t="n">
-        <v>16.04</v>
+        <v>471620.4070861634</v>
       </c>
       <c r="H58" t="n">
-        <v>15.785</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="n">
-        <v>1</v>
-      </c>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="inlineStr"/>
-      <c r="N58" t="n">
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2604,36 +2550,39 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="C59" t="n">
-        <v>16.2</v>
+        <v>16</v>
       </c>
       <c r="D59" t="n">
-        <v>16.2</v>
+        <v>16</v>
       </c>
       <c r="E59" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="F59" t="n">
-        <v>40610</v>
+        <v>375348.2181</v>
       </c>
       <c r="G59" t="n">
-        <v>16.05999999999999</v>
+        <v>471620.4070861634</v>
       </c>
       <c r="H59" t="n">
-        <v>15.795</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="n">
-        <v>1</v>
-      </c>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="inlineStr"/>
-      <c r="N59" t="n">
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2645,33 +2594,36 @@
         <v>16</v>
       </c>
       <c r="C60" t="n">
-        <v>15.9</v>
+        <v>16.3</v>
       </c>
       <c r="D60" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="E60" t="n">
         <v>16</v>
       </c>
-      <c r="E60" t="n">
-        <v>15.9</v>
-      </c>
       <c r="F60" t="n">
-        <v>50088.0684</v>
+        <v>391432.9816</v>
       </c>
       <c r="G60" t="n">
-        <v>16.05999999999999</v>
+        <v>863053.3886861634</v>
       </c>
       <c r="H60" t="n">
-        <v>15.8</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="n">
-        <v>1</v>
-      </c>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="inlineStr"/>
-      <c r="N60" t="n">
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2680,36 +2632,39 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>16.1</v>
+        <v>16.4</v>
       </c>
       <c r="C61" t="n">
-        <v>16.1</v>
+        <v>16.8</v>
       </c>
       <c r="D61" t="n">
-        <v>16.1</v>
+        <v>17</v>
       </c>
       <c r="E61" t="n">
-        <v>16.1</v>
+        <v>16.4</v>
       </c>
       <c r="F61" t="n">
-        <v>10</v>
+        <v>2028317.3298</v>
       </c>
       <c r="G61" t="n">
-        <v>16.05999999999999</v>
+        <v>2891370.718486163</v>
       </c>
       <c r="H61" t="n">
-        <v>15.80833333333333</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="n">
-        <v>0</v>
-      </c>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="inlineStr"/>
-      <c r="N61" t="n">
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2718,37 +2673,40 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>16.1</v>
+        <v>16.8</v>
       </c>
       <c r="C62" t="n">
-        <v>16.1</v>
+        <v>16.2</v>
       </c>
       <c r="D62" t="n">
-        <v>16.1</v>
+        <v>17</v>
       </c>
       <c r="E62" t="n">
-        <v>16.1</v>
+        <v>15.8</v>
       </c>
       <c r="F62" t="n">
-        <v>3838.6956</v>
+        <v>539385.0269000001</v>
       </c>
       <c r="G62" t="n">
-        <v>16.05999999999999</v>
+        <v>2351985.691586163</v>
       </c>
       <c r="H62" t="n">
-        <v>15.81666666666667</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>0</v>
-      </c>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="inlineStr"/>
-      <c r="N62" t="n">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M62" t="n">
+        <v>1.046948051948052</v>
       </c>
     </row>
     <row r="63">
@@ -2756,36 +2714,33 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>16.1</v>
+        <v>15.9</v>
       </c>
       <c r="C63" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="D63" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="E63" t="n">
-        <v>16.1</v>
+        <v>15.9</v>
       </c>
       <c r="F63" t="n">
-        <v>41390.6926</v>
+        <v>171770.1687</v>
       </c>
       <c r="G63" t="n">
-        <v>16.05999999999999</v>
+        <v>2180215.522886164</v>
       </c>
       <c r="H63" t="n">
-        <v>15.825</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="n">
-        <v>0</v>
-      </c>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="inlineStr"/>
-      <c r="N63" t="n">
+      <c r="M63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2794,36 +2749,33 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>16.2</v>
+        <v>16.1</v>
       </c>
       <c r="C64" t="n">
-        <v>16.2</v>
+        <v>16.1</v>
       </c>
       <c r="D64" t="n">
-        <v>16.2</v>
+        <v>16.1</v>
       </c>
       <c r="E64" t="n">
-        <v>16.2</v>
+        <v>16.1</v>
       </c>
       <c r="F64" t="n">
-        <v>30.8024</v>
+        <v>3538</v>
       </c>
       <c r="G64" t="n">
-        <v>16.07999999999999</v>
+        <v>2183753.522886164</v>
       </c>
       <c r="H64" t="n">
-        <v>15.835</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="n">
-        <v>0</v>
-      </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="inlineStr"/>
-      <c r="N64" t="n">
+      <c r="M64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2832,36 +2784,33 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>16.1</v>
+        <v>16.3</v>
       </c>
       <c r="C65" t="n">
-        <v>16</v>
+        <v>16.3</v>
       </c>
       <c r="D65" t="n">
-        <v>16.1</v>
+        <v>16.3</v>
       </c>
       <c r="E65" t="n">
-        <v>16</v>
+        <v>16.3</v>
       </c>
       <c r="F65" t="n">
-        <v>12768.348</v>
+        <v>10</v>
       </c>
       <c r="G65" t="n">
-        <v>16.07999999999999</v>
+        <v>2183763.522886164</v>
       </c>
       <c r="H65" t="n">
-        <v>15.84166666666667</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="n">
-        <v>0</v>
-      </c>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="inlineStr"/>
-      <c r="N65" t="n">
+      <c r="M65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2870,36 +2819,33 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>16.2</v>
+        <v>16.1</v>
       </c>
       <c r="C66" t="n">
-        <v>16</v>
+        <v>16.1</v>
       </c>
       <c r="D66" t="n">
-        <v>16.2</v>
+        <v>16.1</v>
       </c>
       <c r="E66" t="n">
-        <v>16</v>
+        <v>16.1</v>
       </c>
       <c r="F66" t="n">
-        <v>2740.923</v>
+        <v>8026.519</v>
       </c>
       <c r="G66" t="n">
-        <v>16.07333333333333</v>
+        <v>2175737.003886164</v>
       </c>
       <c r="H66" t="n">
-        <v>15.84833333333333</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="n">
-        <v>0</v>
-      </c>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="inlineStr"/>
-      <c r="N66" t="n">
+      <c r="M66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2920,24 +2866,21 @@
         <v>16</v>
       </c>
       <c r="F67" t="n">
-        <v>30210</v>
+        <v>29871.9021</v>
       </c>
       <c r="G67" t="n">
-        <v>16.06666666666666</v>
+        <v>2145865.101786164</v>
       </c>
       <c r="H67" t="n">
-        <v>15.85666666666667</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="n">
-        <v>0</v>
-      </c>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="inlineStr"/>
-      <c r="N67" t="n">
+      <c r="M67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2946,36 +2889,33 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>16</v>
+        <v>15.9</v>
       </c>
       <c r="C68" t="n">
-        <v>16.1</v>
+        <v>15.9</v>
       </c>
       <c r="D68" t="n">
-        <v>16.1</v>
+        <v>15.9</v>
       </c>
       <c r="E68" t="n">
         <v>15.9</v>
       </c>
       <c r="F68" t="n">
-        <v>40010</v>
+        <v>131787.1553</v>
       </c>
       <c r="G68" t="n">
-        <v>16.06666666666666</v>
+        <v>2014077.946486164</v>
       </c>
       <c r="H68" t="n">
-        <v>15.865</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="n">
-        <v>0</v>
-      </c>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="inlineStr"/>
-      <c r="N68" t="n">
+      <c r="M68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2984,36 +2924,33 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>16</v>
+        <v>15.8</v>
       </c>
       <c r="C69" t="n">
-        <v>16</v>
+        <v>15.8</v>
       </c>
       <c r="D69" t="n">
-        <v>16</v>
+        <v>15.9</v>
       </c>
       <c r="E69" t="n">
-        <v>16</v>
+        <v>15.7</v>
       </c>
       <c r="F69" t="n">
-        <v>2251.128</v>
+        <v>221906.5324</v>
       </c>
       <c r="G69" t="n">
-        <v>16.05999999999999</v>
+        <v>1792171.414086164</v>
       </c>
       <c r="H69" t="n">
-        <v>15.875</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="n">
-        <v>0</v>
-      </c>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="inlineStr"/>
-      <c r="N69" t="n">
+      <c r="M69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3022,36 +2959,33 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>16.1</v>
+        <v>15.7</v>
       </c>
       <c r="C70" t="n">
-        <v>16.1</v>
+        <v>15.7</v>
       </c>
       <c r="D70" t="n">
-        <v>16.1</v>
+        <v>15.7</v>
       </c>
       <c r="E70" t="n">
-        <v>16.1</v>
+        <v>15.7</v>
       </c>
       <c r="F70" t="n">
-        <v>10</v>
+        <v>106354.1743</v>
       </c>
       <c r="G70" t="n">
-        <v>16.05999999999999</v>
+        <v>1685817.239786164</v>
       </c>
       <c r="H70" t="n">
-        <v>15.88666666666667</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="n">
-        <v>0</v>
-      </c>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="inlineStr"/>
-      <c r="N70" t="n">
+      <c r="M70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3060,36 +2994,33 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>15.9</v>
+        <v>15.7</v>
       </c>
       <c r="C71" t="n">
-        <v>16.1</v>
+        <v>15.7</v>
       </c>
       <c r="D71" t="n">
-        <v>16.1</v>
+        <v>15.7</v>
       </c>
       <c r="E71" t="n">
-        <v>15.9</v>
+        <v>15.7</v>
       </c>
       <c r="F71" t="n">
-        <v>77101.53810000001</v>
+        <v>38000</v>
       </c>
       <c r="G71" t="n">
-        <v>16.06666666666666</v>
+        <v>1685817.239786164</v>
       </c>
       <c r="H71" t="n">
-        <v>15.89833333333334</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="n">
-        <v>0</v>
-      </c>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="inlineStr"/>
-      <c r="N71" t="n">
+      <c r="M71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3098,36 +3029,33 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>16</v>
+        <v>15.8</v>
       </c>
       <c r="C72" t="n">
-        <v>16.1</v>
+        <v>15.8</v>
       </c>
       <c r="D72" t="n">
-        <v>16.1</v>
+        <v>15.8</v>
       </c>
       <c r="E72" t="n">
-        <v>16</v>
+        <v>15.8</v>
       </c>
       <c r="F72" t="n">
-        <v>49596.8612</v>
+        <v>88801.72629999999</v>
       </c>
       <c r="G72" t="n">
-        <v>16.07333333333333</v>
+        <v>1774618.966086164</v>
       </c>
       <c r="H72" t="n">
-        <v>15.91</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="n">
-        <v>0</v>
-      </c>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="inlineStr"/>
-      <c r="N72" t="n">
+      <c r="M72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3136,36 +3064,33 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>16</v>
+        <v>15.8</v>
       </c>
       <c r="C73" t="n">
-        <v>16</v>
+        <v>15.9</v>
       </c>
       <c r="D73" t="n">
-        <v>16</v>
+        <v>15.9</v>
       </c>
       <c r="E73" t="n">
-        <v>15.9</v>
+        <v>15.8</v>
       </c>
       <c r="F73" t="n">
-        <v>80963.3368</v>
+        <v>530</v>
       </c>
       <c r="G73" t="n">
-        <v>16.06666666666666</v>
+        <v>1775148.966086164</v>
       </c>
       <c r="H73" t="n">
-        <v>15.92</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="n">
-        <v>0</v>
-      </c>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
-      <c r="M73" t="inlineStr"/>
-      <c r="N73" t="n">
+      <c r="M73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3186,24 +3111,21 @@
         <v>15.9</v>
       </c>
       <c r="F74" t="n">
-        <v>17.1698</v>
+        <v>206225.7099</v>
       </c>
       <c r="G74" t="n">
-        <v>16.04666666666666</v>
+        <v>1775148.966086164</v>
       </c>
       <c r="H74" t="n">
-        <v>15.92833333333334</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="n">
-        <v>0</v>
-      </c>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
-      <c r="M74" t="inlineStr"/>
-      <c r="N74" t="n">
+      <c r="M74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3212,36 +3134,33 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>15.8</v>
+        <v>16</v>
       </c>
       <c r="C75" t="n">
-        <v>15.8</v>
+        <v>16.1</v>
       </c>
       <c r="D75" t="n">
-        <v>15.8</v>
+        <v>16.1</v>
       </c>
       <c r="E75" t="n">
-        <v>15.8</v>
+        <v>16</v>
       </c>
       <c r="F75" t="n">
-        <v>45936.3924</v>
+        <v>109254.9195</v>
       </c>
       <c r="G75" t="n">
-        <v>16.04</v>
+        <v>1884403.885586164</v>
       </c>
       <c r="H75" t="n">
-        <v>15.935</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="n">
-        <v>0</v>
-      </c>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
-      <c r="M75" t="inlineStr"/>
-      <c r="N75" t="n">
+      <c r="M75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3250,36 +3169,33 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>15.8</v>
+        <v>16.1</v>
       </c>
       <c r="C76" t="n">
-        <v>15.9</v>
+        <v>16.1</v>
       </c>
       <c r="D76" t="n">
-        <v>15.9</v>
+        <v>16.1</v>
       </c>
       <c r="E76" t="n">
-        <v>15.8</v>
+        <v>16.1</v>
       </c>
       <c r="F76" t="n">
-        <v>8385.5065</v>
+        <v>5110.4968</v>
       </c>
       <c r="G76" t="n">
-        <v>16.02666666666666</v>
+        <v>1884403.885586164</v>
       </c>
       <c r="H76" t="n">
-        <v>15.94166666666667</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="n">
-        <v>0</v>
-      </c>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
-      <c r="M76" t="inlineStr"/>
-      <c r="N76" t="n">
+      <c r="M76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3288,36 +3204,33 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>15.9</v>
+        <v>16</v>
       </c>
       <c r="C77" t="n">
-        <v>15.8</v>
+        <v>16.1</v>
       </c>
       <c r="D77" t="n">
-        <v>15.9</v>
+        <v>16.1</v>
       </c>
       <c r="E77" t="n">
-        <v>15.8</v>
+        <v>16</v>
       </c>
       <c r="F77" t="n">
-        <v>19234.8023</v>
+        <v>21322.6898</v>
       </c>
       <c r="G77" t="n">
-        <v>16.00666666666666</v>
+        <v>1884403.885586164</v>
       </c>
       <c r="H77" t="n">
-        <v>15.94833333333333</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="n">
-        <v>0</v>
-      </c>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
-      <c r="M77" t="inlineStr"/>
-      <c r="N77" t="n">
+      <c r="M77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3326,36 +3239,33 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>16</v>
+        <v>15.9</v>
       </c>
       <c r="C78" t="n">
-        <v>16</v>
+        <v>15.9</v>
       </c>
       <c r="D78" t="n">
         <v>16</v>
       </c>
       <c r="E78" t="n">
-        <v>16</v>
+        <v>15.9</v>
       </c>
       <c r="F78" t="n">
-        <v>10</v>
+        <v>116772.1318</v>
       </c>
       <c r="G78" t="n">
-        <v>15.99999999999999</v>
+        <v>1767631.753786164</v>
       </c>
       <c r="H78" t="n">
-        <v>15.95833333333334</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="n">
-        <v>0</v>
-      </c>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
-      <c r="M78" t="inlineStr"/>
-      <c r="N78" t="n">
+      <c r="M78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3367,33 +3277,30 @@
         <v>15.9</v>
       </c>
       <c r="C79" t="n">
-        <v>15.8</v>
+        <v>16</v>
       </c>
       <c r="D79" t="n">
-        <v>15.9</v>
+        <v>16</v>
       </c>
       <c r="E79" t="n">
         <v>15.8</v>
       </c>
       <c r="F79" t="n">
-        <v>360294.6675</v>
+        <v>356884.3608</v>
       </c>
       <c r="G79" t="n">
-        <v>15.97333333333333</v>
+        <v>2124516.114586164</v>
       </c>
       <c r="H79" t="n">
-        <v>15.96333333333333</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="n">
-        <v>0</v>
-      </c>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
-      <c r="M79" t="inlineStr"/>
-      <c r="N79" t="n">
+      <c r="M79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3402,36 +3309,33 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>15.7</v>
+        <v>16</v>
       </c>
       <c r="C80" t="n">
-        <v>15.6</v>
+        <v>16.1</v>
       </c>
       <c r="D80" t="n">
-        <v>15.8</v>
+        <v>16.1</v>
       </c>
       <c r="E80" t="n">
-        <v>15.6</v>
+        <v>16</v>
       </c>
       <c r="F80" t="n">
-        <v>259015.3429</v>
+        <v>253200</v>
       </c>
       <c r="G80" t="n">
-        <v>15.94666666666666</v>
+        <v>2377716.114586164</v>
       </c>
       <c r="H80" t="n">
-        <v>15.96833333333334</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="n">
-        <v>0</v>
-      </c>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
-      <c r="M80" t="inlineStr"/>
-      <c r="N80" t="n">
+      <c r="M80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3440,36 +3344,33 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>15.6</v>
+        <v>16.1</v>
       </c>
       <c r="C81" t="n">
-        <v>15.6</v>
+        <v>16.1</v>
       </c>
       <c r="D81" t="n">
-        <v>15.6</v>
+        <v>16.1</v>
       </c>
       <c r="E81" t="n">
-        <v>15.6</v>
+        <v>15.9</v>
       </c>
       <c r="F81" t="n">
-        <v>354314.9966</v>
+        <v>80223.6024</v>
       </c>
       <c r="G81" t="n">
-        <v>15.91999999999999</v>
+        <v>2377716.114586164</v>
       </c>
       <c r="H81" t="n">
-        <v>15.97333333333334</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="n">
-        <v>0</v>
-      </c>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
-      <c r="M81" t="inlineStr"/>
-      <c r="N81" t="n">
+      <c r="M81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3478,36 +3379,33 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>15.6</v>
+        <v>16.1</v>
       </c>
       <c r="C82" t="n">
-        <v>15.6</v>
+        <v>16.1</v>
       </c>
       <c r="D82" t="n">
-        <v>15.6</v>
+        <v>16.1</v>
       </c>
       <c r="E82" t="n">
-        <v>15.5</v>
+        <v>16.1</v>
       </c>
       <c r="F82" t="n">
-        <v>309945.7305</v>
+        <v>41517.2049</v>
       </c>
       <c r="G82" t="n">
-        <v>15.89333333333333</v>
+        <v>2377716.114586164</v>
       </c>
       <c r="H82" t="n">
-        <v>15.97833333333334</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="n">
-        <v>0</v>
-      </c>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
-      <c r="M82" t="inlineStr"/>
-      <c r="N82" t="n">
+      <c r="M82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3516,36 +3414,33 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>15.5</v>
+        <v>16.1</v>
       </c>
       <c r="C83" t="n">
-        <v>15.6</v>
+        <v>16.1</v>
       </c>
       <c r="D83" t="n">
-        <v>15.6</v>
+        <v>16.1</v>
       </c>
       <c r="E83" t="n">
-        <v>15.5</v>
+        <v>16.1</v>
       </c>
       <c r="F83" t="n">
-        <v>149633.0276</v>
+        <v>648.944</v>
       </c>
       <c r="G83" t="n">
-        <v>15.85999999999999</v>
+        <v>2377716.114586164</v>
       </c>
       <c r="H83" t="n">
-        <v>15.97833333333334</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="n">
-        <v>0</v>
-      </c>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
-      <c r="M83" t="inlineStr"/>
-      <c r="N83" t="n">
+      <c r="M83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3554,36 +3449,33 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>15.5</v>
+        <v>16.1</v>
       </c>
       <c r="C84" t="n">
-        <v>15.5</v>
+        <v>16.1</v>
       </c>
       <c r="D84" t="n">
-        <v>15.6</v>
+        <v>16.1</v>
       </c>
       <c r="E84" t="n">
-        <v>15.5</v>
+        <v>16.1</v>
       </c>
       <c r="F84" t="n">
-        <v>62546.5506</v>
+        <v>7763.9751</v>
       </c>
       <c r="G84" t="n">
-        <v>15.82666666666666</v>
+        <v>2377716.114586164</v>
       </c>
       <c r="H84" t="n">
-        <v>15.97666666666667</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="n">
-        <v>0</v>
-      </c>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
-      <c r="M84" t="inlineStr"/>
-      <c r="N84" t="n">
+      <c r="M84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3592,36 +3484,33 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>15.6</v>
+        <v>16</v>
       </c>
       <c r="C85" t="n">
-        <v>15.6</v>
+        <v>16</v>
       </c>
       <c r="D85" t="n">
-        <v>15.6</v>
+        <v>16</v>
       </c>
       <c r="E85" t="n">
-        <v>15.6</v>
+        <v>16</v>
       </c>
       <c r="F85" t="n">
-        <v>475969.0384</v>
+        <v>2226.5625</v>
       </c>
       <c r="G85" t="n">
-        <v>15.79333333333333</v>
+        <v>2375489.552086164</v>
       </c>
       <c r="H85" t="n">
-        <v>15.975</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="n">
-        <v>0</v>
-      </c>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
-      <c r="M85" t="inlineStr"/>
-      <c r="N85" t="n">
+      <c r="M85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3630,36 +3519,33 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>15.6</v>
+        <v>16</v>
       </c>
       <c r="C86" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="D86" t="n">
-        <v>15.6</v>
+        <v>16</v>
       </c>
       <c r="E86" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="F86" t="n">
-        <v>364808.6676</v>
+        <v>7947.9433</v>
       </c>
       <c r="G86" t="n">
-        <v>15.75333333333333</v>
+        <v>2375489.552086164</v>
       </c>
       <c r="H86" t="n">
-        <v>15.97166666666667</v>
+        <v>0</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="n">
-        <v>0</v>
-      </c>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
-      <c r="M86" t="inlineStr"/>
-      <c r="N86" t="n">
+      <c r="M86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3668,36 +3554,33 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>15.6</v>
+        <v>16.1</v>
       </c>
       <c r="C87" t="n">
-        <v>15.5</v>
+        <v>16.1</v>
       </c>
       <c r="D87" t="n">
-        <v>15.6</v>
+        <v>16.1</v>
       </c>
       <c r="E87" t="n">
-        <v>15.5</v>
+        <v>16.1</v>
       </c>
       <c r="F87" t="n">
-        <v>332705.206</v>
+        <v>6638.1987</v>
       </c>
       <c r="G87" t="n">
-        <v>15.71333333333333</v>
+        <v>2382127.750786164</v>
       </c>
       <c r="H87" t="n">
-        <v>15.96666666666667</v>
+        <v>0</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="n">
-        <v>0</v>
-      </c>
+      <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
-      <c r="M87" t="inlineStr"/>
-      <c r="N87" t="n">
+      <c r="M87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3706,36 +3589,33 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>15.5</v>
+        <v>16.1</v>
       </c>
       <c r="C88" t="n">
-        <v>15.5</v>
+        <v>16.2</v>
       </c>
       <c r="D88" t="n">
-        <v>15.5</v>
+        <v>16.2</v>
       </c>
       <c r="E88" t="n">
-        <v>15.5</v>
+        <v>16.1</v>
       </c>
       <c r="F88" t="n">
-        <v>9943</v>
+        <v>40610</v>
       </c>
       <c r="G88" t="n">
-        <v>15.68</v>
+        <v>2422737.750786164</v>
       </c>
       <c r="H88" t="n">
-        <v>15.95833333333334</v>
+        <v>0</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="n">
-        <v>0</v>
-      </c>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
-      <c r="M88" t="inlineStr"/>
-      <c r="N88" t="n">
+      <c r="M88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3744,36 +3624,33 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>15.6</v>
+        <v>16</v>
       </c>
       <c r="C89" t="n">
-        <v>15.6</v>
+        <v>15.9</v>
       </c>
       <c r="D89" t="n">
-        <v>15.6</v>
+        <v>16</v>
       </c>
       <c r="E89" t="n">
-        <v>15.6</v>
+        <v>15.9</v>
       </c>
       <c r="F89" t="n">
-        <v>10053.4807</v>
+        <v>50088.0684</v>
       </c>
       <c r="G89" t="n">
-        <v>15.65999999999999</v>
+        <v>2372649.682386164</v>
       </c>
       <c r="H89" t="n">
-        <v>15.95166666666667</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="n">
-        <v>0</v>
-      </c>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr"/>
-      <c r="M89" t="inlineStr"/>
-      <c r="N89" t="n">
+      <c r="M89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3782,36 +3659,33 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>15.5</v>
+        <v>16.1</v>
       </c>
       <c r="C90" t="n">
-        <v>15.5</v>
+        <v>16.1</v>
       </c>
       <c r="D90" t="n">
-        <v>15.5</v>
+        <v>16.1</v>
       </c>
       <c r="E90" t="n">
-        <v>15.5</v>
+        <v>16.1</v>
       </c>
       <c r="F90" t="n">
-        <v>11262</v>
+        <v>10</v>
       </c>
       <c r="G90" t="n">
-        <v>15.63999999999999</v>
+        <v>2372659.682386164</v>
       </c>
       <c r="H90" t="n">
-        <v>15.94333333333334</v>
+        <v>0</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="n">
-        <v>0</v>
-      </c>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
-      <c r="M90" t="inlineStr"/>
-      <c r="N90" t="n">
+      <c r="M90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3820,36 +3694,33 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>15.5</v>
+        <v>16.1</v>
       </c>
       <c r="C91" t="n">
-        <v>15.6</v>
+        <v>16.1</v>
       </c>
       <c r="D91" t="n">
-        <v>15.6</v>
+        <v>16.1</v>
       </c>
       <c r="E91" t="n">
-        <v>15.5</v>
+        <v>16.1</v>
       </c>
       <c r="F91" t="n">
-        <v>124.4725</v>
+        <v>3838.6956</v>
       </c>
       <c r="G91" t="n">
-        <v>15.61999999999999</v>
+        <v>2372659.682386164</v>
       </c>
       <c r="H91" t="n">
-        <v>15.93166666666667</v>
+        <v>0</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="n">
-        <v>0</v>
-      </c>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr"/>
-      <c r="M91" t="inlineStr"/>
-      <c r="N91" t="n">
+      <c r="M91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3858,36 +3729,33 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>15.6</v>
+        <v>16.1</v>
       </c>
       <c r="C92" t="n">
-        <v>15.5</v>
+        <v>16.1</v>
       </c>
       <c r="D92" t="n">
-        <v>15.6</v>
+        <v>16.1</v>
       </c>
       <c r="E92" t="n">
-        <v>15.5</v>
+        <v>16.1</v>
       </c>
       <c r="F92" t="n">
-        <v>17471.3145</v>
+        <v>41390.6926</v>
       </c>
       <c r="G92" t="n">
-        <v>15.59999999999999</v>
+        <v>2372659.682386164</v>
       </c>
       <c r="H92" t="n">
-        <v>15.91000000000001</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="n">
-        <v>0</v>
-      </c>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr"/>
-      <c r="M92" t="inlineStr"/>
-      <c r="N92" t="n">
+      <c r="M92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3896,36 +3764,33 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>15.5</v>
+        <v>16.2</v>
       </c>
       <c r="C93" t="n">
-        <v>15.5</v>
+        <v>16.2</v>
       </c>
       <c r="D93" t="n">
-        <v>15.5</v>
+        <v>16.2</v>
       </c>
       <c r="E93" t="n">
-        <v>15.5</v>
+        <v>16.2</v>
       </c>
       <c r="F93" t="n">
-        <v>59836</v>
+        <v>30.8024</v>
       </c>
       <c r="G93" t="n">
-        <v>15.56666666666666</v>
+        <v>2372690.484786164</v>
       </c>
       <c r="H93" t="n">
-        <v>15.89833333333334</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
-        <v>0</v>
-      </c>
-      <c r="J93" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr"/>
-      <c r="M93" t="inlineStr"/>
-      <c r="N93" t="n">
+      <c r="M93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3934,36 +3799,33 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>15.5</v>
+        <v>16.1</v>
       </c>
       <c r="C94" t="n">
-        <v>15.6</v>
+        <v>16</v>
       </c>
       <c r="D94" t="n">
-        <v>15.6</v>
+        <v>16.1</v>
       </c>
       <c r="E94" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="F94" t="n">
-        <v>11</v>
+        <v>12768.348</v>
       </c>
       <c r="G94" t="n">
-        <v>15.55333333333332</v>
+        <v>2359922.136786163</v>
       </c>
       <c r="H94" t="n">
-        <v>15.89166666666667</v>
+        <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr"/>
-      <c r="M94" t="inlineStr"/>
-      <c r="N94" t="n">
+      <c r="M94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3972,36 +3834,33 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>15.6</v>
+        <v>16.2</v>
       </c>
       <c r="C95" t="n">
-        <v>15.7</v>
+        <v>16</v>
       </c>
       <c r="D95" t="n">
-        <v>15.7</v>
+        <v>16.2</v>
       </c>
       <c r="E95" t="n">
-        <v>15.6</v>
+        <v>16</v>
       </c>
       <c r="F95" t="n">
-        <v>606311</v>
+        <v>2740.923</v>
       </c>
       <c r="G95" t="n">
-        <v>15.55999999999999</v>
+        <v>2359922.136786163</v>
       </c>
       <c r="H95" t="n">
-        <v>15.88500000000001</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="n">
-        <v>0</v>
-      </c>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr"/>
-      <c r="M95" t="inlineStr"/>
-      <c r="N95" t="n">
+      <c r="M95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4010,36 +3869,33 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>15.7</v>
+        <v>16.1</v>
       </c>
       <c r="C96" t="n">
-        <v>15.7</v>
+        <v>16</v>
       </c>
       <c r="D96" t="n">
-        <v>15.7</v>
+        <v>16.1</v>
       </c>
       <c r="E96" t="n">
-        <v>15.7</v>
+        <v>16</v>
       </c>
       <c r="F96" t="n">
-        <v>23030.1592</v>
+        <v>30210</v>
       </c>
       <c r="G96" t="n">
-        <v>15.56666666666666</v>
+        <v>2359922.136786163</v>
       </c>
       <c r="H96" t="n">
-        <v>15.87500000000001</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="n">
-        <v>0</v>
-      </c>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr"/>
-      <c r="M96" t="inlineStr"/>
-      <c r="N96" t="n">
+      <c r="M96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4048,36 +3904,33 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>15.7</v>
+        <v>16</v>
       </c>
       <c r="C97" t="n">
-        <v>15.7</v>
+        <v>16.1</v>
       </c>
       <c r="D97" t="n">
-        <v>15.7</v>
+        <v>16.1</v>
       </c>
       <c r="E97" t="n">
-        <v>15.7</v>
+        <v>15.9</v>
       </c>
       <c r="F97" t="n">
-        <v>23</v>
+        <v>40010</v>
       </c>
       <c r="G97" t="n">
-        <v>15.57333333333332</v>
+        <v>2399932.136786163</v>
       </c>
       <c r="H97" t="n">
-        <v>15.86833333333334</v>
+        <v>0</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="n">
-        <v>0</v>
-      </c>
+      <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr"/>
-      <c r="M97" t="inlineStr"/>
-      <c r="N97" t="n">
+      <c r="M97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4086,36 +3939,33 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>15.7</v>
+        <v>16</v>
       </c>
       <c r="C98" t="n">
-        <v>15.7</v>
+        <v>16</v>
       </c>
       <c r="D98" t="n">
-        <v>15.7</v>
+        <v>16</v>
       </c>
       <c r="E98" t="n">
-        <v>15.7</v>
+        <v>16</v>
       </c>
       <c r="F98" t="n">
-        <v>28600</v>
+        <v>2251.128</v>
       </c>
       <c r="G98" t="n">
-        <v>15.57999999999999</v>
+        <v>2397681.008786163</v>
       </c>
       <c r="H98" t="n">
-        <v>15.86333333333334</v>
+        <v>0</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="n">
-        <v>0</v>
-      </c>
+      <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr"/>
-      <c r="M98" t="inlineStr"/>
-      <c r="N98" t="n">
+      <c r="M98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4124,36 +3974,33 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>15.7</v>
+        <v>16.1</v>
       </c>
       <c r="C99" t="n">
-        <v>15.7</v>
+        <v>16.1</v>
       </c>
       <c r="D99" t="n">
-        <v>15.7</v>
+        <v>16.1</v>
       </c>
       <c r="E99" t="n">
-        <v>15.7</v>
+        <v>16.1</v>
       </c>
       <c r="F99" t="n">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="G99" t="n">
-        <v>15.59333333333332</v>
+        <v>2397691.008786163</v>
       </c>
       <c r="H99" t="n">
-        <v>15.86000000000001</v>
+        <v>0</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="n">
-        <v>0</v>
-      </c>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr"/>
-      <c r="M99" t="inlineStr"/>
-      <c r="N99" t="n">
+      <c r="M99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4162,36 +4009,33 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>15.6</v>
+        <v>15.9</v>
       </c>
       <c r="C100" t="n">
-        <v>15.7</v>
+        <v>16.1</v>
       </c>
       <c r="D100" t="n">
-        <v>15.7</v>
+        <v>16.1</v>
       </c>
       <c r="E100" t="n">
-        <v>15.6</v>
+        <v>15.9</v>
       </c>
       <c r="F100" t="n">
-        <v>6162</v>
+        <v>77101.53810000001</v>
       </c>
       <c r="G100" t="n">
-        <v>15.59999999999999</v>
+        <v>2397691.008786163</v>
       </c>
       <c r="H100" t="n">
-        <v>15.85833333333334</v>
+        <v>0</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="n">
-        <v>0</v>
-      </c>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr"/>
-      <c r="M100" t="inlineStr"/>
-      <c r="N100" t="n">
+      <c r="M100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4200,36 +4044,33 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>15.7</v>
+        <v>16</v>
       </c>
       <c r="C101" t="n">
-        <v>15.7</v>
+        <v>16.1</v>
       </c>
       <c r="D101" t="n">
-        <v>15.7</v>
+        <v>16.1</v>
       </c>
       <c r="E101" t="n">
-        <v>15.6</v>
+        <v>16</v>
       </c>
       <c r="F101" t="n">
-        <v>22.973</v>
+        <v>49596.8612</v>
       </c>
       <c r="G101" t="n">
-        <v>15.61333333333332</v>
+        <v>2397691.008786163</v>
       </c>
       <c r="H101" t="n">
-        <v>15.85833333333334</v>
+        <v>0</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="n">
-        <v>0</v>
-      </c>
+      <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr"/>
-      <c r="M101" t="inlineStr"/>
-      <c r="N101" t="n">
+      <c r="M101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4238,36 +4079,33 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="C102" t="n">
-        <v>15.6</v>
+        <v>16</v>
       </c>
       <c r="D102" t="n">
-        <v>15.6</v>
+        <v>16</v>
       </c>
       <c r="E102" t="n">
-        <v>15.5</v>
+        <v>15.9</v>
       </c>
       <c r="F102" t="n">
-        <v>214.642</v>
+        <v>80963.3368</v>
       </c>
       <c r="G102" t="n">
-        <v>15.61999999999999</v>
+        <v>2316727.671986163</v>
       </c>
       <c r="H102" t="n">
-        <v>15.85666666666668</v>
+        <v>0</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="n">
-        <v>0</v>
-      </c>
+      <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr"/>
-      <c r="M102" t="inlineStr"/>
-      <c r="N102" t="n">
+      <c r="M102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4276,36 +4114,33 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>15.7</v>
+        <v>15.9</v>
       </c>
       <c r="C103" t="n">
-        <v>15.7</v>
+        <v>15.9</v>
       </c>
       <c r="D103" t="n">
-        <v>15.7</v>
+        <v>15.9</v>
       </c>
       <c r="E103" t="n">
-        <v>15.6</v>
+        <v>15.9</v>
       </c>
       <c r="F103" t="n">
-        <v>32234.9468</v>
+        <v>17.1698</v>
       </c>
       <c r="G103" t="n">
-        <v>15.63333333333332</v>
+        <v>2316710.502186163</v>
       </c>
       <c r="H103" t="n">
-        <v>15.85500000000001</v>
+        <v>0</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="n">
-        <v>0</v>
-      </c>
+      <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr"/>
-      <c r="M103" t="inlineStr"/>
-      <c r="N103" t="n">
+      <c r="M103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4314,36 +4149,33 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>15.6</v>
+        <v>15.8</v>
       </c>
       <c r="C104" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="D104" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="E104" t="n">
-        <v>15.6</v>
+        <v>15.8</v>
       </c>
       <c r="F104" t="n">
-        <v>30010</v>
+        <v>45936.3924</v>
       </c>
       <c r="G104" t="n">
-        <v>15.63999999999999</v>
+        <v>2270774.109786164</v>
       </c>
       <c r="H104" t="n">
-        <v>15.85166666666668</v>
+        <v>0</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="n">
-        <v>0</v>
-      </c>
+      <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr"/>
-      <c r="M104" t="inlineStr"/>
-      <c r="N104" t="n">
+      <c r="M104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4352,36 +4184,33 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="C105" t="n">
-        <v>15.7</v>
+        <v>15.9</v>
       </c>
       <c r="D105" t="n">
-        <v>15.7</v>
+        <v>15.9</v>
       </c>
       <c r="E105" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="F105" t="n">
-        <v>88992.6433</v>
+        <v>8385.5065</v>
       </c>
       <c r="G105" t="n">
-        <v>15.65333333333332</v>
+        <v>2279159.616286164</v>
       </c>
       <c r="H105" t="n">
-        <v>15.84833333333335</v>
+        <v>0</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="n">
-        <v>0</v>
-      </c>
+      <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr"/>
-      <c r="M105" t="inlineStr"/>
-      <c r="N105" t="n">
+      <c r="M105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4390,36 +4219,33 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>15.7</v>
+        <v>15.9</v>
       </c>
       <c r="C106" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="D106" t="n">
-        <v>15.7</v>
+        <v>15.9</v>
       </c>
       <c r="E106" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="F106" t="n">
-        <v>19500</v>
+        <v>19234.8023</v>
       </c>
       <c r="G106" t="n">
-        <v>15.65999999999999</v>
+        <v>2259924.813986164</v>
       </c>
       <c r="H106" t="n">
-        <v>15.84166666666668</v>
+        <v>0</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="n">
-        <v>0</v>
-      </c>
+      <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr"/>
-      <c r="M106" t="inlineStr"/>
-      <c r="N106" t="n">
+      <c r="M106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4428,36 +4254,33 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="C107" t="n">
-        <v>15.7</v>
+        <v>16</v>
       </c>
       <c r="D107" t="n">
-        <v>15.7</v>
+        <v>16</v>
       </c>
       <c r="E107" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="F107" t="n">
-        <v>330674.5283</v>
+        <v>10</v>
       </c>
       <c r="G107" t="n">
-        <v>15.67333333333332</v>
+        <v>2259934.813986164</v>
       </c>
       <c r="H107" t="n">
-        <v>15.83500000000002</v>
+        <v>0</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="n">
-        <v>0</v>
-      </c>
+      <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr"/>
-      <c r="M107" t="inlineStr"/>
-      <c r="N107" t="n">
+      <c r="M107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4466,36 +4289,33 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>15.7</v>
+        <v>15.9</v>
       </c>
       <c r="C108" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="D108" t="n">
-        <v>15.7</v>
+        <v>15.9</v>
       </c>
       <c r="E108" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="F108" t="n">
-        <v>11</v>
+        <v>360294.6675</v>
       </c>
       <c r="G108" t="n">
-        <v>15.68666666666665</v>
+        <v>1899640.146486164</v>
       </c>
       <c r="H108" t="n">
-        <v>15.82833333333335</v>
+        <v>0</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="n">
-        <v>0</v>
-      </c>
+      <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr"/>
-      <c r="M108" t="inlineStr"/>
-      <c r="N108" t="n">
+      <c r="M108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4507,33 +4327,30 @@
         <v>15.7</v>
       </c>
       <c r="C109" t="n">
-        <v>15.7</v>
+        <v>15.6</v>
       </c>
       <c r="D109" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="E109" t="n">
-        <v>15.7</v>
+        <v>15.6</v>
       </c>
       <c r="F109" t="n">
-        <v>1398.6624</v>
+        <v>259015.3429</v>
       </c>
       <c r="G109" t="n">
-        <v>15.69333333333332</v>
+        <v>1640624.803586164</v>
       </c>
       <c r="H109" t="n">
-        <v>15.82500000000002</v>
+        <v>0</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="n">
-        <v>0</v>
-      </c>
+      <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr"/>
-      <c r="M109" t="inlineStr"/>
-      <c r="N109" t="n">
+      <c r="M109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4554,24 +4371,21 @@
         <v>15.6</v>
       </c>
       <c r="F110" t="n">
-        <v>19935.0022</v>
+        <v>354314.9966</v>
       </c>
       <c r="G110" t="n">
-        <v>15.68666666666665</v>
+        <v>1640624.803586164</v>
       </c>
       <c r="H110" t="n">
-        <v>15.81833333333335</v>
+        <v>0</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="n">
-        <v>0</v>
-      </c>
+      <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr"/>
-      <c r="M110" t="inlineStr"/>
-      <c r="N110" t="n">
+      <c r="M110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4589,27 +4403,24 @@
         <v>15.6</v>
       </c>
       <c r="E111" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="F111" t="n">
-        <v>12876.6666</v>
+        <v>309945.7305</v>
       </c>
       <c r="G111" t="n">
-        <v>15.67999999999998</v>
+        <v>1640624.803586164</v>
       </c>
       <c r="H111" t="n">
-        <v>15.81000000000002</v>
+        <v>0</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="n">
-        <v>0</v>
-      </c>
+      <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr"/>
-      <c r="M111" t="inlineStr"/>
-      <c r="N111" t="n">
+      <c r="M111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4621,33 +4432,30 @@
         <v>15.5</v>
       </c>
       <c r="C112" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="D112" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="E112" t="n">
         <v>15.5</v>
       </c>
       <c r="F112" t="n">
-        <v>35473.0942</v>
+        <v>149633.0276</v>
       </c>
       <c r="G112" t="n">
-        <v>15.66666666666665</v>
+        <v>1640624.803586164</v>
       </c>
       <c r="H112" t="n">
-        <v>15.80000000000002</v>
+        <v>0</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="n">
-        <v>0</v>
-      </c>
+      <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr"/>
-      <c r="M112" t="inlineStr"/>
-      <c r="N112" t="n">
+      <c r="M112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4662,30 +4470,27 @@
         <v>15.5</v>
       </c>
       <c r="D113" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="E113" t="n">
         <v>15.5</v>
       </c>
       <c r="F113" t="n">
-        <v>17716.3775</v>
+        <v>62546.5506</v>
       </c>
       <c r="G113" t="n">
-        <v>15.65333333333332</v>
+        <v>1578078.252986164</v>
       </c>
       <c r="H113" t="n">
-        <v>15.79000000000002</v>
+        <v>0</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="n">
-        <v>0</v>
-      </c>
+      <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr"/>
-      <c r="M113" t="inlineStr"/>
-      <c r="N113" t="n">
+      <c r="M113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4697,33 +4502,30 @@
         <v>15.6</v>
       </c>
       <c r="C114" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="D114" t="n">
         <v>15.6</v>
       </c>
       <c r="E114" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="F114" t="n">
-        <v>8631.6217</v>
+        <v>475969.0384</v>
       </c>
       <c r="G114" t="n">
-        <v>15.63999999999999</v>
+        <v>2054047.291386164</v>
       </c>
       <c r="H114" t="n">
-        <v>15.78000000000002</v>
+        <v>0</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="n">
-        <v>0</v>
-      </c>
+      <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr"/>
-      <c r="M114" t="inlineStr"/>
-      <c r="N114" t="n">
+      <c r="M114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4735,33 +4537,30 @@
         <v>15.6</v>
       </c>
       <c r="C115" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="D115" t="n">
         <v>15.6</v>
       </c>
       <c r="E115" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="F115" t="n">
-        <v>24</v>
+        <v>364808.6676</v>
       </c>
       <c r="G115" t="n">
-        <v>15.63333333333332</v>
+        <v>1689238.623786164</v>
       </c>
       <c r="H115" t="n">
-        <v>15.77166666666668</v>
+        <v>0</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="n">
-        <v>0</v>
-      </c>
+      <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr"/>
-      <c r="M115" t="inlineStr"/>
-      <c r="N115" t="n">
+      <c r="M115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4773,33 +4572,30 @@
         <v>15.6</v>
       </c>
       <c r="C116" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="D116" t="n">
         <v>15.6</v>
       </c>
       <c r="E116" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="F116" t="n">
-        <v>22342.2962</v>
+        <v>332705.206</v>
       </c>
       <c r="G116" t="n">
-        <v>15.62666666666665</v>
+        <v>1689238.623786164</v>
       </c>
       <c r="H116" t="n">
-        <v>15.76500000000002</v>
+        <v>0</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="n">
-        <v>0</v>
-      </c>
+      <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
-      <c r="M116" t="inlineStr"/>
-      <c r="N116" t="n">
+      <c r="M116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4808,36 +4604,33 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="C117" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="D117" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="E117" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="F117" t="n">
-        <v>17920.7166</v>
+        <v>9943</v>
       </c>
       <c r="G117" t="n">
-        <v>15.62666666666665</v>
+        <v>1689238.623786164</v>
       </c>
       <c r="H117" t="n">
-        <v>15.75833333333335</v>
+        <v>0</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="n">
-        <v>0</v>
-      </c>
+      <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
-      <c r="M117" t="inlineStr"/>
-      <c r="N117" t="n">
+      <c r="M117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4846,36 +4639,33 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="C118" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="D118" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="E118" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="F118" t="n">
-        <v>8690.522199999999</v>
+        <v>10053.4807</v>
       </c>
       <c r="G118" t="n">
-        <v>15.61333333333332</v>
+        <v>1699292.104486163</v>
       </c>
       <c r="H118" t="n">
-        <v>15.74833333333335</v>
+        <v>0</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="n">
-        <v>0</v>
-      </c>
+      <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
       <c r="L118" t="inlineStr"/>
-      <c r="M118" t="inlineStr"/>
-      <c r="N118" t="n">
+      <c r="M118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4884,36 +4674,33 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="C119" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="D119" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="E119" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="F119" t="n">
-        <v>22</v>
+        <v>11262</v>
       </c>
       <c r="G119" t="n">
-        <v>15.60666666666665</v>
+        <v>1688030.104486163</v>
       </c>
       <c r="H119" t="n">
-        <v>15.73833333333335</v>
+        <v>0</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="n">
-        <v>0</v>
-      </c>
+      <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
       <c r="L119" t="inlineStr"/>
-      <c r="M119" t="inlineStr"/>
-      <c r="N119" t="n">
+      <c r="M119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4922,7 +4709,7 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="C120" t="n">
         <v>15.6</v>
@@ -4931,27 +4718,24 @@
         <v>15.6</v>
       </c>
       <c r="E120" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="F120" t="n">
-        <v>4785.746</v>
+        <v>124.4725</v>
       </c>
       <c r="G120" t="n">
-        <v>15.59999999999999</v>
+        <v>1688154.576986163</v>
       </c>
       <c r="H120" t="n">
-        <v>15.73333333333335</v>
+        <v>0</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="n">
-        <v>0</v>
-      </c>
+      <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
       <c r="L120" t="inlineStr"/>
-      <c r="M120" t="inlineStr"/>
-      <c r="N120" t="n">
+      <c r="M120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4960,10 +4744,10 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="C121" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="D121" t="n">
         <v>15.6</v>
@@ -4972,24 +4756,21 @@
         <v>15.5</v>
       </c>
       <c r="F121" t="n">
-        <v>11283.4725</v>
+        <v>17471.3145</v>
       </c>
       <c r="G121" t="n">
-        <v>15.59333333333332</v>
+        <v>1670683.262486163</v>
       </c>
       <c r="H121" t="n">
-        <v>15.72500000000002</v>
+        <v>0</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="n">
-        <v>0</v>
-      </c>
+      <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
       <c r="L121" t="inlineStr"/>
-      <c r="M121" t="inlineStr"/>
-      <c r="N121" t="n">
+      <c r="M121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4998,36 +4779,33 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="C122" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="D122" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="E122" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="F122" t="n">
-        <v>8613.205099999999</v>
+        <v>59836</v>
       </c>
       <c r="G122" t="n">
-        <v>15.58666666666666</v>
+        <v>1670683.262486163</v>
       </c>
       <c r="H122" t="n">
-        <v>15.71666666666668</v>
+        <v>0</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="n">
-        <v>0</v>
-      </c>
+      <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
       <c r="L122" t="inlineStr"/>
-      <c r="M122" t="inlineStr"/>
-      <c r="N122" t="n">
+      <c r="M122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5036,36 +4814,33 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>15.7</v>
+        <v>15.5</v>
       </c>
       <c r="C123" t="n">
-        <v>15.7</v>
+        <v>15.6</v>
       </c>
       <c r="D123" t="n">
-        <v>15.7</v>
+        <v>15.6</v>
       </c>
       <c r="E123" t="n">
-        <v>15.7</v>
+        <v>15.5</v>
       </c>
       <c r="F123" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G123" t="n">
-        <v>15.58666666666666</v>
+        <v>1670694.262486163</v>
       </c>
       <c r="H123" t="n">
-        <v>15.71000000000002</v>
+        <v>0</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="n">
-        <v>0</v>
-      </c>
+      <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
       <c r="L123" t="inlineStr"/>
-      <c r="M123" t="inlineStr"/>
-      <c r="N123" t="n">
+      <c r="M123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5074,36 +4849,33 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="C124" t="n">
-        <v>15.5</v>
+        <v>15.7</v>
       </c>
       <c r="D124" t="n">
-        <v>15.5</v>
+        <v>15.7</v>
       </c>
       <c r="E124" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="F124" t="n">
-        <v>55700.1748</v>
+        <v>606311</v>
       </c>
       <c r="G124" t="n">
-        <v>15.57333333333332</v>
+        <v>2277005.262486164</v>
       </c>
       <c r="H124" t="n">
-        <v>15.69833333333335</v>
+        <v>0</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="n">
-        <v>0</v>
-      </c>
+      <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
       <c r="L124" t="inlineStr"/>
-      <c r="M124" t="inlineStr"/>
-      <c r="N124" t="n">
+      <c r="M124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5112,36 +4884,33 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>15.5</v>
+        <v>15.7</v>
       </c>
       <c r="C125" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="D125" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="E125" t="n">
-        <v>15.5</v>
+        <v>15.7</v>
       </c>
       <c r="F125" t="n">
-        <v>8602.6721</v>
+        <v>23030.1592</v>
       </c>
       <c r="G125" t="n">
-        <v>15.57333333333332</v>
+        <v>2277005.262486164</v>
       </c>
       <c r="H125" t="n">
-        <v>15.69166666666668</v>
+        <v>0</v>
       </c>
       <c r="I125" t="n">
-        <v>0</v>
-      </c>
-      <c r="J125" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
       <c r="L125" t="inlineStr"/>
-      <c r="M125" t="inlineStr"/>
-      <c r="N125" t="n">
+      <c r="M125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5150,7 +4919,7 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="C126" t="n">
         <v>15.7</v>
@@ -5159,27 +4928,24 @@
         <v>15.7</v>
       </c>
       <c r="E126" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="F126" t="n">
-        <v>5793.9968</v>
+        <v>23</v>
       </c>
       <c r="G126" t="n">
-        <v>15.57999999999999</v>
+        <v>2277005.262486164</v>
       </c>
       <c r="H126" t="n">
-        <v>15.68666666666669</v>
+        <v>0</v>
       </c>
       <c r="I126" t="n">
-        <v>0</v>
-      </c>
-      <c r="J126" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
       <c r="L126" t="inlineStr"/>
-      <c r="M126" t="inlineStr"/>
-      <c r="N126" t="n">
+      <c r="M126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5188,36 +4954,33 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="C127" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="D127" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="E127" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="F127" t="n">
-        <v>40000</v>
+        <v>28600</v>
       </c>
       <c r="G127" t="n">
-        <v>15.58666666666666</v>
+        <v>2277005.262486164</v>
       </c>
       <c r="H127" t="n">
-        <v>15.68000000000002</v>
+        <v>0</v>
       </c>
       <c r="I127" t="n">
-        <v>0</v>
-      </c>
-      <c r="J127" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
       <c r="L127" t="inlineStr"/>
-      <c r="M127" t="inlineStr"/>
-      <c r="N127" t="n">
+      <c r="M127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5238,24 +5001,21 @@
         <v>15.7</v>
       </c>
       <c r="F128" t="n">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="G128" t="n">
-        <v>15.59999999999999</v>
+        <v>2277005.262486164</v>
       </c>
       <c r="H128" t="n">
-        <v>15.67333333333335</v>
+        <v>0</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="n">
-        <v>0</v>
-      </c>
+      <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
       <c r="L128" t="inlineStr"/>
-      <c r="M128" t="inlineStr"/>
-      <c r="N128" t="n">
+      <c r="M128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5267,33 +5027,30 @@
         <v>15.6</v>
       </c>
       <c r="C129" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="D129" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="E129" t="n">
         <v>15.6</v>
       </c>
       <c r="F129" t="n">
-        <v>3450.0892</v>
+        <v>6162</v>
       </c>
       <c r="G129" t="n">
-        <v>15.60666666666665</v>
+        <v>2277005.262486164</v>
       </c>
       <c r="H129" t="n">
-        <v>15.66666666666669</v>
+        <v>0</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="n">
-        <v>0</v>
-      </c>
+      <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
       <c r="L129" t="inlineStr"/>
-      <c r="M129" t="inlineStr"/>
-      <c r="N129" t="n">
+      <c r="M129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5302,36 +5059,33 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="C130" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="D130" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="E130" t="n">
         <v>15.6</v>
       </c>
       <c r="F130" t="n">
-        <v>6378.2051</v>
+        <v>22.973</v>
       </c>
       <c r="G130" t="n">
-        <v>15.60666666666665</v>
+        <v>2277005.262486164</v>
       </c>
       <c r="H130" t="n">
-        <v>15.65833333333335</v>
+        <v>0</v>
       </c>
       <c r="I130" t="n">
-        <v>0</v>
-      </c>
-      <c r="J130" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
       <c r="L130" t="inlineStr"/>
-      <c r="M130" t="inlineStr"/>
-      <c r="N130" t="n">
+      <c r="M130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5340,7 +5094,7 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="C131" t="n">
         <v>15.6</v>
@@ -5349,27 +5103,24 @@
         <v>15.6</v>
       </c>
       <c r="E131" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="F131" t="n">
-        <v>3360.7057</v>
+        <v>214.642</v>
       </c>
       <c r="G131" t="n">
-        <v>15.60666666666665</v>
+        <v>2276790.620486164</v>
       </c>
       <c r="H131" t="n">
-        <v>15.65000000000002</v>
+        <v>0</v>
       </c>
       <c r="I131" t="n">
-        <v>0</v>
-      </c>
-      <c r="J131" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
       <c r="L131" t="inlineStr"/>
-      <c r="M131" t="inlineStr"/>
-      <c r="N131" t="n">
+      <c r="M131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5378,36 +5129,33 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="C132" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="D132" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="E132" t="n">
         <v>15.6</v>
       </c>
       <c r="F132" t="n">
-        <v>3017.4994</v>
+        <v>32234.9468</v>
       </c>
       <c r="G132" t="n">
-        <v>15.60666666666665</v>
+        <v>2309025.567286164</v>
       </c>
       <c r="H132" t="n">
-        <v>15.64166666666669</v>
+        <v>0</v>
       </c>
       <c r="I132" t="n">
-        <v>0</v>
-      </c>
-      <c r="J132" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
       <c r="L132" t="inlineStr"/>
-      <c r="M132" t="inlineStr"/>
-      <c r="N132" t="n">
+      <c r="M132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5419,33 +5167,30 @@
         <v>15.6</v>
       </c>
       <c r="C133" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="D133" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="E133" t="n">
         <v>15.6</v>
       </c>
       <c r="F133" t="n">
-        <v>6982.5006</v>
+        <v>30010</v>
       </c>
       <c r="G133" t="n">
-        <v>15.61333333333332</v>
+        <v>2309025.567286164</v>
       </c>
       <c r="H133" t="n">
-        <v>15.63500000000002</v>
+        <v>0</v>
       </c>
       <c r="I133" t="n">
-        <v>0</v>
-      </c>
-      <c r="J133" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
       <c r="L133" t="inlineStr"/>
-      <c r="M133" t="inlineStr"/>
-      <c r="N133" t="n">
+      <c r="M133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5454,36 +5199,33 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="C134" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="D134" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="E134" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="F134" t="n">
-        <v>29200</v>
+        <v>88992.6433</v>
       </c>
       <c r="G134" t="n">
-        <v>15.61333333333332</v>
+        <v>2309025.567286164</v>
       </c>
       <c r="H134" t="n">
-        <v>15.63000000000002</v>
+        <v>0</v>
       </c>
       <c r="I134" t="n">
-        <v>0</v>
-      </c>
-      <c r="J134" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
       <c r="L134" t="inlineStr"/>
-      <c r="M134" t="inlineStr"/>
-      <c r="N134" t="n">
+      <c r="M134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5504,24 +5246,21 @@
         <v>15.7</v>
       </c>
       <c r="F135" t="n">
-        <v>36</v>
+        <v>19500</v>
       </c>
       <c r="G135" t="n">
-        <v>15.61999999999999</v>
+        <v>2309025.567286164</v>
       </c>
       <c r="H135" t="n">
-        <v>15.62833333333336</v>
+        <v>0</v>
       </c>
       <c r="I135" t="n">
-        <v>0</v>
-      </c>
-      <c r="J135" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
       <c r="L135" t="inlineStr"/>
-      <c r="M135" t="inlineStr"/>
-      <c r="N135" t="n">
+      <c r="M135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5530,36 +5269,33 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="C136" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="D136" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="E136" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="F136" t="n">
-        <v>1000</v>
+        <v>330674.5283</v>
       </c>
       <c r="G136" t="n">
-        <v>15.61999999999999</v>
+        <v>2309025.567286164</v>
       </c>
       <c r="H136" t="n">
-        <v>15.62333333333336</v>
+        <v>0</v>
       </c>
       <c r="I136" t="n">
-        <v>0</v>
-      </c>
-      <c r="J136" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
       <c r="L136" t="inlineStr"/>
-      <c r="M136" t="inlineStr"/>
-      <c r="N136" t="n">
+      <c r="M136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5568,36 +5304,33 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="C137" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="D137" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="E137" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="F137" t="n">
-        <v>12820.5128</v>
+        <v>11</v>
       </c>
       <c r="G137" t="n">
-        <v>15.61999999999999</v>
+        <v>2309025.567286164</v>
       </c>
       <c r="H137" t="n">
-        <v>15.62000000000002</v>
+        <v>0</v>
       </c>
       <c r="I137" t="n">
-        <v>0</v>
-      </c>
-      <c r="J137" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
       <c r="L137" t="inlineStr"/>
-      <c r="M137" t="inlineStr"/>
-      <c r="N137" t="n">
+      <c r="M137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5606,36 +5339,33 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="C138" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="D138" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="E138" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="F138" t="n">
-        <v>5641.1863</v>
+        <v>1398.6624</v>
       </c>
       <c r="G138" t="n">
-        <v>15.61333333333332</v>
+        <v>2309025.567286164</v>
       </c>
       <c r="H138" t="n">
-        <v>15.61333333333336</v>
+        <v>0</v>
       </c>
       <c r="I138" t="n">
-        <v>0</v>
-      </c>
-      <c r="J138" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
       <c r="L138" t="inlineStr"/>
-      <c r="M138" t="inlineStr"/>
-      <c r="N138" t="n">
+      <c r="M138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5656,24 +5386,21 @@
         <v>15.6</v>
       </c>
       <c r="F139" t="n">
-        <v>21897.136</v>
+        <v>19935.0022</v>
       </c>
       <c r="G139" t="n">
-        <v>15.61999999999999</v>
+        <v>2289090.565086164</v>
       </c>
       <c r="H139" t="n">
-        <v>15.61000000000002</v>
+        <v>0</v>
       </c>
       <c r="I139" t="n">
-        <v>0</v>
-      </c>
-      <c r="J139" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
       <c r="L139" t="inlineStr"/>
-      <c r="M139" t="inlineStr"/>
-      <c r="N139" t="n">
+      <c r="M139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5685,33 +5412,30 @@
         <v>15.6</v>
       </c>
       <c r="C140" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="D140" t="n">
         <v>15.6</v>
       </c>
       <c r="E140" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="F140" t="n">
-        <v>4645.587</v>
+        <v>12876.6666</v>
       </c>
       <c r="G140" t="n">
-        <v>15.61333333333332</v>
+        <v>2289090.565086164</v>
       </c>
       <c r="H140" t="n">
-        <v>15.60833333333336</v>
+        <v>0</v>
       </c>
       <c r="I140" t="n">
-        <v>0</v>
-      </c>
-      <c r="J140" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
       <c r="L140" t="inlineStr"/>
-      <c r="M140" t="inlineStr"/>
-      <c r="N140" t="n">
+      <c r="M140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5732,24 +5456,21 @@
         <v>15.5</v>
       </c>
       <c r="F141" t="n">
-        <v>3071.476</v>
+        <v>35473.0942</v>
       </c>
       <c r="G141" t="n">
-        <v>15.59999999999999</v>
+        <v>2253617.470886163</v>
       </c>
       <c r="H141" t="n">
-        <v>15.60666666666669</v>
+        <v>0</v>
       </c>
       <c r="I141" t="n">
-        <v>0</v>
-      </c>
-      <c r="J141" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
       <c r="L141" t="inlineStr"/>
-      <c r="M141" t="inlineStr"/>
-      <c r="N141" t="n">
+      <c r="M141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5761,33 +5482,30 @@
         <v>15.5</v>
       </c>
       <c r="C142" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="D142" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="E142" t="n">
         <v>15.5</v>
       </c>
       <c r="F142" t="n">
-        <v>2264.817</v>
+        <v>17716.3775</v>
       </c>
       <c r="G142" t="n">
-        <v>15.59999999999999</v>
+        <v>2253617.470886163</v>
       </c>
       <c r="H142" t="n">
-        <v>15.60666666666669</v>
+        <v>0</v>
       </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="n">
-        <v>0</v>
-      </c>
+      <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
       <c r="L142" t="inlineStr"/>
-      <c r="M142" t="inlineStr"/>
-      <c r="N142" t="n">
+      <c r="M142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5796,10 +5514,10 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="C143" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="D143" t="n">
         <v>15.6</v>
@@ -5808,24 +5526,21 @@
         <v>15.5</v>
       </c>
       <c r="F143" t="n">
-        <v>738.7746</v>
+        <v>8631.6217</v>
       </c>
       <c r="G143" t="n">
-        <v>15.59333333333332</v>
+        <v>2253617.470886163</v>
       </c>
       <c r="H143" t="n">
-        <v>15.60666666666669</v>
+        <v>0</v>
       </c>
       <c r="I143" t="n">
-        <v>0</v>
-      </c>
-      <c r="J143" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
       <c r="L143" t="inlineStr"/>
-      <c r="M143" t="inlineStr"/>
-      <c r="N143" t="n">
+      <c r="M143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5837,33 +5552,30 @@
         <v>15.6</v>
       </c>
       <c r="C144" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="D144" t="n">
         <v>15.6</v>
       </c>
       <c r="E144" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="F144" t="n">
-        <v>54924.7622</v>
+        <v>24</v>
       </c>
       <c r="G144" t="n">
-        <v>15.58666666666666</v>
+        <v>2253641.470886163</v>
       </c>
       <c r="H144" t="n">
-        <v>15.60666666666669</v>
+        <v>0</v>
       </c>
       <c r="I144" t="n">
-        <v>0</v>
-      </c>
-      <c r="J144" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
       <c r="L144" t="inlineStr"/>
-      <c r="M144" t="inlineStr"/>
-      <c r="N144" t="n">
+      <c r="M144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5872,36 +5584,33 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="C145" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="D145" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="E145" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="F145" t="n">
-        <v>31130.739</v>
+        <v>22342.2962</v>
       </c>
       <c r="G145" t="n">
-        <v>15.57999999999999</v>
+        <v>2253641.470886163</v>
       </c>
       <c r="H145" t="n">
-        <v>15.60500000000002</v>
+        <v>0</v>
       </c>
       <c r="I145" t="n">
-        <v>0</v>
-      </c>
-      <c r="J145" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
       <c r="L145" t="inlineStr"/>
-      <c r="M145" t="inlineStr"/>
-      <c r="N145" t="n">
+      <c r="M145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5910,36 +5619,33 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="C146" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="D146" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="E146" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="F146" t="n">
-        <v>7274.502</v>
+        <v>17920.7166</v>
       </c>
       <c r="G146" t="n">
-        <v>15.57333333333332</v>
+        <v>2253641.470886163</v>
       </c>
       <c r="H146" t="n">
-        <v>15.60500000000002</v>
+        <v>0</v>
       </c>
       <c r="I146" t="n">
-        <v>0</v>
-      </c>
-      <c r="J146" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
       <c r="L146" t="inlineStr"/>
-      <c r="M146" t="inlineStr"/>
-      <c r="N146" t="n">
+      <c r="M146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5948,36 +5654,33 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="C147" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="D147" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="E147" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="F147" t="n">
-        <v>10</v>
+        <v>8690.522199999999</v>
       </c>
       <c r="G147" t="n">
-        <v>15.57333333333332</v>
+        <v>2244950.948686163</v>
       </c>
       <c r="H147" t="n">
-        <v>15.60666666666669</v>
+        <v>0</v>
       </c>
       <c r="I147" t="n">
-        <v>0</v>
-      </c>
-      <c r="J147" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
       <c r="L147" t="inlineStr"/>
-      <c r="M147" t="inlineStr"/>
-      <c r="N147" t="n">
+      <c r="M147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5998,24 +5701,21 @@
         <v>15.6</v>
       </c>
       <c r="F148" t="n">
-        <v>1623.2051</v>
+        <v>22</v>
       </c>
       <c r="G148" t="n">
-        <v>15.57333333333332</v>
+        <v>2244972.948686163</v>
       </c>
       <c r="H148" t="n">
-        <v>15.60833333333336</v>
+        <v>0</v>
       </c>
       <c r="I148" t="n">
-        <v>0</v>
-      </c>
-      <c r="J148" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
       <c r="L148" t="inlineStr"/>
-      <c r="M148" t="inlineStr"/>
-      <c r="N148" t="n">
+      <c r="M148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6036,24 +5736,21 @@
         <v>15.6</v>
       </c>
       <c r="F149" t="n">
-        <v>3000</v>
+        <v>4785.746</v>
       </c>
       <c r="G149" t="n">
-        <v>15.57333333333332</v>
+        <v>2244972.948686163</v>
       </c>
       <c r="H149" t="n">
-        <v>15.60833333333336</v>
+        <v>0</v>
       </c>
       <c r="I149" t="n">
-        <v>0</v>
-      </c>
-      <c r="J149" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
       <c r="L149" t="inlineStr"/>
-      <c r="M149" t="inlineStr"/>
-      <c r="N149" t="n">
+      <c r="M149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6065,33 +5762,30 @@
         <v>15.5</v>
       </c>
       <c r="C150" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="D150" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="E150" t="n">
         <v>15.5</v>
       </c>
       <c r="F150" t="n">
-        <v>40263.0128</v>
+        <v>11283.4725</v>
       </c>
       <c r="G150" t="n">
-        <v>15.55999999999999</v>
+        <v>2244972.948686163</v>
       </c>
       <c r="H150" t="n">
-        <v>15.60833333333336</v>
+        <v>0</v>
       </c>
       <c r="I150" t="n">
-        <v>0</v>
-      </c>
-      <c r="J150" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
       <c r="L150" t="inlineStr"/>
-      <c r="M150" t="inlineStr"/>
-      <c r="N150" t="n">
+      <c r="M150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6100,36 +5794,33 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="C151" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="D151" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="E151" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="F151" t="n">
-        <v>26600</v>
+        <v>8613.205099999999</v>
       </c>
       <c r="G151" t="n">
-        <v>15.55333333333332</v>
+        <v>2244972.948686163</v>
       </c>
       <c r="H151" t="n">
-        <v>15.60666666666669</v>
+        <v>0</v>
       </c>
       <c r="I151" t="n">
-        <v>0</v>
-      </c>
-      <c r="J151" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
       <c r="L151" t="inlineStr"/>
-      <c r="M151" t="inlineStr"/>
-      <c r="N151" t="n">
+      <c r="M151" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6138,36 +5829,33 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>15.5</v>
+        <v>15.7</v>
       </c>
       <c r="C152" t="n">
-        <v>15.4</v>
+        <v>15.7</v>
       </c>
       <c r="D152" t="n">
-        <v>15.5</v>
+        <v>15.7</v>
       </c>
       <c r="E152" t="n">
-        <v>15.4</v>
+        <v>15.7</v>
       </c>
       <c r="F152" t="n">
-        <v>55433.074</v>
+        <v>10</v>
       </c>
       <c r="G152" t="n">
-        <v>15.53999999999999</v>
+        <v>2244982.948686163</v>
       </c>
       <c r="H152" t="n">
-        <v>15.60500000000002</v>
+        <v>0</v>
       </c>
       <c r="I152" t="n">
-        <v>0</v>
-      </c>
-      <c r="J152" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
       <c r="L152" t="inlineStr"/>
-      <c r="M152" t="inlineStr"/>
-      <c r="N152" t="n">
+      <c r="M152" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6176,36 +5864,33 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="C153" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="D153" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="E153" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="F153" t="n">
-        <v>73811.22870000001</v>
+        <v>55700.1748</v>
       </c>
       <c r="G153" t="n">
-        <v>15.52666666666666</v>
+        <v>2189282.773886163</v>
       </c>
       <c r="H153" t="n">
-        <v>15.60333333333336</v>
+        <v>0</v>
       </c>
       <c r="I153" t="n">
-        <v>0</v>
-      </c>
-      <c r="J153" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
       <c r="L153" t="inlineStr"/>
-      <c r="M153" t="inlineStr"/>
-      <c r="N153" t="n">
+      <c r="M153" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6214,36 +5899,33 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>15.3</v>
+        <v>15.5</v>
       </c>
       <c r="C154" t="n">
-        <v>15.3</v>
+        <v>15.6</v>
       </c>
       <c r="D154" t="n">
-        <v>15.3</v>
+        <v>15.6</v>
       </c>
       <c r="E154" t="n">
-        <v>15.3</v>
+        <v>15.5</v>
       </c>
       <c r="F154" t="n">
-        <v>4711.7168</v>
+        <v>8602.6721</v>
       </c>
       <c r="G154" t="n">
-        <v>15.50666666666666</v>
+        <v>2197885.445986163</v>
       </c>
       <c r="H154" t="n">
-        <v>15.59833333333336</v>
+        <v>0</v>
       </c>
       <c r="I154" t="n">
-        <v>0</v>
-      </c>
-      <c r="J154" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
       <c r="L154" t="inlineStr"/>
-      <c r="M154" t="inlineStr"/>
-      <c r="N154" t="n">
+      <c r="M154" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6252,36 +5934,33 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>15.3</v>
+        <v>15.6</v>
       </c>
       <c r="C155" t="n">
-        <v>15.3</v>
+        <v>15.7</v>
       </c>
       <c r="D155" t="n">
-        <v>15.3</v>
+        <v>15.7</v>
       </c>
       <c r="E155" t="n">
-        <v>15.3</v>
+        <v>15.6</v>
       </c>
       <c r="F155" t="n">
-        <v>65922.1489</v>
+        <v>5793.9968</v>
       </c>
       <c r="G155" t="n">
-        <v>15.49333333333333</v>
+        <v>2203679.442786163</v>
       </c>
       <c r="H155" t="n">
-        <v>15.59166666666669</v>
+        <v>0</v>
       </c>
       <c r="I155" t="n">
-        <v>0</v>
-      </c>
-      <c r="J155" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
       <c r="L155" t="inlineStr"/>
-      <c r="M155" t="inlineStr"/>
-      <c r="N155" t="n">
+      <c r="M155" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6290,36 +5969,33 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>15.4</v>
+        <v>15.6</v>
       </c>
       <c r="C156" t="n">
-        <v>15.4</v>
+        <v>15.6</v>
       </c>
       <c r="D156" t="n">
-        <v>15.4</v>
+        <v>15.6</v>
       </c>
       <c r="E156" t="n">
-        <v>15.4</v>
+        <v>15.6</v>
       </c>
       <c r="F156" t="n">
-        <v>65330.3243</v>
+        <v>40000</v>
       </c>
       <c r="G156" t="n">
-        <v>15.48666666666666</v>
+        <v>2163679.442786163</v>
       </c>
       <c r="H156" t="n">
-        <v>15.58666666666669</v>
+        <v>0</v>
       </c>
       <c r="I156" t="n">
-        <v>0</v>
-      </c>
-      <c r="J156" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
       <c r="L156" t="inlineStr"/>
-      <c r="M156" t="inlineStr"/>
-      <c r="N156" t="n">
+      <c r="M156" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6328,36 +6004,33 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>15.4</v>
+        <v>15.7</v>
       </c>
       <c r="C157" t="n">
-        <v>15.4</v>
+        <v>15.7</v>
       </c>
       <c r="D157" t="n">
-        <v>15.4</v>
+        <v>15.7</v>
       </c>
       <c r="E157" t="n">
-        <v>15.4</v>
+        <v>15.7</v>
       </c>
       <c r="F157" t="n">
-        <v>0.0003</v>
+        <v>10</v>
       </c>
       <c r="G157" t="n">
-        <v>15.47333333333333</v>
+        <v>2163689.442786163</v>
       </c>
       <c r="H157" t="n">
-        <v>15.58166666666668</v>
+        <v>0</v>
       </c>
       <c r="I157" t="n">
-        <v>0</v>
-      </c>
-      <c r="J157" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
       <c r="L157" t="inlineStr"/>
-      <c r="M157" t="inlineStr"/>
-      <c r="N157" t="n">
+      <c r="M157" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6366,36 +6039,33 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>15.3</v>
+        <v>15.6</v>
       </c>
       <c r="C158" t="n">
-        <v>15.3</v>
+        <v>15.6</v>
       </c>
       <c r="D158" t="n">
-        <v>15.3</v>
+        <v>15.6</v>
       </c>
       <c r="E158" t="n">
-        <v>15.3</v>
+        <v>15.6</v>
       </c>
       <c r="F158" t="n">
-        <v>45147.0402</v>
+        <v>3450.0892</v>
       </c>
       <c r="G158" t="n">
-        <v>15.45333333333333</v>
+        <v>2160239.353586163</v>
       </c>
       <c r="H158" t="n">
-        <v>15.57500000000002</v>
+        <v>0</v>
       </c>
       <c r="I158" t="n">
-        <v>0</v>
-      </c>
-      <c r="J158" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
       <c r="L158" t="inlineStr"/>
-      <c r="M158" t="inlineStr"/>
-      <c r="N158" t="n">
+      <c r="M158" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6404,36 +6074,33 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>15.4</v>
+        <v>15.6</v>
       </c>
       <c r="C159" t="n">
-        <v>15.3</v>
+        <v>15.6</v>
       </c>
       <c r="D159" t="n">
-        <v>15.4</v>
+        <v>15.6</v>
       </c>
       <c r="E159" t="n">
-        <v>15.3</v>
+        <v>15.6</v>
       </c>
       <c r="F159" t="n">
-        <v>5002.9293</v>
+        <v>6378.2051</v>
       </c>
       <c r="G159" t="n">
-        <v>15.44</v>
+        <v>2160239.353586163</v>
       </c>
       <c r="H159" t="n">
-        <v>15.56833333333335</v>
+        <v>0</v>
       </c>
       <c r="I159" t="n">
         <v>0</v>
       </c>
-      <c r="J159" t="n">
-        <v>0</v>
-      </c>
+      <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
       <c r="L159" t="inlineStr"/>
-      <c r="M159" t="inlineStr"/>
-      <c r="N159" t="n">
+      <c r="M159" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6442,36 +6109,33 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>15.3</v>
+        <v>15.6</v>
       </c>
       <c r="C160" t="n">
-        <v>15.3</v>
+        <v>15.6</v>
       </c>
       <c r="D160" t="n">
-        <v>15.3</v>
+        <v>15.6</v>
       </c>
       <c r="E160" t="n">
-        <v>15.3</v>
+        <v>15.6</v>
       </c>
       <c r="F160" t="n">
-        <v>26569.5347</v>
+        <v>3360.7057</v>
       </c>
       <c r="G160" t="n">
-        <v>15.42666666666667</v>
+        <v>2160239.353586163</v>
       </c>
       <c r="H160" t="n">
-        <v>15.56166666666668</v>
+        <v>0</v>
       </c>
       <c r="I160" t="n">
         <v>0</v>
       </c>
-      <c r="J160" t="n">
-        <v>0</v>
-      </c>
+      <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
       <c r="L160" t="inlineStr"/>
-      <c r="M160" t="inlineStr"/>
-      <c r="N160" t="n">
+      <c r="M160" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6480,36 +6144,33 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>15.3</v>
+        <v>15.6</v>
       </c>
       <c r="C161" t="n">
-        <v>15.2</v>
+        <v>15.6</v>
       </c>
       <c r="D161" t="n">
-        <v>15.3</v>
+        <v>15.6</v>
       </c>
       <c r="E161" t="n">
-        <v>15.2</v>
+        <v>15.6</v>
       </c>
       <c r="F161" t="n">
-        <v>157592.0125</v>
+        <v>3017.4994</v>
       </c>
       <c r="G161" t="n">
-        <v>15.40666666666666</v>
+        <v>2160239.353586163</v>
       </c>
       <c r="H161" t="n">
-        <v>15.55333333333335</v>
+        <v>0</v>
       </c>
       <c r="I161" t="n">
         <v>0</v>
       </c>
-      <c r="J161" t="n">
-        <v>0</v>
-      </c>
+      <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
       <c r="L161" t="inlineStr"/>
-      <c r="M161" t="inlineStr"/>
-      <c r="N161" t="n">
+      <c r="M161" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6518,36 +6179,33 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>15.2</v>
+        <v>15.6</v>
       </c>
       <c r="C162" t="n">
-        <v>15.2</v>
+        <v>15.6</v>
       </c>
       <c r="D162" t="n">
-        <v>15.2</v>
+        <v>15.6</v>
       </c>
       <c r="E162" t="n">
-        <v>15.2</v>
+        <v>15.6</v>
       </c>
       <c r="F162" t="n">
-        <v>1000</v>
+        <v>6982.5006</v>
       </c>
       <c r="G162" t="n">
-        <v>15.38</v>
+        <v>2160239.353586163</v>
       </c>
       <c r="H162" t="n">
-        <v>15.54666666666668</v>
+        <v>0</v>
       </c>
       <c r="I162" t="n">
         <v>0</v>
       </c>
-      <c r="J162" t="n">
-        <v>0</v>
-      </c>
+      <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
       <c r="L162" t="inlineStr"/>
-      <c r="M162" t="inlineStr"/>
-      <c r="N162" t="n">
+      <c r="M162" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6556,36 +6214,33 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>15.2</v>
+        <v>15.6</v>
       </c>
       <c r="C163" t="n">
-        <v>15.2</v>
+        <v>15.6</v>
       </c>
       <c r="D163" t="n">
-        <v>15.2</v>
+        <v>15.6</v>
       </c>
       <c r="E163" t="n">
-        <v>15.2</v>
+        <v>15.6</v>
       </c>
       <c r="F163" t="n">
-        <v>78313.3931</v>
+        <v>29200</v>
       </c>
       <c r="G163" t="n">
-        <v>15.35333333333333</v>
+        <v>2160239.353586163</v>
       </c>
       <c r="H163" t="n">
-        <v>15.53833333333335</v>
+        <v>0</v>
       </c>
       <c r="I163" t="n">
         <v>0</v>
       </c>
-      <c r="J163" t="n">
-        <v>0</v>
-      </c>
+      <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
       <c r="L163" t="inlineStr"/>
-      <c r="M163" t="inlineStr"/>
-      <c r="N163" t="n">
+      <c r="M163" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6594,36 +6249,33 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>15.1</v>
+        <v>15.7</v>
       </c>
       <c r="C164" t="n">
-        <v>15.1</v>
+        <v>15.7</v>
       </c>
       <c r="D164" t="n">
-        <v>15.1</v>
+        <v>15.7</v>
       </c>
       <c r="E164" t="n">
-        <v>15.1</v>
+        <v>15.7</v>
       </c>
       <c r="F164" t="n">
-        <v>7430.8411</v>
+        <v>36</v>
       </c>
       <c r="G164" t="n">
-        <v>15.32</v>
+        <v>2160275.353586163</v>
       </c>
       <c r="H164" t="n">
-        <v>15.52833333333335</v>
+        <v>0</v>
       </c>
       <c r="I164" t="n">
         <v>0</v>
       </c>
-      <c r="J164" t="n">
-        <v>0</v>
-      </c>
+      <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
       <c r="L164" t="inlineStr"/>
-      <c r="M164" t="inlineStr"/>
-      <c r="N164" t="n">
+      <c r="M164" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6632,36 +6284,33 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>15.2</v>
+        <v>15.6</v>
       </c>
       <c r="C165" t="n">
-        <v>15.2</v>
+        <v>15.6</v>
       </c>
       <c r="D165" t="n">
-        <v>15.2</v>
+        <v>15.6</v>
       </c>
       <c r="E165" t="n">
-        <v>15.2</v>
+        <v>15.6</v>
       </c>
       <c r="F165" t="n">
-        <v>49900</v>
+        <v>1000</v>
       </c>
       <c r="G165" t="n">
-        <v>15.3</v>
+        <v>2159275.353586163</v>
       </c>
       <c r="H165" t="n">
-        <v>15.52000000000001</v>
+        <v>0</v>
       </c>
       <c r="I165" t="n">
         <v>0</v>
       </c>
-      <c r="J165" t="n">
-        <v>0</v>
-      </c>
+      <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
       <c r="L165" t="inlineStr"/>
-      <c r="M165" t="inlineStr"/>
-      <c r="N165" t="n">
+      <c r="M165" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6670,36 +6319,33 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>15.2</v>
+        <v>15.6</v>
       </c>
       <c r="C166" t="n">
-        <v>15.2</v>
+        <v>15.6</v>
       </c>
       <c r="D166" t="n">
-        <v>15.2</v>
+        <v>15.6</v>
       </c>
       <c r="E166" t="n">
-        <v>15.2</v>
+        <v>15.6</v>
       </c>
       <c r="F166" t="n">
-        <v>30000</v>
+        <v>12820.5128</v>
       </c>
       <c r="G166" t="n">
-        <v>15.28</v>
+        <v>2159275.353586163</v>
       </c>
       <c r="H166" t="n">
-        <v>15.51166666666668</v>
+        <v>0</v>
       </c>
       <c r="I166" t="n">
         <v>0</v>
       </c>
-      <c r="J166" t="n">
-        <v>0</v>
-      </c>
+      <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
       <c r="L166" t="inlineStr"/>
-      <c r="M166" t="inlineStr"/>
-      <c r="N166" t="n">
+      <c r="M166" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6708,36 +6354,33 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>15.1</v>
+        <v>15.6</v>
       </c>
       <c r="C167" t="n">
-        <v>15.2</v>
+        <v>15.6</v>
       </c>
       <c r="D167" t="n">
-        <v>15.2</v>
+        <v>15.6</v>
       </c>
       <c r="E167" t="n">
-        <v>15.1</v>
+        <v>15.6</v>
       </c>
       <c r="F167" t="n">
-        <v>68400</v>
+        <v>5641.1863</v>
       </c>
       <c r="G167" t="n">
-        <v>15.26666666666666</v>
+        <v>2159275.353586163</v>
       </c>
       <c r="H167" t="n">
-        <v>15.50333333333335</v>
+        <v>0</v>
       </c>
       <c r="I167" t="n">
         <v>0</v>
       </c>
-      <c r="J167" t="n">
-        <v>0</v>
-      </c>
+      <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
       <c r="L167" t="inlineStr"/>
-      <c r="M167" t="inlineStr"/>
-      <c r="N167" t="n">
+      <c r="M167" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6746,36 +6389,33 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>15.2</v>
+        <v>15.6</v>
       </c>
       <c r="C168" t="n">
-        <v>15.1</v>
+        <v>15.6</v>
       </c>
       <c r="D168" t="n">
-        <v>15.2</v>
+        <v>15.6</v>
       </c>
       <c r="E168" t="n">
-        <v>15.1</v>
+        <v>15.6</v>
       </c>
       <c r="F168" t="n">
-        <v>3000</v>
+        <v>21897.136</v>
       </c>
       <c r="G168" t="n">
-        <v>15.24666666666666</v>
+        <v>2159275.353586163</v>
       </c>
       <c r="H168" t="n">
-        <v>15.49333333333335</v>
+        <v>0</v>
       </c>
       <c r="I168" t="n">
         <v>0</v>
       </c>
-      <c r="J168" t="n">
-        <v>0</v>
-      </c>
+      <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
       <c r="L168" t="inlineStr"/>
-      <c r="M168" t="inlineStr"/>
-      <c r="N168" t="n">
+      <c r="M168" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6784,36 +6424,33 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>15.1</v>
+        <v>15.6</v>
       </c>
       <c r="C169" t="n">
-        <v>15.2</v>
+        <v>15.5</v>
       </c>
       <c r="D169" t="n">
-        <v>15.2</v>
+        <v>15.6</v>
       </c>
       <c r="E169" t="n">
-        <v>15.1</v>
+        <v>15.5</v>
       </c>
       <c r="F169" t="n">
-        <v>4117.2271</v>
+        <v>4645.587</v>
       </c>
       <c r="G169" t="n">
-        <v>15.23999999999999</v>
+        <v>2154629.766586164</v>
       </c>
       <c r="H169" t="n">
-        <v>15.48500000000001</v>
+        <v>0</v>
       </c>
       <c r="I169" t="n">
         <v>0</v>
       </c>
-      <c r="J169" t="n">
-        <v>0</v>
-      </c>
+      <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
       <c r="L169" t="inlineStr"/>
-      <c r="M169" t="inlineStr"/>
-      <c r="N169" t="n">
+      <c r="M169" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6822,36 +6459,33 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>15.2</v>
+        <v>15.5</v>
       </c>
       <c r="C170" t="n">
-        <v>15.1</v>
+        <v>15.5</v>
       </c>
       <c r="D170" t="n">
-        <v>15.2</v>
+        <v>15.5</v>
       </c>
       <c r="E170" t="n">
-        <v>15.1</v>
+        <v>15.5</v>
       </c>
       <c r="F170" t="n">
-        <v>128</v>
+        <v>3071.476</v>
       </c>
       <c r="G170" t="n">
-        <v>15.22666666666666</v>
+        <v>2154629.766586164</v>
       </c>
       <c r="H170" t="n">
-        <v>15.47666666666668</v>
+        <v>0</v>
       </c>
       <c r="I170" t="n">
         <v>0</v>
       </c>
-      <c r="J170" t="n">
-        <v>0</v>
-      </c>
+      <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
       <c r="L170" t="inlineStr"/>
-      <c r="M170" t="inlineStr"/>
-      <c r="N170" t="n">
+      <c r="M170" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6860,36 +6494,33 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>15.2</v>
+        <v>15.5</v>
       </c>
       <c r="C171" t="n">
-        <v>15.2</v>
+        <v>15.6</v>
       </c>
       <c r="D171" t="n">
-        <v>15.2</v>
+        <v>15.6</v>
       </c>
       <c r="E171" t="n">
-        <v>15.2</v>
+        <v>15.5</v>
       </c>
       <c r="F171" t="n">
-        <v>45.0263</v>
+        <v>2264.817</v>
       </c>
       <c r="G171" t="n">
-        <v>15.21333333333332</v>
+        <v>2156894.583586163</v>
       </c>
       <c r="H171" t="n">
-        <v>15.47000000000001</v>
+        <v>0</v>
       </c>
       <c r="I171" t="n">
         <v>0</v>
       </c>
-      <c r="J171" t="n">
-        <v>0</v>
-      </c>
+      <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
       <c r="L171" t="inlineStr"/>
-      <c r="M171" t="inlineStr"/>
-      <c r="N171" t="n">
+      <c r="M171" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6898,36 +6529,33 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>15.2</v>
+        <v>15.5</v>
       </c>
       <c r="C172" t="n">
-        <v>15.2</v>
+        <v>15.6</v>
       </c>
       <c r="D172" t="n">
-        <v>15.2</v>
+        <v>15.6</v>
       </c>
       <c r="E172" t="n">
-        <v>15.2</v>
+        <v>15.5</v>
       </c>
       <c r="F172" t="n">
-        <v>99.1447</v>
+        <v>738.7746</v>
       </c>
       <c r="G172" t="n">
-        <v>15.19999999999999</v>
+        <v>2156894.583586163</v>
       </c>
       <c r="H172" t="n">
-        <v>15.46500000000001</v>
+        <v>0</v>
       </c>
       <c r="I172" t="n">
         <v>0</v>
       </c>
-      <c r="J172" t="n">
-        <v>0</v>
-      </c>
+      <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
       <c r="L172" t="inlineStr"/>
-      <c r="M172" t="inlineStr"/>
-      <c r="N172" t="n">
+      <c r="M172" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6936,36 +6564,33 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>15.1</v>
+        <v>15.6</v>
       </c>
       <c r="C173" t="n">
-        <v>15.1</v>
+        <v>15.5</v>
       </c>
       <c r="D173" t="n">
-        <v>15.1</v>
+        <v>15.6</v>
       </c>
       <c r="E173" t="n">
-        <v>15.1</v>
+        <v>15.5</v>
       </c>
       <c r="F173" t="n">
-        <v>1000</v>
+        <v>54924.7622</v>
       </c>
       <c r="G173" t="n">
-        <v>15.18666666666665</v>
+        <v>2101969.821386163</v>
       </c>
       <c r="H173" t="n">
-        <v>15.45833333333335</v>
+        <v>0</v>
       </c>
       <c r="I173" t="n">
         <v>0</v>
       </c>
-      <c r="J173" t="n">
-        <v>0</v>
-      </c>
+      <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
       <c r="L173" t="inlineStr"/>
-      <c r="M173" t="inlineStr"/>
-      <c r="N173" t="n">
+      <c r="M173" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6974,40 +6599,33 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>15.2</v>
+        <v>15.5</v>
       </c>
       <c r="C174" t="n">
-        <v>15.2</v>
+        <v>15.5</v>
       </c>
       <c r="D174" t="n">
-        <v>15.2</v>
+        <v>15.5</v>
       </c>
       <c r="E174" t="n">
-        <v>15.2</v>
+        <v>15.5</v>
       </c>
       <c r="F174" t="n">
-        <v>10</v>
+        <v>31130.739</v>
       </c>
       <c r="G174" t="n">
-        <v>15.17999999999999</v>
+        <v>2101969.821386163</v>
       </c>
       <c r="H174" t="n">
-        <v>15.45333333333335</v>
+        <v>0</v>
       </c>
       <c r="I174" t="n">
-        <v>1</v>
-      </c>
-      <c r="J174" t="n">
-        <v>0</v>
-      </c>
-      <c r="K174" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="L174" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
-      <c r="N174" t="n">
+        <v>0</v>
+      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="inlineStr"/>
+      <c r="M174" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7016,44 +6634,33 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>15.1</v>
+        <v>15.5</v>
       </c>
       <c r="C175" t="n">
-        <v>15.1</v>
+        <v>15.5</v>
       </c>
       <c r="D175" t="n">
-        <v>15.1</v>
+        <v>15.5</v>
       </c>
       <c r="E175" t="n">
-        <v>15.1</v>
+        <v>15.5</v>
       </c>
       <c r="F175" t="n">
-        <v>1810.7583</v>
+        <v>7274.502</v>
       </c>
       <c r="G175" t="n">
-        <v>15.16666666666665</v>
+        <v>2101969.821386163</v>
       </c>
       <c r="H175" t="n">
-        <v>15.44500000000002</v>
+        <v>0</v>
       </c>
       <c r="I175" t="n">
-        <v>1</v>
-      </c>
-      <c r="J175" t="n">
-        <v>0</v>
-      </c>
-      <c r="K175" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="L175" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="M175" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N175" t="n">
+        <v>0</v>
+      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="inlineStr"/>
+      <c r="M175" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7062,44 +6669,33 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>15.2</v>
+        <v>15.6</v>
       </c>
       <c r="C176" t="n">
-        <v>15.1</v>
+        <v>15.6</v>
       </c>
       <c r="D176" t="n">
-        <v>15.2</v>
+        <v>15.6</v>
       </c>
       <c r="E176" t="n">
-        <v>15.1</v>
+        <v>15.6</v>
       </c>
       <c r="F176" t="n">
-        <v>91248.61840000001</v>
+        <v>10</v>
       </c>
       <c r="G176" t="n">
-        <v>15.15999999999999</v>
+        <v>2101979.821386163</v>
       </c>
       <c r="H176" t="n">
-        <v>15.43666666666668</v>
+        <v>0</v>
       </c>
       <c r="I176" t="n">
-        <v>1</v>
-      </c>
-      <c r="J176" t="n">
-        <v>0</v>
-      </c>
-      <c r="K176" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="L176" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="M176" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="N176" t="n">
+        <v>0</v>
+      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="inlineStr"/>
+      <c r="M176" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7108,44 +6704,33 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>15.2</v>
+        <v>15.6</v>
       </c>
       <c r="C177" t="n">
-        <v>15.2</v>
+        <v>15.6</v>
       </c>
       <c r="D177" t="n">
-        <v>15.2</v>
+        <v>15.6</v>
       </c>
       <c r="E177" t="n">
-        <v>15.2</v>
+        <v>15.6</v>
       </c>
       <c r="F177" t="n">
-        <v>1000</v>
+        <v>1623.2051</v>
       </c>
       <c r="G177" t="n">
-        <v>15.15999999999999</v>
+        <v>2101979.821386163</v>
       </c>
       <c r="H177" t="n">
-        <v>15.43000000000002</v>
+        <v>0</v>
       </c>
       <c r="I177" t="n">
-        <v>1</v>
-      </c>
-      <c r="J177" t="n">
-        <v>0</v>
-      </c>
-      <c r="K177" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="L177" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="M177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N177" t="n">
+        <v>0</v>
+      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="inlineStr"/>
+      <c r="M177" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7154,44 +6739,1048 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="C178" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="D178" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="E178" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="F178" t="n">
+        <v>3000</v>
+      </c>
+      <c r="G178" t="n">
+        <v>2101979.821386163</v>
+      </c>
+      <c r="H178" t="n">
+        <v>0</v>
+      </c>
+      <c r="I178" t="n">
+        <v>0</v>
+      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="inlineStr"/>
+      <c r="M178" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="C179" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="D179" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="E179" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="F179" t="n">
+        <v>40263.0128</v>
+      </c>
+      <c r="G179" t="n">
+        <v>2061716.808586163</v>
+      </c>
+      <c r="H179" t="n">
+        <v>0</v>
+      </c>
+      <c r="I179" t="n">
+        <v>0</v>
+      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="inlineStr"/>
+      <c r="M179" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="C180" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="D180" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="E180" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="F180" t="n">
+        <v>26600</v>
+      </c>
+      <c r="G180" t="n">
+        <v>2061716.808586163</v>
+      </c>
+      <c r="H180" t="n">
+        <v>0</v>
+      </c>
+      <c r="I180" t="n">
+        <v>0</v>
+      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="inlineStr"/>
+      <c r="M180" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="C181" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="D181" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="E181" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="F181" t="n">
+        <v>55433.074</v>
+      </c>
+      <c r="G181" t="n">
+        <v>2006283.734586163</v>
+      </c>
+      <c r="H181" t="n">
+        <v>0</v>
+      </c>
+      <c r="I181" t="n">
+        <v>0</v>
+      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="inlineStr"/>
+      <c r="M181" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="C182" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="D182" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="E182" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="F182" t="n">
+        <v>73811.22870000001</v>
+      </c>
+      <c r="G182" t="n">
+        <v>2006283.734586163</v>
+      </c>
+      <c r="H182" t="n">
+        <v>0</v>
+      </c>
+      <c r="I182" t="n">
+        <v>0</v>
+      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="inlineStr"/>
+      <c r="M182" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="C183" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="D183" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="E183" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="F183" t="n">
+        <v>4711.7168</v>
+      </c>
+      <c r="G183" t="n">
+        <v>2001572.017786163</v>
+      </c>
+      <c r="H183" t="n">
+        <v>0</v>
+      </c>
+      <c r="I183" t="n">
+        <v>0</v>
+      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="inlineStr"/>
+      <c r="M183" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="C184" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="D184" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="E184" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="F184" t="n">
+        <v>65922.1489</v>
+      </c>
+      <c r="G184" t="n">
+        <v>2001572.017786163</v>
+      </c>
+      <c r="H184" t="n">
+        <v>0</v>
+      </c>
+      <c r="I184" t="n">
+        <v>0</v>
+      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="inlineStr"/>
+      <c r="M184" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="C185" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="D185" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="E185" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="F185" t="n">
+        <v>65330.3243</v>
+      </c>
+      <c r="G185" t="n">
+        <v>2066902.342086163</v>
+      </c>
+      <c r="H185" t="n">
+        <v>0</v>
+      </c>
+      <c r="I185" t="n">
+        <v>0</v>
+      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="inlineStr"/>
+      <c r="M185" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="C186" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="D186" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="E186" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="F186" t="n">
+        <v>0.0003</v>
+      </c>
+      <c r="G186" t="n">
+        <v>2066902.342086163</v>
+      </c>
+      <c r="H186" t="n">
+        <v>0</v>
+      </c>
+      <c r="I186" t="n">
+        <v>0</v>
+      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="inlineStr"/>
+      <c r="M186" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="C187" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="D187" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="E187" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="F187" t="n">
+        <v>45147.0402</v>
+      </c>
+      <c r="G187" t="n">
+        <v>2021755.301886163</v>
+      </c>
+      <c r="H187" t="n">
+        <v>0</v>
+      </c>
+      <c r="I187" t="n">
+        <v>0</v>
+      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="inlineStr"/>
+      <c r="M187" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="C188" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="D188" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="E188" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="F188" t="n">
+        <v>5002.9293</v>
+      </c>
+      <c r="G188" t="n">
+        <v>2021755.301886163</v>
+      </c>
+      <c r="H188" t="n">
+        <v>0</v>
+      </c>
+      <c r="I188" t="n">
+        <v>0</v>
+      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="inlineStr"/>
+      <c r="M188" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="C189" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="D189" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="E189" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="F189" t="n">
+        <v>26569.5347</v>
+      </c>
+      <c r="G189" t="n">
+        <v>2021755.301886163</v>
+      </c>
+      <c r="H189" t="n">
+        <v>0</v>
+      </c>
+      <c r="I189" t="n">
+        <v>0</v>
+      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="inlineStr"/>
+      <c r="M189" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="C190" t="n">
         <v>15.2</v>
       </c>
-      <c r="C178" t="n">
+      <c r="D190" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="E190" t="n">
         <v>15.2</v>
       </c>
-      <c r="D178" t="n">
+      <c r="F190" t="n">
+        <v>157592.0125</v>
+      </c>
+      <c r="G190" t="n">
+        <v>1864163.289386163</v>
+      </c>
+      <c r="H190" t="n">
+        <v>0</v>
+      </c>
+      <c r="I190" t="n">
+        <v>0</v>
+      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="inlineStr"/>
+      <c r="M190" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
         <v>15.2</v>
       </c>
-      <c r="E178" t="n">
+      <c r="C191" t="n">
         <v>15.2</v>
       </c>
-      <c r="F178" t="n">
+      <c r="D191" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="E191" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="F191" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G191" t="n">
+        <v>1864163.289386163</v>
+      </c>
+      <c r="H191" t="n">
+        <v>0</v>
+      </c>
+      <c r="I191" t="n">
+        <v>0</v>
+      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
+      <c r="L191" t="inlineStr"/>
+      <c r="M191" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="C192" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="D192" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="E192" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="F192" t="n">
+        <v>78313.3931</v>
+      </c>
+      <c r="G192" t="n">
+        <v>1864163.289386163</v>
+      </c>
+      <c r="H192" t="n">
+        <v>0</v>
+      </c>
+      <c r="I192" t="n">
+        <v>0</v>
+      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
+      <c r="L192" t="inlineStr"/>
+      <c r="M192" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="C193" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="D193" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="E193" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="F193" t="n">
+        <v>7430.8411</v>
+      </c>
+      <c r="G193" t="n">
+        <v>1856732.448286163</v>
+      </c>
+      <c r="H193" t="n">
+        <v>0</v>
+      </c>
+      <c r="I193" t="n">
+        <v>0</v>
+      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
+      <c r="L193" t="inlineStr"/>
+      <c r="M193" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="C194" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="D194" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="E194" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="F194" t="n">
+        <v>49900</v>
+      </c>
+      <c r="G194" t="n">
+        <v>1906632.448286163</v>
+      </c>
+      <c r="H194" t="n">
+        <v>0</v>
+      </c>
+      <c r="I194" t="n">
+        <v>0</v>
+      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
+      <c r="L194" t="inlineStr"/>
+      <c r="M194" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="C195" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="D195" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="E195" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="F195" t="n">
+        <v>30000</v>
+      </c>
+      <c r="G195" t="n">
+        <v>1906632.448286163</v>
+      </c>
+      <c r="H195" t="n">
+        <v>0</v>
+      </c>
+      <c r="I195" t="n">
+        <v>0</v>
+      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
+      <c r="L195" t="inlineStr"/>
+      <c r="M195" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="C196" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="D196" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="E196" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="F196" t="n">
+        <v>68400</v>
+      </c>
+      <c r="G196" t="n">
+        <v>1906632.448286163</v>
+      </c>
+      <c r="H196" t="n">
+        <v>0</v>
+      </c>
+      <c r="I196" t="n">
+        <v>0</v>
+      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="inlineStr"/>
+      <c r="M196" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="C197" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="D197" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="E197" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="F197" t="n">
+        <v>3000</v>
+      </c>
+      <c r="G197" t="n">
+        <v>1903632.448286163</v>
+      </c>
+      <c r="H197" t="n">
+        <v>0</v>
+      </c>
+      <c r="I197" t="n">
+        <v>0</v>
+      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
+      <c r="L197" t="inlineStr"/>
+      <c r="M197" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="C198" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="D198" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="E198" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="F198" t="n">
+        <v>4117.2271</v>
+      </c>
+      <c r="G198" t="n">
+        <v>1907749.675386163</v>
+      </c>
+      <c r="H198" t="n">
+        <v>0</v>
+      </c>
+      <c r="I198" t="n">
+        <v>0</v>
+      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="inlineStr"/>
+      <c r="M198" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="C199" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="D199" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="E199" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="F199" t="n">
+        <v>128</v>
+      </c>
+      <c r="G199" t="n">
+        <v>1907621.675386163</v>
+      </c>
+      <c r="H199" t="n">
+        <v>0</v>
+      </c>
+      <c r="I199" t="n">
+        <v>0</v>
+      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
+      <c r="L199" t="inlineStr"/>
+      <c r="M199" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="C200" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="D200" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="E200" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="F200" t="n">
+        <v>45.0263</v>
+      </c>
+      <c r="G200" t="n">
+        <v>1907666.701686163</v>
+      </c>
+      <c r="H200" t="n">
+        <v>0</v>
+      </c>
+      <c r="I200" t="n">
+        <v>0</v>
+      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
+      <c r="L200" t="inlineStr"/>
+      <c r="M200" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="C201" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="D201" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="E201" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="F201" t="n">
+        <v>99.1447</v>
+      </c>
+      <c r="G201" t="n">
+        <v>1907666.701686163</v>
+      </c>
+      <c r="H201" t="n">
+        <v>0</v>
+      </c>
+      <c r="I201" t="n">
+        <v>0</v>
+      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
+      <c r="L201" t="inlineStr"/>
+      <c r="M201" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="C202" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="D202" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="E202" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="F202" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G202" t="n">
+        <v>1906666.701686163</v>
+      </c>
+      <c r="H202" t="n">
+        <v>0</v>
+      </c>
+      <c r="I202" t="n">
+        <v>0</v>
+      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
+      <c r="L202" t="inlineStr"/>
+      <c r="M202" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="C203" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="D203" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="E203" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="F203" t="n">
+        <v>10</v>
+      </c>
+      <c r="G203" t="n">
+        <v>1906676.701686163</v>
+      </c>
+      <c r="H203" t="n">
+        <v>0</v>
+      </c>
+      <c r="I203" t="n">
+        <v>0</v>
+      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
+      <c r="L203" t="inlineStr"/>
+      <c r="M203" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="C204" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="D204" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="E204" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="F204" t="n">
+        <v>1810.7583</v>
+      </c>
+      <c r="G204" t="n">
+        <v>1904865.943386163</v>
+      </c>
+      <c r="H204" t="n">
+        <v>0</v>
+      </c>
+      <c r="I204" t="n">
+        <v>0</v>
+      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
+      <c r="L204" t="inlineStr"/>
+      <c r="M204" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="C205" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="D205" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="E205" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="F205" t="n">
+        <v>91248.61840000001</v>
+      </c>
+      <c r="G205" t="n">
+        <v>1904865.943386163</v>
+      </c>
+      <c r="H205" t="n">
+        <v>0</v>
+      </c>
+      <c r="I205" t="n">
+        <v>0</v>
+      </c>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
+      <c r="L205" t="inlineStr"/>
+      <c r="M205" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="C206" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="D206" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="E206" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="F206" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G206" t="n">
+        <v>1905865.943386163</v>
+      </c>
+      <c r="H206" t="n">
+        <v>0</v>
+      </c>
+      <c r="I206" t="n">
+        <v>0</v>
+      </c>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
+      <c r="L206" t="inlineStr"/>
+      <c r="M206" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="C207" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="D207" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="E207" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="F207" t="n">
         <v>342.7924</v>
       </c>
-      <c r="G178" t="n">
-        <v>15.15999999999999</v>
-      </c>
-      <c r="H178" t="n">
-        <v>15.42500000000002</v>
-      </c>
-      <c r="I178" t="n">
-        <v>1</v>
-      </c>
-      <c r="J178" t="n">
-        <v>0</v>
-      </c>
-      <c r="K178" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="L178" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="M178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N178" t="n">
+      <c r="G207" t="n">
+        <v>1905865.943386163</v>
+      </c>
+      <c r="H207" t="n">
+        <v>0</v>
+      </c>
+      <c r="I207" t="n">
+        <v>0</v>
+      </c>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
+      <c r="L207" t="inlineStr"/>
+      <c r="M207" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-30 BackTest MITH.xlsx
+++ b/BackTest/2019-10-30 BackTest MITH.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M207"/>
+  <dimension ref="A1:N165"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,28 +427,33 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_point</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="C2" t="n">
-        <v>15.6</v>
+        <v>15.4</v>
       </c>
       <c r="D2" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="E2" t="n">
-        <v>15.6</v>
+        <v>15.4</v>
       </c>
       <c r="F2" t="n">
-        <v>10</v>
+        <v>64958.42</v>
       </c>
       <c r="G2" t="n">
-        <v>-361910.1943138365</v>
+        <v>15.525</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -462,6 +467,7 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -480,93 +486,116 @@
         <v>15.5</v>
       </c>
       <c r="F3" t="n">
-        <v>500.7495</v>
+        <v>129.8064</v>
       </c>
       <c r="G3" t="n">
-        <v>-362410.9438138365</v>
+        <v>15.52</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="K3" t="n">
+        <v>15.4</v>
+      </c>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>15.6</v>
+        <v>15.4</v>
       </c>
       <c r="C4" t="n">
-        <v>15.6</v>
+        <v>15.4</v>
       </c>
       <c r="D4" t="n">
-        <v>15.6</v>
+        <v>15.4</v>
       </c>
       <c r="E4" t="n">
-        <v>15.6</v>
+        <v>15.4</v>
       </c>
       <c r="F4" t="n">
-        <v>10000</v>
+        <v>19900</v>
       </c>
       <c r="G4" t="n">
-        <v>-352410.9438138365</v>
+        <v>15.51</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="K4" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>15.6</v>
+        <v>15.4</v>
       </c>
       <c r="C5" t="n">
-        <v>15.6</v>
+        <v>15.4</v>
       </c>
       <c r="D5" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="E5" t="n">
-        <v>15.6</v>
+        <v>15.4</v>
       </c>
       <c r="F5" t="n">
-        <v>1905.0641</v>
+        <v>17580</v>
       </c>
       <c r="G5" t="n">
-        <v>-352410.9438138365</v>
+        <v>15.5</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="K5" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -585,290 +614,362 @@
         <v>15.5</v>
       </c>
       <c r="F6" t="n">
-        <v>13516.5508</v>
+        <v>9000</v>
       </c>
       <c r="G6" t="n">
-        <v>-365927.4946138365</v>
+        <v>15.495</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="K6" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>15.6</v>
+        <v>15.4</v>
       </c>
       <c r="C7" t="n">
-        <v>15.6</v>
+        <v>15.3</v>
       </c>
       <c r="D7" t="n">
-        <v>15.6</v>
+        <v>15.4</v>
       </c>
       <c r="E7" t="n">
-        <v>15.6</v>
+        <v>15.3</v>
       </c>
       <c r="F7" t="n">
-        <v>4346.0256</v>
+        <v>50000</v>
       </c>
       <c r="G7" t="n">
-        <v>-361581.4690138365</v>
+        <v>15.48499999999999</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="K7" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>15.6</v>
+        <v>15.3</v>
       </c>
       <c r="C8" t="n">
-        <v>15.6</v>
+        <v>15.3</v>
       </c>
       <c r="D8" t="n">
-        <v>15.6</v>
+        <v>15.3</v>
       </c>
       <c r="E8" t="n">
-        <v>15.6</v>
+        <v>15.3</v>
       </c>
       <c r="F8" t="n">
-        <v>44871.7948</v>
+        <v>50455.045</v>
       </c>
       <c r="G8" t="n">
-        <v>-361581.4690138365</v>
+        <v>15.46999999999999</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="K8" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>15.6</v>
+        <v>15.3</v>
       </c>
       <c r="C9" t="n">
-        <v>15.6</v>
+        <v>15.3</v>
       </c>
       <c r="D9" t="n">
-        <v>15.6</v>
+        <v>15.3</v>
       </c>
       <c r="E9" t="n">
-        <v>15.6</v>
+        <v>15.3</v>
       </c>
       <c r="F9" t="n">
-        <v>15123.2051</v>
+        <v>18048.6925</v>
       </c>
       <c r="G9" t="n">
-        <v>-361581.4690138365</v>
+        <v>15.45499999999999</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="K9" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>15.5</v>
+        <v>15.4</v>
       </c>
       <c r="C10" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="D10" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="E10" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="F10" t="n">
+        <v>103765</v>
+      </c>
+      <c r="G10" t="n">
+        <v>15.44499999999999</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
         <v>15.3</v>
       </c>
-      <c r="D10" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="E10" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="F10" t="n">
-        <v>256582.5617</v>
-      </c>
-      <c r="G10" t="n">
-        <v>-618164.0307138365</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>15.3</v>
+        <v>15.6</v>
       </c>
       <c r="C11" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="D11" t="n">
         <v>15.6</v>
       </c>
       <c r="E11" t="n">
-        <v>15.3</v>
+        <v>15.6</v>
       </c>
       <c r="F11" t="n">
-        <v>158701</v>
+        <v>4723.5256</v>
       </c>
       <c r="G11" t="n">
-        <v>-459463.0307138365</v>
+        <v>15.44499999999999</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="K11" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="C12" t="n">
-        <v>15.5</v>
+        <v>15.7</v>
       </c>
       <c r="D12" t="n">
-        <v>15.5</v>
+        <v>15.7</v>
       </c>
       <c r="E12" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="F12" t="n">
-        <v>39300</v>
+        <v>106213.423</v>
       </c>
       <c r="G12" t="n">
-        <v>-459463.0307138365</v>
+        <v>15.44499999999999</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="K12" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>15.4</v>
+        <v>15.8</v>
       </c>
       <c r="C13" t="n">
-        <v>15.4</v>
+        <v>15.7</v>
       </c>
       <c r="D13" t="n">
-        <v>15.4</v>
+        <v>15.8</v>
       </c>
       <c r="E13" t="n">
-        <v>15.4</v>
+        <v>15.7</v>
       </c>
       <c r="F13" t="n">
-        <v>14000</v>
+        <v>76460.67260000001</v>
       </c>
       <c r="G13" t="n">
-        <v>-473463.0307138365</v>
+        <v>15.45499999999999</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="K13" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>15.4</v>
+        <v>15.8</v>
       </c>
       <c r="C14" t="n">
-        <v>15.4</v>
+        <v>15.8</v>
       </c>
       <c r="D14" t="n">
-        <v>15.4</v>
+        <v>15.8</v>
       </c>
       <c r="E14" t="n">
-        <v>15.4</v>
+        <v>15.8</v>
       </c>
       <c r="F14" t="n">
-        <v>15000</v>
+        <v>12</v>
       </c>
       <c r="G14" t="n">
-        <v>-473463.0307138365</v>
+        <v>15.46999999999999</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -877,33 +978,40 @@
         <v>0</v>
       </c>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>15.4</v>
+        <v>15.8</v>
       </c>
       <c r="C15" t="n">
-        <v>15.4</v>
+        <v>16</v>
       </c>
       <c r="D15" t="n">
-        <v>15.4</v>
+        <v>16</v>
       </c>
       <c r="E15" t="n">
-        <v>15.4</v>
+        <v>15.8</v>
       </c>
       <c r="F15" t="n">
-        <v>1000</v>
+        <v>674936.5318999999</v>
       </c>
       <c r="G15" t="n">
-        <v>-473463.0307138365</v>
+        <v>15.48499999999999</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -912,33 +1020,40 @@
         <v>0</v>
       </c>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>15.4</v>
+        <v>16</v>
       </c>
       <c r="C16" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="D16" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="E16" t="n">
-        <v>15.4</v>
+        <v>16</v>
       </c>
       <c r="F16" t="n">
-        <v>33717.303</v>
+        <v>17000</v>
       </c>
       <c r="G16" t="n">
-        <v>-439745.7277138365</v>
+        <v>15.51499999999999</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -947,33 +1062,40 @@
         <v>0</v>
       </c>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="C17" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="D17" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="E17" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="F17" t="n">
-        <v>48035.5902</v>
+        <v>375348.2181</v>
       </c>
       <c r="G17" t="n">
-        <v>-439745.7277138365</v>
+        <v>15.54499999999999</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -982,33 +1104,40 @@
         <v>0</v>
       </c>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="C18" t="n">
-        <v>15.5</v>
+        <v>16.3</v>
       </c>
       <c r="D18" t="n">
-        <v>15.5</v>
+        <v>16.3</v>
       </c>
       <c r="E18" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="F18" t="n">
-        <v>86327.4562</v>
+        <v>391432.9816</v>
       </c>
       <c r="G18" t="n">
-        <v>-439745.7277138365</v>
+        <v>15.57499999999999</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1017,33 +1146,40 @@
         <v>0</v>
       </c>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>15.5</v>
+        <v>16.4</v>
       </c>
       <c r="C19" t="n">
-        <v>15.5</v>
+        <v>16.8</v>
       </c>
       <c r="D19" t="n">
-        <v>15.5</v>
+        <v>17</v>
       </c>
       <c r="E19" t="n">
-        <v>15.5</v>
+        <v>16.4</v>
       </c>
       <c r="F19" t="n">
-        <v>4394.2731</v>
+        <v>2028317.3298</v>
       </c>
       <c r="G19" t="n">
-        <v>-439745.7277138365</v>
+        <v>15.62499999999999</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1052,33 +1188,40 @@
         <v>0</v>
       </c>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>15.5</v>
+        <v>16.8</v>
       </c>
       <c r="C20" t="n">
-        <v>15.5</v>
+        <v>16.2</v>
       </c>
       <c r="D20" t="n">
-        <v>15.5</v>
+        <v>17</v>
       </c>
       <c r="E20" t="n">
-        <v>15.5</v>
+        <v>15.8</v>
       </c>
       <c r="F20" t="n">
-        <v>10000</v>
+        <v>539385.0269000001</v>
       </c>
       <c r="G20" t="n">
-        <v>-439745.7277138365</v>
+        <v>15.695</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1087,33 +1230,40 @@
         <v>0</v>
       </c>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>15.5</v>
+        <v>15.9</v>
       </c>
       <c r="C21" t="n">
-        <v>15.6</v>
+        <v>16</v>
       </c>
       <c r="D21" t="n">
-        <v>15.6</v>
+        <v>16</v>
       </c>
       <c r="E21" t="n">
-        <v>15.5</v>
+        <v>15.9</v>
       </c>
       <c r="F21" t="n">
-        <v>249715.2588</v>
+        <v>171770.1687</v>
       </c>
       <c r="G21" t="n">
-        <v>-190030.4689138365</v>
+        <v>15.72</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1122,33 +1272,40 @@
         <v>0</v>
       </c>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>15.6</v>
+        <v>16.1</v>
       </c>
       <c r="C22" t="n">
-        <v>15.6</v>
+        <v>16.1</v>
       </c>
       <c r="D22" t="n">
-        <v>15.6</v>
+        <v>16.1</v>
       </c>
       <c r="E22" t="n">
-        <v>15.6</v>
+        <v>16.1</v>
       </c>
       <c r="F22" t="n">
-        <v>4277.18</v>
+        <v>3538</v>
       </c>
       <c r="G22" t="n">
-        <v>-190030.4689138365</v>
+        <v>15.75</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1157,33 +1314,40 @@
         <v>0</v>
       </c>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>15.6</v>
+        <v>16.3</v>
       </c>
       <c r="C23" t="n">
-        <v>15.6</v>
+        <v>16.3</v>
       </c>
       <c r="D23" t="n">
-        <v>15.6</v>
+        <v>16.3</v>
       </c>
       <c r="E23" t="n">
-        <v>15.6</v>
+        <v>16.3</v>
       </c>
       <c r="F23" t="n">
-        <v>116171.152</v>
+        <v>10</v>
       </c>
       <c r="G23" t="n">
-        <v>-190030.4689138365</v>
+        <v>15.79</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1192,33 +1356,40 @@
         <v>0</v>
       </c>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>15.6</v>
+        <v>16.1</v>
       </c>
       <c r="C24" t="n">
-        <v>15.6</v>
+        <v>16.1</v>
       </c>
       <c r="D24" t="n">
-        <v>15.6</v>
+        <v>16.1</v>
       </c>
       <c r="E24" t="n">
-        <v>15.6</v>
+        <v>16.1</v>
       </c>
       <c r="F24" t="n">
-        <v>13501</v>
+        <v>8026.519</v>
       </c>
       <c r="G24" t="n">
-        <v>-190030.4689138365</v>
+        <v>15.825</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1227,33 +1398,40 @@
         <v>0</v>
       </c>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>15.6</v>
+        <v>16.1</v>
       </c>
       <c r="C25" t="n">
-        <v>15.6</v>
+        <v>16</v>
       </c>
       <c r="D25" t="n">
-        <v>15.6</v>
+        <v>16.1</v>
       </c>
       <c r="E25" t="n">
-        <v>15.6</v>
+        <v>16</v>
       </c>
       <c r="F25" t="n">
-        <v>88160</v>
+        <v>29871.9021</v>
       </c>
       <c r="G25" t="n">
-        <v>-190030.4689138365</v>
+        <v>15.86</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1262,33 +1440,40 @@
         <v>0</v>
       </c>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>15.6</v>
+        <v>15.9</v>
       </c>
       <c r="C26" t="n">
-        <v>15.6</v>
+        <v>15.9</v>
       </c>
       <c r="D26" t="n">
-        <v>15.6</v>
+        <v>15.9</v>
       </c>
       <c r="E26" t="n">
-        <v>15.6</v>
+        <v>15.9</v>
       </c>
       <c r="F26" t="n">
-        <v>35494.667</v>
+        <v>131787.1553</v>
       </c>
       <c r="G26" t="n">
-        <v>-190030.4689138365</v>
+        <v>15.88</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1297,33 +1482,40 @@
         <v>0</v>
       </c>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>15.6</v>
+        <v>15.8</v>
       </c>
       <c r="C27" t="n">
-        <v>15.6</v>
+        <v>15.8</v>
       </c>
       <c r="D27" t="n">
-        <v>15.6</v>
+        <v>15.9</v>
       </c>
       <c r="E27" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="F27" t="n">
-        <v>98569.9559</v>
+        <v>221906.5324</v>
       </c>
       <c r="G27" t="n">
-        <v>-190030.4689138365</v>
+        <v>15.9</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1332,33 +1524,40 @@
         <v>0</v>
       </c>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="C28" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="D28" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="E28" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="F28" t="n">
-        <v>6009.5512</v>
+        <v>106354.1743</v>
       </c>
       <c r="G28" t="n">
-        <v>-190030.4689138365</v>
+        <v>15.92</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1367,33 +1566,40 @@
         <v>0</v>
       </c>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="C29" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="D29" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="E29" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="F29" t="n">
-        <v>10000</v>
+        <v>38000</v>
       </c>
       <c r="G29" t="n">
-        <v>-190030.4689138365</v>
+        <v>15.94</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1402,33 +1608,40 @@
         <v>0</v>
       </c>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>15.6</v>
+        <v>15.8</v>
       </c>
       <c r="C30" t="n">
-        <v>15.6</v>
+        <v>15.8</v>
       </c>
       <c r="D30" t="n">
-        <v>15.6</v>
+        <v>15.8</v>
       </c>
       <c r="E30" t="n">
-        <v>15.6</v>
+        <v>15.8</v>
       </c>
       <c r="F30" t="n">
-        <v>8198.858899999999</v>
+        <v>88801.72629999999</v>
       </c>
       <c r="G30" t="n">
-        <v>-190030.4689138365</v>
+        <v>15.96</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1437,33 +1650,40 @@
         <v>0</v>
       </c>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>15.6</v>
+        <v>15.8</v>
       </c>
       <c r="C31" t="n">
-        <v>15.6</v>
+        <v>15.9</v>
       </c>
       <c r="D31" t="n">
-        <v>15.6</v>
+        <v>15.9</v>
       </c>
       <c r="E31" t="n">
-        <v>15.6</v>
+        <v>15.8</v>
       </c>
       <c r="F31" t="n">
-        <v>17569.7791</v>
+        <v>530</v>
       </c>
       <c r="G31" t="n">
-        <v>-190030.4689138365</v>
+        <v>15.97</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1472,33 +1692,40 @@
         <v>0</v>
       </c>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>15.6</v>
+        <v>15.9</v>
       </c>
       <c r="C32" t="n">
-        <v>15.6</v>
+        <v>15.9</v>
       </c>
       <c r="D32" t="n">
-        <v>15.6</v>
+        <v>15.9</v>
       </c>
       <c r="E32" t="n">
-        <v>15.6</v>
+        <v>15.9</v>
       </c>
       <c r="F32" t="n">
-        <v>16846.7292</v>
+        <v>206225.7099</v>
       </c>
       <c r="G32" t="n">
-        <v>-190030.4689138365</v>
+        <v>15.985</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1507,33 +1734,40 @@
         <v>0</v>
       </c>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>15.6</v>
+        <v>16</v>
       </c>
       <c r="C33" t="n">
-        <v>15.6</v>
+        <v>16.1</v>
       </c>
       <c r="D33" t="n">
-        <v>15.6</v>
+        <v>16.1</v>
       </c>
       <c r="E33" t="n">
-        <v>15.6</v>
+        <v>16</v>
       </c>
       <c r="F33" t="n">
-        <v>1923.0769</v>
+        <v>109254.9195</v>
       </c>
       <c r="G33" t="n">
-        <v>-190030.4689138365</v>
+        <v>15.995</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1542,33 +1776,40 @@
         <v>0</v>
       </c>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>15.6</v>
+        <v>16.1</v>
       </c>
       <c r="C34" t="n">
-        <v>15.6</v>
+        <v>16.1</v>
       </c>
       <c r="D34" t="n">
-        <v>15.6</v>
+        <v>16.1</v>
       </c>
       <c r="E34" t="n">
-        <v>15.6</v>
+        <v>16.1</v>
       </c>
       <c r="F34" t="n">
-        <v>14812.2828</v>
+        <v>5110.4968</v>
       </c>
       <c r="G34" t="n">
-        <v>-190030.4689138365</v>
+        <v>16.01</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1577,33 +1818,40 @@
         <v>0</v>
       </c>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>15.6</v>
+        <v>16</v>
       </c>
       <c r="C35" t="n">
-        <v>15.6</v>
+        <v>16.1</v>
       </c>
       <c r="D35" t="n">
-        <v>15.6</v>
+        <v>16.1</v>
       </c>
       <c r="E35" t="n">
-        <v>15.6</v>
+        <v>16</v>
       </c>
       <c r="F35" t="n">
-        <v>121085.153</v>
+        <v>21322.6898</v>
       </c>
       <c r="G35" t="n">
-        <v>-190030.4689138365</v>
+        <v>16.02</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1612,33 +1860,40 @@
         <v>0</v>
       </c>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>15.5</v>
+        <v>15.9</v>
       </c>
       <c r="C36" t="n">
-        <v>15.5</v>
+        <v>15.9</v>
       </c>
       <c r="D36" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="E36" t="n">
-        <v>15.5</v>
+        <v>15.9</v>
       </c>
       <c r="F36" t="n">
-        <v>142610.3224</v>
+        <v>116772.1318</v>
       </c>
       <c r="G36" t="n">
-        <v>-332640.7913138365</v>
+        <v>16.015</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1647,33 +1902,40 @@
         <v>0</v>
       </c>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>15.5</v>
+        <v>15.9</v>
       </c>
       <c r="C37" t="n">
-        <v>15.6</v>
+        <v>16</v>
       </c>
       <c r="D37" t="n">
-        <v>15.6</v>
+        <v>16</v>
       </c>
       <c r="E37" t="n">
-        <v>15.5</v>
+        <v>15.8</v>
       </c>
       <c r="F37" t="n">
-        <v>30200</v>
+        <v>356884.3608</v>
       </c>
       <c r="G37" t="n">
-        <v>-302440.7913138365</v>
+        <v>16.01</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1682,33 +1944,40 @@
         <v>0</v>
       </c>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>15.4</v>
+        <v>16</v>
       </c>
       <c r="C38" t="n">
-        <v>15.4</v>
+        <v>16.1</v>
       </c>
       <c r="D38" t="n">
-        <v>15.4</v>
+        <v>16.1</v>
       </c>
       <c r="E38" t="n">
-        <v>15.4</v>
+        <v>16</v>
       </c>
       <c r="F38" t="n">
-        <v>50095.5629</v>
+        <v>253200</v>
       </c>
       <c r="G38" t="n">
-        <v>-352536.3542138365</v>
+        <v>16.01</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1717,33 +1986,40 @@
         <v>0</v>
       </c>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>15.4</v>
+        <v>16.1</v>
       </c>
       <c r="C39" t="n">
-        <v>15.4</v>
+        <v>16.1</v>
       </c>
       <c r="D39" t="n">
-        <v>15.4</v>
+        <v>16.1</v>
       </c>
       <c r="E39" t="n">
-        <v>15.4</v>
+        <v>15.9</v>
       </c>
       <c r="F39" t="n">
-        <v>3787.176</v>
+        <v>80223.6024</v>
       </c>
       <c r="G39" t="n">
-        <v>-352536.3542138365</v>
+        <v>15.995</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1752,33 +2028,40 @@
         <v>0</v>
       </c>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>15.4</v>
+        <v>16.1</v>
       </c>
       <c r="C40" t="n">
-        <v>15.4</v>
+        <v>16.1</v>
       </c>
       <c r="D40" t="n">
-        <v>15.4</v>
+        <v>16.1</v>
       </c>
       <c r="E40" t="n">
-        <v>15.4</v>
+        <v>16.1</v>
       </c>
       <c r="F40" t="n">
-        <v>2000</v>
+        <v>41517.2049</v>
       </c>
       <c r="G40" t="n">
-        <v>-352536.3542138365</v>
+        <v>15.96</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1787,33 +2070,40 @@
         <v>0</v>
       </c>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>15.4</v>
+        <v>16.1</v>
       </c>
       <c r="C41" t="n">
-        <v>15.4</v>
+        <v>16.1</v>
       </c>
       <c r="D41" t="n">
-        <v>15.4</v>
+        <v>16.1</v>
       </c>
       <c r="E41" t="n">
-        <v>15.4</v>
+        <v>16.1</v>
       </c>
       <c r="F41" t="n">
-        <v>3000</v>
+        <v>648.944</v>
       </c>
       <c r="G41" t="n">
-        <v>-352536.3542138365</v>
+        <v>15.97</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1822,168 +2112,174 @@
         <v>0</v>
       </c>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>15.4</v>
+        <v>16.1</v>
       </c>
       <c r="C42" t="n">
-        <v>15.4</v>
+        <v>16.1</v>
       </c>
       <c r="D42" t="n">
-        <v>15.4</v>
+        <v>16.1</v>
       </c>
       <c r="E42" t="n">
-        <v>15.4</v>
+        <v>16.1</v>
       </c>
       <c r="F42" t="n">
-        <v>3000</v>
+        <v>7763.9751</v>
       </c>
       <c r="G42" t="n">
-        <v>-352536.3542138365</v>
+        <v>15.97</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="n">
-        <v>15.4</v>
-      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="n">
         <v>15.4</v>
       </c>
-      <c r="L42" t="inlineStr"/>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>15.4</v>
+        <v>16</v>
       </c>
       <c r="C43" t="n">
-        <v>15.4</v>
+        <v>16</v>
       </c>
       <c r="D43" t="n">
-        <v>15.4</v>
+        <v>16</v>
       </c>
       <c r="E43" t="n">
-        <v>15.4</v>
+        <v>16</v>
       </c>
       <c r="F43" t="n">
-        <v>13.3</v>
+        <v>2226.5625</v>
       </c>
       <c r="G43" t="n">
-        <v>-352536.3542138365</v>
+        <v>15.955</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="n">
-        <v>15.4</v>
-      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="n">
         <v>15.4</v>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="C44" t="n">
-        <v>15.4</v>
+        <v>16</v>
       </c>
       <c r="D44" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="E44" t="n">
-        <v>15.4</v>
+        <v>16</v>
       </c>
       <c r="F44" t="n">
-        <v>64958.42</v>
+        <v>7947.9433</v>
       </c>
       <c r="G44" t="n">
-        <v>-352536.3542138365</v>
+        <v>15.95</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="n">
-        <v>15.4</v>
-      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="n">
         <v>15.4</v>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>15.5</v>
+        <v>16.1</v>
       </c>
       <c r="C45" t="n">
-        <v>15.5</v>
+        <v>16.1</v>
       </c>
       <c r="D45" t="n">
-        <v>15.5</v>
+        <v>16.1</v>
       </c>
       <c r="E45" t="n">
-        <v>15.5</v>
+        <v>16.1</v>
       </c>
       <c r="F45" t="n">
-        <v>129.8064</v>
+        <v>6638.1987</v>
       </c>
       <c r="G45" t="n">
-        <v>-352406.5478138365</v>
+        <v>15.95</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="n">
-        <v>15.4</v>
-      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="n">
         <v>15.4</v>
       </c>
@@ -1995,38 +2291,37 @@
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>15.4</v>
+        <v>16.1</v>
       </c>
       <c r="C46" t="n">
-        <v>15.4</v>
+        <v>16.2</v>
       </c>
       <c r="D46" t="n">
-        <v>15.4</v>
+        <v>16.2</v>
       </c>
       <c r="E46" t="n">
-        <v>15.4</v>
+        <v>16.1</v>
       </c>
       <c r="F46" t="n">
-        <v>19900</v>
+        <v>40610</v>
       </c>
       <c r="G46" t="n">
-        <v>-372306.5478138365</v>
+        <v>15.96</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="n">
-        <v>15.5</v>
-      </c>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="n">
         <v>15.4</v>
       </c>
@@ -2038,28 +2333,29 @@
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>15.4</v>
+        <v>16</v>
       </c>
       <c r="C47" t="n">
-        <v>15.4</v>
+        <v>15.9</v>
       </c>
       <c r="D47" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="E47" t="n">
-        <v>15.4</v>
+        <v>15.9</v>
       </c>
       <c r="F47" t="n">
-        <v>17580</v>
+        <v>50088.0684</v>
       </c>
       <c r="G47" t="n">
-        <v>-372306.5478138365</v>
+        <v>15.97</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2079,28 +2375,29 @@
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>15.5</v>
+        <v>16.1</v>
       </c>
       <c r="C48" t="n">
-        <v>15.5</v>
+        <v>16.1</v>
       </c>
       <c r="D48" t="n">
-        <v>15.5</v>
+        <v>16.1</v>
       </c>
       <c r="E48" t="n">
-        <v>15.5</v>
+        <v>16.1</v>
       </c>
       <c r="F48" t="n">
-        <v>9000</v>
+        <v>10</v>
       </c>
       <c r="G48" t="n">
-        <v>-363306.5478138365</v>
+        <v>15.99</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2120,38 +2417,37 @@
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>15.4</v>
+        <v>16.1</v>
       </c>
       <c r="C49" t="n">
-        <v>15.3</v>
+        <v>16.1</v>
       </c>
       <c r="D49" t="n">
-        <v>15.4</v>
+        <v>16.1</v>
       </c>
       <c r="E49" t="n">
-        <v>15.3</v>
+        <v>16.1</v>
       </c>
       <c r="F49" t="n">
-        <v>50000</v>
+        <v>3838.6956</v>
       </c>
       <c r="G49" t="n">
-        <v>-413306.5478138365</v>
+        <v>16.01000000000001</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="n">
-        <v>15.5</v>
-      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="n">
         <v>15.4</v>
       </c>
@@ -2163,38 +2459,37 @@
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>15.3</v>
+        <v>16.1</v>
       </c>
       <c r="C50" t="n">
-        <v>15.3</v>
+        <v>16.1</v>
       </c>
       <c r="D50" t="n">
-        <v>15.3</v>
+        <v>16.1</v>
       </c>
       <c r="E50" t="n">
-        <v>15.3</v>
+        <v>16.1</v>
       </c>
       <c r="F50" t="n">
-        <v>50455.045</v>
+        <v>41390.6926</v>
       </c>
       <c r="G50" t="n">
-        <v>-413306.5478138365</v>
+        <v>16.02500000000001</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="n">
-        <v>15.3</v>
-      </c>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="n">
         <v>15.4</v>
       </c>
@@ -2206,38 +2501,37 @@
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>15.3</v>
+        <v>16.2</v>
       </c>
       <c r="C51" t="n">
-        <v>15.3</v>
+        <v>16.2</v>
       </c>
       <c r="D51" t="n">
-        <v>15.3</v>
+        <v>16.2</v>
       </c>
       <c r="E51" t="n">
-        <v>15.3</v>
+        <v>16.2</v>
       </c>
       <c r="F51" t="n">
-        <v>18048.6925</v>
+        <v>30.8024</v>
       </c>
       <c r="G51" t="n">
-        <v>-413306.5478138365</v>
+        <v>16.04500000000001</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="n">
-        <v>15.3</v>
-      </c>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="n">
         <v>15.4</v>
       </c>
@@ -2249,38 +2543,37 @@
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>15.4</v>
+        <v>16.1</v>
       </c>
       <c r="C52" t="n">
-        <v>15.6</v>
+        <v>16</v>
       </c>
       <c r="D52" t="n">
-        <v>15.6</v>
+        <v>16.1</v>
       </c>
       <c r="E52" t="n">
-        <v>15.4</v>
+        <v>16</v>
       </c>
       <c r="F52" t="n">
-        <v>103765</v>
+        <v>12768.348</v>
       </c>
       <c r="G52" t="n">
-        <v>-309541.5478138365</v>
+        <v>16.05500000000001</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="n">
-        <v>15.3</v>
-      </c>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="n">
         <v>15.4</v>
       </c>
@@ -2292,38 +2585,37 @@
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>15.6</v>
+        <v>16.2</v>
       </c>
       <c r="C53" t="n">
-        <v>15.6</v>
+        <v>16</v>
       </c>
       <c r="D53" t="n">
-        <v>15.6</v>
+        <v>16.2</v>
       </c>
       <c r="E53" t="n">
-        <v>15.6</v>
+        <v>16</v>
       </c>
       <c r="F53" t="n">
-        <v>4723.5256</v>
+        <v>2740.923</v>
       </c>
       <c r="G53" t="n">
-        <v>-309541.5478138365</v>
+        <v>16.065</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="n">
-        <v>15.6</v>
-      </c>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="n">
         <v>15.4</v>
       </c>
@@ -2335,38 +2627,37 @@
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>15.6</v>
+        <v>16.1</v>
       </c>
       <c r="C54" t="n">
-        <v>15.7</v>
+        <v>16</v>
       </c>
       <c r="D54" t="n">
-        <v>15.7</v>
+        <v>16.1</v>
       </c>
       <c r="E54" t="n">
-        <v>15.6</v>
+        <v>16</v>
       </c>
       <c r="F54" t="n">
-        <v>106213.423</v>
+        <v>30210</v>
       </c>
       <c r="G54" t="n">
-        <v>-203328.1248138365</v>
+        <v>16.065</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="n">
-        <v>15.6</v>
-      </c>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="n">
         <v>15.4</v>
       </c>
@@ -2378,172 +2669,157 @@
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>15.8</v>
+        <v>16</v>
       </c>
       <c r="C55" t="n">
-        <v>15.7</v>
+        <v>16.1</v>
       </c>
       <c r="D55" t="n">
-        <v>15.8</v>
+        <v>16.1</v>
       </c>
       <c r="E55" t="n">
-        <v>15.7</v>
+        <v>15.9</v>
       </c>
       <c r="F55" t="n">
-        <v>76460.67260000001</v>
+        <v>40010</v>
       </c>
       <c r="G55" t="n">
-        <v>-203328.1248138365</v>
+        <v>16.065</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>0</v>
-      </c>
-      <c r="J55" t="n">
-        <v>15.7</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="n">
         <v>15.4</v>
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="M55" t="n">
-        <v>1</v>
-      </c>
+        <v>1.040454545454546</v>
+      </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>15.8</v>
+        <v>16</v>
       </c>
       <c r="C56" t="n">
-        <v>15.8</v>
+        <v>16</v>
       </c>
       <c r="D56" t="n">
-        <v>15.8</v>
+        <v>16</v>
       </c>
       <c r="E56" t="n">
-        <v>15.8</v>
+        <v>16</v>
       </c>
       <c r="F56" t="n">
-        <v>12</v>
+        <v>2251.128</v>
       </c>
       <c r="G56" t="n">
-        <v>-203316.1248138365</v>
+        <v>16.07000000000001</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>15.8</v>
+        <v>16.1</v>
       </c>
       <c r="C57" t="n">
-        <v>16</v>
+        <v>16.1</v>
       </c>
       <c r="D57" t="n">
-        <v>16</v>
+        <v>16.1</v>
       </c>
       <c r="E57" t="n">
-        <v>15.8</v>
+        <v>16.1</v>
       </c>
       <c r="F57" t="n">
-        <v>674936.5318999999</v>
+        <v>10</v>
       </c>
       <c r="G57" t="n">
-        <v>471620.4070861634</v>
+        <v>16.08000000000001</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>16</v>
+        <v>15.9</v>
       </c>
       <c r="C58" t="n">
-        <v>16</v>
+        <v>16.1</v>
       </c>
       <c r="D58" t="n">
-        <v>16</v>
+        <v>16.1</v>
       </c>
       <c r="E58" t="n">
-        <v>16</v>
+        <v>15.9</v>
       </c>
       <c r="F58" t="n">
-        <v>17000</v>
+        <v>77101.53810000001</v>
       </c>
       <c r="G58" t="n">
-        <v>471620.4070861634</v>
+        <v>16.07500000000001</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2553,38 +2829,33 @@
         <v>16</v>
       </c>
       <c r="C59" t="n">
-        <v>16</v>
+        <v>16.1</v>
       </c>
       <c r="D59" t="n">
-        <v>16</v>
+        <v>16.1</v>
       </c>
       <c r="E59" t="n">
         <v>16</v>
       </c>
       <c r="F59" t="n">
-        <v>375348.2181</v>
+        <v>49596.8612</v>
       </c>
       <c r="G59" t="n">
-        <v>471620.4070861634</v>
+        <v>16.07000000000001</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
       </c>
       <c r="I59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2594,142 +2865,127 @@
         <v>16</v>
       </c>
       <c r="C60" t="n">
-        <v>16.3</v>
+        <v>16</v>
       </c>
       <c r="D60" t="n">
-        <v>16.3</v>
+        <v>16</v>
       </c>
       <c r="E60" t="n">
-        <v>16</v>
+        <v>15.9</v>
       </c>
       <c r="F60" t="n">
-        <v>391432.9816</v>
+        <v>80963.3368</v>
       </c>
       <c r="G60" t="n">
-        <v>863053.3886861634</v>
+        <v>16.065</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>16.4</v>
+        <v>15.9</v>
       </c>
       <c r="C61" t="n">
-        <v>16.8</v>
+        <v>15.9</v>
       </c>
       <c r="D61" t="n">
-        <v>17</v>
+        <v>15.9</v>
       </c>
       <c r="E61" t="n">
-        <v>16.4</v>
+        <v>15.9</v>
       </c>
       <c r="F61" t="n">
-        <v>2028317.3298</v>
+        <v>17.1698</v>
       </c>
       <c r="G61" t="n">
-        <v>2891370.718486163</v>
+        <v>16.055</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>16.8</v>
+        <v>15.8</v>
       </c>
       <c r="C62" t="n">
-        <v>16.2</v>
+        <v>15.8</v>
       </c>
       <c r="D62" t="n">
-        <v>17</v>
+        <v>15.8</v>
       </c>
       <c r="E62" t="n">
         <v>15.8</v>
       </c>
       <c r="F62" t="n">
-        <v>539385.0269000001</v>
+        <v>45936.3924</v>
       </c>
       <c r="G62" t="n">
-        <v>2351985.691586163</v>
+        <v>16.04</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
-        <v>1.046948051948052</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="C63" t="n">
         <v>15.9</v>
       </c>
-      <c r="C63" t="n">
-        <v>16</v>
-      </c>
       <c r="D63" t="n">
-        <v>16</v>
+        <v>15.9</v>
       </c>
       <c r="E63" t="n">
-        <v>15.9</v>
+        <v>15.8</v>
       </c>
       <c r="F63" t="n">
-        <v>171770.1687</v>
+        <v>8385.5065</v>
       </c>
       <c r="G63" t="n">
-        <v>2180215.522886164</v>
+        <v>16.03</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2743,28 +2999,29 @@
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>16.1</v>
+        <v>15.9</v>
       </c>
       <c r="C64" t="n">
-        <v>16.1</v>
+        <v>15.8</v>
       </c>
       <c r="D64" t="n">
-        <v>16.1</v>
+        <v>15.9</v>
       </c>
       <c r="E64" t="n">
-        <v>16.1</v>
+        <v>15.8</v>
       </c>
       <c r="F64" t="n">
-        <v>3538</v>
+        <v>19234.8023</v>
       </c>
       <c r="G64" t="n">
-        <v>2183753.522886164</v>
+        <v>16.025</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2778,28 +3035,29 @@
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>16.3</v>
+        <v>16</v>
       </c>
       <c r="C65" t="n">
-        <v>16.3</v>
+        <v>16</v>
       </c>
       <c r="D65" t="n">
-        <v>16.3</v>
+        <v>16</v>
       </c>
       <c r="E65" t="n">
-        <v>16.3</v>
+        <v>16</v>
       </c>
       <c r="F65" t="n">
         <v>10</v>
       </c>
       <c r="G65" t="n">
-        <v>2183763.522886164</v>
+        <v>16.02</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2813,28 +3071,29 @@
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>16.1</v>
+        <v>15.9</v>
       </c>
       <c r="C66" t="n">
-        <v>16.1</v>
+        <v>15.8</v>
       </c>
       <c r="D66" t="n">
-        <v>16.1</v>
+        <v>15.9</v>
       </c>
       <c r="E66" t="n">
-        <v>16.1</v>
+        <v>15.8</v>
       </c>
       <c r="F66" t="n">
-        <v>8026.519</v>
+        <v>360294.6675</v>
       </c>
       <c r="G66" t="n">
-        <v>2175737.003886164</v>
+        <v>16.01</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2848,28 +3107,29 @@
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>16.1</v>
+        <v>15.7</v>
       </c>
       <c r="C67" t="n">
-        <v>16</v>
+        <v>15.6</v>
       </c>
       <c r="D67" t="n">
-        <v>16.1</v>
+        <v>15.8</v>
       </c>
       <c r="E67" t="n">
-        <v>16</v>
+        <v>15.6</v>
       </c>
       <c r="F67" t="n">
-        <v>29871.9021</v>
+        <v>259015.3429</v>
       </c>
       <c r="G67" t="n">
-        <v>2145865.101786164</v>
+        <v>15.995</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2883,28 +3143,29 @@
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>15.9</v>
+        <v>15.6</v>
       </c>
       <c r="C68" t="n">
-        <v>15.9</v>
+        <v>15.6</v>
       </c>
       <c r="D68" t="n">
-        <v>15.9</v>
+        <v>15.6</v>
       </c>
       <c r="E68" t="n">
-        <v>15.9</v>
+        <v>15.6</v>
       </c>
       <c r="F68" t="n">
-        <v>131787.1553</v>
+        <v>354314.9966</v>
       </c>
       <c r="G68" t="n">
-        <v>2014077.946486164</v>
+        <v>15.97</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2918,28 +3179,29 @@
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>15.8</v>
+        <v>15.6</v>
       </c>
       <c r="C69" t="n">
-        <v>15.8</v>
+        <v>15.6</v>
       </c>
       <c r="D69" t="n">
-        <v>15.9</v>
+        <v>15.6</v>
       </c>
       <c r="E69" t="n">
-        <v>15.7</v>
+        <v>15.5</v>
       </c>
       <c r="F69" t="n">
-        <v>221906.5324</v>
+        <v>309945.7305</v>
       </c>
       <c r="G69" t="n">
-        <v>1792171.414086164</v>
+        <v>15.945</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2953,28 +3215,29 @@
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>15.7</v>
+        <v>15.5</v>
       </c>
       <c r="C70" t="n">
-        <v>15.7</v>
+        <v>15.6</v>
       </c>
       <c r="D70" t="n">
-        <v>15.7</v>
+        <v>15.6</v>
       </c>
       <c r="E70" t="n">
-        <v>15.7</v>
+        <v>15.5</v>
       </c>
       <c r="F70" t="n">
-        <v>106354.1743</v>
+        <v>149633.0276</v>
       </c>
       <c r="G70" t="n">
-        <v>1685817.239786164</v>
+        <v>15.915</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2988,28 +3251,29 @@
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>15.7</v>
+        <v>15.5</v>
       </c>
       <c r="C71" t="n">
-        <v>15.7</v>
+        <v>15.5</v>
       </c>
       <c r="D71" t="n">
-        <v>15.7</v>
+        <v>15.6</v>
       </c>
       <c r="E71" t="n">
-        <v>15.7</v>
+        <v>15.5</v>
       </c>
       <c r="F71" t="n">
-        <v>38000</v>
+        <v>62546.5506</v>
       </c>
       <c r="G71" t="n">
-        <v>1685817.239786164</v>
+        <v>15.88</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -3023,28 +3287,29 @@
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>15.8</v>
+        <v>15.6</v>
       </c>
       <c r="C72" t="n">
-        <v>15.8</v>
+        <v>15.6</v>
       </c>
       <c r="D72" t="n">
-        <v>15.8</v>
+        <v>15.6</v>
       </c>
       <c r="E72" t="n">
-        <v>15.8</v>
+        <v>15.6</v>
       </c>
       <c r="F72" t="n">
-        <v>88801.72629999999</v>
+        <v>475969.0384</v>
       </c>
       <c r="G72" t="n">
-        <v>1774618.966086164</v>
+        <v>15.855</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3058,28 +3323,29 @@
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>15.8</v>
+        <v>15.6</v>
       </c>
       <c r="C73" t="n">
-        <v>15.9</v>
+        <v>15.5</v>
       </c>
       <c r="D73" t="n">
-        <v>15.9</v>
+        <v>15.6</v>
       </c>
       <c r="E73" t="n">
-        <v>15.8</v>
+        <v>15.5</v>
       </c>
       <c r="F73" t="n">
-        <v>530</v>
+        <v>364808.6676</v>
       </c>
       <c r="G73" t="n">
-        <v>1775148.966086164</v>
+        <v>15.825</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3093,28 +3359,29 @@
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>15.9</v>
+        <v>15.6</v>
       </c>
       <c r="C74" t="n">
-        <v>15.9</v>
+        <v>15.5</v>
       </c>
       <c r="D74" t="n">
-        <v>15.9</v>
+        <v>15.6</v>
       </c>
       <c r="E74" t="n">
-        <v>15.9</v>
+        <v>15.5</v>
       </c>
       <c r="F74" t="n">
-        <v>206225.7099</v>
+        <v>332705.206</v>
       </c>
       <c r="G74" t="n">
-        <v>1775148.966086164</v>
+        <v>15.8</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3128,28 +3395,29 @@
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="C75" t="n">
-        <v>16.1</v>
+        <v>15.5</v>
       </c>
       <c r="D75" t="n">
-        <v>16.1</v>
+        <v>15.5</v>
       </c>
       <c r="E75" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="F75" t="n">
-        <v>109254.9195</v>
+        <v>9943</v>
       </c>
       <c r="G75" t="n">
-        <v>1884403.885586164</v>
+        <v>15.775</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3163,28 +3431,29 @@
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>16.1</v>
+        <v>15.6</v>
       </c>
       <c r="C76" t="n">
-        <v>16.1</v>
+        <v>15.6</v>
       </c>
       <c r="D76" t="n">
-        <v>16.1</v>
+        <v>15.6</v>
       </c>
       <c r="E76" t="n">
-        <v>16.1</v>
+        <v>15.6</v>
       </c>
       <c r="F76" t="n">
-        <v>5110.4968</v>
+        <v>10053.4807</v>
       </c>
       <c r="G76" t="n">
-        <v>1884403.885586164</v>
+        <v>15.755</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3198,28 +3467,29 @@
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="C77" t="n">
-        <v>16.1</v>
+        <v>15.5</v>
       </c>
       <c r="D77" t="n">
-        <v>16.1</v>
+        <v>15.5</v>
       </c>
       <c r="E77" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="F77" t="n">
-        <v>21322.6898</v>
+        <v>11262</v>
       </c>
       <c r="G77" t="n">
-        <v>1884403.885586164</v>
+        <v>15.725</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3233,28 +3503,29 @@
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>15.9</v>
+        <v>15.5</v>
       </c>
       <c r="C78" t="n">
-        <v>15.9</v>
+        <v>15.6</v>
       </c>
       <c r="D78" t="n">
-        <v>16</v>
+        <v>15.6</v>
       </c>
       <c r="E78" t="n">
-        <v>15.9</v>
+        <v>15.5</v>
       </c>
       <c r="F78" t="n">
-        <v>116772.1318</v>
+        <v>124.4725</v>
       </c>
       <c r="G78" t="n">
-        <v>1767631.753786164</v>
+        <v>15.705</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3268,28 +3539,29 @@
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>15.9</v>
+        <v>15.6</v>
       </c>
       <c r="C79" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="D79" t="n">
-        <v>16</v>
+        <v>15.6</v>
       </c>
       <c r="E79" t="n">
-        <v>15.8</v>
+        <v>15.5</v>
       </c>
       <c r="F79" t="n">
-        <v>356884.3608</v>
+        <v>17471.3145</v>
       </c>
       <c r="G79" t="n">
-        <v>2124516.114586164</v>
+        <v>15.685</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3303,28 +3575,29 @@
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="C80" t="n">
-        <v>16.1</v>
+        <v>15.5</v>
       </c>
       <c r="D80" t="n">
-        <v>16.1</v>
+        <v>15.5</v>
       </c>
       <c r="E80" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="F80" t="n">
-        <v>253200</v>
+        <v>59836</v>
       </c>
       <c r="G80" t="n">
-        <v>2377716.114586164</v>
+        <v>15.66</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3338,28 +3611,29 @@
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>16.1</v>
+        <v>15.5</v>
       </c>
       <c r="C81" t="n">
-        <v>16.1</v>
+        <v>15.6</v>
       </c>
       <c r="D81" t="n">
-        <v>16.1</v>
+        <v>15.6</v>
       </c>
       <c r="E81" t="n">
-        <v>15.9</v>
+        <v>15.5</v>
       </c>
       <c r="F81" t="n">
-        <v>80223.6024</v>
+        <v>11</v>
       </c>
       <c r="G81" t="n">
-        <v>2377716.114586164</v>
+        <v>15.64</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3373,28 +3647,29 @@
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>16.1</v>
+        <v>15.6</v>
       </c>
       <c r="C82" t="n">
-        <v>16.1</v>
+        <v>15.7</v>
       </c>
       <c r="D82" t="n">
-        <v>16.1</v>
+        <v>15.7</v>
       </c>
       <c r="E82" t="n">
-        <v>16.1</v>
+        <v>15.6</v>
       </c>
       <c r="F82" t="n">
-        <v>41517.2049</v>
+        <v>606311</v>
       </c>
       <c r="G82" t="n">
-        <v>2377716.114586164</v>
+        <v>15.63</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3408,28 +3683,29 @@
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>16.1</v>
+        <v>15.7</v>
       </c>
       <c r="C83" t="n">
-        <v>16.1</v>
+        <v>15.7</v>
       </c>
       <c r="D83" t="n">
-        <v>16.1</v>
+        <v>15.7</v>
       </c>
       <c r="E83" t="n">
-        <v>16.1</v>
+        <v>15.7</v>
       </c>
       <c r="F83" t="n">
-        <v>648.944</v>
+        <v>23030.1592</v>
       </c>
       <c r="G83" t="n">
-        <v>2377716.114586164</v>
+        <v>15.625</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3443,28 +3719,29 @@
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>16.1</v>
+        <v>15.7</v>
       </c>
       <c r="C84" t="n">
-        <v>16.1</v>
+        <v>15.7</v>
       </c>
       <c r="D84" t="n">
-        <v>16.1</v>
+        <v>15.7</v>
       </c>
       <c r="E84" t="n">
-        <v>16.1</v>
+        <v>15.7</v>
       </c>
       <c r="F84" t="n">
-        <v>7763.9751</v>
+        <v>23</v>
       </c>
       <c r="G84" t="n">
-        <v>2377716.114586164</v>
+        <v>15.615</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3478,28 +3755,29 @@
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>16</v>
+        <v>15.7</v>
       </c>
       <c r="C85" t="n">
-        <v>16</v>
+        <v>15.7</v>
       </c>
       <c r="D85" t="n">
-        <v>16</v>
+        <v>15.7</v>
       </c>
       <c r="E85" t="n">
-        <v>16</v>
+        <v>15.7</v>
       </c>
       <c r="F85" t="n">
-        <v>2226.5625</v>
+        <v>28600</v>
       </c>
       <c r="G85" t="n">
-        <v>2375489.552086164</v>
+        <v>15.6</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3513,28 +3791,29 @@
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>16</v>
+        <v>15.7</v>
       </c>
       <c r="C86" t="n">
-        <v>16</v>
+        <v>15.7</v>
       </c>
       <c r="D86" t="n">
-        <v>16</v>
+        <v>15.7</v>
       </c>
       <c r="E86" t="n">
-        <v>16</v>
+        <v>15.7</v>
       </c>
       <c r="F86" t="n">
-        <v>7947.9433</v>
+        <v>27</v>
       </c>
       <c r="G86" t="n">
-        <v>2375489.552086164</v>
+        <v>15.59</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3548,28 +3827,29 @@
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>16.1</v>
+        <v>15.6</v>
       </c>
       <c r="C87" t="n">
-        <v>16.1</v>
+        <v>15.7</v>
       </c>
       <c r="D87" t="n">
-        <v>16.1</v>
+        <v>15.7</v>
       </c>
       <c r="E87" t="n">
-        <v>16.1</v>
+        <v>15.6</v>
       </c>
       <c r="F87" t="n">
-        <v>6638.1987</v>
+        <v>6162</v>
       </c>
       <c r="G87" t="n">
-        <v>2382127.750786164</v>
+        <v>15.585</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3583,28 +3863,29 @@
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>16.1</v>
+        <v>15.7</v>
       </c>
       <c r="C88" t="n">
-        <v>16.2</v>
+        <v>15.7</v>
       </c>
       <c r="D88" t="n">
-        <v>16.2</v>
+        <v>15.7</v>
       </c>
       <c r="E88" t="n">
-        <v>16.1</v>
+        <v>15.6</v>
       </c>
       <c r="F88" t="n">
-        <v>40610</v>
+        <v>22.973</v>
       </c>
       <c r="G88" t="n">
-        <v>2422737.750786164</v>
+        <v>15.59</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3618,28 +3899,29 @@
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="C89" t="n">
-        <v>15.9</v>
+        <v>15.6</v>
       </c>
       <c r="D89" t="n">
-        <v>16</v>
+        <v>15.6</v>
       </c>
       <c r="E89" t="n">
-        <v>15.9</v>
+        <v>15.5</v>
       </c>
       <c r="F89" t="n">
-        <v>50088.0684</v>
+        <v>214.642</v>
       </c>
       <c r="G89" t="n">
-        <v>2372649.682386164</v>
+        <v>15.585</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3653,28 +3935,29 @@
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>16.1</v>
+        <v>15.7</v>
       </c>
       <c r="C90" t="n">
-        <v>16.1</v>
+        <v>15.7</v>
       </c>
       <c r="D90" t="n">
-        <v>16.1</v>
+        <v>15.7</v>
       </c>
       <c r="E90" t="n">
-        <v>16.1</v>
+        <v>15.6</v>
       </c>
       <c r="F90" t="n">
-        <v>10</v>
+        <v>32234.9468</v>
       </c>
       <c r="G90" t="n">
-        <v>2372659.682386164</v>
+        <v>15.595</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3688,28 +3971,29 @@
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>16.1</v>
+        <v>15.6</v>
       </c>
       <c r="C91" t="n">
-        <v>16.1</v>
+        <v>15.7</v>
       </c>
       <c r="D91" t="n">
-        <v>16.1</v>
+        <v>15.7</v>
       </c>
       <c r="E91" t="n">
-        <v>16.1</v>
+        <v>15.6</v>
       </c>
       <c r="F91" t="n">
-        <v>3838.6956</v>
+        <v>30010</v>
       </c>
       <c r="G91" t="n">
-        <v>2372659.682386164</v>
+        <v>15.6</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3723,28 +4007,29 @@
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>16.1</v>
+        <v>15.7</v>
       </c>
       <c r="C92" t="n">
-        <v>16.1</v>
+        <v>15.7</v>
       </c>
       <c r="D92" t="n">
-        <v>16.1</v>
+        <v>15.7</v>
       </c>
       <c r="E92" t="n">
-        <v>16.1</v>
+        <v>15.7</v>
       </c>
       <c r="F92" t="n">
-        <v>41390.6926</v>
+        <v>88992.6433</v>
       </c>
       <c r="G92" t="n">
-        <v>2372659.682386164</v>
+        <v>15.605</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3758,34 +4043,35 @@
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>16.2</v>
+        <v>15.7</v>
       </c>
       <c r="C93" t="n">
-        <v>16.2</v>
+        <v>15.7</v>
       </c>
       <c r="D93" t="n">
-        <v>16.2</v>
+        <v>15.7</v>
       </c>
       <c r="E93" t="n">
-        <v>16.2</v>
+        <v>15.7</v>
       </c>
       <c r="F93" t="n">
-        <v>30.8024</v>
+        <v>19500</v>
       </c>
       <c r="G93" t="n">
-        <v>2372690.484786164</v>
+        <v>15.61</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
       </c>
       <c r="I93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
@@ -3793,34 +4079,35 @@
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>16.1</v>
+        <v>15.5</v>
       </c>
       <c r="C94" t="n">
-        <v>16</v>
+        <v>15.7</v>
       </c>
       <c r="D94" t="n">
-        <v>16.1</v>
+        <v>15.7</v>
       </c>
       <c r="E94" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="F94" t="n">
-        <v>12768.348</v>
+        <v>330674.5283</v>
       </c>
       <c r="G94" t="n">
-        <v>2359922.136786163</v>
+        <v>15.605</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
@@ -3828,28 +4115,29 @@
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>16.2</v>
+        <v>15.7</v>
       </c>
       <c r="C95" t="n">
-        <v>16</v>
+        <v>15.7</v>
       </c>
       <c r="D95" t="n">
-        <v>16.2</v>
+        <v>15.7</v>
       </c>
       <c r="E95" t="n">
-        <v>16</v>
+        <v>15.7</v>
       </c>
       <c r="F95" t="n">
-        <v>2740.923</v>
+        <v>11</v>
       </c>
       <c r="G95" t="n">
-        <v>2359922.136786163</v>
+        <v>15.615</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3863,28 +4151,29 @@
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>16.1</v>
+        <v>15.7</v>
       </c>
       <c r="C96" t="n">
-        <v>16</v>
+        <v>15.7</v>
       </c>
       <c r="D96" t="n">
-        <v>16.1</v>
+        <v>15.7</v>
       </c>
       <c r="E96" t="n">
-        <v>16</v>
+        <v>15.7</v>
       </c>
       <c r="F96" t="n">
-        <v>30210</v>
+        <v>1398.6624</v>
       </c>
       <c r="G96" t="n">
-        <v>2359922.136786163</v>
+        <v>15.62</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3898,28 +4187,29 @@
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>16</v>
+        <v>15.6</v>
       </c>
       <c r="C97" t="n">
-        <v>16.1</v>
+        <v>15.6</v>
       </c>
       <c r="D97" t="n">
-        <v>16.1</v>
+        <v>15.6</v>
       </c>
       <c r="E97" t="n">
-        <v>15.9</v>
+        <v>15.6</v>
       </c>
       <c r="F97" t="n">
-        <v>40010</v>
+        <v>19935.0022</v>
       </c>
       <c r="G97" t="n">
-        <v>2399932.136786163</v>
+        <v>15.625</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3933,28 +4223,29 @@
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>16</v>
+        <v>15.6</v>
       </c>
       <c r="C98" t="n">
-        <v>16</v>
+        <v>15.6</v>
       </c>
       <c r="D98" t="n">
-        <v>16</v>
+        <v>15.6</v>
       </c>
       <c r="E98" t="n">
-        <v>16</v>
+        <v>15.6</v>
       </c>
       <c r="F98" t="n">
-        <v>2251.128</v>
+        <v>12876.6666</v>
       </c>
       <c r="G98" t="n">
-        <v>2397681.008786163</v>
+        <v>15.63</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3968,28 +4259,29 @@
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>16.1</v>
+        <v>15.5</v>
       </c>
       <c r="C99" t="n">
-        <v>16.1</v>
+        <v>15.5</v>
       </c>
       <c r="D99" t="n">
-        <v>16.1</v>
+        <v>15.5</v>
       </c>
       <c r="E99" t="n">
-        <v>16.1</v>
+        <v>15.5</v>
       </c>
       <c r="F99" t="n">
-        <v>10</v>
+        <v>35473.0942</v>
       </c>
       <c r="G99" t="n">
-        <v>2397691.008786163</v>
+        <v>15.625</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4003,28 +4295,29 @@
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>15.9</v>
+        <v>15.5</v>
       </c>
       <c r="C100" t="n">
-        <v>16.1</v>
+        <v>15.5</v>
       </c>
       <c r="D100" t="n">
-        <v>16.1</v>
+        <v>15.5</v>
       </c>
       <c r="E100" t="n">
-        <v>15.9</v>
+        <v>15.5</v>
       </c>
       <c r="F100" t="n">
-        <v>77101.53810000001</v>
+        <v>17716.3775</v>
       </c>
       <c r="G100" t="n">
-        <v>2397691.008786163</v>
+        <v>15.625</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4038,28 +4331,29 @@
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>16</v>
+        <v>15.6</v>
       </c>
       <c r="C101" t="n">
-        <v>16.1</v>
+        <v>15.5</v>
       </c>
       <c r="D101" t="n">
-        <v>16.1</v>
+        <v>15.6</v>
       </c>
       <c r="E101" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="F101" t="n">
-        <v>49596.8612</v>
+        <v>8631.6217</v>
       </c>
       <c r="G101" t="n">
-        <v>2397691.008786163</v>
+        <v>15.63</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4073,28 +4367,29 @@
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>16</v>
+        <v>15.6</v>
       </c>
       <c r="C102" t="n">
-        <v>16</v>
+        <v>15.6</v>
       </c>
       <c r="D102" t="n">
-        <v>16</v>
+        <v>15.6</v>
       </c>
       <c r="E102" t="n">
-        <v>15.9</v>
+        <v>15.6</v>
       </c>
       <c r="F102" t="n">
-        <v>80963.3368</v>
+        <v>24</v>
       </c>
       <c r="G102" t="n">
-        <v>2316727.671986163</v>
+        <v>15.63</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4108,28 +4403,29 @@
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>15.9</v>
+        <v>15.6</v>
       </c>
       <c r="C103" t="n">
-        <v>15.9</v>
+        <v>15.6</v>
       </c>
       <c r="D103" t="n">
-        <v>15.9</v>
+        <v>15.6</v>
       </c>
       <c r="E103" t="n">
-        <v>15.9</v>
+        <v>15.6</v>
       </c>
       <c r="F103" t="n">
-        <v>17.1698</v>
+        <v>22342.2962</v>
       </c>
       <c r="G103" t="n">
-        <v>2316710.502186163</v>
+        <v>15.625</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4143,28 +4439,29 @@
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>15.8</v>
+        <v>15.6</v>
       </c>
       <c r="C104" t="n">
-        <v>15.8</v>
+        <v>15.6</v>
       </c>
       <c r="D104" t="n">
-        <v>15.8</v>
+        <v>15.6</v>
       </c>
       <c r="E104" t="n">
-        <v>15.8</v>
+        <v>15.6</v>
       </c>
       <c r="F104" t="n">
-        <v>45936.3924</v>
+        <v>17920.7166</v>
       </c>
       <c r="G104" t="n">
-        <v>2270774.109786164</v>
+        <v>15.62</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4178,28 +4475,29 @@
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>15.8</v>
+        <v>15.5</v>
       </c>
       <c r="C105" t="n">
-        <v>15.9</v>
+        <v>15.5</v>
       </c>
       <c r="D105" t="n">
-        <v>15.9</v>
+        <v>15.5</v>
       </c>
       <c r="E105" t="n">
-        <v>15.8</v>
+        <v>15.5</v>
       </c>
       <c r="F105" t="n">
-        <v>8385.5065</v>
+        <v>8690.522199999999</v>
       </c>
       <c r="G105" t="n">
-        <v>2279159.616286164</v>
+        <v>15.61</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4213,28 +4511,29 @@
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>15.9</v>
+        <v>15.6</v>
       </c>
       <c r="C106" t="n">
-        <v>15.8</v>
+        <v>15.6</v>
       </c>
       <c r="D106" t="n">
-        <v>15.9</v>
+        <v>15.6</v>
       </c>
       <c r="E106" t="n">
-        <v>15.8</v>
+        <v>15.6</v>
       </c>
       <c r="F106" t="n">
-        <v>19234.8023</v>
+        <v>22</v>
       </c>
       <c r="G106" t="n">
-        <v>2259924.813986164</v>
+        <v>15.605</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4248,28 +4547,29 @@
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>16</v>
+        <v>15.6</v>
       </c>
       <c r="C107" t="n">
-        <v>16</v>
+        <v>15.6</v>
       </c>
       <c r="D107" t="n">
-        <v>16</v>
+        <v>15.6</v>
       </c>
       <c r="E107" t="n">
-        <v>16</v>
+        <v>15.6</v>
       </c>
       <c r="F107" t="n">
-        <v>10</v>
+        <v>4785.746</v>
       </c>
       <c r="G107" t="n">
-        <v>2259934.813986164</v>
+        <v>15.605</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4283,28 +4583,29 @@
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>15.9</v>
+        <v>15.5</v>
       </c>
       <c r="C108" t="n">
-        <v>15.8</v>
+        <v>15.6</v>
       </c>
       <c r="D108" t="n">
-        <v>15.9</v>
+        <v>15.6</v>
       </c>
       <c r="E108" t="n">
-        <v>15.8</v>
+        <v>15.5</v>
       </c>
       <c r="F108" t="n">
-        <v>360294.6675</v>
+        <v>11283.4725</v>
       </c>
       <c r="G108" t="n">
-        <v>1899640.146486164</v>
+        <v>15.595</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4318,28 +4619,29 @@
       <c r="M108" t="n">
         <v>1</v>
       </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>15.7</v>
+        <v>15.6</v>
       </c>
       <c r="C109" t="n">
         <v>15.6</v>
       </c>
       <c r="D109" t="n">
-        <v>15.8</v>
+        <v>15.6</v>
       </c>
       <c r="E109" t="n">
         <v>15.6</v>
       </c>
       <c r="F109" t="n">
-        <v>259015.3429</v>
+        <v>8613.205099999999</v>
       </c>
       <c r="G109" t="n">
-        <v>1640624.803586164</v>
+        <v>15.6</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4353,28 +4655,29 @@
       <c r="M109" t="n">
         <v>1</v>
       </c>
+      <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="C110" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="D110" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="E110" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="F110" t="n">
-        <v>354314.9966</v>
+        <v>10</v>
       </c>
       <c r="G110" t="n">
-        <v>1640624.803586164</v>
+        <v>15.6</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4388,28 +4691,29 @@
       <c r="M110" t="n">
         <v>1</v>
       </c>
+      <c r="N110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="C111" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="D111" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="E111" t="n">
         <v>15.5</v>
       </c>
       <c r="F111" t="n">
-        <v>309945.7305</v>
+        <v>55700.1748</v>
       </c>
       <c r="G111" t="n">
-        <v>1640624.803586164</v>
+        <v>15.595</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4423,6 +4727,7 @@
       <c r="M111" t="n">
         <v>1</v>
       </c>
+      <c r="N111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4441,10 +4746,10 @@
         <v>15.5</v>
       </c>
       <c r="F112" t="n">
-        <v>149633.0276</v>
+        <v>8602.6721</v>
       </c>
       <c r="G112" t="n">
-        <v>1640624.803586164</v>
+        <v>15.585</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4458,28 +4763,29 @@
       <c r="M112" t="n">
         <v>1</v>
       </c>
+      <c r="N112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="C113" t="n">
-        <v>15.5</v>
+        <v>15.7</v>
       </c>
       <c r="D113" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="E113" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="F113" t="n">
-        <v>62546.5506</v>
+        <v>5793.9968</v>
       </c>
       <c r="G113" t="n">
-        <v>1578078.252986164</v>
+        <v>15.58000000000001</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4493,6 +4799,7 @@
       <c r="M113" t="n">
         <v>1</v>
       </c>
+      <c r="N113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4511,10 +4818,10 @@
         <v>15.6</v>
       </c>
       <c r="F114" t="n">
-        <v>475969.0384</v>
+        <v>40000</v>
       </c>
       <c r="G114" t="n">
-        <v>2054047.291386164</v>
+        <v>15.58500000000001</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4528,28 +4835,29 @@
       <c r="M114" t="n">
         <v>1</v>
       </c>
+      <c r="N114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="C115" t="n">
-        <v>15.5</v>
+        <v>15.7</v>
       </c>
       <c r="D115" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="E115" t="n">
-        <v>15.5</v>
+        <v>15.7</v>
       </c>
       <c r="F115" t="n">
-        <v>364808.6676</v>
+        <v>10</v>
       </c>
       <c r="G115" t="n">
-        <v>1689238.623786164</v>
+        <v>15.58500000000001</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4563,6 +4871,7 @@
       <c r="M115" t="n">
         <v>1</v>
       </c>
+      <c r="N115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4572,19 +4881,19 @@
         <v>15.6</v>
       </c>
       <c r="C116" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="D116" t="n">
         <v>15.6</v>
       </c>
       <c r="E116" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="F116" t="n">
-        <v>332705.206</v>
+        <v>3450.0892</v>
       </c>
       <c r="G116" t="n">
-        <v>1689238.623786164</v>
+        <v>15.58000000000001</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4598,28 +4907,29 @@
       <c r="M116" t="n">
         <v>1</v>
       </c>
+      <c r="N116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="C117" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="D117" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="E117" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="F117" t="n">
-        <v>9943</v>
+        <v>6378.2051</v>
       </c>
       <c r="G117" t="n">
-        <v>1689238.623786164</v>
+        <v>15.58000000000001</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4633,6 +4943,7 @@
       <c r="M117" t="n">
         <v>1</v>
       </c>
+      <c r="N117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4651,10 +4962,10 @@
         <v>15.6</v>
       </c>
       <c r="F118" t="n">
-        <v>10053.4807</v>
+        <v>3360.7057</v>
       </c>
       <c r="G118" t="n">
-        <v>1699292.104486163</v>
+        <v>15.58000000000001</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4668,28 +4979,29 @@
       <c r="M118" t="n">
         <v>1</v>
       </c>
+      <c r="N118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="C119" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="D119" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="E119" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="F119" t="n">
-        <v>11262</v>
+        <v>3017.4994</v>
       </c>
       <c r="G119" t="n">
-        <v>1688030.104486163</v>
+        <v>15.58500000000001</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4703,13 +5015,14 @@
       <c r="M119" t="n">
         <v>1</v>
       </c>
+      <c r="N119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="C120" t="n">
         <v>15.6</v>
@@ -4718,13 +5031,13 @@
         <v>15.6</v>
       </c>
       <c r="E120" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="F120" t="n">
-        <v>124.4725</v>
+        <v>6982.5006</v>
       </c>
       <c r="G120" t="n">
-        <v>1688154.576986163</v>
+        <v>15.59000000000001</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4738,6 +5051,7 @@
       <c r="M120" t="n">
         <v>1</v>
       </c>
+      <c r="N120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4747,19 +5061,19 @@
         <v>15.6</v>
       </c>
       <c r="C121" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="D121" t="n">
         <v>15.6</v>
       </c>
       <c r="E121" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="F121" t="n">
-        <v>17471.3145</v>
+        <v>29200</v>
       </c>
       <c r="G121" t="n">
-        <v>1670683.262486163</v>
+        <v>15.59000000000001</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4773,28 +5087,29 @@
       <c r="M121" t="n">
         <v>1</v>
       </c>
+      <c r="N121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>15.5</v>
+        <v>15.7</v>
       </c>
       <c r="C122" t="n">
-        <v>15.5</v>
+        <v>15.7</v>
       </c>
       <c r="D122" t="n">
-        <v>15.5</v>
+        <v>15.7</v>
       </c>
       <c r="E122" t="n">
-        <v>15.5</v>
+        <v>15.7</v>
       </c>
       <c r="F122" t="n">
-        <v>59836</v>
+        <v>36</v>
       </c>
       <c r="G122" t="n">
-        <v>1670683.262486163</v>
+        <v>15.59500000000001</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4808,13 +5123,14 @@
       <c r="M122" t="n">
         <v>1</v>
       </c>
+      <c r="N122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="C123" t="n">
         <v>15.6</v>
@@ -4823,13 +5139,13 @@
         <v>15.6</v>
       </c>
       <c r="E123" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="F123" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="G123" t="n">
-        <v>1670694.262486163</v>
+        <v>15.59500000000001</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4843,6 +5159,7 @@
       <c r="M123" t="n">
         <v>1</v>
       </c>
+      <c r="N123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4852,19 +5169,19 @@
         <v>15.6</v>
       </c>
       <c r="C124" t="n">
-        <v>15.7</v>
+        <v>15.6</v>
       </c>
       <c r="D124" t="n">
-        <v>15.7</v>
+        <v>15.6</v>
       </c>
       <c r="E124" t="n">
         <v>15.6</v>
       </c>
       <c r="F124" t="n">
-        <v>606311</v>
+        <v>12820.5128</v>
       </c>
       <c r="G124" t="n">
-        <v>2277005.262486164</v>
+        <v>15.59500000000001</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4878,34 +5195,35 @@
       <c r="M124" t="n">
         <v>1</v>
       </c>
+      <c r="N124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>15.7</v>
+        <v>15.6</v>
       </c>
       <c r="C125" t="n">
-        <v>15.7</v>
+        <v>15.6</v>
       </c>
       <c r="D125" t="n">
-        <v>15.7</v>
+        <v>15.6</v>
       </c>
       <c r="E125" t="n">
-        <v>15.7</v>
+        <v>15.6</v>
       </c>
       <c r="F125" t="n">
-        <v>23030.1592</v>
+        <v>5641.1863</v>
       </c>
       <c r="G125" t="n">
-        <v>2277005.262486164</v>
+        <v>15.60000000000001</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
       </c>
       <c r="I125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
@@ -4913,34 +5231,35 @@
       <c r="M125" t="n">
         <v>1</v>
       </c>
+      <c r="N125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>15.7</v>
+        <v>15.6</v>
       </c>
       <c r="C126" t="n">
-        <v>15.7</v>
+        <v>15.6</v>
       </c>
       <c r="D126" t="n">
-        <v>15.7</v>
+        <v>15.6</v>
       </c>
       <c r="E126" t="n">
-        <v>15.7</v>
+        <v>15.6</v>
       </c>
       <c r="F126" t="n">
-        <v>23</v>
+        <v>21897.136</v>
       </c>
       <c r="G126" t="n">
-        <v>2277005.262486164</v>
+        <v>15.60000000000001</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
       </c>
       <c r="I126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
@@ -4948,34 +5267,35 @@
       <c r="M126" t="n">
         <v>1</v>
       </c>
+      <c r="N126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>15.7</v>
+        <v>15.6</v>
       </c>
       <c r="C127" t="n">
-        <v>15.7</v>
+        <v>15.5</v>
       </c>
       <c r="D127" t="n">
-        <v>15.7</v>
+        <v>15.6</v>
       </c>
       <c r="E127" t="n">
-        <v>15.7</v>
+        <v>15.5</v>
       </c>
       <c r="F127" t="n">
-        <v>28600</v>
+        <v>4645.587</v>
       </c>
       <c r="G127" t="n">
-        <v>2277005.262486164</v>
+        <v>15.60000000000001</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
       </c>
       <c r="I127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
@@ -4983,28 +5303,29 @@
       <c r="M127" t="n">
         <v>1</v>
       </c>
+      <c r="N127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>15.7</v>
+        <v>15.5</v>
       </c>
       <c r="C128" t="n">
-        <v>15.7</v>
+        <v>15.5</v>
       </c>
       <c r="D128" t="n">
-        <v>15.7</v>
+        <v>15.5</v>
       </c>
       <c r="E128" t="n">
-        <v>15.7</v>
+        <v>15.5</v>
       </c>
       <c r="F128" t="n">
-        <v>27</v>
+        <v>3071.476</v>
       </c>
       <c r="G128" t="n">
-        <v>2277005.262486164</v>
+        <v>15.60000000000001</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -5018,28 +5339,29 @@
       <c r="M128" t="n">
         <v>1</v>
       </c>
+      <c r="N128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="C129" t="n">
-        <v>15.7</v>
+        <v>15.6</v>
       </c>
       <c r="D129" t="n">
-        <v>15.7</v>
+        <v>15.6</v>
       </c>
       <c r="E129" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="F129" t="n">
-        <v>6162</v>
+        <v>2264.817</v>
       </c>
       <c r="G129" t="n">
-        <v>2277005.262486164</v>
+        <v>15.59500000000001</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -5053,34 +5375,35 @@
       <c r="M129" t="n">
         <v>1</v>
       </c>
+      <c r="N129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>15.7</v>
+        <v>15.5</v>
       </c>
       <c r="C130" t="n">
-        <v>15.7</v>
+        <v>15.6</v>
       </c>
       <c r="D130" t="n">
-        <v>15.7</v>
+        <v>15.6</v>
       </c>
       <c r="E130" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="F130" t="n">
-        <v>22.973</v>
+        <v>738.7746</v>
       </c>
       <c r="G130" t="n">
-        <v>2277005.262486164</v>
+        <v>15.58500000000001</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
       </c>
       <c r="I130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
@@ -5088,16 +5411,17 @@
       <c r="M130" t="n">
         <v>1</v>
       </c>
+      <c r="N130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="C131" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="D131" t="n">
         <v>15.6</v>
@@ -5106,16 +5430,16 @@
         <v>15.5</v>
       </c>
       <c r="F131" t="n">
-        <v>214.642</v>
+        <v>54924.7622</v>
       </c>
       <c r="G131" t="n">
-        <v>2276790.620486164</v>
+        <v>15.59000000000001</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
       </c>
       <c r="I131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
@@ -5123,34 +5447,35 @@
       <c r="M131" t="n">
         <v>1</v>
       </c>
+      <c r="N131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>15.7</v>
+        <v>15.5</v>
       </c>
       <c r="C132" t="n">
-        <v>15.7</v>
+        <v>15.5</v>
       </c>
       <c r="D132" t="n">
-        <v>15.7</v>
+        <v>15.5</v>
       </c>
       <c r="E132" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="F132" t="n">
-        <v>32234.9468</v>
+        <v>31130.739</v>
       </c>
       <c r="G132" t="n">
-        <v>2309025.567286164</v>
+        <v>15.59000000000001</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
       </c>
       <c r="I132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
@@ -5158,34 +5483,35 @@
       <c r="M132" t="n">
         <v>1</v>
       </c>
+      <c r="N132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="C133" t="n">
-        <v>15.7</v>
+        <v>15.5</v>
       </c>
       <c r="D133" t="n">
-        <v>15.7</v>
+        <v>15.5</v>
       </c>
       <c r="E133" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="F133" t="n">
-        <v>30010</v>
+        <v>7274.502</v>
       </c>
       <c r="G133" t="n">
-        <v>2309025.567286164</v>
+        <v>15.58500000000001</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
       </c>
       <c r="I133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
@@ -5193,34 +5519,35 @@
       <c r="M133" t="n">
         <v>1</v>
       </c>
+      <c r="N133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>15.7</v>
+        <v>15.6</v>
       </c>
       <c r="C134" t="n">
-        <v>15.7</v>
+        <v>15.6</v>
       </c>
       <c r="D134" t="n">
-        <v>15.7</v>
+        <v>15.6</v>
       </c>
       <c r="E134" t="n">
-        <v>15.7</v>
+        <v>15.6</v>
       </c>
       <c r="F134" t="n">
-        <v>88992.6433</v>
+        <v>10</v>
       </c>
       <c r="G134" t="n">
-        <v>2309025.567286164</v>
+        <v>15.58500000000001</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
       </c>
       <c r="I134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
@@ -5228,34 +5555,35 @@
       <c r="M134" t="n">
         <v>1</v>
       </c>
+      <c r="N134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>15.7</v>
+        <v>15.6</v>
       </c>
       <c r="C135" t="n">
-        <v>15.7</v>
+        <v>15.6</v>
       </c>
       <c r="D135" t="n">
-        <v>15.7</v>
+        <v>15.6</v>
       </c>
       <c r="E135" t="n">
-        <v>15.7</v>
+        <v>15.6</v>
       </c>
       <c r="F135" t="n">
-        <v>19500</v>
+        <v>1623.2051</v>
       </c>
       <c r="G135" t="n">
-        <v>2309025.567286164</v>
+        <v>15.58000000000001</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
       </c>
       <c r="I135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
@@ -5263,34 +5591,35 @@
       <c r="M135" t="n">
         <v>1</v>
       </c>
+      <c r="N135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="C136" t="n">
-        <v>15.7</v>
+        <v>15.6</v>
       </c>
       <c r="D136" t="n">
-        <v>15.7</v>
+        <v>15.6</v>
       </c>
       <c r="E136" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="F136" t="n">
-        <v>330674.5283</v>
+        <v>3000</v>
       </c>
       <c r="G136" t="n">
-        <v>2309025.567286164</v>
+        <v>15.58000000000001</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
       </c>
       <c r="I136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
@@ -5298,34 +5627,35 @@
       <c r="M136" t="n">
         <v>1</v>
       </c>
+      <c r="N136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>15.7</v>
+        <v>15.5</v>
       </c>
       <c r="C137" t="n">
-        <v>15.7</v>
+        <v>15.5</v>
       </c>
       <c r="D137" t="n">
-        <v>15.7</v>
+        <v>15.5</v>
       </c>
       <c r="E137" t="n">
-        <v>15.7</v>
+        <v>15.5</v>
       </c>
       <c r="F137" t="n">
-        <v>11</v>
+        <v>40263.0128</v>
       </c>
       <c r="G137" t="n">
-        <v>2309025.567286164</v>
+        <v>15.57500000000001</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
       </c>
       <c r="I137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
@@ -5333,34 +5663,35 @@
       <c r="M137" t="n">
         <v>1</v>
       </c>
+      <c r="N137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>15.7</v>
+        <v>15.5</v>
       </c>
       <c r="C138" t="n">
-        <v>15.7</v>
+        <v>15.5</v>
       </c>
       <c r="D138" t="n">
-        <v>15.7</v>
+        <v>15.5</v>
       </c>
       <c r="E138" t="n">
-        <v>15.7</v>
+        <v>15.5</v>
       </c>
       <c r="F138" t="n">
-        <v>1398.6624</v>
+        <v>26600</v>
       </c>
       <c r="G138" t="n">
-        <v>2309025.567286164</v>
+        <v>15.57000000000001</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
       </c>
       <c r="I138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
@@ -5368,34 +5699,35 @@
       <c r="M138" t="n">
         <v>1</v>
       </c>
+      <c r="N138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="C139" t="n">
-        <v>15.6</v>
+        <v>15.4</v>
       </c>
       <c r="D139" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="E139" t="n">
-        <v>15.6</v>
+        <v>15.4</v>
       </c>
       <c r="F139" t="n">
-        <v>19935.0022</v>
+        <v>55433.074</v>
       </c>
       <c r="G139" t="n">
-        <v>2289090.565086164</v>
+        <v>15.56500000000001</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
       </c>
       <c r="I139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
@@ -5403,34 +5735,35 @@
       <c r="M139" t="n">
         <v>1</v>
       </c>
+      <c r="N139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>15.6</v>
+        <v>15.4</v>
       </c>
       <c r="C140" t="n">
-        <v>15.6</v>
+        <v>15.4</v>
       </c>
       <c r="D140" t="n">
-        <v>15.6</v>
+        <v>15.4</v>
       </c>
       <c r="E140" t="n">
-        <v>15.6</v>
+        <v>15.4</v>
       </c>
       <c r="F140" t="n">
-        <v>12876.6666</v>
+        <v>73811.22870000001</v>
       </c>
       <c r="G140" t="n">
-        <v>2289090.565086164</v>
+        <v>15.55500000000001</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
       </c>
       <c r="I140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
@@ -5438,34 +5771,35 @@
       <c r="M140" t="n">
         <v>1</v>
       </c>
+      <c r="N140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>15.5</v>
+        <v>15.3</v>
       </c>
       <c r="C141" t="n">
-        <v>15.5</v>
+        <v>15.3</v>
       </c>
       <c r="D141" t="n">
-        <v>15.5</v>
+        <v>15.3</v>
       </c>
       <c r="E141" t="n">
-        <v>15.5</v>
+        <v>15.3</v>
       </c>
       <c r="F141" t="n">
-        <v>35473.0942</v>
+        <v>4711.7168</v>
       </c>
       <c r="G141" t="n">
-        <v>2253617.470886163</v>
+        <v>15.54000000000001</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
       </c>
       <c r="I141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
@@ -5473,28 +5807,29 @@
       <c r="M141" t="n">
         <v>1</v>
       </c>
+      <c r="N141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>15.5</v>
+        <v>15.3</v>
       </c>
       <c r="C142" t="n">
-        <v>15.5</v>
+        <v>15.3</v>
       </c>
       <c r="D142" t="n">
-        <v>15.5</v>
+        <v>15.3</v>
       </c>
       <c r="E142" t="n">
-        <v>15.5</v>
+        <v>15.3</v>
       </c>
       <c r="F142" t="n">
-        <v>17716.3775</v>
+        <v>65922.1489</v>
       </c>
       <c r="G142" t="n">
-        <v>2253617.470886163</v>
+        <v>15.52000000000001</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5508,34 +5843,35 @@
       <c r="M142" t="n">
         <v>1</v>
       </c>
+      <c r="N142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>15.6</v>
+        <v>15.4</v>
       </c>
       <c r="C143" t="n">
-        <v>15.5</v>
+        <v>15.4</v>
       </c>
       <c r="D143" t="n">
-        <v>15.6</v>
+        <v>15.4</v>
       </c>
       <c r="E143" t="n">
-        <v>15.5</v>
+        <v>15.4</v>
       </c>
       <c r="F143" t="n">
-        <v>8631.6217</v>
+        <v>65330.3243</v>
       </c>
       <c r="G143" t="n">
-        <v>2253617.470886163</v>
+        <v>15.51000000000001</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
       </c>
       <c r="I143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
@@ -5543,34 +5879,35 @@
       <c r="M143" t="n">
         <v>1</v>
       </c>
+      <c r="N143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>15.6</v>
+        <v>15.4</v>
       </c>
       <c r="C144" t="n">
-        <v>15.6</v>
+        <v>15.4</v>
       </c>
       <c r="D144" t="n">
-        <v>15.6</v>
+        <v>15.4</v>
       </c>
       <c r="E144" t="n">
-        <v>15.6</v>
+        <v>15.4</v>
       </c>
       <c r="F144" t="n">
-        <v>24</v>
+        <v>0.0003</v>
       </c>
       <c r="G144" t="n">
-        <v>2253641.470886163</v>
+        <v>15.5</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
       </c>
       <c r="I144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
@@ -5578,34 +5915,35 @@
       <c r="M144" t="n">
         <v>1</v>
       </c>
+      <c r="N144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>15.6</v>
+        <v>15.3</v>
       </c>
       <c r="C145" t="n">
-        <v>15.6</v>
+        <v>15.3</v>
       </c>
       <c r="D145" t="n">
-        <v>15.6</v>
+        <v>15.3</v>
       </c>
       <c r="E145" t="n">
-        <v>15.6</v>
+        <v>15.3</v>
       </c>
       <c r="F145" t="n">
-        <v>22342.2962</v>
+        <v>45147.0402</v>
       </c>
       <c r="G145" t="n">
-        <v>2253641.470886163</v>
+        <v>15.485</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
       </c>
       <c r="I145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
@@ -5613,34 +5951,35 @@
       <c r="M145" t="n">
         <v>1</v>
       </c>
+      <c r="N145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>15.6</v>
+        <v>15.4</v>
       </c>
       <c r="C146" t="n">
-        <v>15.6</v>
+        <v>15.3</v>
       </c>
       <c r="D146" t="n">
-        <v>15.6</v>
+        <v>15.4</v>
       </c>
       <c r="E146" t="n">
-        <v>15.6</v>
+        <v>15.3</v>
       </c>
       <c r="F146" t="n">
-        <v>17920.7166</v>
+        <v>5002.9293</v>
       </c>
       <c r="G146" t="n">
-        <v>2253641.470886163</v>
+        <v>15.475</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
       </c>
       <c r="I146" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
@@ -5648,34 +5987,35 @@
       <c r="M146" t="n">
         <v>1</v>
       </c>
+      <c r="N146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>15.5</v>
+        <v>15.3</v>
       </c>
       <c r="C147" t="n">
-        <v>15.5</v>
+        <v>15.3</v>
       </c>
       <c r="D147" t="n">
-        <v>15.5</v>
+        <v>15.3</v>
       </c>
       <c r="E147" t="n">
-        <v>15.5</v>
+        <v>15.3</v>
       </c>
       <c r="F147" t="n">
-        <v>8690.522199999999</v>
+        <v>26569.5347</v>
       </c>
       <c r="G147" t="n">
-        <v>2244950.948686163</v>
+        <v>15.46</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
       </c>
       <c r="I147" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
@@ -5683,34 +6023,35 @@
       <c r="M147" t="n">
         <v>1</v>
       </c>
+      <c r="N147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>15.6</v>
+        <v>15.3</v>
       </c>
       <c r="C148" t="n">
-        <v>15.6</v>
+        <v>15.2</v>
       </c>
       <c r="D148" t="n">
-        <v>15.6</v>
+        <v>15.3</v>
       </c>
       <c r="E148" t="n">
-        <v>15.6</v>
+        <v>15.2</v>
       </c>
       <c r="F148" t="n">
-        <v>22</v>
+        <v>157592.0125</v>
       </c>
       <c r="G148" t="n">
-        <v>2244972.948686163</v>
+        <v>15.45</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
       </c>
       <c r="I148" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
@@ -5718,34 +6059,35 @@
       <c r="M148" t="n">
         <v>1</v>
       </c>
+      <c r="N148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>15.6</v>
+        <v>15.2</v>
       </c>
       <c r="C149" t="n">
-        <v>15.6</v>
+        <v>15.2</v>
       </c>
       <c r="D149" t="n">
-        <v>15.6</v>
+        <v>15.2</v>
       </c>
       <c r="E149" t="n">
-        <v>15.6</v>
+        <v>15.2</v>
       </c>
       <c r="F149" t="n">
-        <v>4785.746</v>
+        <v>1000</v>
       </c>
       <c r="G149" t="n">
-        <v>2244972.948686163</v>
+        <v>15.435</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
       </c>
       <c r="I149" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
@@ -5753,34 +6095,35 @@
       <c r="M149" t="n">
         <v>1</v>
       </c>
+      <c r="N149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>15.5</v>
+        <v>15.2</v>
       </c>
       <c r="C150" t="n">
-        <v>15.6</v>
+        <v>15.2</v>
       </c>
       <c r="D150" t="n">
-        <v>15.6</v>
+        <v>15.2</v>
       </c>
       <c r="E150" t="n">
-        <v>15.5</v>
+        <v>15.2</v>
       </c>
       <c r="F150" t="n">
-        <v>11283.4725</v>
+        <v>78313.3931</v>
       </c>
       <c r="G150" t="n">
-        <v>2244972.948686163</v>
+        <v>15.42</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
       </c>
       <c r="I150" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
@@ -5788,34 +6131,35 @@
       <c r="M150" t="n">
         <v>1</v>
       </c>
+      <c r="N150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>15.6</v>
+        <v>15.1</v>
       </c>
       <c r="C151" t="n">
-        <v>15.6</v>
+        <v>15.1</v>
       </c>
       <c r="D151" t="n">
-        <v>15.6</v>
+        <v>15.1</v>
       </c>
       <c r="E151" t="n">
-        <v>15.6</v>
+        <v>15.1</v>
       </c>
       <c r="F151" t="n">
-        <v>8613.205099999999</v>
+        <v>7430.8411</v>
       </c>
       <c r="G151" t="n">
-        <v>2244972.948686163</v>
+        <v>15.395</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
       </c>
       <c r="I151" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
@@ -5823,34 +6167,35 @@
       <c r="M151" t="n">
         <v>1</v>
       </c>
+      <c r="N151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>15.7</v>
+        <v>15.2</v>
       </c>
       <c r="C152" t="n">
-        <v>15.7</v>
+        <v>15.2</v>
       </c>
       <c r="D152" t="n">
-        <v>15.7</v>
+        <v>15.2</v>
       </c>
       <c r="E152" t="n">
-        <v>15.7</v>
+        <v>15.2</v>
       </c>
       <c r="F152" t="n">
-        <v>10</v>
+        <v>49900</v>
       </c>
       <c r="G152" t="n">
-        <v>2244982.948686163</v>
+        <v>15.38</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
       </c>
       <c r="I152" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
@@ -5858,34 +6203,35 @@
       <c r="M152" t="n">
         <v>1</v>
       </c>
+      <c r="N152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>15.5</v>
+        <v>15.2</v>
       </c>
       <c r="C153" t="n">
-        <v>15.5</v>
+        <v>15.2</v>
       </c>
       <c r="D153" t="n">
-        <v>15.5</v>
+        <v>15.2</v>
       </c>
       <c r="E153" t="n">
-        <v>15.5</v>
+        <v>15.2</v>
       </c>
       <c r="F153" t="n">
-        <v>55700.1748</v>
+        <v>30000</v>
       </c>
       <c r="G153" t="n">
-        <v>2189282.773886163</v>
+        <v>15.365</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
       </c>
       <c r="I153" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
@@ -5893,34 +6239,35 @@
       <c r="M153" t="n">
         <v>1</v>
       </c>
+      <c r="N153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>15.5</v>
+        <v>15.1</v>
       </c>
       <c r="C154" t="n">
-        <v>15.6</v>
+        <v>15.2</v>
       </c>
       <c r="D154" t="n">
-        <v>15.6</v>
+        <v>15.2</v>
       </c>
       <c r="E154" t="n">
-        <v>15.5</v>
+        <v>15.1</v>
       </c>
       <c r="F154" t="n">
-        <v>8602.6721</v>
+        <v>68400</v>
       </c>
       <c r="G154" t="n">
-        <v>2197885.445986163</v>
+        <v>15.34</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
       </c>
       <c r="I154" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
@@ -5928,34 +6275,35 @@
       <c r="M154" t="n">
         <v>1</v>
       </c>
+      <c r="N154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>15.6</v>
+        <v>15.2</v>
       </c>
       <c r="C155" t="n">
-        <v>15.7</v>
+        <v>15.1</v>
       </c>
       <c r="D155" t="n">
-        <v>15.7</v>
+        <v>15.2</v>
       </c>
       <c r="E155" t="n">
-        <v>15.6</v>
+        <v>15.1</v>
       </c>
       <c r="F155" t="n">
-        <v>5793.9968</v>
+        <v>3000</v>
       </c>
       <c r="G155" t="n">
-        <v>2203679.442786163</v>
+        <v>15.32</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
       </c>
       <c r="I155" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
@@ -5963,34 +6311,35 @@
       <c r="M155" t="n">
         <v>1</v>
       </c>
+      <c r="N155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>15.6</v>
+        <v>15.1</v>
       </c>
       <c r="C156" t="n">
-        <v>15.6</v>
+        <v>15.2</v>
       </c>
       <c r="D156" t="n">
-        <v>15.6</v>
+        <v>15.2</v>
       </c>
       <c r="E156" t="n">
-        <v>15.6</v>
+        <v>15.1</v>
       </c>
       <c r="F156" t="n">
-        <v>40000</v>
+        <v>4117.2271</v>
       </c>
       <c r="G156" t="n">
-        <v>2163679.442786163</v>
+        <v>15.295</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
       </c>
       <c r="I156" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
@@ -5998,34 +6347,35 @@
       <c r="M156" t="n">
         <v>1</v>
       </c>
+      <c r="N156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>15.7</v>
+        <v>15.2</v>
       </c>
       <c r="C157" t="n">
-        <v>15.7</v>
+        <v>15.1</v>
       </c>
       <c r="D157" t="n">
-        <v>15.7</v>
+        <v>15.2</v>
       </c>
       <c r="E157" t="n">
-        <v>15.7</v>
+        <v>15.1</v>
       </c>
       <c r="F157" t="n">
-        <v>10</v>
+        <v>128</v>
       </c>
       <c r="G157" t="n">
-        <v>2163689.442786163</v>
+        <v>15.28</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
       </c>
       <c r="I157" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
@@ -6033,34 +6383,35 @@
       <c r="M157" t="n">
         <v>1</v>
       </c>
+      <c r="N157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>15.6</v>
+        <v>15.2</v>
       </c>
       <c r="C158" t="n">
-        <v>15.6</v>
+        <v>15.2</v>
       </c>
       <c r="D158" t="n">
-        <v>15.6</v>
+        <v>15.2</v>
       </c>
       <c r="E158" t="n">
-        <v>15.6</v>
+        <v>15.2</v>
       </c>
       <c r="F158" t="n">
-        <v>3450.0892</v>
+        <v>45.0263</v>
       </c>
       <c r="G158" t="n">
-        <v>2160239.353586163</v>
+        <v>15.265</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
       </c>
       <c r="I158" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
@@ -6068,28 +6419,29 @@
       <c r="M158" t="n">
         <v>1</v>
       </c>
+      <c r="N158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>15.6</v>
+        <v>15.2</v>
       </c>
       <c r="C159" t="n">
-        <v>15.6</v>
+        <v>15.2</v>
       </c>
       <c r="D159" t="n">
-        <v>15.6</v>
+        <v>15.2</v>
       </c>
       <c r="E159" t="n">
-        <v>15.6</v>
+        <v>15.2</v>
       </c>
       <c r="F159" t="n">
-        <v>6378.2051</v>
+        <v>99.1447</v>
       </c>
       <c r="G159" t="n">
-        <v>2160239.353586163</v>
+        <v>15.24999999999999</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -6103,28 +6455,29 @@
       <c r="M159" t="n">
         <v>1</v>
       </c>
+      <c r="N159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>15.6</v>
+        <v>15.1</v>
       </c>
       <c r="C160" t="n">
-        <v>15.6</v>
+        <v>15.1</v>
       </c>
       <c r="D160" t="n">
-        <v>15.6</v>
+        <v>15.1</v>
       </c>
       <c r="E160" t="n">
-        <v>15.6</v>
+        <v>15.1</v>
       </c>
       <c r="F160" t="n">
-        <v>3360.7057</v>
+        <v>1000</v>
       </c>
       <c r="G160" t="n">
-        <v>2160239.353586163</v>
+        <v>15.235</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -6138,28 +6491,29 @@
       <c r="M160" t="n">
         <v>1</v>
       </c>
+      <c r="N160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>15.6</v>
+        <v>15.2</v>
       </c>
       <c r="C161" t="n">
-        <v>15.6</v>
+        <v>15.2</v>
       </c>
       <c r="D161" t="n">
-        <v>15.6</v>
+        <v>15.2</v>
       </c>
       <c r="E161" t="n">
-        <v>15.6</v>
+        <v>15.2</v>
       </c>
       <c r="F161" t="n">
-        <v>3017.4994</v>
+        <v>10</v>
       </c>
       <c r="G161" t="n">
-        <v>2160239.353586163</v>
+        <v>15.23</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6173,28 +6527,29 @@
       <c r="M161" t="n">
         <v>1</v>
       </c>
+      <c r="N161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>15.6</v>
+        <v>15.1</v>
       </c>
       <c r="C162" t="n">
-        <v>15.6</v>
+        <v>15.1</v>
       </c>
       <c r="D162" t="n">
-        <v>15.6</v>
+        <v>15.1</v>
       </c>
       <c r="E162" t="n">
-        <v>15.6</v>
+        <v>15.1</v>
       </c>
       <c r="F162" t="n">
-        <v>6982.5006</v>
+        <v>1810.7583</v>
       </c>
       <c r="G162" t="n">
-        <v>2160239.353586163</v>
+        <v>15.22</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6208,28 +6563,29 @@
       <c r="M162" t="n">
         <v>1</v>
       </c>
+      <c r="N162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>15.6</v>
+        <v>15.2</v>
       </c>
       <c r="C163" t="n">
-        <v>15.6</v>
+        <v>15.1</v>
       </c>
       <c r="D163" t="n">
-        <v>15.6</v>
+        <v>15.2</v>
       </c>
       <c r="E163" t="n">
-        <v>15.6</v>
+        <v>15.1</v>
       </c>
       <c r="F163" t="n">
-        <v>29200</v>
+        <v>91248.61840000001</v>
       </c>
       <c r="G163" t="n">
-        <v>2160239.353586163</v>
+        <v>15.21</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6243,28 +6599,29 @@
       <c r="M163" t="n">
         <v>1</v>
       </c>
+      <c r="N163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>15.7</v>
+        <v>15.2</v>
       </c>
       <c r="C164" t="n">
-        <v>15.7</v>
+        <v>15.2</v>
       </c>
       <c r="D164" t="n">
-        <v>15.7</v>
+        <v>15.2</v>
       </c>
       <c r="E164" t="n">
-        <v>15.7</v>
+        <v>15.2</v>
       </c>
       <c r="F164" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="G164" t="n">
-        <v>2160275.353586163</v>
+        <v>15.2</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -6278,28 +6635,29 @@
       <c r="M164" t="n">
         <v>1</v>
       </c>
+      <c r="N164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>15.6</v>
+        <v>15.2</v>
       </c>
       <c r="C165" t="n">
-        <v>15.6</v>
+        <v>15.2</v>
       </c>
       <c r="D165" t="n">
-        <v>15.6</v>
+        <v>15.2</v>
       </c>
       <c r="E165" t="n">
-        <v>15.6</v>
+        <v>15.2</v>
       </c>
       <c r="F165" t="n">
-        <v>1000</v>
+        <v>342.7924</v>
       </c>
       <c r="G165" t="n">
-        <v>2159275.353586163</v>
+        <v>15.195</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -6313,1476 +6671,7 @@
       <c r="M165" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
-        <v>164</v>
-      </c>
-      <c r="B166" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="C166" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="D166" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="E166" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="F166" t="n">
-        <v>12820.5128</v>
-      </c>
-      <c r="G166" t="n">
-        <v>2159275.353586163</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="n">
-        <v>165</v>
-      </c>
-      <c r="B167" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="C167" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="D167" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="E167" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="F167" t="n">
-        <v>5641.1863</v>
-      </c>
-      <c r="G167" t="n">
-        <v>2159275.353586163</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="n">
-        <v>166</v>
-      </c>
-      <c r="B168" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="C168" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="D168" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="E168" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="F168" t="n">
-        <v>21897.136</v>
-      </c>
-      <c r="G168" t="n">
-        <v>2159275.353586163</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="n">
-        <v>167</v>
-      </c>
-      <c r="B169" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="C169" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="D169" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="E169" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="F169" t="n">
-        <v>4645.587</v>
-      </c>
-      <c r="G169" t="n">
-        <v>2154629.766586164</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="n">
-        <v>168</v>
-      </c>
-      <c r="B170" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="C170" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="D170" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="E170" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="F170" t="n">
-        <v>3071.476</v>
-      </c>
-      <c r="G170" t="n">
-        <v>2154629.766586164</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="n">
-        <v>169</v>
-      </c>
-      <c r="B171" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="C171" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="D171" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="E171" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="F171" t="n">
-        <v>2264.817</v>
-      </c>
-      <c r="G171" t="n">
-        <v>2156894.583586163</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="n">
-        <v>170</v>
-      </c>
-      <c r="B172" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="C172" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="D172" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="E172" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="F172" t="n">
-        <v>738.7746</v>
-      </c>
-      <c r="G172" t="n">
-        <v>2156894.583586163</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" s="1" t="n">
-        <v>171</v>
-      </c>
-      <c r="B173" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="C173" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="D173" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="E173" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="F173" t="n">
-        <v>54924.7622</v>
-      </c>
-      <c r="G173" t="n">
-        <v>2101969.821386163</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" s="1" t="n">
-        <v>172</v>
-      </c>
-      <c r="B174" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="C174" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="D174" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="E174" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="F174" t="n">
-        <v>31130.739</v>
-      </c>
-      <c r="G174" t="n">
-        <v>2101969.821386163</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" s="1" t="n">
-        <v>173</v>
-      </c>
-      <c r="B175" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="C175" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="D175" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="E175" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="F175" t="n">
-        <v>7274.502</v>
-      </c>
-      <c r="G175" t="n">
-        <v>2101969.821386163</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" s="1" t="n">
-        <v>174</v>
-      </c>
-      <c r="B176" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="C176" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="D176" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="E176" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="F176" t="n">
-        <v>10</v>
-      </c>
-      <c r="G176" t="n">
-        <v>2101979.821386163</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
-        <v>175</v>
-      </c>
-      <c r="B177" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="C177" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="D177" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="E177" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="F177" t="n">
-        <v>1623.2051</v>
-      </c>
-      <c r="G177" t="n">
-        <v>2101979.821386163</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
-        <v>176</v>
-      </c>
-      <c r="B178" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="C178" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="D178" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="E178" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="F178" t="n">
-        <v>3000</v>
-      </c>
-      <c r="G178" t="n">
-        <v>2101979.821386163</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
-        <v>177</v>
-      </c>
-      <c r="B179" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="C179" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="D179" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="E179" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="F179" t="n">
-        <v>40263.0128</v>
-      </c>
-      <c r="G179" t="n">
-        <v>2061716.808586163</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
-        <v>178</v>
-      </c>
-      <c r="B180" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="C180" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="D180" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="E180" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="F180" t="n">
-        <v>26600</v>
-      </c>
-      <c r="G180" t="n">
-        <v>2061716.808586163</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
-        <v>179</v>
-      </c>
-      <c r="B181" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="C181" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="D181" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="E181" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="F181" t="n">
-        <v>55433.074</v>
-      </c>
-      <c r="G181" t="n">
-        <v>2006283.734586163</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="B182" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="C182" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="D182" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="E182" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="F182" t="n">
-        <v>73811.22870000001</v>
-      </c>
-      <c r="G182" t="n">
-        <v>2006283.734586163</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
-        <v>181</v>
-      </c>
-      <c r="B183" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="C183" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="D183" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="E183" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="F183" t="n">
-        <v>4711.7168</v>
-      </c>
-      <c r="G183" t="n">
-        <v>2001572.017786163</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
-        <v>182</v>
-      </c>
-      <c r="B184" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="C184" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="D184" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="E184" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="F184" t="n">
-        <v>65922.1489</v>
-      </c>
-      <c r="G184" t="n">
-        <v>2001572.017786163</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
-        <v>183</v>
-      </c>
-      <c r="B185" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="C185" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="D185" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="E185" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="F185" t="n">
-        <v>65330.3243</v>
-      </c>
-      <c r="G185" t="n">
-        <v>2066902.342086163</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
-        <v>184</v>
-      </c>
-      <c r="B186" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="C186" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="D186" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="E186" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="F186" t="n">
-        <v>0.0003</v>
-      </c>
-      <c r="G186" t="n">
-        <v>2066902.342086163</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
-        <v>185</v>
-      </c>
-      <c r="B187" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="C187" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="D187" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="E187" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="F187" t="n">
-        <v>45147.0402</v>
-      </c>
-      <c r="G187" t="n">
-        <v>2021755.301886163</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
-        <v>186</v>
-      </c>
-      <c r="B188" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="C188" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="D188" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="E188" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="F188" t="n">
-        <v>5002.9293</v>
-      </c>
-      <c r="G188" t="n">
-        <v>2021755.301886163</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
-        <v>187</v>
-      </c>
-      <c r="B189" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="C189" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="D189" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="E189" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="F189" t="n">
-        <v>26569.5347</v>
-      </c>
-      <c r="G189" t="n">
-        <v>2021755.301886163</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
-        <v>188</v>
-      </c>
-      <c r="B190" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="C190" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="D190" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="E190" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="F190" t="n">
-        <v>157592.0125</v>
-      </c>
-      <c r="G190" t="n">
-        <v>1864163.289386163</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
-        <v>189</v>
-      </c>
-      <c r="B191" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="C191" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="D191" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="E191" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="F191" t="n">
-        <v>1000</v>
-      </c>
-      <c r="G191" t="n">
-        <v>1864163.289386163</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
-        <v>190</v>
-      </c>
-      <c r="B192" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="C192" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="D192" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="E192" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="F192" t="n">
-        <v>78313.3931</v>
-      </c>
-      <c r="G192" t="n">
-        <v>1864163.289386163</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
-        <v>191</v>
-      </c>
-      <c r="B193" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="C193" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="D193" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="E193" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="F193" t="n">
-        <v>7430.8411</v>
-      </c>
-      <c r="G193" t="n">
-        <v>1856732.448286163</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
-      <c r="I193" t="n">
-        <v>0</v>
-      </c>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
-        <v>192</v>
-      </c>
-      <c r="B194" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="C194" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="D194" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="E194" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="F194" t="n">
-        <v>49900</v>
-      </c>
-      <c r="G194" t="n">
-        <v>1906632.448286163</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
-      <c r="I194" t="n">
-        <v>0</v>
-      </c>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
-        <v>193</v>
-      </c>
-      <c r="B195" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="C195" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="D195" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="E195" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="F195" t="n">
-        <v>30000</v>
-      </c>
-      <c r="G195" t="n">
-        <v>1906632.448286163</v>
-      </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
-      <c r="I195" t="n">
-        <v>0</v>
-      </c>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
-        <v>194</v>
-      </c>
-      <c r="B196" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="C196" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="D196" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="E196" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="F196" t="n">
-        <v>68400</v>
-      </c>
-      <c r="G196" t="n">
-        <v>1906632.448286163</v>
-      </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
-      <c r="I196" t="n">
-        <v>0</v>
-      </c>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
-        <v>195</v>
-      </c>
-      <c r="B197" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="C197" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="D197" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="E197" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="F197" t="n">
-        <v>3000</v>
-      </c>
-      <c r="G197" t="n">
-        <v>1903632.448286163</v>
-      </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
-      <c r="I197" t="n">
-        <v>0</v>
-      </c>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
-        <v>196</v>
-      </c>
-      <c r="B198" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="C198" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="D198" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="E198" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="F198" t="n">
-        <v>4117.2271</v>
-      </c>
-      <c r="G198" t="n">
-        <v>1907749.675386163</v>
-      </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
-      <c r="I198" t="n">
-        <v>0</v>
-      </c>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
-        <v>197</v>
-      </c>
-      <c r="B199" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="C199" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="D199" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="E199" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="F199" t="n">
-        <v>128</v>
-      </c>
-      <c r="G199" t="n">
-        <v>1907621.675386163</v>
-      </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
-      <c r="I199" t="n">
-        <v>0</v>
-      </c>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" s="1" t="n">
-        <v>198</v>
-      </c>
-      <c r="B200" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="C200" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="D200" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="E200" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="F200" t="n">
-        <v>45.0263</v>
-      </c>
-      <c r="G200" t="n">
-        <v>1907666.701686163</v>
-      </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
-      <c r="I200" t="n">
-        <v>0</v>
-      </c>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" s="1" t="n">
-        <v>199</v>
-      </c>
-      <c r="B201" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="C201" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="D201" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="E201" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="F201" t="n">
-        <v>99.1447</v>
-      </c>
-      <c r="G201" t="n">
-        <v>1907666.701686163</v>
-      </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
-      <c r="I201" t="n">
-        <v>0</v>
-      </c>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="B202" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="C202" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="D202" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="E202" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="F202" t="n">
-        <v>1000</v>
-      </c>
-      <c r="G202" t="n">
-        <v>1906666.701686163</v>
-      </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
-      <c r="I202" t="n">
-        <v>0</v>
-      </c>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" s="1" t="n">
-        <v>201</v>
-      </c>
-      <c r="B203" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="C203" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="D203" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="E203" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="F203" t="n">
-        <v>10</v>
-      </c>
-      <c r="G203" t="n">
-        <v>1906676.701686163</v>
-      </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
-      <c r="I203" t="n">
-        <v>0</v>
-      </c>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" s="1" t="n">
-        <v>202</v>
-      </c>
-      <c r="B204" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="C204" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="D204" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="E204" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="F204" t="n">
-        <v>1810.7583</v>
-      </c>
-      <c r="G204" t="n">
-        <v>1904865.943386163</v>
-      </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
-      <c r="I204" t="n">
-        <v>0</v>
-      </c>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" s="1" t="n">
-        <v>203</v>
-      </c>
-      <c r="B205" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="C205" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="D205" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="E205" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="F205" t="n">
-        <v>91248.61840000001</v>
-      </c>
-      <c r="G205" t="n">
-        <v>1904865.943386163</v>
-      </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
-      <c r="I205" t="n">
-        <v>0</v>
-      </c>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr"/>
-      <c r="M205" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" s="1" t="n">
-        <v>204</v>
-      </c>
-      <c r="B206" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="C206" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="D206" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="E206" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="F206" t="n">
-        <v>1000</v>
-      </c>
-      <c r="G206" t="n">
-        <v>1905865.943386163</v>
-      </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
-      <c r="I206" t="n">
-        <v>0</v>
-      </c>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr"/>
-      <c r="M206" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" s="1" t="n">
-        <v>205</v>
-      </c>
-      <c r="B207" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="C207" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="D207" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="E207" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="F207" t="n">
-        <v>342.7924</v>
-      </c>
-      <c r="G207" t="n">
-        <v>1905865.943386163</v>
-      </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
-      <c r="I207" t="n">
-        <v>0</v>
-      </c>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr"/>
-      <c r="M207" t="n">
-        <v>1</v>
-      </c>
+      <c r="N165" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-10-30 BackTest MITH.xlsx
+++ b/BackTest/2019-10-30 BackTest MITH.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N165"/>
+  <dimension ref="A1:N236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,22 +438,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>15.5</v>
+        <v>15.4</v>
       </c>
       <c r="C2" t="n">
         <v>15.4</v>
       </c>
       <c r="D2" t="n">
-        <v>15.5</v>
+        <v>15.4</v>
       </c>
       <c r="E2" t="n">
         <v>15.4</v>
       </c>
       <c r="F2" t="n">
-        <v>64958.42</v>
+        <v>61598.5064</v>
       </c>
       <c r="G2" t="n">
-        <v>15.525</v>
+        <v>-253783.1800138365</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -474,35 +474,31 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>15.5</v>
+        <v>15.4</v>
       </c>
       <c r="C3" t="n">
-        <v>15.5</v>
+        <v>15.4</v>
       </c>
       <c r="D3" t="n">
-        <v>15.5</v>
+        <v>15.4</v>
       </c>
       <c r="E3" t="n">
-        <v>15.5</v>
+        <v>15.4</v>
       </c>
       <c r="F3" t="n">
-        <v>129.8064</v>
+        <v>339339.675</v>
       </c>
       <c r="G3" t="n">
-        <v>15.52</v>
+        <v>-253783.1800138365</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="K3" t="n">
-        <v>15.4</v>
-      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
@@ -514,40 +510,32 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>15.4</v>
+        <v>15.6</v>
       </c>
       <c r="C4" t="n">
-        <v>15.4</v>
+        <v>15.6</v>
       </c>
       <c r="D4" t="n">
-        <v>15.4</v>
+        <v>15.6</v>
       </c>
       <c r="E4" t="n">
-        <v>15.4</v>
+        <v>15.6</v>
       </c>
       <c r="F4" t="n">
-        <v>19900</v>
+        <v>11</v>
       </c>
       <c r="G4" t="n">
-        <v>15.51</v>
+        <v>-253772.1800138365</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="K4" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
         <v>1</v>
       </c>
@@ -564,34 +552,26 @@
         <v>15.4</v>
       </c>
       <c r="D5" t="n">
-        <v>15.5</v>
+        <v>15.4</v>
       </c>
       <c r="E5" t="n">
         <v>15.4</v>
       </c>
       <c r="F5" t="n">
-        <v>17580</v>
+        <v>10146</v>
       </c>
       <c r="G5" t="n">
-        <v>15.5</v>
+        <v>-263918.1800138365</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="K5" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
         <v>1</v>
       </c>
@@ -602,40 +582,32 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>15.5</v>
+        <v>15.4</v>
       </c>
       <c r="C6" t="n">
-        <v>15.5</v>
+        <v>15.4</v>
       </c>
       <c r="D6" t="n">
-        <v>15.5</v>
+        <v>15.4</v>
       </c>
       <c r="E6" t="n">
-        <v>15.5</v>
+        <v>15.4</v>
       </c>
       <c r="F6" t="n">
-        <v>9000</v>
+        <v>13011.1762</v>
       </c>
       <c r="G6" t="n">
-        <v>15.495</v>
+        <v>-263918.1800138365</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="K6" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -646,40 +618,32 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>15.4</v>
+        <v>15.6</v>
       </c>
       <c r="C7" t="n">
-        <v>15.3</v>
+        <v>15.6</v>
       </c>
       <c r="D7" t="n">
-        <v>15.4</v>
+        <v>15.6</v>
       </c>
       <c r="E7" t="n">
-        <v>15.3</v>
+        <v>15.6</v>
       </c>
       <c r="F7" t="n">
-        <v>50000</v>
+        <v>50</v>
       </c>
       <c r="G7" t="n">
-        <v>15.48499999999999</v>
+        <v>-263868.1800138365</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="K7" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -690,40 +654,32 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>15.3</v>
+        <v>15.4</v>
       </c>
       <c r="C8" t="n">
-        <v>15.3</v>
+        <v>15.4</v>
       </c>
       <c r="D8" t="n">
-        <v>15.3</v>
+        <v>15.4</v>
       </c>
       <c r="E8" t="n">
-        <v>15.3</v>
+        <v>15.4</v>
       </c>
       <c r="F8" t="n">
-        <v>50455.045</v>
+        <v>2039.9</v>
       </c>
       <c r="G8" t="n">
-        <v>15.46999999999999</v>
+        <v>-265908.0800138365</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="K8" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -734,40 +690,32 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>15.3</v>
+        <v>15.4</v>
       </c>
       <c r="C9" t="n">
-        <v>15.3</v>
+        <v>15.4</v>
       </c>
       <c r="D9" t="n">
-        <v>15.3</v>
+        <v>15.4</v>
       </c>
       <c r="E9" t="n">
-        <v>15.3</v>
+        <v>15.4</v>
       </c>
       <c r="F9" t="n">
-        <v>18048.6925</v>
+        <v>2858.636</v>
       </c>
       <c r="G9" t="n">
-        <v>15.45499999999999</v>
+        <v>-265908.0800138365</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="K9" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -781,37 +729,29 @@
         <v>15.4</v>
       </c>
       <c r="C10" t="n">
-        <v>15.6</v>
+        <v>15.4</v>
       </c>
       <c r="D10" t="n">
-        <v>15.6</v>
+        <v>15.4</v>
       </c>
       <c r="E10" t="n">
         <v>15.4</v>
       </c>
       <c r="F10" t="n">
-        <v>103765</v>
+        <v>1000</v>
       </c>
       <c r="G10" t="n">
-        <v>15.44499999999999</v>
+        <v>-265908.0800138365</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="K10" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -822,40 +762,32 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>15.6</v>
+        <v>15.4</v>
       </c>
       <c r="C11" t="n">
-        <v>15.6</v>
+        <v>15.4</v>
       </c>
       <c r="D11" t="n">
-        <v>15.6</v>
+        <v>15.4</v>
       </c>
       <c r="E11" t="n">
-        <v>15.6</v>
+        <v>15.4</v>
       </c>
       <c r="F11" t="n">
-        <v>4723.5256</v>
+        <v>1000</v>
       </c>
       <c r="G11" t="n">
-        <v>15.44499999999999</v>
+        <v>-265908.0800138365</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="K11" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -869,37 +801,29 @@
         <v>15.6</v>
       </c>
       <c r="C12" t="n">
-        <v>15.7</v>
+        <v>15.6</v>
       </c>
       <c r="D12" t="n">
-        <v>15.7</v>
+        <v>15.6</v>
       </c>
       <c r="E12" t="n">
         <v>15.6</v>
       </c>
       <c r="F12" t="n">
-        <v>106213.423</v>
+        <v>10</v>
       </c>
       <c r="G12" t="n">
-        <v>15.44499999999999</v>
+        <v>-265898.0800138365</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="K12" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -910,40 +834,32 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>15.8</v>
+        <v>15.4</v>
       </c>
       <c r="C13" t="n">
-        <v>15.7</v>
+        <v>15.4</v>
       </c>
       <c r="D13" t="n">
-        <v>15.8</v>
+        <v>15.4</v>
       </c>
       <c r="E13" t="n">
-        <v>15.7</v>
+        <v>15.4</v>
       </c>
       <c r="F13" t="n">
-        <v>76460.67260000001</v>
+        <v>27570.4148</v>
       </c>
       <c r="G13" t="n">
-        <v>15.45499999999999</v>
+        <v>-293468.4948138365</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="K13" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -954,22 +870,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>15.8</v>
+        <v>15.4</v>
       </c>
       <c r="C14" t="n">
-        <v>15.8</v>
+        <v>15.4</v>
       </c>
       <c r="D14" t="n">
-        <v>15.8</v>
+        <v>15.4</v>
       </c>
       <c r="E14" t="n">
-        <v>15.8</v>
+        <v>15.4</v>
       </c>
       <c r="F14" t="n">
-        <v>12</v>
+        <v>30000</v>
       </c>
       <c r="G14" t="n">
-        <v>15.46999999999999</v>
+        <v>-293468.4948138365</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -978,14 +894,8 @@
         <v>0</v>
       </c>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -996,22 +906,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>15.8</v>
+        <v>15.6</v>
       </c>
       <c r="C15" t="n">
-        <v>16</v>
+        <v>15.6</v>
       </c>
       <c r="D15" t="n">
-        <v>16</v>
+        <v>15.6</v>
       </c>
       <c r="E15" t="n">
-        <v>15.8</v>
+        <v>15.6</v>
       </c>
       <c r="F15" t="n">
-        <v>674936.5318999999</v>
+        <v>89184.98669999999</v>
       </c>
       <c r="G15" t="n">
-        <v>15.48499999999999</v>
+        <v>-204283.5081138365</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1020,14 +930,8 @@
         <v>0</v>
       </c>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -1038,22 +942,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>16</v>
+        <v>15.6</v>
       </c>
       <c r="C16" t="n">
-        <v>16</v>
+        <v>15.6</v>
       </c>
       <c r="D16" t="n">
-        <v>16</v>
+        <v>15.6</v>
       </c>
       <c r="E16" t="n">
-        <v>16</v>
+        <v>15.6</v>
       </c>
       <c r="F16" t="n">
-        <v>17000</v>
+        <v>10815.0133</v>
       </c>
       <c r="G16" t="n">
-        <v>15.51499999999999</v>
+        <v>-204283.5081138365</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1062,14 +966,8 @@
         <v>0</v>
       </c>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -1080,22 +978,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>16</v>
+        <v>15.4</v>
       </c>
       <c r="C17" t="n">
-        <v>16</v>
+        <v>15.3</v>
       </c>
       <c r="D17" t="n">
-        <v>16</v>
+        <v>15.4</v>
       </c>
       <c r="E17" t="n">
-        <v>16</v>
+        <v>15.3</v>
       </c>
       <c r="F17" t="n">
-        <v>375348.2181</v>
+        <v>72988.4296</v>
       </c>
       <c r="G17" t="n">
-        <v>15.54499999999999</v>
+        <v>-277271.9377138366</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1104,14 +1002,8 @@
         <v>0</v>
       </c>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1122,22 +1014,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>16</v>
+        <v>15.4</v>
       </c>
       <c r="C18" t="n">
-        <v>16.3</v>
+        <v>15.4</v>
       </c>
       <c r="D18" t="n">
-        <v>16.3</v>
+        <v>15.4</v>
       </c>
       <c r="E18" t="n">
-        <v>16</v>
+        <v>15.4</v>
       </c>
       <c r="F18" t="n">
-        <v>391432.9816</v>
+        <v>4030.07</v>
       </c>
       <c r="G18" t="n">
-        <v>15.57499999999999</v>
+        <v>-273241.8677138365</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1146,14 +1038,8 @@
         <v>0</v>
       </c>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1164,22 +1050,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>16.4</v>
+        <v>15.4</v>
       </c>
       <c r="C19" t="n">
-        <v>16.8</v>
+        <v>15.5</v>
       </c>
       <c r="D19" t="n">
-        <v>17</v>
+        <v>15.5</v>
       </c>
       <c r="E19" t="n">
-        <v>16.4</v>
+        <v>15.4</v>
       </c>
       <c r="F19" t="n">
-        <v>2028317.3298</v>
+        <v>3000</v>
       </c>
       <c r="G19" t="n">
-        <v>15.62499999999999</v>
+        <v>-270241.8677138365</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1188,14 +1074,8 @@
         <v>0</v>
       </c>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1206,22 +1086,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>16.8</v>
+        <v>15.5</v>
       </c>
       <c r="C20" t="n">
-        <v>16.2</v>
+        <v>15.5</v>
       </c>
       <c r="D20" t="n">
-        <v>17</v>
+        <v>15.5</v>
       </c>
       <c r="E20" t="n">
-        <v>15.8</v>
+        <v>15.5</v>
       </c>
       <c r="F20" t="n">
-        <v>539385.0269000001</v>
+        <v>108661</v>
       </c>
       <c r="G20" t="n">
-        <v>15.695</v>
+        <v>-270241.8677138365</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1230,14 +1110,8 @@
         <v>0</v>
       </c>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1248,22 +1122,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>15.9</v>
+        <v>15.6</v>
       </c>
       <c r="C21" t="n">
-        <v>16</v>
+        <v>15.6</v>
       </c>
       <c r="D21" t="n">
-        <v>16</v>
+        <v>15.6</v>
       </c>
       <c r="E21" t="n">
-        <v>15.9</v>
+        <v>15.6</v>
       </c>
       <c r="F21" t="n">
-        <v>171770.1687</v>
+        <v>1000</v>
       </c>
       <c r="G21" t="n">
-        <v>15.72</v>
+        <v>-269241.8677138365</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1272,14 +1146,8 @@
         <v>0</v>
       </c>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1290,22 +1158,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>16.1</v>
+        <v>15.5</v>
       </c>
       <c r="C22" t="n">
-        <v>16.1</v>
+        <v>15.5</v>
       </c>
       <c r="D22" t="n">
-        <v>16.1</v>
+        <v>15.5</v>
       </c>
       <c r="E22" t="n">
-        <v>16.1</v>
+        <v>15.4</v>
       </c>
       <c r="F22" t="n">
-        <v>3538</v>
+        <v>31127</v>
       </c>
       <c r="G22" t="n">
-        <v>15.75</v>
+        <v>-300368.8677138365</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1314,14 +1182,8 @@
         <v>0</v>
       </c>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1332,22 +1194,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>16.3</v>
+        <v>15.6</v>
       </c>
       <c r="C23" t="n">
-        <v>16.3</v>
+        <v>15.6</v>
       </c>
       <c r="D23" t="n">
-        <v>16.3</v>
+        <v>15.6</v>
       </c>
       <c r="E23" t="n">
-        <v>16.3</v>
+        <v>15.6</v>
       </c>
       <c r="F23" t="n">
-        <v>10</v>
+        <v>14737.65</v>
       </c>
       <c r="G23" t="n">
-        <v>15.79</v>
+        <v>-285631.2177138365</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1356,14 +1218,8 @@
         <v>0</v>
       </c>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1374,22 +1230,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>16.1</v>
+        <v>15.5</v>
       </c>
       <c r="C24" t="n">
-        <v>16.1</v>
+        <v>15.5</v>
       </c>
       <c r="D24" t="n">
-        <v>16.1</v>
+        <v>15.5</v>
       </c>
       <c r="E24" t="n">
-        <v>16.1</v>
+        <v>15.5</v>
       </c>
       <c r="F24" t="n">
-        <v>8026.519</v>
+        <v>25609.6906</v>
       </c>
       <c r="G24" t="n">
-        <v>15.825</v>
+        <v>-311240.9083138366</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1398,14 +1254,8 @@
         <v>0</v>
       </c>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1416,22 +1266,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>16.1</v>
+        <v>15.4</v>
       </c>
       <c r="C25" t="n">
-        <v>16</v>
+        <v>15.4</v>
       </c>
       <c r="D25" t="n">
-        <v>16.1</v>
+        <v>15.4</v>
       </c>
       <c r="E25" t="n">
-        <v>16</v>
+        <v>15.4</v>
       </c>
       <c r="F25" t="n">
-        <v>29871.9021</v>
+        <v>200693.0724</v>
       </c>
       <c r="G25" t="n">
-        <v>15.86</v>
+        <v>-511933.9807138366</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1440,14 +1290,8 @@
         <v>0</v>
       </c>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1458,22 +1302,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>15.9</v>
+        <v>15.5</v>
       </c>
       <c r="C26" t="n">
-        <v>15.9</v>
+        <v>15.5</v>
       </c>
       <c r="D26" t="n">
-        <v>15.9</v>
+        <v>15.5</v>
       </c>
       <c r="E26" t="n">
-        <v>15.9</v>
+        <v>15.5</v>
       </c>
       <c r="F26" t="n">
-        <v>131787.1553</v>
+        <v>10066.118</v>
       </c>
       <c r="G26" t="n">
-        <v>15.88</v>
+        <v>-501867.8627138365</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1482,14 +1326,8 @@
         <v>0</v>
       </c>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1500,22 +1338,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>15.8</v>
+        <v>15.4</v>
       </c>
       <c r="C27" t="n">
-        <v>15.8</v>
+        <v>15.6</v>
       </c>
       <c r="D27" t="n">
-        <v>15.9</v>
+        <v>15.6</v>
       </c>
       <c r="E27" t="n">
-        <v>15.7</v>
+        <v>15.4</v>
       </c>
       <c r="F27" t="n">
-        <v>221906.5324</v>
+        <v>74952.0787</v>
       </c>
       <c r="G27" t="n">
-        <v>15.9</v>
+        <v>-426915.7840138365</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1524,14 +1362,8 @@
         <v>0</v>
       </c>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1542,22 +1374,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>15.7</v>
+        <v>15.6</v>
       </c>
       <c r="C28" t="n">
-        <v>15.7</v>
+        <v>15.6</v>
       </c>
       <c r="D28" t="n">
-        <v>15.7</v>
+        <v>15.6</v>
       </c>
       <c r="E28" t="n">
-        <v>15.7</v>
+        <v>15.6</v>
       </c>
       <c r="F28" t="n">
-        <v>106354.1743</v>
+        <v>86349.67939999999</v>
       </c>
       <c r="G28" t="n">
-        <v>15.92</v>
+        <v>-426915.7840138365</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1566,14 +1398,8 @@
         <v>0</v>
       </c>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1584,7 +1410,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>15.7</v>
+        <v>15.6</v>
       </c>
       <c r="C29" t="n">
         <v>15.7</v>
@@ -1593,13 +1419,13 @@
         <v>15.7</v>
       </c>
       <c r="E29" t="n">
-        <v>15.7</v>
+        <v>15.6</v>
       </c>
       <c r="F29" t="n">
-        <v>38000</v>
+        <v>65113.5897</v>
       </c>
       <c r="G29" t="n">
-        <v>15.94</v>
+        <v>-361802.1943138365</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1608,14 +1434,8 @@
         <v>0</v>
       </c>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1626,22 +1446,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>15.8</v>
+        <v>15.6</v>
       </c>
       <c r="C30" t="n">
-        <v>15.8</v>
+        <v>15.6</v>
       </c>
       <c r="D30" t="n">
-        <v>15.8</v>
+        <v>15.6</v>
       </c>
       <c r="E30" t="n">
-        <v>15.8</v>
+        <v>15.6</v>
       </c>
       <c r="F30" t="n">
-        <v>88801.72629999999</v>
+        <v>108</v>
       </c>
       <c r="G30" t="n">
-        <v>15.96</v>
+        <v>-361910.1943138365</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1650,14 +1470,8 @@
         <v>0</v>
       </c>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1668,22 +1482,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>15.8</v>
+        <v>15.6</v>
       </c>
       <c r="C31" t="n">
-        <v>15.9</v>
+        <v>15.6</v>
       </c>
       <c r="D31" t="n">
-        <v>15.9</v>
+        <v>15.6</v>
       </c>
       <c r="E31" t="n">
-        <v>15.8</v>
+        <v>15.6</v>
       </c>
       <c r="F31" t="n">
-        <v>530</v>
+        <v>10</v>
       </c>
       <c r="G31" t="n">
-        <v>15.97</v>
+        <v>-361910.1943138365</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1692,14 +1506,8 @@
         <v>0</v>
       </c>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1710,22 +1518,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>15.9</v>
+        <v>15.5</v>
       </c>
       <c r="C32" t="n">
-        <v>15.9</v>
+        <v>15.5</v>
       </c>
       <c r="D32" t="n">
-        <v>15.9</v>
+        <v>15.5</v>
       </c>
       <c r="E32" t="n">
-        <v>15.9</v>
+        <v>15.5</v>
       </c>
       <c r="F32" t="n">
-        <v>206225.7099</v>
+        <v>500.7495</v>
       </c>
       <c r="G32" t="n">
-        <v>15.985</v>
+        <v>-362410.9438138365</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1734,14 +1542,8 @@
         <v>0</v>
       </c>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1752,22 +1554,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>16</v>
+        <v>15.6</v>
       </c>
       <c r="C33" t="n">
-        <v>16.1</v>
+        <v>15.6</v>
       </c>
       <c r="D33" t="n">
-        <v>16.1</v>
+        <v>15.6</v>
       </c>
       <c r="E33" t="n">
-        <v>16</v>
+        <v>15.6</v>
       </c>
       <c r="F33" t="n">
-        <v>109254.9195</v>
+        <v>10000</v>
       </c>
       <c r="G33" t="n">
-        <v>15.995</v>
+        <v>-352410.9438138365</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1776,14 +1578,8 @@
         <v>0</v>
       </c>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1794,22 +1590,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>16.1</v>
+        <v>15.6</v>
       </c>
       <c r="C34" t="n">
-        <v>16.1</v>
+        <v>15.6</v>
       </c>
       <c r="D34" t="n">
-        <v>16.1</v>
+        <v>15.6</v>
       </c>
       <c r="E34" t="n">
-        <v>16.1</v>
+        <v>15.6</v>
       </c>
       <c r="F34" t="n">
-        <v>5110.4968</v>
+        <v>1905.0641</v>
       </c>
       <c r="G34" t="n">
-        <v>16.01</v>
+        <v>-352410.9438138365</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1818,14 +1614,8 @@
         <v>0</v>
       </c>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1836,22 +1626,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="C35" t="n">
-        <v>16.1</v>
+        <v>15.5</v>
       </c>
       <c r="D35" t="n">
-        <v>16.1</v>
+        <v>15.5</v>
       </c>
       <c r="E35" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="F35" t="n">
-        <v>21322.6898</v>
+        <v>13516.5508</v>
       </c>
       <c r="G35" t="n">
-        <v>16.02</v>
+        <v>-365927.4946138365</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1860,14 +1650,8 @@
         <v>0</v>
       </c>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1878,22 +1662,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>15.9</v>
+        <v>15.6</v>
       </c>
       <c r="C36" t="n">
-        <v>15.9</v>
+        <v>15.6</v>
       </c>
       <c r="D36" t="n">
-        <v>16</v>
+        <v>15.6</v>
       </c>
       <c r="E36" t="n">
-        <v>15.9</v>
+        <v>15.6</v>
       </c>
       <c r="F36" t="n">
-        <v>116772.1318</v>
+        <v>4346.0256</v>
       </c>
       <c r="G36" t="n">
-        <v>16.015</v>
+        <v>-361581.4690138365</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1902,14 +1686,8 @@
         <v>0</v>
       </c>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1920,22 +1698,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>15.9</v>
+        <v>15.6</v>
       </c>
       <c r="C37" t="n">
-        <v>16</v>
+        <v>15.6</v>
       </c>
       <c r="D37" t="n">
-        <v>16</v>
+        <v>15.6</v>
       </c>
       <c r="E37" t="n">
-        <v>15.8</v>
+        <v>15.6</v>
       </c>
       <c r="F37" t="n">
-        <v>356884.3608</v>
+        <v>44871.7948</v>
       </c>
       <c r="G37" t="n">
-        <v>16.01</v>
+        <v>-361581.4690138365</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1944,14 +1722,8 @@
         <v>0</v>
       </c>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1962,22 +1734,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>16</v>
+        <v>15.6</v>
       </c>
       <c r="C38" t="n">
-        <v>16.1</v>
+        <v>15.6</v>
       </c>
       <c r="D38" t="n">
-        <v>16.1</v>
+        <v>15.6</v>
       </c>
       <c r="E38" t="n">
-        <v>16</v>
+        <v>15.6</v>
       </c>
       <c r="F38" t="n">
-        <v>253200</v>
+        <v>15123.2051</v>
       </c>
       <c r="G38" t="n">
-        <v>16.01</v>
+        <v>-361581.4690138365</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1986,14 +1758,8 @@
         <v>0</v>
       </c>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -2004,22 +1770,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>16.1</v>
+        <v>15.5</v>
       </c>
       <c r="C39" t="n">
-        <v>16.1</v>
+        <v>15.3</v>
       </c>
       <c r="D39" t="n">
-        <v>16.1</v>
+        <v>15.5</v>
       </c>
       <c r="E39" t="n">
-        <v>15.9</v>
+        <v>15.3</v>
       </c>
       <c r="F39" t="n">
-        <v>80223.6024</v>
+        <v>256582.5617</v>
       </c>
       <c r="G39" t="n">
-        <v>15.995</v>
+        <v>-618164.0307138365</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -2028,14 +1794,8 @@
         <v>0</v>
       </c>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -2046,22 +1806,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>16.1</v>
+        <v>15.3</v>
       </c>
       <c r="C40" t="n">
-        <v>16.1</v>
+        <v>15.5</v>
       </c>
       <c r="D40" t="n">
-        <v>16.1</v>
+        <v>15.6</v>
       </c>
       <c r="E40" t="n">
-        <v>16.1</v>
+        <v>15.3</v>
       </c>
       <c r="F40" t="n">
-        <v>41517.2049</v>
+        <v>158701</v>
       </c>
       <c r="G40" t="n">
-        <v>15.96</v>
+        <v>-459463.0307138365</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -2070,14 +1830,8 @@
         <v>0</v>
       </c>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -2088,22 +1842,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>16.1</v>
+        <v>15.5</v>
       </c>
       <c r="C41" t="n">
-        <v>16.1</v>
+        <v>15.5</v>
       </c>
       <c r="D41" t="n">
-        <v>16.1</v>
+        <v>15.5</v>
       </c>
       <c r="E41" t="n">
-        <v>16.1</v>
+        <v>15.5</v>
       </c>
       <c r="F41" t="n">
-        <v>648.944</v>
+        <v>39300</v>
       </c>
       <c r="G41" t="n">
-        <v>15.97</v>
+        <v>-459463.0307138365</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -2112,14 +1866,8 @@
         <v>0</v>
       </c>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -2130,22 +1878,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>16.1</v>
+        <v>15.4</v>
       </c>
       <c r="C42" t="n">
-        <v>16.1</v>
+        <v>15.4</v>
       </c>
       <c r="D42" t="n">
-        <v>16.1</v>
+        <v>15.4</v>
       </c>
       <c r="E42" t="n">
-        <v>16.1</v>
+        <v>15.4</v>
       </c>
       <c r="F42" t="n">
-        <v>7763.9751</v>
+        <v>14000</v>
       </c>
       <c r="G42" t="n">
-        <v>15.97</v>
+        <v>-473463.0307138365</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -2154,14 +1902,8 @@
         <v>0</v>
       </c>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -2172,22 +1914,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>16</v>
+        <v>15.4</v>
       </c>
       <c r="C43" t="n">
-        <v>16</v>
+        <v>15.4</v>
       </c>
       <c r="D43" t="n">
-        <v>16</v>
+        <v>15.4</v>
       </c>
       <c r="E43" t="n">
-        <v>16</v>
+        <v>15.4</v>
       </c>
       <c r="F43" t="n">
-        <v>2226.5625</v>
+        <v>15000</v>
       </c>
       <c r="G43" t="n">
-        <v>15.955</v>
+        <v>-473463.0307138365</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -2196,14 +1938,8 @@
         <v>0</v>
       </c>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -2214,22 +1950,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>16</v>
+        <v>15.4</v>
       </c>
       <c r="C44" t="n">
-        <v>16</v>
+        <v>15.4</v>
       </c>
       <c r="D44" t="n">
-        <v>16</v>
+        <v>15.4</v>
       </c>
       <c r="E44" t="n">
-        <v>16</v>
+        <v>15.4</v>
       </c>
       <c r="F44" t="n">
-        <v>7947.9433</v>
+        <v>1000</v>
       </c>
       <c r="G44" t="n">
-        <v>15.95</v>
+        <v>-473463.0307138365</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -2238,14 +1974,8 @@
         <v>0</v>
       </c>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -2256,22 +1986,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>16.1</v>
+        <v>15.4</v>
       </c>
       <c r="C45" t="n">
-        <v>16.1</v>
+        <v>15.5</v>
       </c>
       <c r="D45" t="n">
-        <v>16.1</v>
+        <v>15.5</v>
       </c>
       <c r="E45" t="n">
-        <v>16.1</v>
+        <v>15.4</v>
       </c>
       <c r="F45" t="n">
-        <v>6638.1987</v>
+        <v>33717.303</v>
       </c>
       <c r="G45" t="n">
-        <v>15.95</v>
+        <v>-439745.7277138365</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2280,14 +2010,8 @@
         <v>0</v>
       </c>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2298,22 +2022,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>16.1</v>
+        <v>15.5</v>
       </c>
       <c r="C46" t="n">
-        <v>16.2</v>
+        <v>15.5</v>
       </c>
       <c r="D46" t="n">
-        <v>16.2</v>
+        <v>15.5</v>
       </c>
       <c r="E46" t="n">
-        <v>16.1</v>
+        <v>15.5</v>
       </c>
       <c r="F46" t="n">
-        <v>40610</v>
+        <v>48035.5902</v>
       </c>
       <c r="G46" t="n">
-        <v>15.96</v>
+        <v>-439745.7277138365</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2322,14 +2046,8 @@
         <v>0</v>
       </c>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2340,22 +2058,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="C47" t="n">
-        <v>15.9</v>
+        <v>15.5</v>
       </c>
       <c r="D47" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="E47" t="n">
-        <v>15.9</v>
+        <v>15.5</v>
       </c>
       <c r="F47" t="n">
-        <v>50088.0684</v>
+        <v>86327.4562</v>
       </c>
       <c r="G47" t="n">
-        <v>15.97</v>
+        <v>-439745.7277138365</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2364,14 +2082,8 @@
         <v>0</v>
       </c>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2382,22 +2094,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>16.1</v>
+        <v>15.5</v>
       </c>
       <c r="C48" t="n">
-        <v>16.1</v>
+        <v>15.5</v>
       </c>
       <c r="D48" t="n">
-        <v>16.1</v>
+        <v>15.5</v>
       </c>
       <c r="E48" t="n">
-        <v>16.1</v>
+        <v>15.5</v>
       </c>
       <c r="F48" t="n">
-        <v>10</v>
+        <v>4394.2731</v>
       </c>
       <c r="G48" t="n">
-        <v>15.99</v>
+        <v>-439745.7277138365</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2406,14 +2118,8 @@
         <v>0</v>
       </c>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2424,22 +2130,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>16.1</v>
+        <v>15.5</v>
       </c>
       <c r="C49" t="n">
-        <v>16.1</v>
+        <v>15.5</v>
       </c>
       <c r="D49" t="n">
-        <v>16.1</v>
+        <v>15.5</v>
       </c>
       <c r="E49" t="n">
-        <v>16.1</v>
+        <v>15.5</v>
       </c>
       <c r="F49" t="n">
-        <v>3838.6956</v>
+        <v>10000</v>
       </c>
       <c r="G49" t="n">
-        <v>16.01000000000001</v>
+        <v>-439745.7277138365</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2448,14 +2154,8 @@
         <v>0</v>
       </c>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2466,22 +2166,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>16.1</v>
+        <v>15.5</v>
       </c>
       <c r="C50" t="n">
-        <v>16.1</v>
+        <v>15.6</v>
       </c>
       <c r="D50" t="n">
-        <v>16.1</v>
+        <v>15.6</v>
       </c>
       <c r="E50" t="n">
-        <v>16.1</v>
+        <v>15.5</v>
       </c>
       <c r="F50" t="n">
-        <v>41390.6926</v>
+        <v>249715.2588</v>
       </c>
       <c r="G50" t="n">
-        <v>16.02500000000001</v>
+        <v>-190030.4689138365</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2490,14 +2190,8 @@
         <v>0</v>
       </c>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2508,22 +2202,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>16.2</v>
+        <v>15.6</v>
       </c>
       <c r="C51" t="n">
-        <v>16.2</v>
+        <v>15.6</v>
       </c>
       <c r="D51" t="n">
-        <v>16.2</v>
+        <v>15.6</v>
       </c>
       <c r="E51" t="n">
-        <v>16.2</v>
+        <v>15.6</v>
       </c>
       <c r="F51" t="n">
-        <v>30.8024</v>
+        <v>4277.18</v>
       </c>
       <c r="G51" t="n">
-        <v>16.04500000000001</v>
+        <v>-190030.4689138365</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2532,14 +2226,8 @@
         <v>0</v>
       </c>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2550,22 +2238,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>16.1</v>
+        <v>15.6</v>
       </c>
       <c r="C52" t="n">
-        <v>16</v>
+        <v>15.6</v>
       </c>
       <c r="D52" t="n">
-        <v>16.1</v>
+        <v>15.6</v>
       </c>
       <c r="E52" t="n">
-        <v>16</v>
+        <v>15.6</v>
       </c>
       <c r="F52" t="n">
-        <v>12768.348</v>
+        <v>116171.152</v>
       </c>
       <c r="G52" t="n">
-        <v>16.05500000000001</v>
+        <v>-190030.4689138365</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2574,14 +2262,8 @@
         <v>0</v>
       </c>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2592,22 +2274,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>16.2</v>
+        <v>15.6</v>
       </c>
       <c r="C53" t="n">
-        <v>16</v>
+        <v>15.6</v>
       </c>
       <c r="D53" t="n">
-        <v>16.2</v>
+        <v>15.6</v>
       </c>
       <c r="E53" t="n">
-        <v>16</v>
+        <v>15.6</v>
       </c>
       <c r="F53" t="n">
-        <v>2740.923</v>
+        <v>13501</v>
       </c>
       <c r="G53" t="n">
-        <v>16.065</v>
+        <v>-190030.4689138365</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2616,14 +2298,8 @@
         <v>0</v>
       </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2634,22 +2310,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>16.1</v>
+        <v>15.6</v>
       </c>
       <c r="C54" t="n">
-        <v>16</v>
+        <v>15.6</v>
       </c>
       <c r="D54" t="n">
-        <v>16.1</v>
+        <v>15.6</v>
       </c>
       <c r="E54" t="n">
-        <v>16</v>
+        <v>15.6</v>
       </c>
       <c r="F54" t="n">
-        <v>30210</v>
+        <v>88160</v>
       </c>
       <c r="G54" t="n">
-        <v>16.065</v>
+        <v>-190030.4689138365</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2658,14 +2334,8 @@
         <v>0</v>
       </c>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2676,40 +2346,34 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>16</v>
+        <v>15.6</v>
       </c>
       <c r="C55" t="n">
-        <v>16.1</v>
+        <v>15.6</v>
       </c>
       <c r="D55" t="n">
-        <v>16.1</v>
+        <v>15.6</v>
       </c>
       <c r="E55" t="n">
-        <v>15.9</v>
+        <v>15.6</v>
       </c>
       <c r="F55" t="n">
-        <v>40010</v>
+        <v>35494.667</v>
       </c>
       <c r="G55" t="n">
-        <v>16.065</v>
+        <v>-190030.4689138365</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
-        <v>1.040454545454546</v>
+        <v>1</v>
       </c>
       <c r="N55" t="inlineStr"/>
     </row>
@@ -2718,28 +2382,28 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>16</v>
+        <v>15.6</v>
       </c>
       <c r="C56" t="n">
-        <v>16</v>
+        <v>15.6</v>
       </c>
       <c r="D56" t="n">
-        <v>16</v>
+        <v>15.6</v>
       </c>
       <c r="E56" t="n">
-        <v>16</v>
+        <v>15.6</v>
       </c>
       <c r="F56" t="n">
-        <v>2251.128</v>
+        <v>98569.9559</v>
       </c>
       <c r="G56" t="n">
-        <v>16.07000000000001</v>
+        <v>-190030.4689138365</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
@@ -2754,28 +2418,28 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>16.1</v>
+        <v>15.6</v>
       </c>
       <c r="C57" t="n">
-        <v>16.1</v>
+        <v>15.6</v>
       </c>
       <c r="D57" t="n">
-        <v>16.1</v>
+        <v>15.6</v>
       </c>
       <c r="E57" t="n">
-        <v>16.1</v>
+        <v>15.6</v>
       </c>
       <c r="F57" t="n">
-        <v>10</v>
+        <v>6009.5512</v>
       </c>
       <c r="G57" t="n">
-        <v>16.08000000000001</v>
+        <v>-190030.4689138365</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
@@ -2790,28 +2454,28 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>15.9</v>
+        <v>15.6</v>
       </c>
       <c r="C58" t="n">
-        <v>16.1</v>
+        <v>15.6</v>
       </c>
       <c r="D58" t="n">
-        <v>16.1</v>
+        <v>15.6</v>
       </c>
       <c r="E58" t="n">
-        <v>15.9</v>
+        <v>15.6</v>
       </c>
       <c r="F58" t="n">
-        <v>77101.53810000001</v>
+        <v>10000</v>
       </c>
       <c r="G58" t="n">
-        <v>16.07500000000001</v>
+        <v>-190030.4689138365</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
@@ -2826,28 +2490,28 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>16</v>
+        <v>15.6</v>
       </c>
       <c r="C59" t="n">
-        <v>16.1</v>
+        <v>15.6</v>
       </c>
       <c r="D59" t="n">
-        <v>16.1</v>
+        <v>15.6</v>
       </c>
       <c r="E59" t="n">
-        <v>16</v>
+        <v>15.6</v>
       </c>
       <c r="F59" t="n">
-        <v>49596.8612</v>
+        <v>8198.858899999999</v>
       </c>
       <c r="G59" t="n">
-        <v>16.07000000000001</v>
+        <v>-190030.4689138365</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
       </c>
       <c r="I59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
@@ -2862,28 +2526,28 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>16</v>
+        <v>15.6</v>
       </c>
       <c r="C60" t="n">
-        <v>16</v>
+        <v>15.6</v>
       </c>
       <c r="D60" t="n">
-        <v>16</v>
+        <v>15.6</v>
       </c>
       <c r="E60" t="n">
-        <v>15.9</v>
+        <v>15.6</v>
       </c>
       <c r="F60" t="n">
-        <v>80963.3368</v>
+        <v>17569.7791</v>
       </c>
       <c r="G60" t="n">
-        <v>16.065</v>
+        <v>-190030.4689138365</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
@@ -2898,28 +2562,28 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>15.9</v>
+        <v>15.6</v>
       </c>
       <c r="C61" t="n">
-        <v>15.9</v>
+        <v>15.6</v>
       </c>
       <c r="D61" t="n">
-        <v>15.9</v>
+        <v>15.6</v>
       </c>
       <c r="E61" t="n">
-        <v>15.9</v>
+        <v>15.6</v>
       </c>
       <c r="F61" t="n">
-        <v>17.1698</v>
+        <v>16846.7292</v>
       </c>
       <c r="G61" t="n">
-        <v>16.055</v>
+        <v>-190030.4689138365</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
@@ -2934,22 +2598,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>15.8</v>
+        <v>15.6</v>
       </c>
       <c r="C62" t="n">
-        <v>15.8</v>
+        <v>15.6</v>
       </c>
       <c r="D62" t="n">
-        <v>15.8</v>
+        <v>15.6</v>
       </c>
       <c r="E62" t="n">
-        <v>15.8</v>
+        <v>15.6</v>
       </c>
       <c r="F62" t="n">
-        <v>45936.3924</v>
+        <v>1923.0769</v>
       </c>
       <c r="G62" t="n">
-        <v>16.04</v>
+        <v>-190030.4689138365</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2970,22 +2634,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>15.8</v>
+        <v>15.6</v>
       </c>
       <c r="C63" t="n">
-        <v>15.9</v>
+        <v>15.6</v>
       </c>
       <c r="D63" t="n">
-        <v>15.9</v>
+        <v>15.6</v>
       </c>
       <c r="E63" t="n">
-        <v>15.8</v>
+        <v>15.6</v>
       </c>
       <c r="F63" t="n">
-        <v>8385.5065</v>
+        <v>14812.2828</v>
       </c>
       <c r="G63" t="n">
-        <v>16.03</v>
+        <v>-190030.4689138365</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -3006,22 +2670,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>15.9</v>
+        <v>15.6</v>
       </c>
       <c r="C64" t="n">
-        <v>15.8</v>
+        <v>15.6</v>
       </c>
       <c r="D64" t="n">
-        <v>15.9</v>
+        <v>15.6</v>
       </c>
       <c r="E64" t="n">
-        <v>15.8</v>
+        <v>15.6</v>
       </c>
       <c r="F64" t="n">
-        <v>19234.8023</v>
+        <v>121085.153</v>
       </c>
       <c r="G64" t="n">
-        <v>16.025</v>
+        <v>-190030.4689138365</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -3042,22 +2706,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="C65" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="D65" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="E65" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="F65" t="n">
-        <v>10</v>
+        <v>142610.3224</v>
       </c>
       <c r="G65" t="n">
-        <v>16.02</v>
+        <v>-332640.7913138365</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -3078,22 +2742,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>15.9</v>
+        <v>15.5</v>
       </c>
       <c r="C66" t="n">
-        <v>15.8</v>
+        <v>15.6</v>
       </c>
       <c r="D66" t="n">
-        <v>15.9</v>
+        <v>15.6</v>
       </c>
       <c r="E66" t="n">
-        <v>15.8</v>
+        <v>15.5</v>
       </c>
       <c r="F66" t="n">
-        <v>360294.6675</v>
+        <v>30200</v>
       </c>
       <c r="G66" t="n">
-        <v>16.01</v>
+        <v>-302440.7913138365</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -3114,22 +2778,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>15.7</v>
+        <v>15.4</v>
       </c>
       <c r="C67" t="n">
-        <v>15.6</v>
+        <v>15.4</v>
       </c>
       <c r="D67" t="n">
-        <v>15.8</v>
+        <v>15.4</v>
       </c>
       <c r="E67" t="n">
-        <v>15.6</v>
+        <v>15.4</v>
       </c>
       <c r="F67" t="n">
-        <v>259015.3429</v>
+        <v>50095.5629</v>
       </c>
       <c r="G67" t="n">
-        <v>15.995</v>
+        <v>-352536.3542138365</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -3150,31 +2814,35 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>15.6</v>
+        <v>15.4</v>
       </c>
       <c r="C68" t="n">
-        <v>15.6</v>
+        <v>15.4</v>
       </c>
       <c r="D68" t="n">
-        <v>15.6</v>
+        <v>15.4</v>
       </c>
       <c r="E68" t="n">
-        <v>15.6</v>
+        <v>15.4</v>
       </c>
       <c r="F68" t="n">
-        <v>354314.9966</v>
+        <v>3787.176</v>
       </c>
       <c r="G68" t="n">
-        <v>15.97</v>
+        <v>-352536.3542138365</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="K68" t="n">
+        <v>15.4</v>
+      </c>
       <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
         <v>1</v>
@@ -3186,32 +2854,40 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>15.6</v>
+        <v>15.4</v>
       </c>
       <c r="C69" t="n">
-        <v>15.6</v>
+        <v>15.4</v>
       </c>
       <c r="D69" t="n">
-        <v>15.6</v>
+        <v>15.4</v>
       </c>
       <c r="E69" t="n">
-        <v>15.5</v>
+        <v>15.4</v>
       </c>
       <c r="F69" t="n">
-        <v>309945.7305</v>
+        <v>2000</v>
       </c>
       <c r="G69" t="n">
-        <v>15.945</v>
+        <v>-352536.3542138365</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="K69" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -3222,32 +2898,40 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>15.5</v>
+        <v>15.4</v>
       </c>
       <c r="C70" t="n">
-        <v>15.6</v>
+        <v>15.4</v>
       </c>
       <c r="D70" t="n">
-        <v>15.6</v>
+        <v>15.4</v>
       </c>
       <c r="E70" t="n">
-        <v>15.5</v>
+        <v>15.4</v>
       </c>
       <c r="F70" t="n">
-        <v>149633.0276</v>
+        <v>3000</v>
       </c>
       <c r="G70" t="n">
-        <v>15.915</v>
+        <v>-352536.3542138365</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="K70" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -3258,31 +2942,35 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>15.5</v>
+        <v>15.4</v>
       </c>
       <c r="C71" t="n">
-        <v>15.5</v>
+        <v>15.4</v>
       </c>
       <c r="D71" t="n">
-        <v>15.6</v>
+        <v>15.4</v>
       </c>
       <c r="E71" t="n">
-        <v>15.5</v>
+        <v>15.4</v>
       </c>
       <c r="F71" t="n">
-        <v>62546.5506</v>
+        <v>3000</v>
       </c>
       <c r="G71" t="n">
-        <v>15.88</v>
+        <v>-352536.3542138365</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="K71" t="n">
+        <v>15.4</v>
+      </c>
       <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
         <v>1</v>
@@ -3294,32 +2982,40 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>15.6</v>
+        <v>15.4</v>
       </c>
       <c r="C72" t="n">
-        <v>15.6</v>
+        <v>15.4</v>
       </c>
       <c r="D72" t="n">
-        <v>15.6</v>
+        <v>15.4</v>
       </c>
       <c r="E72" t="n">
-        <v>15.6</v>
+        <v>15.4</v>
       </c>
       <c r="F72" t="n">
-        <v>475969.0384</v>
+        <v>13.3</v>
       </c>
       <c r="G72" t="n">
-        <v>15.855</v>
+        <v>-352536.3542138365</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="K72" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -3330,32 +3026,40 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="C73" t="n">
-        <v>15.5</v>
+        <v>15.4</v>
       </c>
       <c r="D73" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="E73" t="n">
-        <v>15.5</v>
+        <v>15.4</v>
       </c>
       <c r="F73" t="n">
-        <v>364808.6676</v>
+        <v>64958.42</v>
       </c>
       <c r="G73" t="n">
-        <v>15.825</v>
+        <v>-352536.3542138365</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="K73" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3366,32 +3070,40 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="C74" t="n">
         <v>15.5</v>
       </c>
       <c r="D74" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="E74" t="n">
         <v>15.5</v>
       </c>
       <c r="F74" t="n">
-        <v>332705.206</v>
+        <v>129.8064</v>
       </c>
       <c r="G74" t="n">
-        <v>15.8</v>
+        <v>-352406.5478138365</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="K74" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3402,32 +3114,40 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>15.5</v>
+        <v>15.4</v>
       </c>
       <c r="C75" t="n">
-        <v>15.5</v>
+        <v>15.4</v>
       </c>
       <c r="D75" t="n">
-        <v>15.5</v>
+        <v>15.4</v>
       </c>
       <c r="E75" t="n">
-        <v>15.5</v>
+        <v>15.4</v>
       </c>
       <c r="F75" t="n">
-        <v>9943</v>
+        <v>19900</v>
       </c>
       <c r="G75" t="n">
-        <v>15.775</v>
+        <v>-372306.5478138365</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="K75" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3438,32 +3158,40 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>15.6</v>
+        <v>15.4</v>
       </c>
       <c r="C76" t="n">
-        <v>15.6</v>
+        <v>15.4</v>
       </c>
       <c r="D76" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="E76" t="n">
-        <v>15.6</v>
+        <v>15.4</v>
       </c>
       <c r="F76" t="n">
-        <v>10053.4807</v>
+        <v>17580</v>
       </c>
       <c r="G76" t="n">
-        <v>15.755</v>
+        <v>-372306.5478138365</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="K76" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3486,20 +3214,28 @@
         <v>15.5</v>
       </c>
       <c r="F77" t="n">
-        <v>11262</v>
+        <v>9000</v>
       </c>
       <c r="G77" t="n">
-        <v>15.725</v>
+        <v>-363306.5478138365</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="K77" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3510,32 +3246,40 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>15.5</v>
+        <v>15.4</v>
       </c>
       <c r="C78" t="n">
-        <v>15.6</v>
+        <v>15.3</v>
       </c>
       <c r="D78" t="n">
-        <v>15.6</v>
+        <v>15.4</v>
       </c>
       <c r="E78" t="n">
-        <v>15.5</v>
+        <v>15.3</v>
       </c>
       <c r="F78" t="n">
-        <v>124.4725</v>
+        <v>50000</v>
       </c>
       <c r="G78" t="n">
-        <v>15.705</v>
+        <v>-413306.5478138365</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="K78" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3546,32 +3290,40 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>15.6</v>
+        <v>15.3</v>
       </c>
       <c r="C79" t="n">
-        <v>15.5</v>
+        <v>15.3</v>
       </c>
       <c r="D79" t="n">
-        <v>15.6</v>
+        <v>15.3</v>
       </c>
       <c r="E79" t="n">
-        <v>15.5</v>
+        <v>15.3</v>
       </c>
       <c r="F79" t="n">
-        <v>17471.3145</v>
+        <v>50455.045</v>
       </c>
       <c r="G79" t="n">
-        <v>15.685</v>
+        <v>-413306.5478138365</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="K79" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3582,32 +3334,40 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>15.5</v>
+        <v>15.3</v>
       </c>
       <c r="C80" t="n">
-        <v>15.5</v>
+        <v>15.3</v>
       </c>
       <c r="D80" t="n">
-        <v>15.5</v>
+        <v>15.3</v>
       </c>
       <c r="E80" t="n">
-        <v>15.5</v>
+        <v>15.3</v>
       </c>
       <c r="F80" t="n">
-        <v>59836</v>
+        <v>18048.6925</v>
       </c>
       <c r="G80" t="n">
-        <v>15.66</v>
+        <v>-413306.5478138365</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="K80" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3618,7 +3378,7 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>15.5</v>
+        <v>15.4</v>
       </c>
       <c r="C81" t="n">
         <v>15.6</v>
@@ -3627,23 +3387,31 @@
         <v>15.6</v>
       </c>
       <c r="E81" t="n">
-        <v>15.5</v>
+        <v>15.4</v>
       </c>
       <c r="F81" t="n">
-        <v>11</v>
+        <v>103765</v>
       </c>
       <c r="G81" t="n">
-        <v>15.64</v>
+        <v>-309541.5478138365</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="K81" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3657,29 +3425,37 @@
         <v>15.6</v>
       </c>
       <c r="C82" t="n">
-        <v>15.7</v>
+        <v>15.6</v>
       </c>
       <c r="D82" t="n">
-        <v>15.7</v>
+        <v>15.6</v>
       </c>
       <c r="E82" t="n">
         <v>15.6</v>
       </c>
       <c r="F82" t="n">
-        <v>606311</v>
+        <v>4723.5256</v>
       </c>
       <c r="G82" t="n">
-        <v>15.63</v>
+        <v>-309541.5478138365</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="K82" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3690,7 +3466,7 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>15.7</v>
+        <v>15.6</v>
       </c>
       <c r="C83" t="n">
         <v>15.7</v>
@@ -3699,23 +3475,31 @@
         <v>15.7</v>
       </c>
       <c r="E83" t="n">
-        <v>15.7</v>
+        <v>15.6</v>
       </c>
       <c r="F83" t="n">
-        <v>23030.1592</v>
+        <v>106213.423</v>
       </c>
       <c r="G83" t="n">
-        <v>15.625</v>
+        <v>-203328.1248138365</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="K83" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3726,22 +3510,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="C84" t="n">
         <v>15.7</v>
       </c>
       <c r="D84" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="E84" t="n">
         <v>15.7</v>
       </c>
       <c r="F84" t="n">
-        <v>23</v>
+        <v>76460.67260000001</v>
       </c>
       <c r="G84" t="n">
-        <v>15.615</v>
+        <v>-203328.1248138365</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3750,8 +3534,14 @@
         <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3762,22 +3552,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="C85" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="D85" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="E85" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="F85" t="n">
-        <v>28600</v>
+        <v>12</v>
       </c>
       <c r="G85" t="n">
-        <v>15.6</v>
+        <v>-203316.1248138365</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3786,8 +3576,14 @@
         <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3798,22 +3594,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="C86" t="n">
-        <v>15.7</v>
+        <v>16</v>
       </c>
       <c r="D86" t="n">
-        <v>15.7</v>
+        <v>16</v>
       </c>
       <c r="E86" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="F86" t="n">
-        <v>27</v>
+        <v>674936.5318999999</v>
       </c>
       <c r="G86" t="n">
-        <v>15.59</v>
+        <v>471620.4070861634</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3822,8 +3618,14 @@
         <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3834,22 +3636,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>15.6</v>
+        <v>16</v>
       </c>
       <c r="C87" t="n">
-        <v>15.7</v>
+        <v>16</v>
       </c>
       <c r="D87" t="n">
-        <v>15.7</v>
+        <v>16</v>
       </c>
       <c r="E87" t="n">
-        <v>15.6</v>
+        <v>16</v>
       </c>
       <c r="F87" t="n">
-        <v>6162</v>
+        <v>17000</v>
       </c>
       <c r="G87" t="n">
-        <v>15.585</v>
+        <v>471620.4070861634</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3858,8 +3660,14 @@
         <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3870,22 +3678,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>15.7</v>
+        <v>16</v>
       </c>
       <c r="C88" t="n">
-        <v>15.7</v>
+        <v>16</v>
       </c>
       <c r="D88" t="n">
-        <v>15.7</v>
+        <v>16</v>
       </c>
       <c r="E88" t="n">
-        <v>15.6</v>
+        <v>16</v>
       </c>
       <c r="F88" t="n">
-        <v>22.973</v>
+        <v>375348.2181</v>
       </c>
       <c r="G88" t="n">
-        <v>15.59</v>
+        <v>471620.4070861634</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3894,8 +3702,14 @@
         <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3906,22 +3720,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="C89" t="n">
-        <v>15.6</v>
+        <v>16.3</v>
       </c>
       <c r="D89" t="n">
-        <v>15.6</v>
+        <v>16.3</v>
       </c>
       <c r="E89" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="F89" t="n">
-        <v>214.642</v>
+        <v>391432.9816</v>
       </c>
       <c r="G89" t="n">
-        <v>15.585</v>
+        <v>863053.3886861634</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3930,8 +3744,14 @@
         <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3942,22 +3762,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>15.7</v>
+        <v>16.4</v>
       </c>
       <c r="C90" t="n">
-        <v>15.7</v>
+        <v>16.8</v>
       </c>
       <c r="D90" t="n">
-        <v>15.7</v>
+        <v>17</v>
       </c>
       <c r="E90" t="n">
-        <v>15.6</v>
+        <v>16.4</v>
       </c>
       <c r="F90" t="n">
-        <v>32234.9468</v>
+        <v>2028317.3298</v>
       </c>
       <c r="G90" t="n">
-        <v>15.595</v>
+        <v>2891370.718486163</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3966,8 +3786,14 @@
         <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3978,22 +3804,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>15.6</v>
+        <v>16.8</v>
       </c>
       <c r="C91" t="n">
-        <v>15.7</v>
+        <v>16.2</v>
       </c>
       <c r="D91" t="n">
-        <v>15.7</v>
+        <v>17</v>
       </c>
       <c r="E91" t="n">
-        <v>15.6</v>
+        <v>15.8</v>
       </c>
       <c r="F91" t="n">
-        <v>30010</v>
+        <v>539385.0269000001</v>
       </c>
       <c r="G91" t="n">
-        <v>15.6</v>
+        <v>2351985.691586163</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -4002,8 +3828,14 @@
         <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -4014,22 +3846,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>15.7</v>
+        <v>15.9</v>
       </c>
       <c r="C92" t="n">
-        <v>15.7</v>
+        <v>16</v>
       </c>
       <c r="D92" t="n">
-        <v>15.7</v>
+        <v>16</v>
       </c>
       <c r="E92" t="n">
-        <v>15.7</v>
+        <v>15.9</v>
       </c>
       <c r="F92" t="n">
-        <v>88992.6433</v>
+        <v>171770.1687</v>
       </c>
       <c r="G92" t="n">
-        <v>15.605</v>
+        <v>2180215.522886164</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -4038,8 +3870,14 @@
         <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -4050,22 +3888,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>15.7</v>
+        <v>16.1</v>
       </c>
       <c r="C93" t="n">
-        <v>15.7</v>
+        <v>16.1</v>
       </c>
       <c r="D93" t="n">
-        <v>15.7</v>
+        <v>16.1</v>
       </c>
       <c r="E93" t="n">
-        <v>15.7</v>
+        <v>16.1</v>
       </c>
       <c r="F93" t="n">
-        <v>19500</v>
+        <v>3538</v>
       </c>
       <c r="G93" t="n">
-        <v>15.61</v>
+        <v>2183753.522886164</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -4074,8 +3912,14 @@
         <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -4086,22 +3930,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>15.5</v>
+        <v>16.3</v>
       </c>
       <c r="C94" t="n">
-        <v>15.7</v>
+        <v>16.3</v>
       </c>
       <c r="D94" t="n">
-        <v>15.7</v>
+        <v>16.3</v>
       </c>
       <c r="E94" t="n">
-        <v>15.5</v>
+        <v>16.3</v>
       </c>
       <c r="F94" t="n">
-        <v>330674.5283</v>
+        <v>10</v>
       </c>
       <c r="G94" t="n">
-        <v>15.605</v>
+        <v>2183763.522886164</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -4110,8 +3954,14 @@
         <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -4122,22 +3972,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>15.7</v>
+        <v>16.1</v>
       </c>
       <c r="C95" t="n">
-        <v>15.7</v>
+        <v>16.1</v>
       </c>
       <c r="D95" t="n">
-        <v>15.7</v>
+        <v>16.1</v>
       </c>
       <c r="E95" t="n">
-        <v>15.7</v>
+        <v>16.1</v>
       </c>
       <c r="F95" t="n">
-        <v>11</v>
+        <v>8026.519</v>
       </c>
       <c r="G95" t="n">
-        <v>15.615</v>
+        <v>2175737.003886164</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -4146,8 +3996,14 @@
         <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -4158,22 +4014,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>15.7</v>
+        <v>16.1</v>
       </c>
       <c r="C96" t="n">
-        <v>15.7</v>
+        <v>16</v>
       </c>
       <c r="D96" t="n">
-        <v>15.7</v>
+        <v>16.1</v>
       </c>
       <c r="E96" t="n">
-        <v>15.7</v>
+        <v>16</v>
       </c>
       <c r="F96" t="n">
-        <v>1398.6624</v>
+        <v>29871.9021</v>
       </c>
       <c r="G96" t="n">
-        <v>15.62</v>
+        <v>2145865.101786164</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -4182,8 +4038,14 @@
         <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -4194,22 +4056,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>15.6</v>
+        <v>15.9</v>
       </c>
       <c r="C97" t="n">
-        <v>15.6</v>
+        <v>15.9</v>
       </c>
       <c r="D97" t="n">
-        <v>15.6</v>
+        <v>15.9</v>
       </c>
       <c r="E97" t="n">
-        <v>15.6</v>
+        <v>15.9</v>
       </c>
       <c r="F97" t="n">
-        <v>19935.0022</v>
+        <v>131787.1553</v>
       </c>
       <c r="G97" t="n">
-        <v>15.625</v>
+        <v>2014077.946486164</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -4218,8 +4080,14 @@
         <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -4230,22 +4098,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>15.6</v>
+        <v>15.8</v>
       </c>
       <c r="C98" t="n">
-        <v>15.6</v>
+        <v>15.8</v>
       </c>
       <c r="D98" t="n">
-        <v>15.6</v>
+        <v>15.9</v>
       </c>
       <c r="E98" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="F98" t="n">
-        <v>12876.6666</v>
+        <v>221906.5324</v>
       </c>
       <c r="G98" t="n">
-        <v>15.63</v>
+        <v>1792171.414086164</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4254,8 +4122,14 @@
         <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -4266,22 +4140,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>15.5</v>
+        <v>15.7</v>
       </c>
       <c r="C99" t="n">
-        <v>15.5</v>
+        <v>15.7</v>
       </c>
       <c r="D99" t="n">
-        <v>15.5</v>
+        <v>15.7</v>
       </c>
       <c r="E99" t="n">
-        <v>15.5</v>
+        <v>15.7</v>
       </c>
       <c r="F99" t="n">
-        <v>35473.0942</v>
+        <v>106354.1743</v>
       </c>
       <c r="G99" t="n">
-        <v>15.625</v>
+        <v>1685817.239786164</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4290,8 +4164,14 @@
         <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -4302,22 +4182,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>15.5</v>
+        <v>15.7</v>
       </c>
       <c r="C100" t="n">
-        <v>15.5</v>
+        <v>15.7</v>
       </c>
       <c r="D100" t="n">
-        <v>15.5</v>
+        <v>15.7</v>
       </c>
       <c r="E100" t="n">
-        <v>15.5</v>
+        <v>15.7</v>
       </c>
       <c r="F100" t="n">
-        <v>17716.3775</v>
+        <v>38000</v>
       </c>
       <c r="G100" t="n">
-        <v>15.625</v>
+        <v>1685817.239786164</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4326,8 +4206,14 @@
         <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4338,22 +4224,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>15.6</v>
+        <v>15.8</v>
       </c>
       <c r="C101" t="n">
-        <v>15.5</v>
+        <v>15.8</v>
       </c>
       <c r="D101" t="n">
-        <v>15.6</v>
+        <v>15.8</v>
       </c>
       <c r="E101" t="n">
-        <v>15.5</v>
+        <v>15.8</v>
       </c>
       <c r="F101" t="n">
-        <v>8631.6217</v>
+        <v>88801.72629999999</v>
       </c>
       <c r="G101" t="n">
-        <v>15.63</v>
+        <v>1774618.966086164</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4362,8 +4248,14 @@
         <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4374,22 +4266,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>15.6</v>
+        <v>15.8</v>
       </c>
       <c r="C102" t="n">
-        <v>15.6</v>
+        <v>15.9</v>
       </c>
       <c r="D102" t="n">
-        <v>15.6</v>
+        <v>15.9</v>
       </c>
       <c r="E102" t="n">
-        <v>15.6</v>
+        <v>15.8</v>
       </c>
       <c r="F102" t="n">
-        <v>24</v>
+        <v>530</v>
       </c>
       <c r="G102" t="n">
-        <v>15.63</v>
+        <v>1775148.966086164</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4398,8 +4290,14 @@
         <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4410,22 +4308,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>15.6</v>
+        <v>15.9</v>
       </c>
       <c r="C103" t="n">
-        <v>15.6</v>
+        <v>15.9</v>
       </c>
       <c r="D103" t="n">
-        <v>15.6</v>
+        <v>15.9</v>
       </c>
       <c r="E103" t="n">
-        <v>15.6</v>
+        <v>15.9</v>
       </c>
       <c r="F103" t="n">
-        <v>22342.2962</v>
+        <v>206225.7099</v>
       </c>
       <c r="G103" t="n">
-        <v>15.625</v>
+        <v>1775148.966086164</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4434,8 +4332,14 @@
         <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4446,22 +4350,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>15.6</v>
+        <v>16</v>
       </c>
       <c r="C104" t="n">
-        <v>15.6</v>
+        <v>16.1</v>
       </c>
       <c r="D104" t="n">
-        <v>15.6</v>
+        <v>16.1</v>
       </c>
       <c r="E104" t="n">
-        <v>15.6</v>
+        <v>16</v>
       </c>
       <c r="F104" t="n">
-        <v>17920.7166</v>
+        <v>109254.9195</v>
       </c>
       <c r="G104" t="n">
-        <v>15.62</v>
+        <v>1884403.885586164</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4470,8 +4374,14 @@
         <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4482,22 +4392,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>15.5</v>
+        <v>16.1</v>
       </c>
       <c r="C105" t="n">
-        <v>15.5</v>
+        <v>16.1</v>
       </c>
       <c r="D105" t="n">
-        <v>15.5</v>
+        <v>16.1</v>
       </c>
       <c r="E105" t="n">
-        <v>15.5</v>
+        <v>16.1</v>
       </c>
       <c r="F105" t="n">
-        <v>8690.522199999999</v>
+        <v>5110.4968</v>
       </c>
       <c r="G105" t="n">
-        <v>15.61</v>
+        <v>1884403.885586164</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4506,8 +4416,14 @@
         <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4518,22 +4434,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>15.6</v>
+        <v>16</v>
       </c>
       <c r="C106" t="n">
-        <v>15.6</v>
+        <v>16.1</v>
       </c>
       <c r="D106" t="n">
-        <v>15.6</v>
+        <v>16.1</v>
       </c>
       <c r="E106" t="n">
-        <v>15.6</v>
+        <v>16</v>
       </c>
       <c r="F106" t="n">
-        <v>22</v>
+        <v>21322.6898</v>
       </c>
       <c r="G106" t="n">
-        <v>15.605</v>
+        <v>1884403.885586164</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4542,8 +4458,14 @@
         <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4554,22 +4476,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>15.6</v>
+        <v>15.9</v>
       </c>
       <c r="C107" t="n">
-        <v>15.6</v>
+        <v>15.9</v>
       </c>
       <c r="D107" t="n">
-        <v>15.6</v>
+        <v>16</v>
       </c>
       <c r="E107" t="n">
-        <v>15.6</v>
+        <v>15.9</v>
       </c>
       <c r="F107" t="n">
-        <v>4785.746</v>
+        <v>116772.1318</v>
       </c>
       <c r="G107" t="n">
-        <v>15.605</v>
+        <v>1767631.753786164</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4578,8 +4500,14 @@
         <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4590,22 +4518,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>15.5</v>
+        <v>15.9</v>
       </c>
       <c r="C108" t="n">
-        <v>15.6</v>
+        <v>16</v>
       </c>
       <c r="D108" t="n">
-        <v>15.6</v>
+        <v>16</v>
       </c>
       <c r="E108" t="n">
-        <v>15.5</v>
+        <v>15.8</v>
       </c>
       <c r="F108" t="n">
-        <v>11283.4725</v>
+        <v>356884.3608</v>
       </c>
       <c r="G108" t="n">
-        <v>15.595</v>
+        <v>2124516.114586164</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4614,8 +4542,14 @@
         <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4626,22 +4560,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>15.6</v>
+        <v>16</v>
       </c>
       <c r="C109" t="n">
-        <v>15.6</v>
+        <v>16.1</v>
       </c>
       <c r="D109" t="n">
-        <v>15.6</v>
+        <v>16.1</v>
       </c>
       <c r="E109" t="n">
-        <v>15.6</v>
+        <v>16</v>
       </c>
       <c r="F109" t="n">
-        <v>8613.205099999999</v>
+        <v>253200</v>
       </c>
       <c r="G109" t="n">
-        <v>15.6</v>
+        <v>2377716.114586164</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4650,8 +4584,14 @@
         <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4662,22 +4602,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>15.7</v>
+        <v>16.1</v>
       </c>
       <c r="C110" t="n">
-        <v>15.7</v>
+        <v>16.1</v>
       </c>
       <c r="D110" t="n">
-        <v>15.7</v>
+        <v>16.1</v>
       </c>
       <c r="E110" t="n">
-        <v>15.7</v>
+        <v>15.9</v>
       </c>
       <c r="F110" t="n">
-        <v>10</v>
+        <v>80223.6024</v>
       </c>
       <c r="G110" t="n">
-        <v>15.6</v>
+        <v>2377716.114586164</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4686,8 +4626,14 @@
         <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4698,22 +4644,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>15.5</v>
+        <v>16.1</v>
       </c>
       <c r="C111" t="n">
-        <v>15.5</v>
+        <v>16.1</v>
       </c>
       <c r="D111" t="n">
-        <v>15.5</v>
+        <v>16.1</v>
       </c>
       <c r="E111" t="n">
-        <v>15.5</v>
+        <v>16.1</v>
       </c>
       <c r="F111" t="n">
-        <v>55700.1748</v>
+        <v>41517.2049</v>
       </c>
       <c r="G111" t="n">
-        <v>15.595</v>
+        <v>2377716.114586164</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4722,8 +4668,14 @@
         <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4734,22 +4686,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>15.5</v>
+        <v>16.1</v>
       </c>
       <c r="C112" t="n">
-        <v>15.6</v>
+        <v>16.1</v>
       </c>
       <c r="D112" t="n">
-        <v>15.6</v>
+        <v>16.1</v>
       </c>
       <c r="E112" t="n">
-        <v>15.5</v>
+        <v>16.1</v>
       </c>
       <c r="F112" t="n">
-        <v>8602.6721</v>
+        <v>648.944</v>
       </c>
       <c r="G112" t="n">
-        <v>15.585</v>
+        <v>2377716.114586164</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4758,8 +4710,14 @@
         <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4770,22 +4728,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>15.6</v>
+        <v>16.1</v>
       </c>
       <c r="C113" t="n">
-        <v>15.7</v>
+        <v>16.1</v>
       </c>
       <c r="D113" t="n">
-        <v>15.7</v>
+        <v>16.1</v>
       </c>
       <c r="E113" t="n">
-        <v>15.6</v>
+        <v>16.1</v>
       </c>
       <c r="F113" t="n">
-        <v>5793.9968</v>
+        <v>7763.9751</v>
       </c>
       <c r="G113" t="n">
-        <v>15.58000000000001</v>
+        <v>2377716.114586164</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4794,8 +4752,14 @@
         <v>0</v>
       </c>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4806,34 +4770,40 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>15.6</v>
+        <v>16</v>
       </c>
       <c r="C114" t="n">
-        <v>15.6</v>
+        <v>16</v>
       </c>
       <c r="D114" t="n">
-        <v>15.6</v>
+        <v>16</v>
       </c>
       <c r="E114" t="n">
-        <v>15.6</v>
+        <v>16</v>
       </c>
       <c r="F114" t="n">
-        <v>40000</v>
+        <v>2226.5625</v>
       </c>
       <c r="G114" t="n">
-        <v>15.58500000000001</v>
+        <v>2375489.552086164</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
       </c>
       <c r="I114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="M114" t="n">
-        <v>1</v>
+        <v>1.033961038961039</v>
       </c>
       <c r="N114" t="inlineStr"/>
     </row>
@@ -4842,22 +4812,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>15.7</v>
+        <v>16</v>
       </c>
       <c r="C115" t="n">
-        <v>15.7</v>
+        <v>16</v>
       </c>
       <c r="D115" t="n">
-        <v>15.7</v>
+        <v>16</v>
       </c>
       <c r="E115" t="n">
-        <v>15.7</v>
+        <v>16</v>
       </c>
       <c r="F115" t="n">
-        <v>10</v>
+        <v>7947.9433</v>
       </c>
       <c r="G115" t="n">
-        <v>15.58500000000001</v>
+        <v>2375489.552086164</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4878,22 +4848,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>15.6</v>
+        <v>16.1</v>
       </c>
       <c r="C116" t="n">
-        <v>15.6</v>
+        <v>16.1</v>
       </c>
       <c r="D116" t="n">
-        <v>15.6</v>
+        <v>16.1</v>
       </c>
       <c r="E116" t="n">
-        <v>15.6</v>
+        <v>16.1</v>
       </c>
       <c r="F116" t="n">
-        <v>3450.0892</v>
+        <v>6638.1987</v>
       </c>
       <c r="G116" t="n">
-        <v>15.58000000000001</v>
+        <v>2382127.750786164</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4914,22 +4884,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>15.6</v>
+        <v>16.1</v>
       </c>
       <c r="C117" t="n">
-        <v>15.6</v>
+        <v>16.2</v>
       </c>
       <c r="D117" t="n">
-        <v>15.6</v>
+        <v>16.2</v>
       </c>
       <c r="E117" t="n">
-        <v>15.6</v>
+        <v>16.1</v>
       </c>
       <c r="F117" t="n">
-        <v>6378.2051</v>
+        <v>40610</v>
       </c>
       <c r="G117" t="n">
-        <v>15.58000000000001</v>
+        <v>2422737.750786164</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4950,28 +4920,28 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>15.6</v>
+        <v>16</v>
       </c>
       <c r="C118" t="n">
-        <v>15.6</v>
+        <v>15.9</v>
       </c>
       <c r="D118" t="n">
-        <v>15.6</v>
+        <v>16</v>
       </c>
       <c r="E118" t="n">
-        <v>15.6</v>
+        <v>15.9</v>
       </c>
       <c r="F118" t="n">
-        <v>3360.7057</v>
+        <v>50088.0684</v>
       </c>
       <c r="G118" t="n">
-        <v>15.58000000000001</v>
+        <v>2372649.682386164</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
       </c>
       <c r="I118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
@@ -4986,28 +4956,28 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>15.6</v>
+        <v>16.1</v>
       </c>
       <c r="C119" t="n">
-        <v>15.6</v>
+        <v>16.1</v>
       </c>
       <c r="D119" t="n">
-        <v>15.6</v>
+        <v>16.1</v>
       </c>
       <c r="E119" t="n">
-        <v>15.6</v>
+        <v>16.1</v>
       </c>
       <c r="F119" t="n">
-        <v>3017.4994</v>
+        <v>10</v>
       </c>
       <c r="G119" t="n">
-        <v>15.58500000000001</v>
+        <v>2372659.682386164</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
       </c>
       <c r="I119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
@@ -5022,28 +4992,28 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>15.6</v>
+        <v>16.1</v>
       </c>
       <c r="C120" t="n">
-        <v>15.6</v>
+        <v>16.1</v>
       </c>
       <c r="D120" t="n">
-        <v>15.6</v>
+        <v>16.1</v>
       </c>
       <c r="E120" t="n">
-        <v>15.6</v>
+        <v>16.1</v>
       </c>
       <c r="F120" t="n">
-        <v>6982.5006</v>
+        <v>3838.6956</v>
       </c>
       <c r="G120" t="n">
-        <v>15.59000000000001</v>
+        <v>2372659.682386164</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
       </c>
       <c r="I120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
@@ -5058,28 +5028,28 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>15.6</v>
+        <v>16.1</v>
       </c>
       <c r="C121" t="n">
-        <v>15.6</v>
+        <v>16.1</v>
       </c>
       <c r="D121" t="n">
-        <v>15.6</v>
+        <v>16.1</v>
       </c>
       <c r="E121" t="n">
-        <v>15.6</v>
+        <v>16.1</v>
       </c>
       <c r="F121" t="n">
-        <v>29200</v>
+        <v>41390.6926</v>
       </c>
       <c r="G121" t="n">
-        <v>15.59000000000001</v>
+        <v>2372659.682386164</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
       </c>
       <c r="I121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
@@ -5094,28 +5064,28 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>15.7</v>
+        <v>16.2</v>
       </c>
       <c r="C122" t="n">
-        <v>15.7</v>
+        <v>16.2</v>
       </c>
       <c r="D122" t="n">
-        <v>15.7</v>
+        <v>16.2</v>
       </c>
       <c r="E122" t="n">
-        <v>15.7</v>
+        <v>16.2</v>
       </c>
       <c r="F122" t="n">
-        <v>36</v>
+        <v>30.8024</v>
       </c>
       <c r="G122" t="n">
-        <v>15.59500000000001</v>
+        <v>2372690.484786164</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
       </c>
       <c r="I122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
@@ -5130,28 +5100,28 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>15.6</v>
+        <v>16.1</v>
       </c>
       <c r="C123" t="n">
-        <v>15.6</v>
+        <v>16</v>
       </c>
       <c r="D123" t="n">
-        <v>15.6</v>
+        <v>16.1</v>
       </c>
       <c r="E123" t="n">
-        <v>15.6</v>
+        <v>16</v>
       </c>
       <c r="F123" t="n">
-        <v>1000</v>
+        <v>12768.348</v>
       </c>
       <c r="G123" t="n">
-        <v>15.59500000000001</v>
+        <v>2359922.136786163</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
       </c>
       <c r="I123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
@@ -5166,28 +5136,28 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>15.6</v>
+        <v>16.2</v>
       </c>
       <c r="C124" t="n">
-        <v>15.6</v>
+        <v>16</v>
       </c>
       <c r="D124" t="n">
-        <v>15.6</v>
+        <v>16.2</v>
       </c>
       <c r="E124" t="n">
-        <v>15.6</v>
+        <v>16</v>
       </c>
       <c r="F124" t="n">
-        <v>12820.5128</v>
+        <v>2740.923</v>
       </c>
       <c r="G124" t="n">
-        <v>15.59500000000001</v>
+        <v>2359922.136786163</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
       </c>
       <c r="I124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
@@ -5202,28 +5172,28 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>15.6</v>
+        <v>16.1</v>
       </c>
       <c r="C125" t="n">
-        <v>15.6</v>
+        <v>16</v>
       </c>
       <c r="D125" t="n">
-        <v>15.6</v>
+        <v>16.1</v>
       </c>
       <c r="E125" t="n">
-        <v>15.6</v>
+        <v>16</v>
       </c>
       <c r="F125" t="n">
-        <v>5641.1863</v>
+        <v>30210</v>
       </c>
       <c r="G125" t="n">
-        <v>15.60000000000001</v>
+        <v>2359922.136786163</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
       </c>
       <c r="I125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
@@ -5238,28 +5208,28 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>15.6</v>
+        <v>16</v>
       </c>
       <c r="C126" t="n">
-        <v>15.6</v>
+        <v>16.1</v>
       </c>
       <c r="D126" t="n">
-        <v>15.6</v>
+        <v>16.1</v>
       </c>
       <c r="E126" t="n">
-        <v>15.6</v>
+        <v>15.9</v>
       </c>
       <c r="F126" t="n">
-        <v>21897.136</v>
+        <v>40010</v>
       </c>
       <c r="G126" t="n">
-        <v>15.60000000000001</v>
+        <v>2399932.136786163</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
       </c>
       <c r="I126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
@@ -5274,28 +5244,28 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>15.6</v>
+        <v>16</v>
       </c>
       <c r="C127" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="D127" t="n">
-        <v>15.6</v>
+        <v>16</v>
       </c>
       <c r="E127" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="F127" t="n">
-        <v>4645.587</v>
+        <v>2251.128</v>
       </c>
       <c r="G127" t="n">
-        <v>15.60000000000001</v>
+        <v>2397681.008786163</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
       </c>
       <c r="I127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
@@ -5310,28 +5280,28 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>15.5</v>
+        <v>16.1</v>
       </c>
       <c r="C128" t="n">
-        <v>15.5</v>
+        <v>16.1</v>
       </c>
       <c r="D128" t="n">
-        <v>15.5</v>
+        <v>16.1</v>
       </c>
       <c r="E128" t="n">
-        <v>15.5</v>
+        <v>16.1</v>
       </c>
       <c r="F128" t="n">
-        <v>3071.476</v>
+        <v>10</v>
       </c>
       <c r="G128" t="n">
-        <v>15.60000000000001</v>
+        <v>2397691.008786163</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
       </c>
       <c r="I128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
@@ -5346,22 +5316,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>15.5</v>
+        <v>15.9</v>
       </c>
       <c r="C129" t="n">
-        <v>15.6</v>
+        <v>16.1</v>
       </c>
       <c r="D129" t="n">
-        <v>15.6</v>
+        <v>16.1</v>
       </c>
       <c r="E129" t="n">
-        <v>15.5</v>
+        <v>15.9</v>
       </c>
       <c r="F129" t="n">
-        <v>2264.817</v>
+        <v>77101.53810000001</v>
       </c>
       <c r="G129" t="n">
-        <v>15.59500000000001</v>
+        <v>2397691.008786163</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -5382,22 +5352,22 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="C130" t="n">
-        <v>15.6</v>
+        <v>16.1</v>
       </c>
       <c r="D130" t="n">
-        <v>15.6</v>
+        <v>16.1</v>
       </c>
       <c r="E130" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="F130" t="n">
-        <v>738.7746</v>
+        <v>49596.8612</v>
       </c>
       <c r="G130" t="n">
-        <v>15.58500000000001</v>
+        <v>2397691.008786163</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5418,28 +5388,28 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>15.6</v>
+        <v>16</v>
       </c>
       <c r="C131" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="D131" t="n">
-        <v>15.6</v>
+        <v>16</v>
       </c>
       <c r="E131" t="n">
-        <v>15.5</v>
+        <v>15.9</v>
       </c>
       <c r="F131" t="n">
-        <v>54924.7622</v>
+        <v>80963.3368</v>
       </c>
       <c r="G131" t="n">
-        <v>15.59000000000001</v>
+        <v>2316727.671986163</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
       </c>
       <c r="I131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
@@ -5454,22 +5424,22 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>15.5</v>
+        <v>15.9</v>
       </c>
       <c r="C132" t="n">
-        <v>15.5</v>
+        <v>15.9</v>
       </c>
       <c r="D132" t="n">
-        <v>15.5</v>
+        <v>15.9</v>
       </c>
       <c r="E132" t="n">
-        <v>15.5</v>
+        <v>15.9</v>
       </c>
       <c r="F132" t="n">
-        <v>31130.739</v>
+        <v>17.1698</v>
       </c>
       <c r="G132" t="n">
-        <v>15.59000000000001</v>
+        <v>2316710.502186163</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5490,22 +5460,22 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>15.5</v>
+        <v>15.8</v>
       </c>
       <c r="C133" t="n">
-        <v>15.5</v>
+        <v>15.8</v>
       </c>
       <c r="D133" t="n">
-        <v>15.5</v>
+        <v>15.8</v>
       </c>
       <c r="E133" t="n">
-        <v>15.5</v>
+        <v>15.8</v>
       </c>
       <c r="F133" t="n">
-        <v>7274.502</v>
+        <v>45936.3924</v>
       </c>
       <c r="G133" t="n">
-        <v>15.58500000000001</v>
+        <v>2270774.109786164</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5526,22 +5496,22 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>15.6</v>
+        <v>15.8</v>
       </c>
       <c r="C134" t="n">
-        <v>15.6</v>
+        <v>15.9</v>
       </c>
       <c r="D134" t="n">
-        <v>15.6</v>
+        <v>15.9</v>
       </c>
       <c r="E134" t="n">
-        <v>15.6</v>
+        <v>15.8</v>
       </c>
       <c r="F134" t="n">
-        <v>10</v>
+        <v>8385.5065</v>
       </c>
       <c r="G134" t="n">
-        <v>15.58500000000001</v>
+        <v>2279159.616286164</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5562,22 +5532,22 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>15.6</v>
+        <v>15.9</v>
       </c>
       <c r="C135" t="n">
-        <v>15.6</v>
+        <v>15.8</v>
       </c>
       <c r="D135" t="n">
-        <v>15.6</v>
+        <v>15.9</v>
       </c>
       <c r="E135" t="n">
-        <v>15.6</v>
+        <v>15.8</v>
       </c>
       <c r="F135" t="n">
-        <v>1623.2051</v>
+        <v>19234.8023</v>
       </c>
       <c r="G135" t="n">
-        <v>15.58000000000001</v>
+        <v>2259924.813986164</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5598,22 +5568,22 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>15.6</v>
+        <v>16</v>
       </c>
       <c r="C136" t="n">
-        <v>15.6</v>
+        <v>16</v>
       </c>
       <c r="D136" t="n">
-        <v>15.6</v>
+        <v>16</v>
       </c>
       <c r="E136" t="n">
-        <v>15.6</v>
+        <v>16</v>
       </c>
       <c r="F136" t="n">
-        <v>3000</v>
+        <v>10</v>
       </c>
       <c r="G136" t="n">
-        <v>15.58000000000001</v>
+        <v>2259934.813986164</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5634,22 +5604,22 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>15.5</v>
+        <v>15.9</v>
       </c>
       <c r="C137" t="n">
-        <v>15.5</v>
+        <v>15.8</v>
       </c>
       <c r="D137" t="n">
-        <v>15.5</v>
+        <v>15.9</v>
       </c>
       <c r="E137" t="n">
-        <v>15.5</v>
+        <v>15.8</v>
       </c>
       <c r="F137" t="n">
-        <v>40263.0128</v>
+        <v>360294.6675</v>
       </c>
       <c r="G137" t="n">
-        <v>15.57500000000001</v>
+        <v>1899640.146486164</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5670,22 +5640,22 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>15.5</v>
+        <v>15.7</v>
       </c>
       <c r="C138" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="D138" t="n">
-        <v>15.5</v>
+        <v>15.8</v>
       </c>
       <c r="E138" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="F138" t="n">
-        <v>26600</v>
+        <v>259015.3429</v>
       </c>
       <c r="G138" t="n">
-        <v>15.57000000000001</v>
+        <v>1640624.803586164</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5706,22 +5676,22 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="C139" t="n">
-        <v>15.4</v>
+        <v>15.6</v>
       </c>
       <c r="D139" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="E139" t="n">
-        <v>15.4</v>
+        <v>15.6</v>
       </c>
       <c r="F139" t="n">
-        <v>55433.074</v>
+        <v>354314.9966</v>
       </c>
       <c r="G139" t="n">
-        <v>15.56500000000001</v>
+        <v>1640624.803586164</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5742,22 +5712,22 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>15.4</v>
+        <v>15.6</v>
       </c>
       <c r="C140" t="n">
-        <v>15.4</v>
+        <v>15.6</v>
       </c>
       <c r="D140" t="n">
-        <v>15.4</v>
+        <v>15.6</v>
       </c>
       <c r="E140" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="F140" t="n">
-        <v>73811.22870000001</v>
+        <v>309945.7305</v>
       </c>
       <c r="G140" t="n">
-        <v>15.55500000000001</v>
+        <v>1640624.803586164</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5778,22 +5748,22 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>15.3</v>
+        <v>15.5</v>
       </c>
       <c r="C141" t="n">
-        <v>15.3</v>
+        <v>15.6</v>
       </c>
       <c r="D141" t="n">
-        <v>15.3</v>
+        <v>15.6</v>
       </c>
       <c r="E141" t="n">
-        <v>15.3</v>
+        <v>15.5</v>
       </c>
       <c r="F141" t="n">
-        <v>4711.7168</v>
+        <v>149633.0276</v>
       </c>
       <c r="G141" t="n">
-        <v>15.54000000000001</v>
+        <v>1640624.803586164</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5814,22 +5784,22 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>15.3</v>
+        <v>15.5</v>
       </c>
       <c r="C142" t="n">
-        <v>15.3</v>
+        <v>15.5</v>
       </c>
       <c r="D142" t="n">
-        <v>15.3</v>
+        <v>15.6</v>
       </c>
       <c r="E142" t="n">
-        <v>15.3</v>
+        <v>15.5</v>
       </c>
       <c r="F142" t="n">
-        <v>65922.1489</v>
+        <v>62546.5506</v>
       </c>
       <c r="G142" t="n">
-        <v>15.52000000000001</v>
+        <v>1578078.252986164</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5850,22 +5820,22 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>15.4</v>
+        <v>15.6</v>
       </c>
       <c r="C143" t="n">
-        <v>15.4</v>
+        <v>15.6</v>
       </c>
       <c r="D143" t="n">
-        <v>15.4</v>
+        <v>15.6</v>
       </c>
       <c r="E143" t="n">
-        <v>15.4</v>
+        <v>15.6</v>
       </c>
       <c r="F143" t="n">
-        <v>65330.3243</v>
+        <v>475969.0384</v>
       </c>
       <c r="G143" t="n">
-        <v>15.51000000000001</v>
+        <v>2054047.291386164</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5886,22 +5856,22 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>15.4</v>
+        <v>15.6</v>
       </c>
       <c r="C144" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="D144" t="n">
-        <v>15.4</v>
+        <v>15.6</v>
       </c>
       <c r="E144" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="F144" t="n">
-        <v>0.0003</v>
+        <v>364808.6676</v>
       </c>
       <c r="G144" t="n">
-        <v>15.5</v>
+        <v>1689238.623786164</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5922,22 +5892,22 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>15.3</v>
+        <v>15.6</v>
       </c>
       <c r="C145" t="n">
-        <v>15.3</v>
+        <v>15.5</v>
       </c>
       <c r="D145" t="n">
-        <v>15.3</v>
+        <v>15.6</v>
       </c>
       <c r="E145" t="n">
-        <v>15.3</v>
+        <v>15.5</v>
       </c>
       <c r="F145" t="n">
-        <v>45147.0402</v>
+        <v>332705.206</v>
       </c>
       <c r="G145" t="n">
-        <v>15.485</v>
+        <v>1689238.623786164</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5958,22 +5928,22 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="C146" t="n">
-        <v>15.3</v>
+        <v>15.5</v>
       </c>
       <c r="D146" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="E146" t="n">
-        <v>15.3</v>
+        <v>15.5</v>
       </c>
       <c r="F146" t="n">
-        <v>5002.9293</v>
+        <v>9943</v>
       </c>
       <c r="G146" t="n">
-        <v>15.475</v>
+        <v>1689238.623786164</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5994,22 +5964,22 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>15.3</v>
+        <v>15.6</v>
       </c>
       <c r="C147" t="n">
-        <v>15.3</v>
+        <v>15.6</v>
       </c>
       <c r="D147" t="n">
-        <v>15.3</v>
+        <v>15.6</v>
       </c>
       <c r="E147" t="n">
-        <v>15.3</v>
+        <v>15.6</v>
       </c>
       <c r="F147" t="n">
-        <v>26569.5347</v>
+        <v>10053.4807</v>
       </c>
       <c r="G147" t="n">
-        <v>15.46</v>
+        <v>1699292.104486163</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -6030,22 +6000,22 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>15.3</v>
+        <v>15.5</v>
       </c>
       <c r="C148" t="n">
-        <v>15.2</v>
+        <v>15.5</v>
       </c>
       <c r="D148" t="n">
-        <v>15.3</v>
+        <v>15.5</v>
       </c>
       <c r="E148" t="n">
-        <v>15.2</v>
+        <v>15.5</v>
       </c>
       <c r="F148" t="n">
-        <v>157592.0125</v>
+        <v>11262</v>
       </c>
       <c r="G148" t="n">
-        <v>15.45</v>
+        <v>1688030.104486163</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -6066,22 +6036,22 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>15.2</v>
+        <v>15.5</v>
       </c>
       <c r="C149" t="n">
-        <v>15.2</v>
+        <v>15.6</v>
       </c>
       <c r="D149" t="n">
-        <v>15.2</v>
+        <v>15.6</v>
       </c>
       <c r="E149" t="n">
-        <v>15.2</v>
+        <v>15.5</v>
       </c>
       <c r="F149" t="n">
-        <v>1000</v>
+        <v>124.4725</v>
       </c>
       <c r="G149" t="n">
-        <v>15.435</v>
+        <v>1688154.576986163</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -6102,22 +6072,22 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>15.2</v>
+        <v>15.6</v>
       </c>
       <c r="C150" t="n">
-        <v>15.2</v>
+        <v>15.5</v>
       </c>
       <c r="D150" t="n">
-        <v>15.2</v>
+        <v>15.6</v>
       </c>
       <c r="E150" t="n">
-        <v>15.2</v>
+        <v>15.5</v>
       </c>
       <c r="F150" t="n">
-        <v>78313.3931</v>
+        <v>17471.3145</v>
       </c>
       <c r="G150" t="n">
-        <v>15.42</v>
+        <v>1670683.262486163</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -6138,22 +6108,22 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>15.1</v>
+        <v>15.5</v>
       </c>
       <c r="C151" t="n">
-        <v>15.1</v>
+        <v>15.5</v>
       </c>
       <c r="D151" t="n">
-        <v>15.1</v>
+        <v>15.5</v>
       </c>
       <c r="E151" t="n">
-        <v>15.1</v>
+        <v>15.5</v>
       </c>
       <c r="F151" t="n">
-        <v>7430.8411</v>
+        <v>59836</v>
       </c>
       <c r="G151" t="n">
-        <v>15.395</v>
+        <v>1670683.262486163</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -6174,22 +6144,22 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>15.2</v>
+        <v>15.5</v>
       </c>
       <c r="C152" t="n">
-        <v>15.2</v>
+        <v>15.6</v>
       </c>
       <c r="D152" t="n">
-        <v>15.2</v>
+        <v>15.6</v>
       </c>
       <c r="E152" t="n">
-        <v>15.2</v>
+        <v>15.5</v>
       </c>
       <c r="F152" t="n">
-        <v>49900</v>
+        <v>11</v>
       </c>
       <c r="G152" t="n">
-        <v>15.38</v>
+        <v>1670694.262486163</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -6210,22 +6180,22 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>15.2</v>
+        <v>15.6</v>
       </c>
       <c r="C153" t="n">
-        <v>15.2</v>
+        <v>15.7</v>
       </c>
       <c r="D153" t="n">
-        <v>15.2</v>
+        <v>15.7</v>
       </c>
       <c r="E153" t="n">
-        <v>15.2</v>
+        <v>15.6</v>
       </c>
       <c r="F153" t="n">
-        <v>30000</v>
+        <v>606311</v>
       </c>
       <c r="G153" t="n">
-        <v>15.365</v>
+        <v>2277005.262486164</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -6246,22 +6216,22 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>15.1</v>
+        <v>15.7</v>
       </c>
       <c r="C154" t="n">
-        <v>15.2</v>
+        <v>15.7</v>
       </c>
       <c r="D154" t="n">
-        <v>15.2</v>
+        <v>15.7</v>
       </c>
       <c r="E154" t="n">
-        <v>15.1</v>
+        <v>15.7</v>
       </c>
       <c r="F154" t="n">
-        <v>68400</v>
+        <v>23030.1592</v>
       </c>
       <c r="G154" t="n">
-        <v>15.34</v>
+        <v>2277005.262486164</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -6282,22 +6252,22 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>15.2</v>
+        <v>15.7</v>
       </c>
       <c r="C155" t="n">
-        <v>15.1</v>
+        <v>15.7</v>
       </c>
       <c r="D155" t="n">
-        <v>15.2</v>
+        <v>15.7</v>
       </c>
       <c r="E155" t="n">
-        <v>15.1</v>
+        <v>15.7</v>
       </c>
       <c r="F155" t="n">
-        <v>3000</v>
+        <v>23</v>
       </c>
       <c r="G155" t="n">
-        <v>15.32</v>
+        <v>2277005.262486164</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -6318,22 +6288,22 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>15.1</v>
+        <v>15.7</v>
       </c>
       <c r="C156" t="n">
-        <v>15.2</v>
+        <v>15.7</v>
       </c>
       <c r="D156" t="n">
-        <v>15.2</v>
+        <v>15.7</v>
       </c>
       <c r="E156" t="n">
-        <v>15.1</v>
+        <v>15.7</v>
       </c>
       <c r="F156" t="n">
-        <v>4117.2271</v>
+        <v>28600</v>
       </c>
       <c r="G156" t="n">
-        <v>15.295</v>
+        <v>2277005.262486164</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -6354,22 +6324,22 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>15.2</v>
+        <v>15.7</v>
       </c>
       <c r="C157" t="n">
-        <v>15.1</v>
+        <v>15.7</v>
       </c>
       <c r="D157" t="n">
-        <v>15.2</v>
+        <v>15.7</v>
       </c>
       <c r="E157" t="n">
-        <v>15.1</v>
+        <v>15.7</v>
       </c>
       <c r="F157" t="n">
-        <v>128</v>
+        <v>27</v>
       </c>
       <c r="G157" t="n">
-        <v>15.28</v>
+        <v>2277005.262486164</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -6390,22 +6360,22 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>15.2</v>
+        <v>15.6</v>
       </c>
       <c r="C158" t="n">
-        <v>15.2</v>
+        <v>15.7</v>
       </c>
       <c r="D158" t="n">
-        <v>15.2</v>
+        <v>15.7</v>
       </c>
       <c r="E158" t="n">
-        <v>15.2</v>
+        <v>15.6</v>
       </c>
       <c r="F158" t="n">
-        <v>45.0263</v>
+        <v>6162</v>
       </c>
       <c r="G158" t="n">
-        <v>15.265</v>
+        <v>2277005.262486164</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -6426,22 +6396,22 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>15.2</v>
+        <v>15.7</v>
       </c>
       <c r="C159" t="n">
-        <v>15.2</v>
+        <v>15.7</v>
       </c>
       <c r="D159" t="n">
-        <v>15.2</v>
+        <v>15.7</v>
       </c>
       <c r="E159" t="n">
-        <v>15.2</v>
+        <v>15.6</v>
       </c>
       <c r="F159" t="n">
-        <v>99.1447</v>
+        <v>22.973</v>
       </c>
       <c r="G159" t="n">
-        <v>15.24999999999999</v>
+        <v>2277005.262486164</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -6462,22 +6432,22 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>15.1</v>
+        <v>15.5</v>
       </c>
       <c r="C160" t="n">
-        <v>15.1</v>
+        <v>15.6</v>
       </c>
       <c r="D160" t="n">
-        <v>15.1</v>
+        <v>15.6</v>
       </c>
       <c r="E160" t="n">
-        <v>15.1</v>
+        <v>15.5</v>
       </c>
       <c r="F160" t="n">
-        <v>1000</v>
+        <v>214.642</v>
       </c>
       <c r="G160" t="n">
-        <v>15.235</v>
+        <v>2276790.620486164</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -6498,22 +6468,22 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>15.2</v>
+        <v>15.7</v>
       </c>
       <c r="C161" t="n">
-        <v>15.2</v>
+        <v>15.7</v>
       </c>
       <c r="D161" t="n">
-        <v>15.2</v>
+        <v>15.7</v>
       </c>
       <c r="E161" t="n">
-        <v>15.2</v>
+        <v>15.6</v>
       </c>
       <c r="F161" t="n">
-        <v>10</v>
+        <v>32234.9468</v>
       </c>
       <c r="G161" t="n">
-        <v>15.23</v>
+        <v>2309025.567286164</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6534,22 +6504,22 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>15.1</v>
+        <v>15.6</v>
       </c>
       <c r="C162" t="n">
-        <v>15.1</v>
+        <v>15.7</v>
       </c>
       <c r="D162" t="n">
-        <v>15.1</v>
+        <v>15.7</v>
       </c>
       <c r="E162" t="n">
-        <v>15.1</v>
+        <v>15.6</v>
       </c>
       <c r="F162" t="n">
-        <v>1810.7583</v>
+        <v>30010</v>
       </c>
       <c r="G162" t="n">
-        <v>15.22</v>
+        <v>2309025.567286164</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6570,22 +6540,22 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>15.2</v>
+        <v>15.7</v>
       </c>
       <c r="C163" t="n">
-        <v>15.1</v>
+        <v>15.7</v>
       </c>
       <c r="D163" t="n">
-        <v>15.2</v>
+        <v>15.7</v>
       </c>
       <c r="E163" t="n">
-        <v>15.1</v>
+        <v>15.7</v>
       </c>
       <c r="F163" t="n">
-        <v>91248.61840000001</v>
+        <v>88992.6433</v>
       </c>
       <c r="G163" t="n">
-        <v>15.21</v>
+        <v>2309025.567286164</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6606,22 +6576,22 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>15.2</v>
+        <v>15.7</v>
       </c>
       <c r="C164" t="n">
-        <v>15.2</v>
+        <v>15.7</v>
       </c>
       <c r="D164" t="n">
-        <v>15.2</v>
+        <v>15.7</v>
       </c>
       <c r="E164" t="n">
-        <v>15.2</v>
+        <v>15.7</v>
       </c>
       <c r="F164" t="n">
-        <v>1000</v>
+        <v>19500</v>
       </c>
       <c r="G164" t="n">
-        <v>15.2</v>
+        <v>2309025.567286164</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -6642,22 +6612,22 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>15.2</v>
+        <v>15.5</v>
       </c>
       <c r="C165" t="n">
-        <v>15.2</v>
+        <v>15.7</v>
       </c>
       <c r="D165" t="n">
-        <v>15.2</v>
+        <v>15.7</v>
       </c>
       <c r="E165" t="n">
-        <v>15.2</v>
+        <v>15.5</v>
       </c>
       <c r="F165" t="n">
-        <v>342.7924</v>
+        <v>330674.5283</v>
       </c>
       <c r="G165" t="n">
-        <v>15.195</v>
+        <v>2309025.567286164</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -6673,6 +6643,2662 @@
       </c>
       <c r="N165" t="inlineStr"/>
     </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="C166" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="D166" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="E166" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="F166" t="n">
+        <v>11</v>
+      </c>
+      <c r="G166" t="n">
+        <v>2309025.567286164</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr"/>
+      <c r="M166" t="n">
+        <v>1</v>
+      </c>
+      <c r="N166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="C167" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="D167" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="E167" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="F167" t="n">
+        <v>1398.6624</v>
+      </c>
+      <c r="G167" t="n">
+        <v>2309025.567286164</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="n">
+        <v>0</v>
+      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr"/>
+      <c r="M167" t="n">
+        <v>1</v>
+      </c>
+      <c r="N167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="C168" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="D168" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="E168" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="F168" t="n">
+        <v>19935.0022</v>
+      </c>
+      <c r="G168" t="n">
+        <v>2289090.565086164</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="n">
+        <v>0</v>
+      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr"/>
+      <c r="M168" t="n">
+        <v>1</v>
+      </c>
+      <c r="N168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="C169" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="D169" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="E169" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="F169" t="n">
+        <v>12876.6666</v>
+      </c>
+      <c r="G169" t="n">
+        <v>2289090.565086164</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="n">
+        <v>0</v>
+      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr"/>
+      <c r="M169" t="n">
+        <v>1</v>
+      </c>
+      <c r="N169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="C170" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="D170" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="E170" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="F170" t="n">
+        <v>35473.0942</v>
+      </c>
+      <c r="G170" t="n">
+        <v>2253617.470886163</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="n">
+        <v>0</v>
+      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr"/>
+      <c r="M170" t="n">
+        <v>1</v>
+      </c>
+      <c r="N170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="C171" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="D171" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="E171" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="F171" t="n">
+        <v>17716.3775</v>
+      </c>
+      <c r="G171" t="n">
+        <v>2253617.470886163</v>
+      </c>
+      <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="n">
+        <v>0</v>
+      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr"/>
+      <c r="M171" t="n">
+        <v>1</v>
+      </c>
+      <c r="N171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="C172" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="D172" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="E172" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="F172" t="n">
+        <v>8631.6217</v>
+      </c>
+      <c r="G172" t="n">
+        <v>2253617.470886163</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="n">
+        <v>0</v>
+      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="inlineStr"/>
+      <c r="M172" t="n">
+        <v>1</v>
+      </c>
+      <c r="N172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="C173" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="D173" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="E173" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="F173" t="n">
+        <v>24</v>
+      </c>
+      <c r="G173" t="n">
+        <v>2253641.470886163</v>
+      </c>
+      <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="n">
+        <v>0</v>
+      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="inlineStr"/>
+      <c r="M173" t="n">
+        <v>1</v>
+      </c>
+      <c r="N173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="C174" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="D174" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="E174" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="F174" t="n">
+        <v>22342.2962</v>
+      </c>
+      <c r="G174" t="n">
+        <v>2253641.470886163</v>
+      </c>
+      <c r="H174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" t="n">
+        <v>0</v>
+      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="inlineStr"/>
+      <c r="M174" t="n">
+        <v>1</v>
+      </c>
+      <c r="N174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="C175" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="D175" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="E175" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="F175" t="n">
+        <v>17920.7166</v>
+      </c>
+      <c r="G175" t="n">
+        <v>2253641.470886163</v>
+      </c>
+      <c r="H175" t="n">
+        <v>0</v>
+      </c>
+      <c r="I175" t="n">
+        <v>0</v>
+      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="inlineStr"/>
+      <c r="M175" t="n">
+        <v>1</v>
+      </c>
+      <c r="N175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="C176" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="D176" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="E176" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="F176" t="n">
+        <v>8690.522199999999</v>
+      </c>
+      <c r="G176" t="n">
+        <v>2244950.948686163</v>
+      </c>
+      <c r="H176" t="n">
+        <v>0</v>
+      </c>
+      <c r="I176" t="n">
+        <v>0</v>
+      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="inlineStr"/>
+      <c r="M176" t="n">
+        <v>1</v>
+      </c>
+      <c r="N176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="C177" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="D177" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="E177" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="F177" t="n">
+        <v>22</v>
+      </c>
+      <c r="G177" t="n">
+        <v>2244972.948686163</v>
+      </c>
+      <c r="H177" t="n">
+        <v>0</v>
+      </c>
+      <c r="I177" t="n">
+        <v>0</v>
+      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="inlineStr"/>
+      <c r="M177" t="n">
+        <v>1</v>
+      </c>
+      <c r="N177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="C178" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="D178" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="E178" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="F178" t="n">
+        <v>4785.746</v>
+      </c>
+      <c r="G178" t="n">
+        <v>2244972.948686163</v>
+      </c>
+      <c r="H178" t="n">
+        <v>0</v>
+      </c>
+      <c r="I178" t="n">
+        <v>0</v>
+      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="inlineStr"/>
+      <c r="M178" t="n">
+        <v>1</v>
+      </c>
+      <c r="N178" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="C179" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="D179" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="E179" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="F179" t="n">
+        <v>11283.4725</v>
+      </c>
+      <c r="G179" t="n">
+        <v>2244972.948686163</v>
+      </c>
+      <c r="H179" t="n">
+        <v>0</v>
+      </c>
+      <c r="I179" t="n">
+        <v>0</v>
+      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="inlineStr"/>
+      <c r="M179" t="n">
+        <v>1</v>
+      </c>
+      <c r="N179" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="C180" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="D180" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="E180" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="F180" t="n">
+        <v>8613.205099999999</v>
+      </c>
+      <c r="G180" t="n">
+        <v>2244972.948686163</v>
+      </c>
+      <c r="H180" t="n">
+        <v>0</v>
+      </c>
+      <c r="I180" t="n">
+        <v>0</v>
+      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="inlineStr"/>
+      <c r="M180" t="n">
+        <v>1</v>
+      </c>
+      <c r="N180" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="C181" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="D181" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="E181" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="F181" t="n">
+        <v>10</v>
+      </c>
+      <c r="G181" t="n">
+        <v>2244982.948686163</v>
+      </c>
+      <c r="H181" t="n">
+        <v>0</v>
+      </c>
+      <c r="I181" t="n">
+        <v>0</v>
+      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="inlineStr"/>
+      <c r="M181" t="n">
+        <v>1</v>
+      </c>
+      <c r="N181" t="inlineStr"/>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="C182" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="D182" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="E182" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="F182" t="n">
+        <v>55700.1748</v>
+      </c>
+      <c r="G182" t="n">
+        <v>2189282.773886163</v>
+      </c>
+      <c r="H182" t="n">
+        <v>0</v>
+      </c>
+      <c r="I182" t="n">
+        <v>0</v>
+      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="inlineStr"/>
+      <c r="M182" t="n">
+        <v>1</v>
+      </c>
+      <c r="N182" t="inlineStr"/>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="C183" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="D183" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="E183" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="F183" t="n">
+        <v>8602.6721</v>
+      </c>
+      <c r="G183" t="n">
+        <v>2197885.445986163</v>
+      </c>
+      <c r="H183" t="n">
+        <v>0</v>
+      </c>
+      <c r="I183" t="n">
+        <v>0</v>
+      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="inlineStr"/>
+      <c r="M183" t="n">
+        <v>1</v>
+      </c>
+      <c r="N183" t="inlineStr"/>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="C184" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="D184" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="E184" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="F184" t="n">
+        <v>5793.9968</v>
+      </c>
+      <c r="G184" t="n">
+        <v>2203679.442786163</v>
+      </c>
+      <c r="H184" t="n">
+        <v>0</v>
+      </c>
+      <c r="I184" t="n">
+        <v>0</v>
+      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="inlineStr"/>
+      <c r="M184" t="n">
+        <v>1</v>
+      </c>
+      <c r="N184" t="inlineStr"/>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="C185" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="D185" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="E185" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="F185" t="n">
+        <v>40000</v>
+      </c>
+      <c r="G185" t="n">
+        <v>2163679.442786163</v>
+      </c>
+      <c r="H185" t="n">
+        <v>0</v>
+      </c>
+      <c r="I185" t="n">
+        <v>0</v>
+      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="inlineStr"/>
+      <c r="M185" t="n">
+        <v>1</v>
+      </c>
+      <c r="N185" t="inlineStr"/>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="C186" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="D186" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="E186" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="F186" t="n">
+        <v>10</v>
+      </c>
+      <c r="G186" t="n">
+        <v>2163689.442786163</v>
+      </c>
+      <c r="H186" t="n">
+        <v>0</v>
+      </c>
+      <c r="I186" t="n">
+        <v>0</v>
+      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="inlineStr"/>
+      <c r="M186" t="n">
+        <v>1</v>
+      </c>
+      <c r="N186" t="inlineStr"/>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="C187" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="D187" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="E187" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="F187" t="n">
+        <v>3450.0892</v>
+      </c>
+      <c r="G187" t="n">
+        <v>2160239.353586163</v>
+      </c>
+      <c r="H187" t="n">
+        <v>0</v>
+      </c>
+      <c r="I187" t="n">
+        <v>0</v>
+      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="inlineStr"/>
+      <c r="M187" t="n">
+        <v>1</v>
+      </c>
+      <c r="N187" t="inlineStr"/>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="C188" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="D188" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="E188" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="F188" t="n">
+        <v>6378.2051</v>
+      </c>
+      <c r="G188" t="n">
+        <v>2160239.353586163</v>
+      </c>
+      <c r="H188" t="n">
+        <v>0</v>
+      </c>
+      <c r="I188" t="n">
+        <v>0</v>
+      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="inlineStr"/>
+      <c r="M188" t="n">
+        <v>1</v>
+      </c>
+      <c r="N188" t="inlineStr"/>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="C189" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="D189" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="E189" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="F189" t="n">
+        <v>3360.7057</v>
+      </c>
+      <c r="G189" t="n">
+        <v>2160239.353586163</v>
+      </c>
+      <c r="H189" t="n">
+        <v>0</v>
+      </c>
+      <c r="I189" t="n">
+        <v>0</v>
+      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="inlineStr"/>
+      <c r="M189" t="n">
+        <v>1</v>
+      </c>
+      <c r="N189" t="inlineStr"/>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="C190" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="D190" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="E190" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="F190" t="n">
+        <v>3017.4994</v>
+      </c>
+      <c r="G190" t="n">
+        <v>2160239.353586163</v>
+      </c>
+      <c r="H190" t="n">
+        <v>0</v>
+      </c>
+      <c r="I190" t="n">
+        <v>0</v>
+      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="inlineStr"/>
+      <c r="M190" t="n">
+        <v>1</v>
+      </c>
+      <c r="N190" t="inlineStr"/>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="C191" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="D191" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="E191" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="F191" t="n">
+        <v>6982.5006</v>
+      </c>
+      <c r="G191" t="n">
+        <v>2160239.353586163</v>
+      </c>
+      <c r="H191" t="n">
+        <v>0</v>
+      </c>
+      <c r="I191" t="n">
+        <v>0</v>
+      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
+      <c r="L191" t="inlineStr"/>
+      <c r="M191" t="n">
+        <v>1</v>
+      </c>
+      <c r="N191" t="inlineStr"/>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="C192" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="D192" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="E192" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="F192" t="n">
+        <v>29200</v>
+      </c>
+      <c r="G192" t="n">
+        <v>2160239.353586163</v>
+      </c>
+      <c r="H192" t="n">
+        <v>0</v>
+      </c>
+      <c r="I192" t="n">
+        <v>0</v>
+      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
+      <c r="L192" t="inlineStr"/>
+      <c r="M192" t="n">
+        <v>1</v>
+      </c>
+      <c r="N192" t="inlineStr"/>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="C193" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="D193" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="E193" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="F193" t="n">
+        <v>36</v>
+      </c>
+      <c r="G193" t="n">
+        <v>2160275.353586163</v>
+      </c>
+      <c r="H193" t="n">
+        <v>0</v>
+      </c>
+      <c r="I193" t="n">
+        <v>0</v>
+      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
+      <c r="L193" t="inlineStr"/>
+      <c r="M193" t="n">
+        <v>1</v>
+      </c>
+      <c r="N193" t="inlineStr"/>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="C194" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="D194" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="E194" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="F194" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G194" t="n">
+        <v>2159275.353586163</v>
+      </c>
+      <c r="H194" t="n">
+        <v>0</v>
+      </c>
+      <c r="I194" t="n">
+        <v>0</v>
+      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
+      <c r="L194" t="inlineStr"/>
+      <c r="M194" t="n">
+        <v>1</v>
+      </c>
+      <c r="N194" t="inlineStr"/>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="C195" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="D195" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="E195" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="F195" t="n">
+        <v>12820.5128</v>
+      </c>
+      <c r="G195" t="n">
+        <v>2159275.353586163</v>
+      </c>
+      <c r="H195" t="n">
+        <v>0</v>
+      </c>
+      <c r="I195" t="n">
+        <v>0</v>
+      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
+      <c r="L195" t="inlineStr"/>
+      <c r="M195" t="n">
+        <v>1</v>
+      </c>
+      <c r="N195" t="inlineStr"/>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="C196" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="D196" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="E196" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="F196" t="n">
+        <v>5641.1863</v>
+      </c>
+      <c r="G196" t="n">
+        <v>2159275.353586163</v>
+      </c>
+      <c r="H196" t="n">
+        <v>0</v>
+      </c>
+      <c r="I196" t="n">
+        <v>0</v>
+      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="inlineStr"/>
+      <c r="M196" t="n">
+        <v>1</v>
+      </c>
+      <c r="N196" t="inlineStr"/>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="C197" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="D197" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="E197" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="F197" t="n">
+        <v>21897.136</v>
+      </c>
+      <c r="G197" t="n">
+        <v>2159275.353586163</v>
+      </c>
+      <c r="H197" t="n">
+        <v>0</v>
+      </c>
+      <c r="I197" t="n">
+        <v>0</v>
+      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
+      <c r="L197" t="inlineStr"/>
+      <c r="M197" t="n">
+        <v>1</v>
+      </c>
+      <c r="N197" t="inlineStr"/>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="C198" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="D198" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="E198" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="F198" t="n">
+        <v>4645.587</v>
+      </c>
+      <c r="G198" t="n">
+        <v>2154629.766586164</v>
+      </c>
+      <c r="H198" t="n">
+        <v>0</v>
+      </c>
+      <c r="I198" t="n">
+        <v>0</v>
+      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="inlineStr"/>
+      <c r="M198" t="n">
+        <v>1</v>
+      </c>
+      <c r="N198" t="inlineStr"/>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="C199" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="D199" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="E199" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="F199" t="n">
+        <v>3071.476</v>
+      </c>
+      <c r="G199" t="n">
+        <v>2154629.766586164</v>
+      </c>
+      <c r="H199" t="n">
+        <v>0</v>
+      </c>
+      <c r="I199" t="n">
+        <v>0</v>
+      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
+      <c r="L199" t="inlineStr"/>
+      <c r="M199" t="n">
+        <v>1</v>
+      </c>
+      <c r="N199" t="inlineStr"/>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="C200" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="D200" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="E200" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="F200" t="n">
+        <v>2264.817</v>
+      </c>
+      <c r="G200" t="n">
+        <v>2156894.583586163</v>
+      </c>
+      <c r="H200" t="n">
+        <v>0</v>
+      </c>
+      <c r="I200" t="n">
+        <v>0</v>
+      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
+      <c r="L200" t="inlineStr"/>
+      <c r="M200" t="n">
+        <v>1</v>
+      </c>
+      <c r="N200" t="inlineStr"/>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="C201" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="D201" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="E201" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="F201" t="n">
+        <v>738.7746</v>
+      </c>
+      <c r="G201" t="n">
+        <v>2156894.583586163</v>
+      </c>
+      <c r="H201" t="n">
+        <v>0</v>
+      </c>
+      <c r="I201" t="n">
+        <v>0</v>
+      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
+      <c r="L201" t="inlineStr"/>
+      <c r="M201" t="n">
+        <v>1</v>
+      </c>
+      <c r="N201" t="inlineStr"/>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="C202" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="D202" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="E202" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="F202" t="n">
+        <v>54924.7622</v>
+      </c>
+      <c r="G202" t="n">
+        <v>2101969.821386163</v>
+      </c>
+      <c r="H202" t="n">
+        <v>0</v>
+      </c>
+      <c r="I202" t="n">
+        <v>0</v>
+      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
+      <c r="L202" t="inlineStr"/>
+      <c r="M202" t="n">
+        <v>1</v>
+      </c>
+      <c r="N202" t="inlineStr"/>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="C203" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="D203" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="E203" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="F203" t="n">
+        <v>31130.739</v>
+      </c>
+      <c r="G203" t="n">
+        <v>2101969.821386163</v>
+      </c>
+      <c r="H203" t="n">
+        <v>0</v>
+      </c>
+      <c r="I203" t="n">
+        <v>0</v>
+      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
+      <c r="L203" t="inlineStr"/>
+      <c r="M203" t="n">
+        <v>1</v>
+      </c>
+      <c r="N203" t="inlineStr"/>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="C204" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="D204" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="E204" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="F204" t="n">
+        <v>7274.502</v>
+      </c>
+      <c r="G204" t="n">
+        <v>2101969.821386163</v>
+      </c>
+      <c r="H204" t="n">
+        <v>0</v>
+      </c>
+      <c r="I204" t="n">
+        <v>0</v>
+      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
+      <c r="L204" t="inlineStr"/>
+      <c r="M204" t="n">
+        <v>1</v>
+      </c>
+      <c r="N204" t="inlineStr"/>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="C205" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="D205" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="E205" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="F205" t="n">
+        <v>10</v>
+      </c>
+      <c r="G205" t="n">
+        <v>2101979.821386163</v>
+      </c>
+      <c r="H205" t="n">
+        <v>0</v>
+      </c>
+      <c r="I205" t="n">
+        <v>0</v>
+      </c>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
+      <c r="L205" t="inlineStr"/>
+      <c r="M205" t="n">
+        <v>1</v>
+      </c>
+      <c r="N205" t="inlineStr"/>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="C206" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="D206" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="E206" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="F206" t="n">
+        <v>1623.2051</v>
+      </c>
+      <c r="G206" t="n">
+        <v>2101979.821386163</v>
+      </c>
+      <c r="H206" t="n">
+        <v>0</v>
+      </c>
+      <c r="I206" t="n">
+        <v>0</v>
+      </c>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
+      <c r="L206" t="inlineStr"/>
+      <c r="M206" t="n">
+        <v>1</v>
+      </c>
+      <c r="N206" t="inlineStr"/>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="C207" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="D207" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="E207" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="F207" t="n">
+        <v>3000</v>
+      </c>
+      <c r="G207" t="n">
+        <v>2101979.821386163</v>
+      </c>
+      <c r="H207" t="n">
+        <v>0</v>
+      </c>
+      <c r="I207" t="n">
+        <v>0</v>
+      </c>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
+      <c r="L207" t="inlineStr"/>
+      <c r="M207" t="n">
+        <v>1</v>
+      </c>
+      <c r="N207" t="inlineStr"/>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="C208" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="D208" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="E208" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="F208" t="n">
+        <v>40263.0128</v>
+      </c>
+      <c r="G208" t="n">
+        <v>2061716.808586163</v>
+      </c>
+      <c r="H208" t="n">
+        <v>0</v>
+      </c>
+      <c r="I208" t="n">
+        <v>0</v>
+      </c>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
+      <c r="L208" t="inlineStr"/>
+      <c r="M208" t="n">
+        <v>1</v>
+      </c>
+      <c r="N208" t="inlineStr"/>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="C209" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="D209" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="E209" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="F209" t="n">
+        <v>26600</v>
+      </c>
+      <c r="G209" t="n">
+        <v>2061716.808586163</v>
+      </c>
+      <c r="H209" t="n">
+        <v>0</v>
+      </c>
+      <c r="I209" t="n">
+        <v>0</v>
+      </c>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
+      <c r="L209" t="inlineStr"/>
+      <c r="M209" t="n">
+        <v>1</v>
+      </c>
+      <c r="N209" t="inlineStr"/>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="C210" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="D210" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="E210" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="F210" t="n">
+        <v>55433.074</v>
+      </c>
+      <c r="G210" t="n">
+        <v>2006283.734586163</v>
+      </c>
+      <c r="H210" t="n">
+        <v>0</v>
+      </c>
+      <c r="I210" t="n">
+        <v>0</v>
+      </c>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
+      <c r="L210" t="inlineStr"/>
+      <c r="M210" t="n">
+        <v>1</v>
+      </c>
+      <c r="N210" t="inlineStr"/>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="C211" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="D211" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="E211" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="F211" t="n">
+        <v>73811.22870000001</v>
+      </c>
+      <c r="G211" t="n">
+        <v>2006283.734586163</v>
+      </c>
+      <c r="H211" t="n">
+        <v>0</v>
+      </c>
+      <c r="I211" t="n">
+        <v>0</v>
+      </c>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
+      <c r="L211" t="inlineStr"/>
+      <c r="M211" t="n">
+        <v>1</v>
+      </c>
+      <c r="N211" t="inlineStr"/>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="C212" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="D212" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="E212" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="F212" t="n">
+        <v>4711.7168</v>
+      </c>
+      <c r="G212" t="n">
+        <v>2001572.017786163</v>
+      </c>
+      <c r="H212" t="n">
+        <v>0</v>
+      </c>
+      <c r="I212" t="n">
+        <v>0</v>
+      </c>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
+      <c r="L212" t="inlineStr"/>
+      <c r="M212" t="n">
+        <v>1</v>
+      </c>
+      <c r="N212" t="inlineStr"/>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="C213" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="D213" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="E213" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="F213" t="n">
+        <v>65922.1489</v>
+      </c>
+      <c r="G213" t="n">
+        <v>2001572.017786163</v>
+      </c>
+      <c r="H213" t="n">
+        <v>0</v>
+      </c>
+      <c r="I213" t="n">
+        <v>0</v>
+      </c>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
+      <c r="L213" t="inlineStr"/>
+      <c r="M213" t="n">
+        <v>1</v>
+      </c>
+      <c r="N213" t="inlineStr"/>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="C214" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="D214" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="E214" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="F214" t="n">
+        <v>65330.3243</v>
+      </c>
+      <c r="G214" t="n">
+        <v>2066902.342086163</v>
+      </c>
+      <c r="H214" t="n">
+        <v>0</v>
+      </c>
+      <c r="I214" t="n">
+        <v>0</v>
+      </c>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
+      <c r="L214" t="inlineStr"/>
+      <c r="M214" t="n">
+        <v>1</v>
+      </c>
+      <c r="N214" t="inlineStr"/>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="C215" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="D215" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="E215" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="F215" t="n">
+        <v>0.0003</v>
+      </c>
+      <c r="G215" t="n">
+        <v>2066902.342086163</v>
+      </c>
+      <c r="H215" t="n">
+        <v>0</v>
+      </c>
+      <c r="I215" t="n">
+        <v>0</v>
+      </c>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
+      <c r="L215" t="inlineStr"/>
+      <c r="M215" t="n">
+        <v>1</v>
+      </c>
+      <c r="N215" t="inlineStr"/>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="C216" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="D216" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="E216" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="F216" t="n">
+        <v>45147.0402</v>
+      </c>
+      <c r="G216" t="n">
+        <v>2021755.301886163</v>
+      </c>
+      <c r="H216" t="n">
+        <v>0</v>
+      </c>
+      <c r="I216" t="n">
+        <v>0</v>
+      </c>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
+      <c r="L216" t="inlineStr"/>
+      <c r="M216" t="n">
+        <v>1</v>
+      </c>
+      <c r="N216" t="inlineStr"/>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="C217" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="D217" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="E217" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="F217" t="n">
+        <v>5002.9293</v>
+      </c>
+      <c r="G217" t="n">
+        <v>2021755.301886163</v>
+      </c>
+      <c r="H217" t="n">
+        <v>0</v>
+      </c>
+      <c r="I217" t="n">
+        <v>0</v>
+      </c>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
+      <c r="L217" t="inlineStr"/>
+      <c r="M217" t="n">
+        <v>1</v>
+      </c>
+      <c r="N217" t="inlineStr"/>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="C218" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="D218" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="E218" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="F218" t="n">
+        <v>26569.5347</v>
+      </c>
+      <c r="G218" t="n">
+        <v>2021755.301886163</v>
+      </c>
+      <c r="H218" t="n">
+        <v>0</v>
+      </c>
+      <c r="I218" t="n">
+        <v>0</v>
+      </c>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
+      <c r="L218" t="inlineStr"/>
+      <c r="M218" t="n">
+        <v>1</v>
+      </c>
+      <c r="N218" t="inlineStr"/>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="C219" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="D219" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="E219" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="F219" t="n">
+        <v>157592.0125</v>
+      </c>
+      <c r="G219" t="n">
+        <v>1864163.289386163</v>
+      </c>
+      <c r="H219" t="n">
+        <v>0</v>
+      </c>
+      <c r="I219" t="n">
+        <v>0</v>
+      </c>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
+      <c r="L219" t="inlineStr"/>
+      <c r="M219" t="n">
+        <v>1</v>
+      </c>
+      <c r="N219" t="inlineStr"/>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="C220" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="D220" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="E220" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="F220" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G220" t="n">
+        <v>1864163.289386163</v>
+      </c>
+      <c r="H220" t="n">
+        <v>0</v>
+      </c>
+      <c r="I220" t="n">
+        <v>0</v>
+      </c>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
+      <c r="L220" t="inlineStr"/>
+      <c r="M220" t="n">
+        <v>1</v>
+      </c>
+      <c r="N220" t="inlineStr"/>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="C221" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="D221" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="E221" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="F221" t="n">
+        <v>78313.3931</v>
+      </c>
+      <c r="G221" t="n">
+        <v>1864163.289386163</v>
+      </c>
+      <c r="H221" t="n">
+        <v>0</v>
+      </c>
+      <c r="I221" t="n">
+        <v>0</v>
+      </c>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
+      <c r="L221" t="inlineStr"/>
+      <c r="M221" t="n">
+        <v>1</v>
+      </c>
+      <c r="N221" t="inlineStr"/>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="C222" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="D222" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="E222" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="F222" t="n">
+        <v>7430.8411</v>
+      </c>
+      <c r="G222" t="n">
+        <v>1856732.448286163</v>
+      </c>
+      <c r="H222" t="n">
+        <v>0</v>
+      </c>
+      <c r="I222" t="n">
+        <v>0</v>
+      </c>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
+      <c r="L222" t="inlineStr"/>
+      <c r="M222" t="n">
+        <v>1</v>
+      </c>
+      <c r="N222" t="inlineStr"/>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="C223" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="D223" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="E223" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="F223" t="n">
+        <v>49900</v>
+      </c>
+      <c r="G223" t="n">
+        <v>1906632.448286163</v>
+      </c>
+      <c r="H223" t="n">
+        <v>0</v>
+      </c>
+      <c r="I223" t="n">
+        <v>0</v>
+      </c>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
+      <c r="L223" t="inlineStr"/>
+      <c r="M223" t="n">
+        <v>1</v>
+      </c>
+      <c r="N223" t="inlineStr"/>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="B224" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="C224" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="D224" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="E224" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="F224" t="n">
+        <v>30000</v>
+      </c>
+      <c r="G224" t="n">
+        <v>1906632.448286163</v>
+      </c>
+      <c r="H224" t="n">
+        <v>1</v>
+      </c>
+      <c r="I224" t="n">
+        <v>0</v>
+      </c>
+      <c r="J224" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="K224" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="L224" t="inlineStr"/>
+      <c r="M224" t="n">
+        <v>1</v>
+      </c>
+      <c r="N224" t="inlineStr"/>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="B225" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="C225" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="D225" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="E225" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="F225" t="n">
+        <v>68400</v>
+      </c>
+      <c r="G225" t="n">
+        <v>1906632.448286163</v>
+      </c>
+      <c r="H225" t="n">
+        <v>1</v>
+      </c>
+      <c r="I225" t="n">
+        <v>0</v>
+      </c>
+      <c r="J225" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="K225" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="L225" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M225" t="n">
+        <v>1</v>
+      </c>
+      <c r="N225" t="inlineStr"/>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="n">
+        <v>224</v>
+      </c>
+      <c r="B226" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="C226" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="D226" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="E226" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="F226" t="n">
+        <v>3000</v>
+      </c>
+      <c r="G226" t="n">
+        <v>1903632.448286163</v>
+      </c>
+      <c r="H226" t="n">
+        <v>1</v>
+      </c>
+      <c r="I226" t="n">
+        <v>0</v>
+      </c>
+      <c r="J226" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="K226" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="L226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M226" t="n">
+        <v>1</v>
+      </c>
+      <c r="N226" t="inlineStr"/>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B227" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="C227" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="D227" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="E227" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="F227" t="n">
+        <v>4117.2271</v>
+      </c>
+      <c r="G227" t="n">
+        <v>1907749.675386163</v>
+      </c>
+      <c r="H227" t="n">
+        <v>1</v>
+      </c>
+      <c r="I227" t="n">
+        <v>0</v>
+      </c>
+      <c r="J227" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K227" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="L227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M227" t="n">
+        <v>1</v>
+      </c>
+      <c r="N227" t="inlineStr"/>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="n">
+        <v>226</v>
+      </c>
+      <c r="B228" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="C228" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="D228" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="E228" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="F228" t="n">
+        <v>128</v>
+      </c>
+      <c r="G228" t="n">
+        <v>1907621.675386163</v>
+      </c>
+      <c r="H228" t="n">
+        <v>1</v>
+      </c>
+      <c r="I228" t="n">
+        <v>0</v>
+      </c>
+      <c r="J228" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="K228" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="L228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M228" t="n">
+        <v>1</v>
+      </c>
+      <c r="N228" t="inlineStr"/>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="n">
+        <v>227</v>
+      </c>
+      <c r="B229" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="C229" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="D229" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="E229" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="F229" t="n">
+        <v>45.0263</v>
+      </c>
+      <c r="G229" t="n">
+        <v>1907666.701686163</v>
+      </c>
+      <c r="H229" t="n">
+        <v>1</v>
+      </c>
+      <c r="I229" t="n">
+        <v>0</v>
+      </c>
+      <c r="J229" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K229" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="L229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M229" t="n">
+        <v>1</v>
+      </c>
+      <c r="N229" t="inlineStr"/>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="n">
+        <v>228</v>
+      </c>
+      <c r="B230" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="C230" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="D230" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="E230" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="F230" t="n">
+        <v>99.1447</v>
+      </c>
+      <c r="G230" t="n">
+        <v>1907666.701686163</v>
+      </c>
+      <c r="H230" t="n">
+        <v>1</v>
+      </c>
+      <c r="I230" t="n">
+        <v>0</v>
+      </c>
+      <c r="J230" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="K230" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="L230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M230" t="n">
+        <v>1</v>
+      </c>
+      <c r="N230" t="inlineStr"/>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="n">
+        <v>229</v>
+      </c>
+      <c r="B231" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="C231" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="D231" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="E231" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="F231" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G231" t="n">
+        <v>1906666.701686163</v>
+      </c>
+      <c r="H231" t="n">
+        <v>1</v>
+      </c>
+      <c r="I231" t="n">
+        <v>0</v>
+      </c>
+      <c r="J231" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="K231" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="L231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M231" t="n">
+        <v>1</v>
+      </c>
+      <c r="N231" t="inlineStr"/>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="n">
+        <v>230</v>
+      </c>
+      <c r="B232" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="C232" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="D232" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="E232" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="F232" t="n">
+        <v>10</v>
+      </c>
+      <c r="G232" t="n">
+        <v>1906676.701686163</v>
+      </c>
+      <c r="H232" t="n">
+        <v>1</v>
+      </c>
+      <c r="I232" t="n">
+        <v>0</v>
+      </c>
+      <c r="J232" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K232" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="L232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M232" t="n">
+        <v>1</v>
+      </c>
+      <c r="N232" t="inlineStr"/>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="n">
+        <v>231</v>
+      </c>
+      <c r="B233" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="C233" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="D233" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="E233" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="F233" t="n">
+        <v>1810.7583</v>
+      </c>
+      <c r="G233" t="n">
+        <v>1904865.943386163</v>
+      </c>
+      <c r="H233" t="n">
+        <v>1</v>
+      </c>
+      <c r="I233" t="n">
+        <v>0</v>
+      </c>
+      <c r="J233" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="K233" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="L233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M233" t="n">
+        <v>1</v>
+      </c>
+      <c r="N233" t="inlineStr"/>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="n">
+        <v>232</v>
+      </c>
+      <c r="B234" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="C234" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="D234" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="E234" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="F234" t="n">
+        <v>91248.61840000001</v>
+      </c>
+      <c r="G234" t="n">
+        <v>1904865.943386163</v>
+      </c>
+      <c r="H234" t="n">
+        <v>1</v>
+      </c>
+      <c r="I234" t="n">
+        <v>0</v>
+      </c>
+      <c r="J234" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K234" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="L234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M234" t="n">
+        <v>1</v>
+      </c>
+      <c r="N234" t="inlineStr"/>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="n">
+        <v>233</v>
+      </c>
+      <c r="B235" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="C235" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="D235" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="E235" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="F235" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G235" t="n">
+        <v>1905865.943386163</v>
+      </c>
+      <c r="H235" t="n">
+        <v>1</v>
+      </c>
+      <c r="I235" t="n">
+        <v>0</v>
+      </c>
+      <c r="J235" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K235" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="L235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M235" t="n">
+        <v>1</v>
+      </c>
+      <c r="N235" t="inlineStr"/>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="n">
+        <v>234</v>
+      </c>
+      <c r="B236" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="C236" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="D236" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="E236" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="F236" t="n">
+        <v>342.7924</v>
+      </c>
+      <c r="G236" t="n">
+        <v>1905865.943386163</v>
+      </c>
+      <c r="H236" t="n">
+        <v>1</v>
+      </c>
+      <c r="I236" t="n">
+        <v>0</v>
+      </c>
+      <c r="J236" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="K236" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="L236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M236" t="n">
+        <v>1</v>
+      </c>
+      <c r="N236" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2019-10-30 BackTest MITH.xlsx
+++ b/BackTest/2019-10-30 BackTest MITH.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -583,10 +583,14 @@
         <v>-263918.1800138365</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="J6" t="n">
+        <v>15.4</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
@@ -616,11 +620,19 @@
         <v>-263868.1800138365</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="J7" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -652,8 +664,14 @@
         <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -748,10 +766,14 @@
         <v>-265908.0800138365</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="J11" t="n">
+        <v>15.4</v>
+      </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>1</v>
@@ -781,11 +803,19 @@
         <v>-265898.0800138365</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="J12" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -814,11 +844,19 @@
         <v>-293468.4948138365</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="J13" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -847,10 +885,14 @@
         <v>-293468.4948138365</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="J14" t="n">
+        <v>15.4</v>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
         <v>1</v>
@@ -880,11 +922,19 @@
         <v>-204283.5081138365</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="J15" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -916,8 +966,14 @@
         <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -1804,10 +1860,14 @@
         <v>-473463.0307138365</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I43" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="J43" t="n">
+        <v>15.4</v>
+      </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
@@ -1840,8 +1900,14 @@
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1870,11 +1936,19 @@
         <v>-439745.7277138365</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I45" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="J45" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1906,8 +1980,14 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -1936,11 +2016,19 @@
         <v>-439745.7277138365</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I47" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="J47" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -1972,8 +2060,14 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2002,11 +2096,19 @@
         <v>-439745.7277138365</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I49" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="J49" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2035,11 +2137,19 @@
         <v>-190030.4689138365</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="J50" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2068,11 +2178,19 @@
         <v>-190030.4689138365</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I51" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="J51" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2104,8 +2222,14 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2137,8 +2261,14 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2170,8 +2300,14 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2203,8 +2339,14 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2236,8 +2378,14 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2269,8 +2417,14 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2302,8 +2456,14 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2332,11 +2492,19 @@
         <v>-190030.4689138365</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="J59" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2368,8 +2536,14 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2401,8 +2575,14 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2434,8 +2614,14 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2467,8 +2653,14 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2500,8 +2692,14 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2533,8 +2731,14 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2566,8 +2770,14 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2596,11 +2806,19 @@
         <v>-352536.3542138365</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I67" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="J67" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2629,11 +2847,19 @@
         <v>-352536.3542138365</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I68" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="J68" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2662,11 +2888,19 @@
         <v>-352536.3542138365</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I69" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="J69" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2695,11 +2929,19 @@
         <v>-352536.3542138365</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="J70" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2728,11 +2970,19 @@
         <v>-352536.3542138365</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="J71" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2761,11 +3011,19 @@
         <v>-352536.3542138365</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I72" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="J72" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2794,11 +3052,19 @@
         <v>-352536.3542138365</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I73" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="J73" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2827,11 +3093,19 @@
         <v>-352406.5478138365</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="J74" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2860,11 +3134,19 @@
         <v>-372306.5478138365</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I75" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="J75" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -2893,11 +3175,19 @@
         <v>-372306.5478138365</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I76" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="J76" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -2926,11 +3216,19 @@
         <v>-363306.5478138365</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I77" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="J77" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -2959,11 +3257,19 @@
         <v>-413306.5478138365</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I78" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="J78" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -2992,11 +3298,19 @@
         <v>-413306.5478138365</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I79" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="J79" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3025,11 +3339,19 @@
         <v>-413306.5478138365</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I80" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="J80" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3058,11 +3380,19 @@
         <v>-309541.5478138365</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="J81" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3091,11 +3421,19 @@
         <v>-309541.5478138365</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="J82" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3124,11 +3462,19 @@
         <v>-203328.1248138365</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I83" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="J83" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3157,11 +3503,19 @@
         <v>-203328.1248138365</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I84" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="J84" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3193,8 +3547,14 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3226,8 +3586,14 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3259,8 +3625,14 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3289,11 +3661,17 @@
         <v>471620.4070861634</v>
       </c>
       <c r="H88" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3322,11 +3700,17 @@
         <v>863053.3886861634</v>
       </c>
       <c r="H89" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3358,8 +3742,14 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3388,11 +3778,17 @@
         <v>2351985.691586163</v>
       </c>
       <c r="H91" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3421,11 +3817,17 @@
         <v>2180215.522886164</v>
       </c>
       <c r="H92" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3454,11 +3856,17 @@
         <v>2183753.522886164</v>
       </c>
       <c r="H93" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3487,11 +3895,17 @@
         <v>2183763.522886164</v>
       </c>
       <c r="H94" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3520,11 +3934,17 @@
         <v>2175737.003886164</v>
       </c>
       <c r="H95" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3553,11 +3973,17 @@
         <v>2145865.101786164</v>
       </c>
       <c r="H96" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3586,11 +4012,17 @@
         <v>2014077.946486164</v>
       </c>
       <c r="H97" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3619,11 +4051,17 @@
         <v>1792171.414086164</v>
       </c>
       <c r="H98" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3652,11 +4090,17 @@
         <v>1685817.239786164</v>
       </c>
       <c r="H99" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3688,8 +4132,14 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3721,8 +4171,14 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3754,8 +4210,14 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3787,8 +4249,14 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3820,8 +4288,14 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -3850,11 +4324,17 @@
         <v>1884403.885586164</v>
       </c>
       <c r="H105" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -3883,11 +4363,17 @@
         <v>1884403.885586164</v>
       </c>
       <c r="H106" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -3916,11 +4402,17 @@
         <v>1767631.753786164</v>
       </c>
       <c r="H107" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -3949,11 +4441,17 @@
         <v>2124516.114586164</v>
       </c>
       <c r="H108" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -3982,11 +4480,17 @@
         <v>2377716.114586164</v>
       </c>
       <c r="H109" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4015,11 +4519,17 @@
         <v>2377716.114586164</v>
       </c>
       <c r="H110" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4051,8 +4561,14 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4081,11 +4597,17 @@
         <v>2377716.114586164</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4117,8 +4639,14 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4150,8 +4678,14 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4183,8 +4717,14 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4216,8 +4756,14 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4249,8 +4795,14 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4282,8 +4834,14 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4315,8 +4873,14 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4348,8 +4912,14 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4381,8 +4951,14 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4414,8 +4990,14 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4447,8 +5029,14 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4480,8 +5068,14 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4510,11 +5104,17 @@
         <v>2359922.136786163</v>
       </c>
       <c r="H125" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4546,8 +5146,14 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4579,8 +5185,14 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4612,8 +5224,14 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4642,13 +5260,19 @@
         <v>2397691.008786163</v>
       </c>
       <c r="H129" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L129" t="n">
-        <v>1</v>
+        <v>1.040454545454546</v>
       </c>
       <c r="M129" t="inlineStr"/>
     </row>
@@ -4675,7 +5299,7 @@
         <v>2397691.008786163</v>
       </c>
       <c r="H130" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +5332,7 @@
         <v>2316727.671986163</v>
       </c>
       <c r="H131" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +5365,7 @@
         <v>2316710.502186163</v>
       </c>
       <c r="H132" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +5398,7 @@
         <v>2270774.109786164</v>
       </c>
       <c r="H133" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4807,7 +5431,7 @@
         <v>2279159.616286164</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +5464,7 @@
         <v>2259924.813986164</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4873,7 +5497,7 @@
         <v>2259934.813986164</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4906,7 +5530,7 @@
         <v>1899640.146486164</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4939,7 +5563,7 @@
         <v>1640624.803586164</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -4972,7 +5596,7 @@
         <v>1640624.803586164</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5005,7 +5629,7 @@
         <v>1640624.803586164</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5038,7 +5662,7 @@
         <v>1640624.803586164</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5071,7 +5695,7 @@
         <v>1578078.252986164</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5104,7 +5728,7 @@
         <v>2054047.291386164</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5137,7 +5761,7 @@
         <v>1689238.623786164</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5170,7 +5794,7 @@
         <v>1689238.623786164</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5203,7 +5827,7 @@
         <v>1689238.623786164</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5236,7 +5860,7 @@
         <v>1699292.104486163</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5269,7 +5893,7 @@
         <v>1688030.104486163</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5302,7 +5926,7 @@
         <v>1688154.576986163</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5335,7 +5959,7 @@
         <v>1670683.262486163</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5368,7 +5992,7 @@
         <v>1670683.262486163</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5401,7 +6025,7 @@
         <v>1670694.262486163</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5434,7 +6058,7 @@
         <v>2277005.262486164</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5467,7 +6091,7 @@
         <v>2277005.262486164</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5500,7 +6124,7 @@
         <v>2277005.262486164</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5533,7 +6157,7 @@
         <v>2277005.262486164</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5566,7 +6190,7 @@
         <v>2277005.262486164</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5599,7 +6223,7 @@
         <v>2277005.262486164</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5632,7 +6256,7 @@
         <v>2277005.262486164</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5665,7 +6289,7 @@
         <v>2276790.620486164</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5698,7 +6322,7 @@
         <v>2309025.567286164</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5731,7 +6355,7 @@
         <v>2309025.567286164</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5929,7 +6553,7 @@
         <v>2289090.565086164</v>
       </c>
       <c r="H168" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -5962,7 +6586,7 @@
         <v>2289090.565086164</v>
       </c>
       <c r="H169" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -5995,7 +6619,7 @@
         <v>2253617.470886163</v>
       </c>
       <c r="H170" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6457,7 +7081,7 @@
         <v>2203679.442786163</v>
       </c>
       <c r="H184" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6490,7 +7114,7 @@
         <v>2163679.442786163</v>
       </c>
       <c r="H185" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6523,7 +7147,7 @@
         <v>2163689.442786163</v>
       </c>
       <c r="H186" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6589,7 +7213,7 @@
         <v>2160239.353586163</v>
       </c>
       <c r="H188" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6853,7 +7477,7 @@
         <v>2159275.353586163</v>
       </c>
       <c r="H196" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -6985,7 +7609,7 @@
         <v>2156894.583586163</v>
       </c>
       <c r="H200" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7249,7 +7873,7 @@
         <v>2061716.808586163</v>
       </c>
       <c r="H208" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7909,17 +8533,11 @@
         <v>1907621.675386163</v>
       </c>
       <c r="H228" t="n">
-        <v>2</v>
-      </c>
-      <c r="I228" t="n">
-        <v>15.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -7948,17 +8566,11 @@
         <v>1907666.701686163</v>
       </c>
       <c r="H229" t="n">
-        <v>2</v>
-      </c>
-      <c r="I229" t="n">
-        <v>15.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -7987,17 +8599,11 @@
         <v>1907666.701686163</v>
       </c>
       <c r="H230" t="n">
-        <v>2</v>
-      </c>
-      <c r="I230" t="n">
-        <v>15.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8026,17 +8632,11 @@
         <v>1906666.701686163</v>
       </c>
       <c r="H231" t="n">
-        <v>2</v>
-      </c>
-      <c r="I231" t="n">
-        <v>15.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8065,17 +8665,11 @@
         <v>1906676.701686163</v>
       </c>
       <c r="H232" t="n">
-        <v>2</v>
-      </c>
-      <c r="I232" t="n">
-        <v>15.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K232" t="inlineStr"/>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8104,17 +8698,11 @@
         <v>1904865.943386163</v>
       </c>
       <c r="H233" t="n">
-        <v>2</v>
-      </c>
-      <c r="I233" t="n">
-        <v>15.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K233" t="inlineStr"/>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8143,17 +8731,11 @@
         <v>1904865.943386163</v>
       </c>
       <c r="H234" t="n">
-        <v>2</v>
-      </c>
-      <c r="I234" t="n">
-        <v>15.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8182,17 +8764,11 @@
         <v>1905865.943386163</v>
       </c>
       <c r="H235" t="n">
-        <v>2</v>
-      </c>
-      <c r="I235" t="n">
-        <v>15.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8221,23 +8797,17 @@
         <v>1905865.943386163</v>
       </c>
       <c r="H236" t="n">
-        <v>2</v>
-      </c>
-      <c r="I236" t="n">
-        <v>15.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K236" t="inlineStr"/>
       <c r="L236" t="n">
         <v>1</v>
       </c>
       <c r="M236" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-30 BackTest MITH.xlsx
+++ b/BackTest/2019-10-30 BackTest MITH.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -583,14 +583,10 @@
         <v>-263918.1800138365</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="J6" t="n">
-        <v>15.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
@@ -620,19 +616,11 @@
         <v>-263868.1800138365</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="J7" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -664,14 +652,8 @@
         <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -766,14 +748,10 @@
         <v>-265908.0800138365</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="J11" t="n">
-        <v>15.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>1</v>
@@ -803,19 +781,11 @@
         <v>-265898.0800138365</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="J12" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -844,19 +814,11 @@
         <v>-293468.4948138365</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="J13" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -885,14 +847,10 @@
         <v>-293468.4948138365</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="J14" t="n">
-        <v>15.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
         <v>1</v>
@@ -922,19 +880,11 @@
         <v>-204283.5081138365</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="J15" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -966,14 +916,8 @@
         <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -1860,14 +1804,10 @@
         <v>-473463.0307138365</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="J43" t="n">
-        <v>15.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
@@ -1900,1130 +1840,944 @@
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="K44" t="inlineStr">
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="C45" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="D45" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="E45" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="F45" t="n">
+        <v>33717.303</v>
+      </c>
+      <c r="G45" t="n">
+        <v>-439745.7277138365</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="C46" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="D46" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="E46" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="F46" t="n">
+        <v>48035.5902</v>
+      </c>
+      <c r="G46" t="n">
+        <v>-439745.7277138365</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="C47" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="D47" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="E47" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="F47" t="n">
+        <v>86327.4562</v>
+      </c>
+      <c r="G47" t="n">
+        <v>-439745.7277138365</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="C48" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="D48" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="E48" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="F48" t="n">
+        <v>4394.2731</v>
+      </c>
+      <c r="G48" t="n">
+        <v>-439745.7277138365</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="C49" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="D49" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="E49" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="F49" t="n">
+        <v>10000</v>
+      </c>
+      <c r="G49" t="n">
+        <v>-439745.7277138365</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="C50" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="D50" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="E50" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="F50" t="n">
+        <v>249715.2588</v>
+      </c>
+      <c r="G50" t="n">
+        <v>-190030.4689138365</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="C51" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="D51" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="E51" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="F51" t="n">
+        <v>4277.18</v>
+      </c>
+      <c r="G51" t="n">
+        <v>-190030.4689138365</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="C52" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="D52" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="E52" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="F52" t="n">
+        <v>116171.152</v>
+      </c>
+      <c r="G52" t="n">
+        <v>-190030.4689138365</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="C53" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="D53" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="E53" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="F53" t="n">
+        <v>13501</v>
+      </c>
+      <c r="G53" t="n">
+        <v>-190030.4689138365</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="C54" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="D54" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="E54" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="F54" t="n">
+        <v>88160</v>
+      </c>
+      <c r="G54" t="n">
+        <v>-190030.4689138365</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="C55" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="D55" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="E55" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="F55" t="n">
+        <v>35494.667</v>
+      </c>
+      <c r="G55" t="n">
+        <v>-190030.4689138365</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="C56" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="D56" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="E56" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="F56" t="n">
+        <v>98569.9559</v>
+      </c>
+      <c r="G56" t="n">
+        <v>-190030.4689138365</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="C57" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="D57" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="E57" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="F57" t="n">
+        <v>6009.5512</v>
+      </c>
+      <c r="G57" t="n">
+        <v>-190030.4689138365</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="C58" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="D58" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="E58" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="F58" t="n">
+        <v>10000</v>
+      </c>
+      <c r="G58" t="n">
+        <v>-190030.4689138365</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="C59" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="D59" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="E59" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="F59" t="n">
+        <v>8198.858899999999</v>
+      </c>
+      <c r="G59" t="n">
+        <v>-190030.4689138365</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="C60" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="D60" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="E60" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="F60" t="n">
+        <v>17569.7791</v>
+      </c>
+      <c r="G60" t="n">
+        <v>-190030.4689138365</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="C61" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="D61" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="E61" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="F61" t="n">
+        <v>16846.7292</v>
+      </c>
+      <c r="G61" t="n">
+        <v>-190030.4689138365</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="C62" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="D62" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="E62" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="F62" t="n">
+        <v>1923.0769</v>
+      </c>
+      <c r="G62" t="n">
+        <v>-190030.4689138365</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="C63" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="D63" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="E63" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="F63" t="n">
+        <v>14812.2828</v>
+      </c>
+      <c r="G63" t="n">
+        <v>-190030.4689138365</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="C64" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="D64" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="E64" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="F64" t="n">
+        <v>121085.153</v>
+      </c>
+      <c r="G64" t="n">
+        <v>-190030.4689138365</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="C65" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="D65" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="E65" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="F65" t="n">
+        <v>142610.3224</v>
+      </c>
+      <c r="G65" t="n">
+        <v>-332640.7913138365</v>
+      </c>
+      <c r="H65" t="n">
+        <v>0</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="C66" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="D66" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="E66" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="F66" t="n">
+        <v>30200</v>
+      </c>
+      <c r="G66" t="n">
+        <v>-302440.7913138365</v>
+      </c>
+      <c r="H66" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="C67" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="D67" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="E67" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="F67" t="n">
+        <v>50095.5629</v>
+      </c>
+      <c r="G67" t="n">
+        <v>-352536.3542138365</v>
+      </c>
+      <c r="H67" t="n">
+        <v>0</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="C68" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="D68" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="E68" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="F68" t="n">
+        <v>3787.176</v>
+      </c>
+      <c r="G68" t="n">
+        <v>-352536.3542138365</v>
+      </c>
+      <c r="H68" t="n">
+        <v>0</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="C69" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="D69" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="E69" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="F69" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G69" t="n">
+        <v>-352536.3542138365</v>
+      </c>
+      <c r="H69" t="n">
+        <v>0</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="C70" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="D70" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="E70" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="F70" t="n">
+        <v>3000</v>
+      </c>
+      <c r="G70" t="n">
+        <v>-352536.3542138365</v>
+      </c>
+      <c r="H70" t="n">
+        <v>0</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="C71" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="D71" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="E71" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="F71" t="n">
+        <v>3000</v>
+      </c>
+      <c r="G71" t="n">
+        <v>-352536.3542138365</v>
+      </c>
+      <c r="H71" t="n">
+        <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="J71" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="C72" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="D72" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="E72" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="F72" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="G72" t="n">
+        <v>-352536.3542138365</v>
+      </c>
+      <c r="H72" t="n">
+        <v>1</v>
+      </c>
+      <c r="I72" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="J72" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="K72" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="C45" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="D45" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="E45" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="F45" t="n">
-        <v>33717.303</v>
-      </c>
-      <c r="G45" t="n">
-        <v>-439745.7277138365</v>
-      </c>
-      <c r="H45" t="n">
-        <v>1</v>
-      </c>
-      <c r="I45" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="J45" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="C46" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="D46" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="E46" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="F46" t="n">
-        <v>48035.5902</v>
-      </c>
-      <c r="G46" t="n">
-        <v>-439745.7277138365</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="C47" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="D47" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="E47" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="F47" t="n">
-        <v>86327.4562</v>
-      </c>
-      <c r="G47" t="n">
-        <v>-439745.7277138365</v>
-      </c>
-      <c r="H47" t="n">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="J47" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
-    </row>
-    <row r="48">
-      <c r="A48" s="1" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="C48" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="D48" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="E48" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="F48" t="n">
-        <v>4394.2731</v>
-      </c>
-      <c r="G48" t="n">
-        <v>-439745.7277138365</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
-    </row>
-    <row r="49">
-      <c r="A49" s="1" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="C49" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="D49" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="E49" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="F49" t="n">
-        <v>10000</v>
-      </c>
-      <c r="G49" t="n">
-        <v>-439745.7277138365</v>
-      </c>
-      <c r="H49" t="n">
-        <v>1</v>
-      </c>
-      <c r="I49" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="J49" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
-    </row>
-    <row r="50">
-      <c r="A50" s="1" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="C50" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="D50" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="E50" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="F50" t="n">
-        <v>249715.2588</v>
-      </c>
-      <c r="G50" t="n">
-        <v>-190030.4689138365</v>
-      </c>
-      <c r="H50" t="n">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="J50" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
-    </row>
-    <row r="51">
-      <c r="A51" s="1" t="n">
-        <v>49</v>
-      </c>
-      <c r="B51" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="C51" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="D51" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="E51" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="F51" t="n">
-        <v>4277.18</v>
-      </c>
-      <c r="G51" t="n">
-        <v>-190030.4689138365</v>
-      </c>
-      <c r="H51" t="n">
-        <v>1</v>
-      </c>
-      <c r="I51" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="J51" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="C52" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="D52" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="E52" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="F52" t="n">
-        <v>116171.152</v>
-      </c>
-      <c r="G52" t="n">
-        <v>-190030.4689138365</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="C53" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="D53" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="E53" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="F53" t="n">
-        <v>13501</v>
-      </c>
-      <c r="G53" t="n">
-        <v>-190030.4689138365</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="C54" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="D54" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="E54" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="F54" t="n">
-        <v>88160</v>
-      </c>
-      <c r="G54" t="n">
-        <v>-190030.4689138365</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="C55" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="D55" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="E55" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="F55" t="n">
-        <v>35494.667</v>
-      </c>
-      <c r="G55" t="n">
-        <v>-190030.4689138365</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="C56" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="D56" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="E56" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="F56" t="n">
-        <v>98569.9559</v>
-      </c>
-      <c r="G56" t="n">
-        <v>-190030.4689138365</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="C57" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="D57" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="E57" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="F57" t="n">
-        <v>6009.5512</v>
-      </c>
-      <c r="G57" t="n">
-        <v>-190030.4689138365</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="n">
-        <v>56</v>
-      </c>
-      <c r="B58" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="C58" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="D58" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="E58" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="F58" t="n">
-        <v>10000</v>
-      </c>
-      <c r="G58" t="n">
-        <v>-190030.4689138365</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="n">
-        <v>57</v>
-      </c>
-      <c r="B59" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="C59" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="D59" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="E59" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="F59" t="n">
-        <v>8198.858899999999</v>
-      </c>
-      <c r="G59" t="n">
-        <v>-190030.4689138365</v>
-      </c>
-      <c r="H59" t="n">
-        <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="J59" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="n">
-        <v>58</v>
-      </c>
-      <c r="B60" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="C60" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="D60" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="E60" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="F60" t="n">
-        <v>17569.7791</v>
-      </c>
-      <c r="G60" t="n">
-        <v>-190030.4689138365</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="n">
-        <v>59</v>
-      </c>
-      <c r="B61" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="C61" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="D61" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="E61" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="F61" t="n">
-        <v>16846.7292</v>
-      </c>
-      <c r="G61" t="n">
-        <v>-190030.4689138365</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="n">
-        <v>60</v>
-      </c>
-      <c r="B62" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="C62" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="D62" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="E62" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="F62" t="n">
-        <v>1923.0769</v>
-      </c>
-      <c r="G62" t="n">
-        <v>-190030.4689138365</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="n">
-        <v>61</v>
-      </c>
-      <c r="B63" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="C63" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="D63" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="E63" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="F63" t="n">
-        <v>14812.2828</v>
-      </c>
-      <c r="G63" t="n">
-        <v>-190030.4689138365</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="n">
-        <v>62</v>
-      </c>
-      <c r="B64" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="C64" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="D64" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="E64" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="F64" t="n">
-        <v>121085.153</v>
-      </c>
-      <c r="G64" t="n">
-        <v>-190030.4689138365</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="n">
-        <v>63</v>
-      </c>
-      <c r="B65" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="C65" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="D65" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="E65" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="F65" t="n">
-        <v>142610.3224</v>
-      </c>
-      <c r="G65" t="n">
-        <v>-332640.7913138365</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="n">
-        <v>64</v>
-      </c>
-      <c r="B66" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="C66" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="D66" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="E66" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="F66" t="n">
-        <v>30200</v>
-      </c>
-      <c r="G66" t="n">
-        <v>-302440.7913138365</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="n">
-        <v>65</v>
-      </c>
-      <c r="B67" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="C67" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="D67" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="E67" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="F67" t="n">
-        <v>50095.5629</v>
-      </c>
-      <c r="G67" t="n">
-        <v>-352536.3542138365</v>
-      </c>
-      <c r="H67" t="n">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="J67" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="n">
-        <v>66</v>
-      </c>
-      <c r="B68" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="C68" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="D68" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="E68" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="F68" t="n">
-        <v>3787.176</v>
-      </c>
-      <c r="G68" t="n">
-        <v>-352536.3542138365</v>
-      </c>
-      <c r="H68" t="n">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="J68" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="n">
-        <v>67</v>
-      </c>
-      <c r="B69" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="C69" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="D69" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="E69" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="F69" t="n">
-        <v>2000</v>
-      </c>
-      <c r="G69" t="n">
-        <v>-352536.3542138365</v>
-      </c>
-      <c r="H69" t="n">
-        <v>1</v>
-      </c>
-      <c r="I69" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="J69" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="n">
-        <v>68</v>
-      </c>
-      <c r="B70" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="C70" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="D70" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="E70" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="F70" t="n">
-        <v>3000</v>
-      </c>
-      <c r="G70" t="n">
-        <v>-352536.3542138365</v>
-      </c>
-      <c r="H70" t="n">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="J70" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="n">
-        <v>69</v>
-      </c>
-      <c r="B71" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="C71" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="D71" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="E71" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="F71" t="n">
-        <v>3000</v>
-      </c>
-      <c r="G71" t="n">
-        <v>-352536.3542138365</v>
-      </c>
-      <c r="H71" t="n">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="J71" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="n">
-        <v>70</v>
-      </c>
-      <c r="B72" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="C72" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="D72" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="E72" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="F72" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="G72" t="n">
-        <v>-352536.3542138365</v>
-      </c>
-      <c r="H72" t="n">
-        <v>1</v>
-      </c>
-      <c r="I72" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="J72" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3062,7 +2816,7 @@
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L73" t="n">
@@ -3134,11 +2888,9 @@
         <v>-372306.5478138365</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
-      </c>
-      <c r="I75" t="n">
-        <v>15.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="n">
         <v>15.4</v>
       </c>
@@ -3257,11 +3009,9 @@
         <v>-413306.5478138365</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>15.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="n">
         <v>15.4</v>
       </c>
@@ -3462,11 +3212,9 @@
         <v>-203328.1248138365</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
-      </c>
-      <c r="I83" t="n">
-        <v>15.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="n">
         <v>15.4</v>
       </c>
@@ -3503,11 +3251,9 @@
         <v>-203328.1248138365</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
-      </c>
-      <c r="I84" t="n">
-        <v>15.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="n">
         <v>15.4</v>
       </c>
@@ -4714,7 +4460,7 @@
         <v>2375489.552086164</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="n">
@@ -4722,11 +4468,11 @@
       </c>
       <c r="K115" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L115" t="n">
-        <v>1</v>
+        <v>1.033961038961039</v>
       </c>
       <c r="M115" t="inlineStr"/>
     </row>
@@ -4753,17 +4499,11 @@
         <v>2382127.750786164</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4792,17 +4532,11 @@
         <v>2422737.750786164</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4831,17 +4565,11 @@
         <v>2372649.682386164</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4870,17 +4598,11 @@
         <v>2372659.682386164</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4909,17 +4631,11 @@
         <v>2372659.682386164</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4948,17 +4664,11 @@
         <v>2372659.682386164</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4990,14 +4700,8 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -5029,14 +4733,8 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -5068,14 +4766,8 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -5107,14 +4799,8 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -5146,14 +4832,8 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -5185,14 +4865,8 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5224,14 +4898,8 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5260,19 +4928,13 @@
         <v>2397691.008786163</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
-        <v>1.040454545454546</v>
+        <v>1</v>
       </c>
       <c r="M129" t="inlineStr"/>
     </row>
@@ -5299,7 +4961,7 @@
         <v>2397691.008786163</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -5332,7 +4994,7 @@
         <v>2316727.671986163</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -5365,7 +5027,7 @@
         <v>2316710.502186163</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -5398,7 +5060,7 @@
         <v>2270774.109786164</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -5431,7 +5093,7 @@
         <v>2279159.616286164</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -5464,7 +5126,7 @@
         <v>2259924.813986164</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -5497,7 +5159,7 @@
         <v>2259934.813986164</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -5530,7 +5192,7 @@
         <v>1899640.146486164</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -5563,7 +5225,7 @@
         <v>1640624.803586164</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -5596,7 +5258,7 @@
         <v>1640624.803586164</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5629,7 +5291,7 @@
         <v>1640624.803586164</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5662,7 +5324,7 @@
         <v>1640624.803586164</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5695,7 +5357,7 @@
         <v>1578078.252986164</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5728,7 +5390,7 @@
         <v>2054047.291386164</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5761,7 +5423,7 @@
         <v>1689238.623786164</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5794,7 +5456,7 @@
         <v>1689238.623786164</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5827,7 +5489,7 @@
         <v>1689238.623786164</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5860,7 +5522,7 @@
         <v>1699292.104486163</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5893,7 +5555,7 @@
         <v>1688030.104486163</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5926,7 +5588,7 @@
         <v>1688154.576986163</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5959,7 +5621,7 @@
         <v>1670683.262486163</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5992,7 +5654,7 @@
         <v>1670683.262486163</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -6025,7 +5687,7 @@
         <v>1670694.262486163</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -6058,7 +5720,7 @@
         <v>2277005.262486164</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -6091,7 +5753,7 @@
         <v>2277005.262486164</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -6124,7 +5786,7 @@
         <v>2277005.262486164</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -6157,7 +5819,7 @@
         <v>2277005.262486164</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -6190,7 +5852,7 @@
         <v>2277005.262486164</v>
       </c>
       <c r="H157" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -6223,7 +5885,7 @@
         <v>2277005.262486164</v>
       </c>
       <c r="H158" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -6256,7 +5918,7 @@
         <v>2277005.262486164</v>
       </c>
       <c r="H159" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -6289,7 +5951,7 @@
         <v>2276790.620486164</v>
       </c>
       <c r="H160" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -6322,7 +5984,7 @@
         <v>2309025.567286164</v>
       </c>
       <c r="H161" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -6355,7 +6017,7 @@
         <v>2309025.567286164</v>
       </c>
       <c r="H162" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -8808,6 +8470,6 @@
       <c r="M236" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-30 BackTest MITH.xlsx
+++ b/BackTest/2019-10-30 BackTest MITH.xlsx
@@ -1870,11 +1870,17 @@
         <v>-439745.7277138365</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I45" t="n">
+        <v>15.4</v>
+      </c>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1903,11 +1909,17 @@
         <v>-439745.7277138365</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>15.5</v>
+      </c>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -1940,7 +1952,11 @@
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -1973,7 +1989,11 @@
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2006,7 +2026,11 @@
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2039,7 +2063,11 @@
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2072,7 +2100,11 @@
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2105,7 +2137,11 @@
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2138,7 +2174,11 @@
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2171,7 +2211,11 @@
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2204,7 +2248,11 @@
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2237,7 +2285,11 @@
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2270,7 +2322,11 @@
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2303,7 +2359,11 @@
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2336,7 +2396,11 @@
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2369,7 +2433,11 @@
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2402,7 +2470,11 @@
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2435,7 +2507,11 @@
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2468,7 +2544,11 @@
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2501,7 +2581,11 @@
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2534,7 +2618,11 @@
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2567,7 +2655,11 @@
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2596,11 +2688,17 @@
         <v>-352536.3542138365</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I67" t="n">
+        <v>15.6</v>
+      </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2629,11 +2727,17 @@
         <v>-352536.3542138365</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I68" t="n">
+        <v>15.4</v>
+      </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2662,11 +2766,17 @@
         <v>-352536.3542138365</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I69" t="n">
+        <v>15.4</v>
+      </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2695,11 +2805,17 @@
         <v>-352536.3542138365</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
+        <v>15.4</v>
+      </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2733,10 +2849,12 @@
       <c r="I71" t="n">
         <v>15.4</v>
       </c>
-      <c r="J71" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="K71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2770,12 +2888,10 @@
       <c r="I72" t="n">
         <v>15.4</v>
       </c>
-      <c r="J72" t="n">
-        <v>15.4</v>
-      </c>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L72" t="n">
@@ -2811,12 +2927,10 @@
       <c r="I73" t="n">
         <v>15.4</v>
       </c>
-      <c r="J73" t="n">
-        <v>15.4</v>
-      </c>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L73" t="n">
@@ -2852,9 +2966,7 @@
       <c r="I74" t="n">
         <v>15.4</v>
       </c>
-      <c r="J74" t="n">
-        <v>15.4</v>
-      </c>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2888,12 +3000,12 @@
         <v>-372306.5478138365</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>15.4</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I75" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2932,9 +3044,7 @@
       <c r="I76" t="n">
         <v>15.4</v>
       </c>
-      <c r="J76" t="n">
-        <v>15.4</v>
-      </c>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2973,9 +3083,7 @@
       <c r="I77" t="n">
         <v>15.4</v>
       </c>
-      <c r="J77" t="n">
-        <v>15.4</v>
-      </c>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3009,12 +3117,12 @@
         <v>-413306.5478138365</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>15.4</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I78" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3053,9 +3161,7 @@
       <c r="I79" t="n">
         <v>15.3</v>
       </c>
-      <c r="J79" t="n">
-        <v>15.4</v>
-      </c>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3094,9 +3200,7 @@
       <c r="I80" t="n">
         <v>15.3</v>
       </c>
-      <c r="J80" t="n">
-        <v>15.4</v>
-      </c>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3135,9 +3239,7 @@
       <c r="I81" t="n">
         <v>15.3</v>
       </c>
-      <c r="J81" t="n">
-        <v>15.4</v>
-      </c>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3176,9 +3278,7 @@
       <c r="I82" t="n">
         <v>15.6</v>
       </c>
-      <c r="J82" t="n">
-        <v>15.4</v>
-      </c>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3215,9 +3315,7 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>15.4</v>
-      </c>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3254,9 +3352,7 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>15.4</v>
-      </c>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3293,9 +3389,7 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>15.4</v>
-      </c>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3332,9 +3426,7 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>15.4</v>
-      </c>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3371,9 +3463,7 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>15.4</v>
-      </c>
+      <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3410,9 +3500,7 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>15.4</v>
-      </c>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3449,9 +3537,7 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>15.4</v>
-      </c>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3488,9 +3574,7 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>15.4</v>
-      </c>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3524,20 +3608,16 @@
         <v>2351985.691586163</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>15.4</v>
-      </c>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
@@ -3563,17 +3643,11 @@
         <v>2180215.522886164</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3605,14 +3679,8 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3644,14 +3712,8 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3683,14 +3745,8 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3722,14 +3778,8 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3761,14 +3811,8 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3800,14 +3844,8 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3839,14 +3877,8 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3878,14 +3910,8 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3917,14 +3943,8 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3956,14 +3976,8 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3995,14 +4009,8 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4034,14 +4042,8 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4073,14 +4075,8 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4112,14 +4108,8 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4151,14 +4141,8 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4190,14 +4174,8 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4229,14 +4207,8 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4268,14 +4240,8 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4307,14 +4273,8 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4346,14 +4306,8 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4385,14 +4339,8 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4421,17 +4369,11 @@
         <v>2375489.552086164</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4460,19 +4402,13 @@
         <v>2375489.552086164</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
-        <v>1.033961038961039</v>
+        <v>1</v>
       </c>
       <c r="M115" t="inlineStr"/>
     </row>
@@ -4499,7 +4435,7 @@
         <v>2382127.750786164</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4532,7 +4468,7 @@
         <v>2422737.750786164</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4697,7 +4633,7 @@
         <v>2372690.484786164</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
